--- a/tools.xlsx
+++ b/tools.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aschiltz003\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aschiltz003\Documents\GitHub\Semantic-Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C4818EF-7203-46DC-B21C-804CFEC3A4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686A8F98-037D-492C-8BB7-92B9D642699E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{AFCE36E2-F631-4322-AF27-256B8B7C0B04}"/>
   </bookViews>
@@ -54,7 +54,7 @@
     <author>tc={DCDA9536-253D-40F8-B2E0-48E37981D0C4}</author>
   </authors>
   <commentList>
-    <comment ref="C28" authorId="0" shapeId="0" xr:uid="{E4166E7B-26B0-4293-A1FC-3DBD843A3AB9}">
+    <comment ref="C29" authorId="0" shapeId="0" xr:uid="{E4166E7B-26B0-4293-A1FC-3DBD843A3AB9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -62,7 +62,7 @@
     Eira interoperable solution, we can add other types of solutions</t>
       </text>
     </comment>
-    <comment ref="F28" authorId="1" shapeId="0" xr:uid="{F43EFB46-A85E-42A9-B464-4DD5440EB3A4}">
+    <comment ref="F29" authorId="1" shapeId="0" xr:uid="{F43EFB46-A85E-42A9-B464-4DD5440EB3A4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -70,7 +70,7 @@
     Some tools are part of multiple components</t>
       </text>
     </comment>
-    <comment ref="G28" authorId="2" shapeId="0" xr:uid="{96042221-7786-4332-8AD4-DB29F1E4167A}">
+    <comment ref="G29" authorId="2" shapeId="0" xr:uid="{96042221-7786-4332-8AD4-DB29F1E4167A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -78,7 +78,7 @@
     Some tools have multiple functionalities</t>
       </text>
     </comment>
-    <comment ref="K28" authorId="3" shapeId="0" xr:uid="{F4B410F8-58FC-48B7-BAE5-2001B2F132D3}">
+    <comment ref="K29" authorId="3" shapeId="0" xr:uid="{F4B410F8-58FC-48B7-BAE5-2001B2F132D3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -89,7 +89,7 @@
     Use a code list</t>
       </text>
     </comment>
-    <comment ref="L28" authorId="4" shapeId="0" xr:uid="{DCDA9536-253D-40F8-B2E0-48E37981D0C4}">
+    <comment ref="L29" authorId="4" shapeId="0" xr:uid="{DCDA9536-253D-40F8-B2E0-48E37981D0C4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="899">
   <si>
     <t>ConceptScheme URI</t>
   </si>
@@ -2798,6 +2798,9 @@
   </si>
   <si>
     <t>2023-09-13</t>
+  </si>
+  <si>
+    <t>softver</t>
   </si>
 </sst>
 </file>
@@ -2907,7 +2910,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -2941,7 +2943,6 @@
     <xf numFmtId="17" fontId="7" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2967,6 +2968,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3289,16 +3296,16 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C28" dT="2024-01-19T10:07:26.49" personId="{2D2E391B-E435-4DA8-9DAB-34053F07345C}" id="{E4166E7B-26B0-4293-A1FC-3DBD843A3AB9}">
+  <threadedComment ref="C29" dT="2024-01-19T10:07:26.49" personId="{2D2E391B-E435-4DA8-9DAB-34053F07345C}" id="{E4166E7B-26B0-4293-A1FC-3DBD843A3AB9}">
     <text>Eira interoperable solution, we can add other types of solutions</text>
   </threadedComment>
-  <threadedComment ref="F28" dT="2024-01-19T11:26:57.48" personId="{2D2E391B-E435-4DA8-9DAB-34053F07345C}" id="{F43EFB46-A85E-42A9-B464-4DD5440EB3A4}">
+  <threadedComment ref="F29" dT="2024-01-19T11:26:57.48" personId="{2D2E391B-E435-4DA8-9DAB-34053F07345C}" id="{F43EFB46-A85E-42A9-B464-4DD5440EB3A4}">
     <text>Some tools are part of multiple components</text>
   </threadedComment>
-  <threadedComment ref="G28" dT="2024-01-19T11:27:17.37" personId="{2D2E391B-E435-4DA8-9DAB-34053F07345C}" id="{96042221-7786-4332-8AD4-DB29F1E4167A}">
+  <threadedComment ref="G29" dT="2024-01-19T11:27:17.37" personId="{2D2E391B-E435-4DA8-9DAB-34053F07345C}" id="{96042221-7786-4332-8AD4-DB29F1E4167A}">
     <text>Some tools have multiple functionalities</text>
   </threadedComment>
-  <threadedComment ref="K28" dT="2024-01-08T10:48:22.35" personId="{2D2E391B-E435-4DA8-9DAB-34053F07345C}" id="{F4B410F8-58FC-48B7-BAE5-2001B2F132D3}">
+  <threadedComment ref="K29" dT="2024-01-08T10:48:22.35" personId="{2D2E391B-E435-4DA8-9DAB-34053F07345C}" id="{F4B410F8-58FC-48B7-BAE5-2001B2F132D3}">
     <text>First: https://op.europa.eu/en/web/eu-vocabularies/concept-scheme/-/resource?uri=http://publications.europa.eu/resource/authority/licence
 Second: https://spdx.org/licenses/</text>
     <extLst>
@@ -3309,10 +3316,10 @@
       </x:ext>
     </extLst>
   </threadedComment>
-  <threadedComment ref="K28" dT="2024-01-19T10:19:35.12" personId="{2D2E391B-E435-4DA8-9DAB-34053F07345C}" id="{307B6CE6-6AB7-4171-9930-93D6107827BE}" parentId="{F4B410F8-58FC-48B7-BAE5-2001B2F132D3}">
+  <threadedComment ref="K29" dT="2024-01-19T10:19:35.12" personId="{2D2E391B-E435-4DA8-9DAB-34053F07345C}" id="{307B6CE6-6AB7-4171-9930-93D6107827BE}" parentId="{F4B410F8-58FC-48B7-BAE5-2001B2F132D3}">
     <text>Use a code list</text>
   </threadedComment>
-  <threadedComment ref="L28" dT="2024-01-08T10:56:42.85" personId="{2D2E391B-E435-4DA8-9DAB-34053F07345C}" id="{DCDA9536-253D-40F8-B2E0-48E37981D0C4}">
+  <threadedComment ref="L29" dT="2024-01-08T10:56:42.85" personId="{2D2E391B-E435-4DA8-9DAB-34053F07345C}" id="{DCDA9536-253D-40F8-B2E0-48E37981D0C4}">
     <text>https://dbpedia.org/ontology/skills
 First: https://esco.ec.europa.eu/en/classification/skill_main</text>
     <extLst>
@@ -3329,3951 +3336,3962 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E901194B-12F3-43EA-8282-C97AC613BB27}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O106"/>
+  <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E101" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29:N105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="24"/>
-    <col min="3" max="3" width="29.44140625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="27" style="24" customWidth="1"/>
-    <col min="5" max="5" width="35.109375" style="24" customWidth="1"/>
-    <col min="6" max="8" width="27" style="24" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="24"/>
-    <col min="13" max="14" width="26.44140625" style="24" customWidth="1"/>
-    <col min="15" max="15" width="25.6640625" style="24" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="39" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="22"/>
+    <col min="3" max="3" width="29.44140625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="27" style="22" customWidth="1"/>
+    <col min="5" max="5" width="35.109375" style="22" customWidth="1"/>
+    <col min="6" max="8" width="27" style="22" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="22"/>
+    <col min="13" max="14" width="26.44140625" style="22" customWidth="1"/>
+    <col min="15" max="15" width="25.6640625" style="22" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="28" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="28" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="28" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="28" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="28" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="28" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="28" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="28" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="28" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="28" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="28" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="28" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+    <row r="16" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>898</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="10"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B18" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="10"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B19" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="10"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="10"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="10"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B22" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="10"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="26" t="s">
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="10"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="10"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="26" t="s">
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B25" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="10"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B26" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="10"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="26" t="s">
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="10"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C27" s="8"/>
-    </row>
-    <row r="28" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
+      <c r="B27" s="25"/>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C28" s="7"/>
+    </row>
+    <row r="29" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D29" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E29" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F29" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G29" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H29" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="J29" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="K29" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="L28" s="9" t="s">
+      <c r="L29" s="8" t="s">
         <v>868</v>
       </c>
-      <c r="M28" s="9" t="s">
+      <c r="M29" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="N28" s="9" t="s">
+      <c r="N29" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="O28" s="9" t="s">
+      <c r="O29" s="8" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="24" t="str">
-        <f t="shared" ref="A29:A60" si="0">_xlfn.CONCAT("https://example.com/tool/",B29)</f>
+    <row r="30" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="22" t="str">
+        <f t="shared" ref="A30:A61" si="0">_xlfn.CONCAT("https://example.com/tool/",B30)</f>
         <v>https://example.com/tool/1</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B30" s="22">
         <v>1</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C30" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D30" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E30" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F30" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G30" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="H29" s="28" t="s">
+      <c r="H30" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="I29" s="31" t="s">
+      <c r="I30" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="J29" s="24" t="s">
+      <c r="J30" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="K29" s="24" t="s">
+      <c r="K30" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="L29" s="24" t="s">
+      <c r="L30" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="M29" s="24" t="s">
+      <c r="M30" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="N29" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B5)</f>
-        <v>SoftVer:1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="24" t="str">
+      <c r="N30" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B5)</f>
+        <v>softver:1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="22" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/2</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B31" s="22">
         <v>2</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C31" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D31" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E31" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F30" s="24" t="s">
+      <c r="F31" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G31" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="H30" s="28" t="s">
+      <c r="H31" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="I30" s="31" t="s">
+      <c r="I31" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="J30" s="24" t="s">
+      <c r="J31" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="K30" s="24" t="s">
+      <c r="K31" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="L30" s="24" t="s">
+      <c r="L31" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="M30" s="25" t="s">
+      <c r="M31" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="N30" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B6)</f>
-        <v>SoftVer:2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="24" t="str">
+      <c r="N31" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B6)</f>
+        <v>softver:2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="22" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/3</v>
       </c>
-      <c r="B31" s="24">
+      <c r="B32" s="22">
         <v>3</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C32" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D32" s="22" t="s">
         <v>871</v>
       </c>
-      <c r="E31" s="24" t="s">
+      <c r="E32" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="F31" s="24" t="s">
+      <c r="F32" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G32" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="H31" s="28" t="s">
+      <c r="H32" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="I31" s="31" t="s">
+      <c r="I32" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="J31" s="24" t="s">
+      <c r="J32" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="K31" s="24" t="s">
+      <c r="K32" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="L31" s="24" t="s">
+      <c r="L32" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="M31" s="25" t="s">
+      <c r="M32" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="N31" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B7)</f>
-        <v>SoftVer:3</v>
-      </c>
-      <c r="O31" s="23" t="s">
+      <c r="N32" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B7)</f>
+        <v>softver:3</v>
+      </c>
+      <c r="O32" s="21" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="72" x14ac:dyDescent="0.3">
-      <c r="A32" s="24" t="str">
+    <row r="33" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="A33" s="22" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/4</v>
       </c>
-      <c r="B32" s="24">
+      <c r="B33" s="22">
         <v>4</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C33" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D33" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="E33" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="F32" s="24" t="s">
+      <c r="F33" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G33" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="H32" s="28" t="s">
+      <c r="H33" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="I32" s="31" t="s">
+      <c r="I33" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="J32" s="24" t="s">
+      <c r="J33" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="K32" s="24" t="s">
+      <c r="K33" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="L32" s="24" t="s">
+      <c r="L33" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="M32" s="25" t="s">
+      <c r="M33" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="N32" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B8)</f>
-        <v>SoftVer:4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="24" t="str">
+      <c r="N33" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B8)</f>
+        <v>softver:4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="22" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/5</v>
       </c>
-      <c r="B33" s="24">
+      <c r="B34" s="22">
         <v>5</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C34" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D34" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="E33" s="24" t="s">
+      <c r="E34" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="F34" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="G34" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="H33" s="28" t="s">
+      <c r="H34" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="I33" s="31" t="s">
+      <c r="I34" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="J33" s="24" t="s">
+      <c r="J34" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="K33" s="24" t="s">
+      <c r="K34" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="L33" s="24" t="s">
+      <c r="L34" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="M33" s="25" t="s">
+      <c r="M34" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="N33" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B9)</f>
-        <v>SoftVer:5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="24" t="str">
+      <c r="N34" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B9)</f>
+        <v>softver:5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="22" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/6</v>
       </c>
-      <c r="B34" s="24">
+      <c r="B35" s="22">
         <v>6</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C35" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D35" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E35" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="F34" s="24" t="s">
+      <c r="F35" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G35" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="H34" s="28" t="s">
+      <c r="H35" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="I34" s="31" t="s">
+      <c r="I35" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="J34" s="24" t="s">
+      <c r="J35" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="K34" s="24" t="s">
+      <c r="K35" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="L34" s="24" t="s">
+      <c r="L35" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="M34" s="25" t="s">
+      <c r="M35" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="N34" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B10)</f>
-        <v>SoftVer:6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="24" t="str">
+      <c r="N35" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B10)</f>
+        <v>softver:6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="22" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/7</v>
       </c>
-      <c r="B35" s="24">
+      <c r="B36" s="22">
         <v>7</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C36" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D36" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="E36" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="24" t="s">
+      <c r="F36" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G36" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="H35" s="23" t="s">
+      <c r="H36" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="I35" s="31" t="s">
+      <c r="I36" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="J35" s="24" t="s">
+      <c r="J36" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="K35" s="23" t="s">
+      <c r="K36" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="L35" s="24" t="s">
+      <c r="L36" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="M35" s="25" t="s">
+      <c r="M36" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="N35" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B11)</f>
-        <v>SoftVer:7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="24" t="str">
+      <c r="N36" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B11)</f>
+        <v>softver:7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="22" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/8</v>
       </c>
-      <c r="B36" s="24">
+      <c r="B37" s="22">
         <v>8</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C37" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D37" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="E37" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="F36" s="24" t="s">
+      <c r="F37" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="G37" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="H36" s="28" t="s">
+      <c r="H37" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="I36" s="31" t="s">
+      <c r="I37" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="J36" s="24" t="s">
+      <c r="J37" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="K36" s="23" t="s">
+      <c r="K37" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="L36" s="24" t="s">
+      <c r="L37" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="M36" s="25" t="s">
+      <c r="M37" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="N36" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B12)</f>
-        <v>SoftVer:8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="24" t="str">
+      <c r="N37" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B12)</f>
+        <v>softver:8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="22" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/9</v>
       </c>
-      <c r="B37" s="24">
+      <c r="B38" s="22">
         <v>9</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C38" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D38" s="22" t="s">
         <v>873</v>
       </c>
-      <c r="E37" s="24" t="s">
+      <c r="E38" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="F37" s="24" t="s">
+      <c r="F38" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="G37" s="24" t="s">
+      <c r="G38" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="H37" s="28" t="s">
+      <c r="H38" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="I37" s="31" t="s">
+      <c r="I38" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="J37" s="24" t="s">
+      <c r="J38" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="K37" s="23" t="s">
+      <c r="K38" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="L37" s="24" t="s">
+      <c r="L38" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="M37" s="25" t="s">
+      <c r="M38" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="N37" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B13)</f>
-        <v>SoftVer:9</v>
-      </c>
-      <c r="O37" t="s">
+      <c r="N38" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B13)</f>
+        <v>softver:9</v>
+      </c>
+      <c r="O38" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="24" t="str">
+    <row r="39" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="22" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/10</v>
       </c>
-      <c r="B38" s="24">
+      <c r="B39" s="22">
         <v>10</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C39" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D39" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="E38" s="24" t="s">
+      <c r="E39" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="F38" s="24" t="s">
+      <c r="F39" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G38" s="24" t="s">
+      <c r="G39" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="H38" s="23" t="s">
+      <c r="H39" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="I38" s="31" t="s">
+      <c r="I39" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="J38" s="24" t="s">
+      <c r="J39" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="K38" s="23" t="s">
+      <c r="K39" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="L38" s="24" t="s">
+      <c r="L39" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="M38" s="25" t="s">
+      <c r="M39" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="N38" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B14)</f>
-        <v>SoftVer:10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="24" t="str">
+      <c r="N39" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B14)</f>
+        <v>softver:10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="22" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/11</v>
       </c>
-      <c r="B39" s="24">
+      <c r="B40" s="22">
         <v>11</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C40" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D40" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="E39" s="24" t="s">
+      <c r="E40" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="F39" s="24" t="s">
+      <c r="F40" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="G39" s="24" t="s">
+      <c r="G40" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="H39" s="23" t="s">
+      <c r="H40" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="I39" s="31" t="s">
+      <c r="I40" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="J39" s="24" t="s">
+      <c r="J40" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="K39" s="23" t="s">
+      <c r="K40" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="L39" s="24" t="s">
+      <c r="L40" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="M39" s="25" t="s">
+      <c r="M40" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="N39" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B15)</f>
-        <v>SoftVer:11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="24" t="str">
+      <c r="N40" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B15)</f>
+        <v>softver:11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="22" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/12</v>
       </c>
-      <c r="B40" s="24">
+      <c r="B41" s="22">
         <v>12</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C41" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D41" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E40" s="24" t="s">
+      <c r="E41" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="F40" s="24" t="s">
+      <c r="F41" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="G40" s="24" t="s">
+      <c r="G41" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="H40" s="28" t="s">
+      <c r="H41" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="I40" s="31" t="s">
+      <c r="I41" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="J40" s="24" t="s">
+      <c r="J41" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="K40" s="23" t="s">
+      <c r="K41" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="L40" s="24" t="s">
+      <c r="L41" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="M40" s="25" t="s">
+      <c r="M41" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="N40" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B16)</f>
-        <v>SoftVer:12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="24" t="str">
+      <c r="N41" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B16)</f>
+        <v>softver:12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="22" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/13</v>
       </c>
-      <c r="B41" s="24">
+      <c r="B42" s="22">
         <v>13</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C42" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D42" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="E41" s="24" t="s">
+      <c r="E42" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F41" s="24" t="s">
+      <c r="F42" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G41" s="24" t="s">
+      <c r="G42" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="H41" s="23" t="s">
+      <c r="H42" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="I41" s="31" t="s">
+      <c r="I42" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="J41" s="24" t="s">
+      <c r="J42" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="K41" s="23" t="s">
+      <c r="K42" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="L41" s="24" t="s">
+      <c r="L42" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="M41" s="25" t="s">
+      <c r="M42" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="N41" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B17)</f>
-        <v>SoftVer:13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="24" t="str">
+      <c r="N42" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B17)</f>
+        <v>softver:13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="22" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/14</v>
       </c>
-      <c r="B42" s="24">
+      <c r="B43" s="22">
         <v>14</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C43" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="D43" s="22" t="s">
         <v>869</v>
       </c>
-      <c r="E42" s="24" t="s">
+      <c r="E43" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="F42" s="24" t="s">
+      <c r="F43" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G43" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="H42" s="23" t="s">
+      <c r="H43" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I42" s="31" t="s">
+      <c r="I43" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="J42" s="24" t="s">
+      <c r="J43" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="K42" s="23" t="s">
+      <c r="K43" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="L42" s="24" t="s">
+      <c r="L43" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="M42" s="25" t="s">
+      <c r="M43" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="N42" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B18)</f>
-        <v>SoftVer:14</v>
-      </c>
-      <c r="O42" t="s">
+      <c r="N43" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B18)</f>
+        <v>softver:14</v>
+      </c>
+      <c r="O43" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="24" t="str">
+    <row r="44" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="22" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/15</v>
       </c>
-      <c r="B43" s="24">
+      <c r="B44" s="22">
         <v>15</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C44" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D44" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="E43" s="24" t="s">
+      <c r="E44" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="F43" s="24" t="s">
+      <c r="F44" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="G43" s="24" t="s">
+      <c r="G44" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="H43" s="23" t="s">
+      <c r="H44" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="I43" s="31" t="s">
+      <c r="I44" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="J43" s="24" t="s">
+      <c r="J44" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="K43" s="23" t="s">
+      <c r="K44" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="L43" s="24" t="s">
+      <c r="L44" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="M43" s="25" t="s">
+      <c r="M44" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="N43" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B19)</f>
-        <v>SoftVer:15</v>
-      </c>
-      <c r="O43" t="s">
+      <c r="N44" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B19)</f>
+        <v>softver:15</v>
+      </c>
+      <c r="O44" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="24" t="str">
+    <row r="45" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="22" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/16</v>
       </c>
-      <c r="B44" s="24">
+      <c r="B45" s="22">
         <v>16</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C45" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="D45" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="E44" s="24" t="s">
+      <c r="E45" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="F44" s="24" t="s">
+      <c r="F45" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="G44" s="24" t="s">
+      <c r="G45" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="H44" s="28" t="s">
+      <c r="H45" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="I44" s="31" t="s">
+      <c r="I45" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="J44" s="24" t="s">
+      <c r="J45" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="K44" s="23" t="s">
+      <c r="K45" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="L44" s="24" t="s">
+      <c r="L45" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="M44" s="25" t="s">
+      <c r="M45" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="N44" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B20)</f>
-        <v>SoftVer:16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="72" x14ac:dyDescent="0.3">
-      <c r="A45" s="24" t="str">
+      <c r="N45" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B20)</f>
+        <v>softver:16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="A46" s="22" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/17</v>
       </c>
-      <c r="B45" s="24">
+      <c r="B46" s="22">
         <v>17</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C46" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="D46" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="E45" s="24" t="s">
+      <c r="E46" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="F45" s="24" t="s">
+      <c r="F46" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G45" s="24" t="s">
+      <c r="G46" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="H45" s="28" t="s">
+      <c r="H46" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="I45" s="31" t="s">
+      <c r="I46" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="J45" s="24" t="s">
+      <c r="J46" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="K45" s="23" t="s">
+      <c r="K46" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="L45" s="24" t="s">
+      <c r="L46" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="M45" s="25" t="s">
+      <c r="M46" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="N45" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B21)</f>
-        <v>SoftVer:17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="24" t="str">
+      <c r="N46" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B21)</f>
+        <v>softver:17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="22" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/18</v>
       </c>
-      <c r="B46" s="24">
+      <c r="B47" s="22">
         <v>18</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C47" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D47" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="E46" s="24" t="s">
+      <c r="E47" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="F46" s="24" t="s">
+      <c r="F47" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G46" s="24" t="s">
+      <c r="G47" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="H46" s="28" t="s">
+      <c r="H47" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="I46" s="31" t="s">
+      <c r="I47" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="J46" s="24" t="s">
+      <c r="J47" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="K46" s="23" t="s">
+      <c r="K47" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="L46" s="24" t="s">
+      <c r="L47" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="M46" s="25" t="s">
+      <c r="M47" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="N46" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B22)</f>
-        <v>SoftVer:18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="24" t="str">
+      <c r="N47" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B22)</f>
+        <v>softver:18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="22" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/19</v>
       </c>
-      <c r="B47" s="24">
+      <c r="B48" s="22">
         <v>19</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C48" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D48" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="E47" s="24" t="s">
+      <c r="E48" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="F47" s="24" t="s">
+      <c r="F48" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G47" s="24" t="s">
+      <c r="G48" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="H47" s="28" t="s">
+      <c r="H48" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="I47" s="31" t="s">
+      <c r="I48" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="J47" s="24" t="s">
+      <c r="J48" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="K47" s="23" t="s">
+      <c r="K48" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="L47" s="24" t="s">
+      <c r="L48" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="M47" s="25" t="s">
+      <c r="M48" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="N47" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B23)</f>
-        <v>SoftVer:19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="24" t="str">
+      <c r="N48" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B23)</f>
+        <v>softver:19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="22" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/20</v>
       </c>
-      <c r="B48" s="24">
+      <c r="B49" s="22">
         <v>20</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C49" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D49" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="E48" s="24" t="s">
+      <c r="E49" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="F48" s="24" t="s">
+      <c r="F49" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G48" s="24" t="s">
+      <c r="G49" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="H48" s="28" t="s">
+      <c r="H49" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="I48" s="31" t="s">
+      <c r="I49" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="J48" s="24" t="s">
+      <c r="J49" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="K48" s="23" t="s">
+      <c r="K49" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="L48" s="24" t="s">
+      <c r="L49" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="M48" s="25" t="s">
+      <c r="M49" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="N48" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B24)</f>
-        <v>SoftVer:20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="24" t="str">
+      <c r="N49" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B24)</f>
+        <v>softver:20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="22" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/21</v>
       </c>
-      <c r="B49" s="24">
+      <c r="B50" s="22">
         <v>21</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C50" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D49" s="24" t="s">
+      <c r="D50" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="E49" s="24" t="s">
+      <c r="E50" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="F49" s="24" t="s">
+      <c r="F50" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="G49" s="24" t="s">
+      <c r="G50" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="H49" s="28" t="s">
+      <c r="H50" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="I49" s="31" t="s">
+      <c r="I50" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="J49" s="24" t="s">
+      <c r="J50" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="K49" s="23" t="s">
+      <c r="K50" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="L49" s="24" t="s">
+      <c r="L50" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="M49" s="25" t="s">
+      <c r="M50" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="N49" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B25)</f>
-        <v>SoftVer:21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" s="14" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="24" t="str">
+      <c r="N50" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B25)</f>
+        <v>softver:21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" s="13" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="22" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/22</v>
       </c>
-      <c r="B50" s="24">
+      <c r="B51" s="22">
         <v>22</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C51" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D50" s="24" t="s">
+      <c r="D51" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="E50" s="24" t="s">
+      <c r="E51" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="F50" s="24" t="s">
+      <c r="F51" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G50" s="24" t="s">
+      <c r="G51" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="H50" s="28" t="s">
+      <c r="H51" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="I50" s="31" t="s">
+      <c r="I51" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="J50" s="24" t="s">
+      <c r="J51" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="K50" s="23" t="s">
+      <c r="K51" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="L50" s="24" t="s">
+      <c r="L51" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="M50" s="25" t="s">
+      <c r="M51" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="N50" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B26)</f>
-        <v>SoftVer:22</v>
-      </c>
-      <c r="O50" t="s">
+      <c r="N51" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B26)</f>
+        <v>softver:22</v>
+      </c>
+      <c r="O51" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="72" x14ac:dyDescent="0.3">
-      <c r="A51" s="24" t="str">
+    <row r="52" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="A52" s="22" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/23</v>
       </c>
-      <c r="B51" s="24">
+      <c r="B52" s="22">
         <v>23</v>
       </c>
-      <c r="C51" s="24" t="s">
+      <c r="C52" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D51" s="24" t="s">
+      <c r="D52" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="E51" s="24" t="s">
+      <c r="E52" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="F51" s="24" t="s">
+      <c r="F52" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="G51" s="24" t="s">
+      <c r="G52" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="H51" s="28" t="s">
+      <c r="H52" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="I51" s="31" t="s">
+      <c r="I52" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="J51" s="24" t="s">
+      <c r="J52" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="K51" s="23" t="s">
+      <c r="K52" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="L51" s="24" t="s">
+      <c r="L52" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="M51" s="25" t="s">
+      <c r="M52" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="N51" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B27)</f>
-        <v>SoftVer:23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="72" x14ac:dyDescent="0.3">
-      <c r="A52" s="24" t="str">
+      <c r="N52" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B27)</f>
+        <v>softver:23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="A53" s="22" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/24</v>
       </c>
-      <c r="B52" s="24">
+      <c r="B53" s="22">
         <v>24</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C53" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D52" s="24" t="s">
+      <c r="D53" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="E52" s="24" t="s">
+      <c r="E53" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="F52" s="24" t="s">
+      <c r="F53" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="G52" s="24" t="s">
+      <c r="G53" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="H52" s="23" t="s">
+      <c r="H53" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="I52" s="31" t="s">
+      <c r="I53" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="J52" s="24" t="s">
+      <c r="J53" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="K52" s="23" t="s">
+      <c r="K53" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="L52" s="24" t="s">
+      <c r="L53" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="M52" s="25" t="s">
+      <c r="M53" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="N52" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B28)</f>
-        <v>SoftVer:24</v>
-      </c>
-      <c r="O52" t="s">
+      <c r="N53" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B28)</f>
+        <v>softver:24</v>
+      </c>
+      <c r="O53" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="72" x14ac:dyDescent="0.3">
-      <c r="A53" s="24" t="str">
+    <row r="54" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="A54" s="22" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/25</v>
       </c>
-      <c r="B53" s="24">
+      <c r="B54" s="22">
         <v>25</v>
       </c>
-      <c r="C53" s="24" t="s">
+      <c r="C54" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D53" s="24" t="s">
+      <c r="D54" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="E53" s="24" t="s">
+      <c r="E54" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="F53" s="24" t="s">
+      <c r="F54" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G53" s="24" t="s">
+      <c r="G54" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="H53" s="23" t="s">
+      <c r="H54" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="I53" s="31" t="s">
+      <c r="I54" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="J53" s="24" t="s">
+      <c r="J54" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="K53" s="23" t="s">
+      <c r="K54" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="L53" s="24" t="s">
+      <c r="L54" s="22" t="s">
         <v>867</v>
       </c>
-      <c r="M53" s="25" t="s">
+      <c r="M54" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="N53" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B29)</f>
-        <v>SoftVer:25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="24" t="str">
+      <c r="N54" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B29)</f>
+        <v>softver:25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="22" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/26</v>
       </c>
-      <c r="B54" s="24">
+      <c r="B55" s="22">
         <v>26</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="C55" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D55" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="E54" s="24" t="s">
+      <c r="E55" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="F54" s="24" t="s">
+      <c r="F55" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="G54" s="24" t="s">
+      <c r="G55" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="H54" s="28" t="s">
+      <c r="H55" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="I54" s="31" t="s">
+      <c r="I55" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="J54" s="24" t="s">
+      <c r="J55" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="K54" s="23" t="s">
+      <c r="K55" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="L54" s="24" t="s">
+      <c r="L55" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="M54" s="25" t="s">
+      <c r="M55" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="N54" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B30)</f>
-        <v>SoftVer:26</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="24" t="str">
+      <c r="N55" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B30)</f>
+        <v>softver:26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="22" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/27</v>
       </c>
-      <c r="B55" s="24">
+      <c r="B56" s="22">
         <v>27</v>
       </c>
-      <c r="C55" s="24" t="s">
+      <c r="C56" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D55" s="24" t="s">
+      <c r="D56" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="E55" s="24" t="s">
+      <c r="E56" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="F55" s="24" t="s">
+      <c r="F56" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="G55" s="24" t="s">
+      <c r="G56" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="H55" s="28" t="s">
+      <c r="H56" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="I55" s="31" t="s">
+      <c r="I56" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="J55" s="24" t="s">
+      <c r="J56" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="K55" s="23" t="s">
+      <c r="K56" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="L55" s="24" t="s">
+      <c r="L56" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="M55" s="25" t="s">
+      <c r="M56" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="N55" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B31)</f>
-        <v>SoftVer:27</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="24" t="str">
+      <c r="N56" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B31)</f>
+        <v>softver:27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="22" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/28</v>
       </c>
-      <c r="B56" s="24">
+      <c r="B57" s="22">
         <v>28</v>
       </c>
-      <c r="C56" s="24" t="s">
+      <c r="C57" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D56" s="24" t="s">
+      <c r="D57" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="E56" s="24" t="s">
+      <c r="E57" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="F56" s="24" t="s">
+      <c r="F57" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G56" s="24" t="s">
+      <c r="G57" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="H56" s="28" t="s">
+      <c r="H57" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="I56" s="31" t="s">
+      <c r="I57" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="J56" s="24" t="s">
+      <c r="J57" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="K56" s="23" t="s">
+      <c r="K57" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="L56" s="24" t="s">
+      <c r="L57" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="M56" s="25" t="s">
+      <c r="M57" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="N56" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B32)</f>
-        <v>SoftVer:28</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A57" s="24" t="str">
+      <c r="N57" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B32)</f>
+        <v>softver:28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="22" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/29</v>
       </c>
-      <c r="B57" s="24">
+      <c r="B58" s="22">
         <v>29</v>
       </c>
-      <c r="C57" s="24" t="s">
+      <c r="C58" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D57" s="24" t="s">
+      <c r="D58" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="E57" s="24" t="s">
+      <c r="E58" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="F57" s="24" t="s">
+      <c r="F58" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G57" s="24" t="s">
+      <c r="G58" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="H57" s="28" t="s">
+      <c r="H58" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="I57" s="31" t="s">
+      <c r="I58" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="J57" s="24" t="s">
+      <c r="J58" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="K57" s="23" t="s">
+      <c r="K58" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="L57" s="24" t="s">
+      <c r="L58" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="M57" s="25" t="s">
+      <c r="M58" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="N57" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B33)</f>
-        <v>SoftVer:29</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="24" t="str">
+      <c r="N58" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B33)</f>
+        <v>softver:29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="22" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/30</v>
       </c>
-      <c r="B58" s="24">
+      <c r="B59" s="22">
         <v>30</v>
       </c>
-      <c r="C58" s="24" t="s">
+      <c r="C59" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D58" s="24" t="s">
+      <c r="D59" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="E58" s="24" t="s">
+      <c r="E59" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="F58" s="24" t="s">
+      <c r="F59" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="G58" s="24" t="s">
+      <c r="G59" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="H58" s="28" t="s">
+      <c r="H59" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="I58" s="31" t="s">
+      <c r="I59" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="J58" s="24" t="s">
+      <c r="J59" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="K58" s="23" t="s">
+      <c r="K59" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="L58" s="24" t="s">
+      <c r="L59" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="M58" s="25" t="s">
+      <c r="M59" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="N58" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B34)</f>
-        <v>SoftVer:30</v>
-      </c>
-      <c r="O58" s="29"/>
-    </row>
-    <row r="59" spans="1:15" s="14" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A59" s="24" t="str">
+      <c r="N59" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B34)</f>
+        <v>softver:30</v>
+      </c>
+      <c r="O59" s="27"/>
+    </row>
+    <row r="60" spans="1:15" s="13" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A60" s="22" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/31</v>
       </c>
-      <c r="B59" s="24">
+      <c r="B60" s="22">
         <v>31</v>
       </c>
-      <c r="C59" s="24" t="s">
+      <c r="C60" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D59" s="24" t="s">
+      <c r="D60" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="E59" s="24" t="s">
+      <c r="E60" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="F59" s="24" t="s">
+      <c r="F60" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="G59" s="24" t="s">
+      <c r="G60" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="H59" s="28" t="s">
+      <c r="H60" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="I59" s="31" t="s">
+      <c r="I60" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="J59" s="24" t="s">
+      <c r="J60" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="K59" s="23" t="s">
+      <c r="K60" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="L59" s="24" t="s">
+      <c r="L60" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="M59" s="25" t="s">
+      <c r="M60" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="N59" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B35)</f>
-        <v>SoftVer:31</v>
-      </c>
-      <c r="O59" s="29"/>
-    </row>
-    <row r="60" spans="1:15" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="24" t="str">
+      <c r="N60" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B35)</f>
+        <v>softver:31</v>
+      </c>
+      <c r="O60" s="27"/>
+    </row>
+    <row r="61" spans="1:15" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="22" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/32</v>
       </c>
-      <c r="B60" s="24">
+      <c r="B61" s="22">
         <v>32</v>
       </c>
-      <c r="C60" s="24" t="s">
+      <c r="C61" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D60" s="24" t="s">
+      <c r="D61" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="E60" s="24" t="s">
+      <c r="E61" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="F60" s="24" t="s">
+      <c r="F61" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="G60" s="24" t="s">
+      <c r="G61" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="H60" s="28" t="s">
+      <c r="H61" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="I60" s="31" t="s">
+      <c r="I61" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="J60" s="24" t="s">
+      <c r="J61" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="K60" s="23" t="s">
+      <c r="K61" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="L60" s="24" t="s">
+      <c r="L61" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="M60" s="25" t="s">
+      <c r="M61" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="N60" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B36)</f>
-        <v>SoftVer:32</v>
-      </c>
-      <c r="O60" s="29"/>
-    </row>
-    <row r="61" spans="1:15" s="14" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="24" t="str">
-        <f t="shared" ref="A61:A92" si="1">_xlfn.CONCAT("https://example.com/tool/",B61)</f>
+      <c r="N61" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B36)</f>
+        <v>softver:32</v>
+      </c>
+      <c r="O61" s="27"/>
+    </row>
+    <row r="62" spans="1:15" s="13" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="22" t="str">
+        <f t="shared" ref="A62:A93" si="1">_xlfn.CONCAT("https://example.com/tool/",B62)</f>
         <v>https://example.com/tool/33</v>
       </c>
-      <c r="B61" s="24">
+      <c r="B62" s="22">
         <v>33</v>
       </c>
-      <c r="C61" s="24" t="s">
+      <c r="C62" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D61" s="24" t="s">
+      <c r="D62" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="E61" s="24" t="s">
+      <c r="E62" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="F61" s="24" t="s">
+      <c r="F62" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G61" s="24" t="s">
+      <c r="G62" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="H61" s="28" t="s">
+      <c r="H62" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="I61" s="31" t="s">
+      <c r="I62" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="J61" s="24" t="s">
+      <c r="J62" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="K61" s="23" t="s">
+      <c r="K62" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="L61" s="24" t="s">
+      <c r="L62" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="M61" s="25" t="s">
+      <c r="M62" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="N61" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B37)</f>
-        <v>SoftVer:33</v>
-      </c>
-      <c r="O61" s="29"/>
-    </row>
-    <row r="62" spans="1:15" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="24" t="str">
+      <c r="N62" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B37)</f>
+        <v>softver:33</v>
+      </c>
+      <c r="O62" s="27"/>
+    </row>
+    <row r="63" spans="1:15" s="13" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="22" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/34</v>
       </c>
-      <c r="B62" s="24">
+      <c r="B63" s="22">
         <v>34</v>
       </c>
-      <c r="C62" s="24" t="s">
+      <c r="C63" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D62" s="24" t="s">
+      <c r="D63" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="E62" s="24" t="s">
+      <c r="E63" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="F62" s="24" t="s">
+      <c r="F63" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G62" s="24" t="s">
+      <c r="G63" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="H62" s="23" t="s">
+      <c r="H63" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="I62" s="31" t="s">
+      <c r="I63" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="J62" s="24" t="s">
+      <c r="J63" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="K62" s="23" t="s">
+      <c r="K63" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="L62" s="24" t="s">
+      <c r="L63" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="M62" s="25" t="s">
+      <c r="M63" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="N62" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B38)</f>
-        <v>SoftVer:34</v>
-      </c>
-      <c r="O62" s="29"/>
-    </row>
-    <row r="63" spans="1:15" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="24" t="str">
+      <c r="N63" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B38)</f>
+        <v>softver:34</v>
+      </c>
+      <c r="O63" s="27"/>
+    </row>
+    <row r="64" spans="1:15" s="13" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="22" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/35</v>
       </c>
-      <c r="B63" s="24">
+      <c r="B64" s="22">
         <v>35</v>
       </c>
-      <c r="C63" s="24" t="s">
+      <c r="C64" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D63" s="24" t="s">
+      <c r="D64" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="E63" s="24" t="s">
+      <c r="E64" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="F63" s="24" t="s">
+      <c r="F64" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G63" s="24" t="s">
+      <c r="G64" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="H63" s="28" t="s">
+      <c r="H64" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="I63" s="31" t="s">
+      <c r="I64" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="J63" s="24" t="s">
+      <c r="J64" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="K63" s="23" t="s">
+      <c r="K64" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="L63" s="24" t="s">
+      <c r="L64" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="M63" s="25" t="s">
+      <c r="M64" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="N63" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B39)</f>
-        <v>SoftVer:35</v>
-      </c>
-      <c r="O63" s="29"/>
-    </row>
-    <row r="64" spans="1:15" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="24" t="str">
+      <c r="N64" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B39)</f>
+        <v>softver:35</v>
+      </c>
+      <c r="O64" s="27"/>
+    </row>
+    <row r="65" spans="1:15" s="13" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="22" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/36</v>
       </c>
-      <c r="B64" s="24">
+      <c r="B65" s="22">
         <v>36</v>
       </c>
-      <c r="C64" s="24" t="s">
+      <c r="C65" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D64" s="24" t="s">
+      <c r="D65" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="E64" s="24" t="s">
+      <c r="E65" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="F64" s="24" t="s">
+      <c r="F65" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G64" s="24" t="s">
+      <c r="G65" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="H64" s="23" t="s">
+      <c r="H65" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="I64" s="31" t="s">
+      <c r="I65" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="J64" s="24" t="s">
+      <c r="J65" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="K64" s="23" t="s">
+      <c r="K65" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="L64" s="24" t="s">
+      <c r="L65" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="M64" s="25" t="s">
+      <c r="M65" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="N64" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B40)</f>
-        <v>SoftVer:36</v>
-      </c>
-      <c r="O64" s="29"/>
-    </row>
-    <row r="65" spans="1:15" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A65" s="24" t="str">
+      <c r="N65" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B40)</f>
+        <v>softver:36</v>
+      </c>
+      <c r="O65" s="27"/>
+    </row>
+    <row r="66" spans="1:15" s="13" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A66" s="22" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/37</v>
       </c>
-      <c r="B65" s="24">
+      <c r="B66" s="22">
         <v>37</v>
       </c>
-      <c r="C65" s="24" t="s">
+      <c r="C66" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D65" s="24" t="s">
+      <c r="D66" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="E65" s="24" t="s">
+      <c r="E66" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="F65" s="24" t="s">
+      <c r="F66" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="G65" s="24" t="s">
+      <c r="G66" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="H65" s="28" t="s">
+      <c r="H66" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="I65" s="31" t="s">
+      <c r="I66" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="J65" s="24" t="s">
+      <c r="J66" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="K65" s="23" t="s">
+      <c r="K66" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="L65" s="24" t="s">
+      <c r="L66" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="M65" s="25" t="s">
+      <c r="M66" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="N65" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B41)</f>
-        <v>SoftVer:37</v>
-      </c>
-      <c r="O65" s="29"/>
-    </row>
-    <row r="66" spans="1:15" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A66" s="24" t="str">
+      <c r="N66" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B41)</f>
+        <v>softver:37</v>
+      </c>
+      <c r="O66" s="27"/>
+    </row>
+    <row r="67" spans="1:15" s="13" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="22" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/38</v>
       </c>
-      <c r="B66" s="24">
+      <c r="B67" s="22">
         <v>38</v>
       </c>
-      <c r="C66" s="24" t="s">
+      <c r="C67" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D66" s="24" t="s">
+      <c r="D67" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="E66" s="24" t="s">
+      <c r="E67" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="F66" s="24" t="s">
+      <c r="F67" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G66" s="24" t="s">
+      <c r="G67" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="H66" s="28" t="s">
+      <c r="H67" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="I66" s="31" t="s">
+      <c r="I67" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="J66" s="24" t="s">
+      <c r="J67" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="K66" s="23" t="s">
+      <c r="K67" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="L66" s="24" t="s">
+      <c r="L67" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="M66" s="25" t="s">
+      <c r="M67" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="N66" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B42)</f>
-        <v>SoftVer:38</v>
-      </c>
-      <c r="O66" s="29"/>
-    </row>
-    <row r="67" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A67" s="24" t="str">
+      <c r="N67" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B42)</f>
+        <v>softver:38</v>
+      </c>
+      <c r="O67" s="27"/>
+    </row>
+    <row r="68" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A68" s="22" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/39</v>
       </c>
-      <c r="B67" s="24">
+      <c r="B68" s="22">
         <v>39</v>
       </c>
-      <c r="C67" s="24" t="s">
+      <c r="C68" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D67" s="24" t="s">
+      <c r="D68" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="E67" s="24" t="s">
+      <c r="E68" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="F67" s="24" t="s">
+      <c r="F68" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="G67" s="24" t="s">
+      <c r="G68" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="H67" s="28" t="s">
+      <c r="H68" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="I67" s="31" t="s">
+      <c r="I68" s="29" t="s">
         <v>255</v>
       </c>
-      <c r="J67" s="24" t="s">
+      <c r="J68" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="K67" s="23" t="s">
+      <c r="K68" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="L67" s="24" t="s">
+      <c r="L68" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="M67" s="25" t="s">
+      <c r="M68" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="N67" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B43)</f>
-        <v>SoftVer:39</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A68" s="24" t="str">
+      <c r="N68" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B43)</f>
+        <v>softver:39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A69" s="22" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/40</v>
       </c>
-      <c r="B68" s="24">
+      <c r="B69" s="22">
         <v>40</v>
       </c>
-      <c r="C68" s="24" t="s">
+      <c r="C69" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D68" s="24" t="s">
+      <c r="D69" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="E68" s="24" t="s">
+      <c r="E69" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="F68" s="24" t="s">
+      <c r="F69" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="G68" s="24" t="s">
+      <c r="G69" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="H68" s="28" t="s">
+      <c r="H69" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="I68" s="31" t="s">
+      <c r="I69" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="J68" s="24" t="s">
+      <c r="J69" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="K68" s="23" t="s">
+      <c r="K69" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="L68" s="24" t="s">
+      <c r="L69" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="M68" s="25" t="s">
+      <c r="M69" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="N68" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B44)</f>
-        <v>SoftVer:40</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A69" s="24" t="str">
+      <c r="N69" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B44)</f>
+        <v>softver:40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="22" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/41</v>
       </c>
-      <c r="B69" s="24">
+      <c r="B70" s="22">
         <v>41</v>
       </c>
-      <c r="C69" s="24" t="s">
+      <c r="C70" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D69" s="24" t="s">
+      <c r="D70" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="E69" s="24" t="s">
+      <c r="E70" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="F69" s="24" t="s">
+      <c r="F70" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="G69" s="24" t="s">
+      <c r="G70" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="H69" s="28" t="s">
+      <c r="H70" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="I69" s="31" t="s">
+      <c r="I70" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="J69" s="24" t="s">
+      <c r="J70" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="K69" s="23" t="s">
+      <c r="K70" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="L69" s="24" t="s">
+      <c r="L70" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="M69" s="25" t="s">
+      <c r="M70" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="N69" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B45)</f>
-        <v>SoftVer:41</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="24" t="str">
+      <c r="N70" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B45)</f>
+        <v>softver:41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="22" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/42</v>
       </c>
-      <c r="B70" s="24">
+      <c r="B71" s="22">
         <v>42</v>
       </c>
-      <c r="C70" s="24" t="s">
+      <c r="C71" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D70" s="24" t="s">
+      <c r="D71" s="22" t="s">
         <v>874</v>
       </c>
-      <c r="E70" s="24" t="s">
+      <c r="E71" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="F70" s="24" t="s">
+      <c r="F71" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G70" s="24" t="s">
+      <c r="G71" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="H70" s="28" t="s">
+      <c r="H71" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="I70" s="31" t="s">
+      <c r="I71" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="J70" s="24" t="s">
+      <c r="J71" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="K70" s="23" t="s">
+      <c r="K71" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="L70" s="24" t="s">
+      <c r="L71" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="M70" s="25" t="s">
+      <c r="M71" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="N70" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B46)</f>
-        <v>SoftVer:42</v>
-      </c>
-      <c r="O70" t="s">
+      <c r="N71" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B46)</f>
+        <v>softver:42</v>
+      </c>
+      <c r="O71" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A71" s="24" t="str">
+    <row r="72" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A72" s="22" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/43</v>
       </c>
-      <c r="B71" s="24">
+      <c r="B72" s="22">
         <v>43</v>
       </c>
-      <c r="C71" s="24" t="s">
+      <c r="C72" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D71" s="24" t="s">
+      <c r="D72" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="E71" s="24" t="s">
+      <c r="E72" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="F71" s="24" t="s">
+      <c r="F72" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G71" s="24" t="s">
+      <c r="G72" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="H71" s="28" t="s">
+      <c r="H72" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="I71" s="31" t="s">
+      <c r="I72" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="J71" s="24" t="s">
+      <c r="J72" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="K71" s="23" t="s">
+      <c r="K72" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="L71" s="24" t="s">
+      <c r="L72" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="M71" s="25" t="s">
+      <c r="M72" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="N71" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B47)</f>
-        <v>SoftVer:43</v>
-      </c>
-      <c r="O71" t="s">
+      <c r="N72" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B47)</f>
+        <v>softver:43</v>
+      </c>
+      <c r="O72" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="72" x14ac:dyDescent="0.3">
-      <c r="A72" s="24" t="str">
+    <row r="73" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="A73" s="22" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/44</v>
       </c>
-      <c r="B72" s="24">
+      <c r="B73" s="22">
         <v>44</v>
       </c>
-      <c r="C72" s="24" t="s">
+      <c r="C73" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D72" s="24" t="s">
+      <c r="D73" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="E72" s="24" t="s">
+      <c r="E73" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="F72" s="24" t="s">
+      <c r="F73" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G72" s="24" t="s">
+      <c r="G73" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="H72" s="23" t="s">
+      <c r="H73" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="I72" s="31" t="s">
+      <c r="I73" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="J72" s="24" t="s">
+      <c r="J73" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="K72" s="23" t="s">
+      <c r="K73" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="L72" s="24" t="s">
+      <c r="L73" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="M72" s="25" t="s">
+      <c r="M73" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="N72" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B48)</f>
-        <v>SoftVer:44</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" ht="72" x14ac:dyDescent="0.3">
-      <c r="A73" s="24" t="str">
+      <c r="N73" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B48)</f>
+        <v>softver:44</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="A74" s="22" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/45</v>
       </c>
-      <c r="B73" s="24">
+      <c r="B74" s="22">
         <v>45</v>
       </c>
-      <c r="C73" s="24" t="s">
+      <c r="C74" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D73" s="24" t="s">
+      <c r="D74" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="E73" s="24" t="s">
+      <c r="E74" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="F73" s="24" t="s">
+      <c r="F74" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="G73" s="24" t="s">
+      <c r="G74" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="H73" s="23" t="s">
+      <c r="H74" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="I73" s="31" t="s">
+      <c r="I74" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="J73" s="24" t="s">
+      <c r="J74" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="K73" s="23" t="s">
+      <c r="K74" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="L73" s="24" t="s">
+      <c r="L74" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="M73" s="25" t="s">
+      <c r="M74" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="N73" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B49)</f>
-        <v>SoftVer:45</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" ht="72" x14ac:dyDescent="0.3">
-      <c r="A74" s="24" t="str">
+      <c r="N74" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B49)</f>
+        <v>softver:45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="A75" s="22" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/46</v>
       </c>
-      <c r="B74" s="24">
+      <c r="B75" s="22">
         <v>46</v>
       </c>
-      <c r="C74" s="24" t="s">
+      <c r="C75" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D74" s="24" t="s">
+      <c r="D75" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="E74" s="24" t="s">
+      <c r="E75" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="F74" s="24" t="s">
+      <c r="F75" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="G74" s="24" t="s">
+      <c r="G75" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="H74" s="23" t="s">
+      <c r="H75" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="I74" s="31" t="s">
+      <c r="I75" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="J74" s="24" t="s">
+      <c r="J75" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="K74" s="23" t="s">
+      <c r="K75" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="L74" s="24" t="s">
+      <c r="L75" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="M74" s="25" t="s">
+      <c r="M75" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="N74" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B50)</f>
-        <v>SoftVer:46</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="72" x14ac:dyDescent="0.3">
-      <c r="A75" s="24" t="str">
+      <c r="N75" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B50)</f>
+        <v>softver:46</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="A76" s="22" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/47</v>
       </c>
-      <c r="B75" s="24">
+      <c r="B76" s="22">
         <v>47</v>
       </c>
-      <c r="C75" s="24" t="s">
+      <c r="C76" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D75" s="24" t="s">
+      <c r="D76" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="E75" s="24" t="s">
+      <c r="E76" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="F75" s="24" t="s">
+      <c r="F76" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="G75" s="24" t="s">
+      <c r="G76" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="H75" s="23" t="s">
+      <c r="H76" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="I75" s="31" t="s">
+      <c r="I76" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="J75" s="24" t="s">
+      <c r="J76" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="K75" s="23" t="s">
+      <c r="K76" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="L75" s="24" t="s">
+      <c r="L76" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="M75" s="25" t="s">
+      <c r="M76" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="N75" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B51)</f>
-        <v>SoftVer:47</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A76" s="24" t="str">
+      <c r="N76" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B51)</f>
+        <v>softver:47</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A77" s="22" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/48</v>
       </c>
-      <c r="B76" s="24">
+      <c r="B77" s="22">
         <v>48</v>
       </c>
-      <c r="C76" s="24" t="s">
+      <c r="C77" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D76" s="24" t="s">
+      <c r="D77" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="E76" s="24" t="s">
+      <c r="E77" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="F76" s="24" t="s">
+      <c r="F77" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G76" s="24" t="s">
+      <c r="G77" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="H76" s="28" t="s">
+      <c r="H77" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="I76" s="31" t="s">
+      <c r="I77" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="J76" s="24" t="s">
+      <c r="J77" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="K76" s="23" t="s">
+      <c r="K77" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="L76" s="24" t="s">
+      <c r="L77" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="M76" s="25" t="s">
+      <c r="M77" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="N76" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B52)</f>
-        <v>SoftVer:48</v>
-      </c>
-      <c r="O76" t="s">
+      <c r="N77" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B52)</f>
+        <v>softver:48</v>
+      </c>
+      <c r="O77" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="24" t="str">
+    <row r="78" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="22" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/49</v>
       </c>
-      <c r="B77" s="24">
+      <c r="B78" s="22">
         <v>49</v>
       </c>
-      <c r="C77" s="24" t="s">
+      <c r="C78" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D77" s="24" t="s">
+      <c r="D78" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="E77" s="24" t="s">
+      <c r="E78" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="F77" s="24" t="s">
+      <c r="F78" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G77" s="24" t="s">
+      <c r="G78" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="H77" s="28" t="s">
+      <c r="H78" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="I77" s="31" t="s">
+      <c r="I78" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="J77" s="24" t="s">
+      <c r="J78" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="K77" s="23" t="s">
+      <c r="K78" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="L77" s="24" t="s">
+      <c r="L78" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="M77" s="25" t="s">
+      <c r="M78" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="N77" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B53)</f>
-        <v>SoftVer:49</v>
-      </c>
-      <c r="O77" t="s">
+      <c r="N78" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B53)</f>
+        <v>softver:49</v>
+      </c>
+      <c r="O78" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="78" spans="1:15" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A78" s="24" t="str">
+    <row r="79" spans="1:15" s="13" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A79" s="22" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/50</v>
       </c>
-      <c r="B78" s="24">
+      <c r="B79" s="22">
         <v>50</v>
       </c>
-      <c r="C78" s="24" t="s">
+      <c r="C79" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D78" s="24" t="s">
+      <c r="D79" s="22" t="s">
         <v>870</v>
       </c>
-      <c r="E78" s="24" t="s">
+      <c r="E79" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="F78" s="24" t="s">
+      <c r="F79" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="G78" s="24" t="s">
+      <c r="G79" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="H78" s="23" t="s">
+      <c r="H79" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="I78" s="31" t="s">
+      <c r="I79" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="J78" s="24" t="s">
+      <c r="J79" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="K78" s="23" t="s">
+      <c r="K79" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="L78" s="24" t="s">
+      <c r="L79" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="M78" s="25" t="s">
+      <c r="M79" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="N78" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B54)</f>
-        <v>SoftVer:50</v>
-      </c>
-      <c r="O78" t="s">
+      <c r="N79" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B54)</f>
+        <v>softver:50</v>
+      </c>
+      <c r="O79" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="79" spans="1:15" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="24" t="str">
+    <row r="80" spans="1:15" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="22" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/51</v>
       </c>
-      <c r="B79" s="24">
+      <c r="B80" s="22">
         <v>51</v>
       </c>
-      <c r="C79" s="24" t="s">
+      <c r="C80" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D79" s="24" t="s">
+      <c r="D80" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="E79" s="24" t="s">
+      <c r="E80" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="F79" s="24" t="s">
+      <c r="F80" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="G79" s="24" t="s">
+      <c r="G80" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="H79" s="28" t="s">
+      <c r="H80" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="I79" s="31" t="s">
+      <c r="I80" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="J79" s="24" t="s">
+      <c r="J80" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="K79" s="23" t="s">
+      <c r="K80" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="L79" s="24" t="s">
+      <c r="L80" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="M79" s="25" t="s">
+      <c r="M80" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="N79" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B55)</f>
-        <v>SoftVer:51</v>
-      </c>
-      <c r="O79" s="29"/>
-    </row>
-    <row r="80" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A80" s="24" t="str">
+      <c r="N80" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B55)</f>
+        <v>softver:51</v>
+      </c>
+      <c r="O80" s="27"/>
+    </row>
+    <row r="81" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A81" s="22" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/52</v>
       </c>
-      <c r="B80" s="24">
+      <c r="B81" s="22">
         <v>52</v>
       </c>
-      <c r="C80" s="24" t="s">
+      <c r="C81" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D80" s="24" t="s">
+      <c r="D81" s="22" t="s">
         <v>875</v>
       </c>
-      <c r="E80" s="24" t="s">
+      <c r="E81" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="F80" s="24" t="s">
+      <c r="F81" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="G80" s="24" t="s">
+      <c r="G81" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="H80" s="28" t="s">
+      <c r="H81" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="I80" s="31" t="s">
+      <c r="I81" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="J80" s="24" t="s">
+      <c r="J81" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="K80" s="23" t="s">
+      <c r="K81" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="L80" s="24" t="s">
+      <c r="L81" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="M80" s="25" t="s">
+      <c r="M81" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="N80" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B56)</f>
-        <v>SoftVer:52</v>
-      </c>
-      <c r="O80" t="s">
+      <c r="N81" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B56)</f>
+        <v>softver:52</v>
+      </c>
+      <c r="O81" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A81" s="24" t="str">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A82" s="22" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/53</v>
       </c>
-      <c r="B81" s="24">
+      <c r="B82" s="22">
         <v>53</v>
       </c>
-      <c r="C81" s="24" t="s">
+      <c r="C82" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D81" s="24" t="s">
+      <c r="D82" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="E81" s="24" t="s">
+      <c r="E82" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="F81" s="24" t="s">
+      <c r="F82" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="G81" s="24" t="s">
+      <c r="G82" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="H81" s="28" t="s">
+      <c r="H82" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="I81" s="31" t="s">
+      <c r="I82" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="J81" s="24" t="s">
+      <c r="J82" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="K81" s="23" t="s">
+      <c r="K82" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="L81" s="24" t="s">
+      <c r="L82" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="M81" s="25" t="s">
+      <c r="M82" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="N81" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B57)</f>
-        <v>SoftVer:53</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" ht="72" x14ac:dyDescent="0.3">
-      <c r="A82" s="24" t="str">
+      <c r="N82" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B57)</f>
+        <v>softver:53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="A83" s="22" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/54</v>
       </c>
-      <c r="B82" s="24">
+      <c r="B83" s="22">
         <v>54</v>
       </c>
-      <c r="C82" s="24" t="s">
+      <c r="C83" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D82" s="24" t="s">
+      <c r="D83" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="E82" s="24" t="s">
+      <c r="E83" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="F82" s="24" t="s">
+      <c r="F83" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G82" s="24" t="s">
+      <c r="G83" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="H82" s="28" t="s">
+      <c r="H83" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="I82" s="31" t="s">
+      <c r="I83" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="J82" s="24" t="s">
+      <c r="J83" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="K82" s="23" t="s">
+      <c r="K83" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="L82" s="24" t="s">
+      <c r="L83" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="M82" s="25" t="s">
+      <c r="M83" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="N82" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B58)</f>
-        <v>SoftVer:54</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A83" s="24" t="str">
+      <c r="N83" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B58)</f>
+        <v>softver:54</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A84" s="22" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/55</v>
       </c>
-      <c r="B83" s="24">
+      <c r="B84" s="22">
         <v>55</v>
       </c>
-      <c r="C83" s="24" t="s">
+      <c r="C84" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D83" s="24" t="s">
+      <c r="D84" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="E83" s="24" t="s">
+      <c r="E84" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="F83" s="24" t="s">
+      <c r="F84" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="G83" s="24" t="s">
+      <c r="G84" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="H83" s="23" t="s">
+      <c r="H84" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="I83" s="31" t="s">
+      <c r="I84" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="J83" s="24" t="s">
+      <c r="J84" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="K83" s="23" t="s">
+      <c r="K84" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="L83" s="24" t="s">
+      <c r="L84" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="M83" s="25" t="s">
+      <c r="M84" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="N83" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B59)</f>
-        <v>SoftVer:55</v>
-      </c>
-      <c r="O83" t="s">
+      <c r="N84" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B59)</f>
+        <v>softver:55</v>
+      </c>
+      <c r="O84" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="72" x14ac:dyDescent="0.3">
-      <c r="A84" s="24" t="str">
+    <row r="85" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="A85" s="22" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/56</v>
       </c>
-      <c r="B84" s="24">
+      <c r="B85" s="22">
         <v>56</v>
       </c>
-      <c r="C84" s="24" t="s">
+      <c r="C85" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D84" s="24" t="s">
+      <c r="D85" s="22" t="s">
         <v>321</v>
       </c>
-      <c r="E84" s="24" t="s">
+      <c r="E85" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="F84" s="24" t="s">
+      <c r="F85" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G84" s="24" t="s">
+      <c r="G85" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="H84" s="28" t="s">
+      <c r="H85" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="I84" s="31" t="s">
+      <c r="I85" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="J84" s="24" t="s">
+      <c r="J85" s="22" t="s">
         <v>325</v>
       </c>
-      <c r="K84" s="23" t="s">
+      <c r="K85" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="L84" s="24" t="s">
+      <c r="L85" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="M84" s="25" t="s">
+      <c r="M85" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="N84" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B60)</f>
-        <v>SoftVer:56</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A85" s="24" t="str">
+      <c r="N85" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B60)</f>
+        <v>softver:56</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A86" s="22" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/57</v>
       </c>
-      <c r="B85" s="24">
+      <c r="B86" s="22">
         <v>57</v>
       </c>
-      <c r="C85" s="24" t="s">
+      <c r="C86" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D85" s="24" t="s">
+      <c r="D86" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="E85" s="24" t="s">
+      <c r="E86" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="F85" s="24" t="s">
+      <c r="F86" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="G85" s="24" t="s">
+      <c r="G86" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="H85" s="28" t="s">
+      <c r="H86" s="26" t="s">
         <v>328</v>
       </c>
-      <c r="I85" s="31" t="s">
+      <c r="I86" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="J85" s="24" t="s">
+      <c r="J86" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="K85" s="23" t="s">
+      <c r="K86" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="L85" s="24" t="s">
+      <c r="L86" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="M85" s="25" t="s">
+      <c r="M86" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="N85" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B61)</f>
-        <v>SoftVer:57</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A86" s="24" t="str">
+      <c r="N86" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B61)</f>
+        <v>softver:57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A87" s="22" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/58</v>
       </c>
-      <c r="B86" s="24">
+      <c r="B87" s="22">
         <v>58</v>
       </c>
-      <c r="C86" s="24" t="s">
+      <c r="C87" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D86" s="24" t="s">
+      <c r="D87" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="E86" s="24" t="s">
+      <c r="E87" s="22" t="s">
         <v>331</v>
       </c>
-      <c r="F86" s="24" t="s">
+      <c r="F87" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="G86" s="24" t="s">
+      <c r="G87" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="H86" s="28" t="s">
+      <c r="H87" s="26" t="s">
         <v>332</v>
       </c>
-      <c r="I86" s="31" t="s">
+      <c r="I87" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="J86" s="24" t="s">
+      <c r="J87" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="K86" s="23" t="s">
+      <c r="K87" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="L86" s="24" t="s">
+      <c r="L87" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="M86" s="25" t="s">
+      <c r="M87" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="N86" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B62)</f>
-        <v>SoftVer:58</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A87" s="24" t="str">
+      <c r="N87" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B62)</f>
+        <v>softver:58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A88" s="22" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/59</v>
       </c>
-      <c r="B87" s="24">
+      <c r="B88" s="22">
         <v>59</v>
       </c>
-      <c r="C87" s="24" t="s">
+      <c r="C88" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D87" s="24" t="s">
+      <c r="D88" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="E87" s="24" t="s">
+      <c r="E88" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="F87" s="24" t="s">
+      <c r="F88" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="G87" s="24" t="s">
+      <c r="G88" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="H87" s="28" t="s">
+      <c r="H88" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="I87" s="31" t="s">
+      <c r="I88" s="29" t="s">
         <v>337</v>
       </c>
-      <c r="J87" s="24" t="s">
+      <c r="J88" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="K87" s="23" t="s">
+      <c r="K88" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="L87" s="24" t="s">
+      <c r="L88" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="M87" s="25" t="s">
+      <c r="M88" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="N87" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B63)</f>
-        <v>SoftVer:59</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" ht="72" x14ac:dyDescent="0.3">
-      <c r="A88" s="24" t="str">
+      <c r="N88" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B63)</f>
+        <v>softver:59</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="A89" s="22" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/60</v>
       </c>
-      <c r="B88" s="24">
+      <c r="B89" s="22">
         <v>60</v>
       </c>
-      <c r="C88" s="24" t="s">
+      <c r="C89" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D88" s="24" t="s">
+      <c r="D89" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="E88" s="24" t="s">
+      <c r="E89" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="F88" s="24" t="s">
+      <c r="F89" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="G88" s="24" t="s">
+      <c r="G89" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="H88" s="28" t="s">
+      <c r="H89" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="I88" s="31" t="s">
+      <c r="I89" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="J88" s="24" t="s">
+      <c r="J89" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="K88" s="23" t="s">
+      <c r="K89" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="L88" s="24" t="s">
+      <c r="L89" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="M88" s="25" t="s">
+      <c r="M89" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="N88" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B64)</f>
-        <v>SoftVer:60</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A89" s="24" t="str">
+      <c r="N89" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B64)</f>
+        <v>softver:60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A90" s="22" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/61</v>
       </c>
-      <c r="B89" s="24">
+      <c r="B90" s="22">
         <v>61</v>
       </c>
-      <c r="C89" s="24" t="s">
+      <c r="C90" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D89" s="24" t="s">
+      <c r="D90" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="E89" s="24" t="s">
+      <c r="E90" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="F89" s="24" t="s">
+      <c r="F90" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="G89" s="24" t="s">
+      <c r="G90" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="H89" s="31" t="s">
+      <c r="H90" s="29" t="s">
         <v>346</v>
       </c>
-      <c r="I89" s="31" t="s">
+      <c r="I90" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="J89" s="24" t="s">
+      <c r="J90" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="K89" s="23" t="s">
+      <c r="K90" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="L89" s="24" t="s">
+      <c r="L90" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="M89" s="25" t="s">
+      <c r="M90" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="N89" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B65)</f>
-        <v>SoftVer:61</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A90" s="24" t="str">
+      <c r="N90" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B65)</f>
+        <v>softver:61</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A91" s="22" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/62</v>
       </c>
-      <c r="B90" s="24">
+      <c r="B91" s="22">
         <v>62</v>
       </c>
-      <c r="C90" s="24" t="s">
+      <c r="C91" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D90" s="24" t="s">
+      <c r="D91" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="E90" s="24" t="s">
+      <c r="E91" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="F90" s="24" t="s">
+      <c r="F91" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="G90" s="24" t="s">
+      <c r="G91" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="H90" s="23" t="s">
+      <c r="H91" s="21" t="s">
         <v>350</v>
       </c>
-      <c r="I90" s="31" t="s">
+      <c r="I91" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="J90" s="24" t="s">
+      <c r="J91" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="K90" s="23" t="s">
+      <c r="K91" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="L90" s="24" t="s">
+      <c r="L91" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="M90" s="25" t="s">
+      <c r="M91" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="N90" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B66)</f>
-        <v>SoftVer:62</v>
-      </c>
-      <c r="O90" t="s">
+      <c r="N91" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B66)</f>
+        <v>softver:62</v>
+      </c>
+      <c r="O91" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A91" s="24" t="str">
+    <row r="92" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A92" s="22" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/63</v>
       </c>
-      <c r="B91" s="24">
+      <c r="B92" s="22">
         <v>63</v>
       </c>
-      <c r="C91" s="24" t="s">
+      <c r="C92" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D91" s="24" t="s">
+      <c r="D92" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="E91" s="24" t="s">
+      <c r="E92" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="F91" s="24" t="s">
+      <c r="F92" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="G91" s="24" t="s">
+      <c r="G92" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="H91" s="28" t="s">
+      <c r="H92" s="26" t="s">
         <v>356</v>
       </c>
-      <c r="I91" s="31" t="s">
+      <c r="I92" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="J91" s="24" t="s">
+      <c r="J92" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="K91" s="23" t="s">
+      <c r="K92" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="L91" s="24" t="s">
+      <c r="L92" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="M91" s="25" t="s">
+      <c r="M92" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="N91" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B67)</f>
-        <v>SoftVer:63</v>
-      </c>
-      <c r="O91" t="s">
+      <c r="N92" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B67)</f>
+        <v>softver:63</v>
+      </c>
+      <c r="O92" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="72" x14ac:dyDescent="0.3">
-      <c r="A92" s="24" t="str">
+    <row r="93" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="A93" s="22" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/64</v>
       </c>
-      <c r="B92" s="24">
+      <c r="B93" s="22">
         <v>64</v>
       </c>
-      <c r="C92" s="24" t="s">
+      <c r="C93" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D92" s="24" t="s">
+      <c r="D93" s="22" t="s">
         <v>358</v>
       </c>
-      <c r="E92" s="24" t="s">
+      <c r="E93" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="F92" s="24" t="s">
+      <c r="F93" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="G92" s="24" t="s">
+      <c r="G93" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="H92" s="23" t="s">
+      <c r="H93" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="I92" s="31" t="s">
+      <c r="I93" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="J92" s="24" t="s">
+      <c r="J93" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="K92" s="23" t="s">
+      <c r="K93" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="L92" s="24" t="s">
+      <c r="L93" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="M92" s="25" t="s">
+      <c r="M93" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="N92" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B68)</f>
-        <v>SoftVer:64</v>
-      </c>
-      <c r="O92" t="s">
+      <c r="N93" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B68)</f>
+        <v>softver:64</v>
+      </c>
+      <c r="O93" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A93" s="24" t="str">
-        <f t="shared" ref="A93:A124" si="2">_xlfn.CONCAT("https://example.com/tool/",B93)</f>
+    <row r="94" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A94" s="22" t="str">
+        <f t="shared" ref="A94:A106" si="2">_xlfn.CONCAT("https://example.com/tool/",B94)</f>
         <v>https://example.com/tool/65</v>
       </c>
-      <c r="B93" s="24">
+      <c r="B94" s="22">
         <v>65</v>
       </c>
-      <c r="C93" s="24" t="s">
+      <c r="C94" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D93" s="24" t="s">
+      <c r="D94" s="22" t="s">
         <v>362</v>
       </c>
-      <c r="E93" s="24" t="s">
+      <c r="E94" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="F93" s="24" t="s">
+      <c r="F94" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G93" s="24" t="s">
+      <c r="G94" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="H93" s="23" t="s">
+      <c r="H94" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="I93" s="31" t="s">
+      <c r="I94" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="J93" s="24" t="s">
+      <c r="J94" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="K93" s="23" t="s">
+      <c r="K94" s="21" t="s">
         <v>366</v>
       </c>
-      <c r="L93" s="24" t="s">
+      <c r="L94" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="M93" s="25" t="s">
+      <c r="M94" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="N93" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B69)</f>
-        <v>SoftVer:65</v>
-      </c>
-      <c r="O93" t="s">
+      <c r="N94" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B69)</f>
+        <v>softver:65</v>
+      </c>
+      <c r="O94" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="72" x14ac:dyDescent="0.3">
-      <c r="A94" s="24" t="str">
+    <row r="95" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="A95" s="22" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/tool/66</v>
       </c>
-      <c r="B94" s="24">
+      <c r="B95" s="22">
         <v>66</v>
       </c>
-      <c r="C94" s="24" t="s">
+      <c r="C95" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D94" s="24" t="s">
+      <c r="D95" s="22" t="s">
         <v>367</v>
       </c>
-      <c r="E94" s="24" t="s">
+      <c r="E95" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="F94" s="24" t="s">
+      <c r="F95" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="G94" s="24" t="s">
+      <c r="G95" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="H94" s="23" t="s">
+      <c r="H95" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="I94" s="31" t="s">
+      <c r="I95" s="29" t="s">
         <v>370</v>
       </c>
-      <c r="J94" s="24" t="s">
+      <c r="J95" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="K94" s="23" t="s">
+      <c r="K95" s="21" t="s">
         <v>371</v>
       </c>
-      <c r="L94" s="24" t="s">
+      <c r="L95" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="M94" s="25" t="s">
+      <c r="M95" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="N94" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B70)</f>
-        <v>SoftVer:66</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="24" t="str">
+      <c r="N95" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B70)</f>
+        <v>softver:66</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A96" s="22" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/tool/67</v>
       </c>
-      <c r="B95" s="24">
+      <c r="B96" s="22">
         <v>67</v>
       </c>
-      <c r="C95" s="24" t="s">
+      <c r="C96" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D95" s="24" t="s">
+      <c r="D96" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="E95" s="24" t="s">
+      <c r="E96" s="22" t="s">
         <v>373</v>
       </c>
-      <c r="F95" s="24" t="s">
+      <c r="F96" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="G95" s="24" t="s">
+      <c r="G96" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="H95" s="28" t="s">
+      <c r="H96" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="I95" s="31" t="s">
+      <c r="I96" s="29" t="s">
         <v>375</v>
       </c>
-      <c r="J95" s="24" t="s">
+      <c r="J96" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="K95" s="23" t="s">
+      <c r="K96" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="L95" s="24" t="s">
+      <c r="L96" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="M95" s="25" t="s">
+      <c r="M96" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="N95" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B71)</f>
-        <v>SoftVer:67</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" ht="72" x14ac:dyDescent="0.3">
-      <c r="A96" s="24" t="str">
+      <c r="N96" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B71)</f>
+        <v>softver:67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="A97" s="22" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/tool/68</v>
       </c>
-      <c r="B96" s="24">
+      <c r="B97" s="22">
         <v>68</v>
       </c>
-      <c r="C96" s="24" t="s">
+      <c r="C97" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D96" s="24" t="s">
+      <c r="D97" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="E96" s="24" t="s">
+      <c r="E97" s="22" t="s">
         <v>377</v>
       </c>
-      <c r="F96" s="24" t="s">
+      <c r="F97" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="G96" s="23" t="s">
+      <c r="G97" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="H96" s="23" t="s">
+      <c r="H97" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="I96" s="31" t="s">
+      <c r="I97" s="29" t="s">
         <v>381</v>
       </c>
-      <c r="J96" s="24" t="s">
+      <c r="J97" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="K96" s="23" t="s">
+      <c r="K97" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="L96" s="24" t="s">
+      <c r="L97" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="M96" s="25" t="s">
+      <c r="M97" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="N96" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B72)</f>
-        <v>SoftVer:68</v>
-      </c>
-      <c r="O96" t="s">
+      <c r="N97" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B72)</f>
+        <v>softver:68</v>
+      </c>
+      <c r="O97" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="24" t="str">
+    <row r="98" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="22" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/tool/69</v>
       </c>
-      <c r="B97" s="24">
+      <c r="B98" s="22">
         <v>69</v>
       </c>
-      <c r="C97" s="24" t="s">
+      <c r="C98" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D97" s="24" t="s">
+      <c r="D98" s="22" t="s">
         <v>382</v>
       </c>
-      <c r="E97" s="24" t="s">
+      <c r="E98" s="22" t="s">
         <v>383</v>
       </c>
-      <c r="F97" s="24" t="s">
+      <c r="F98" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G97" s="24" t="s">
+      <c r="G98" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="H97" s="23" t="s">
+      <c r="H98" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="I97" s="31" t="s">
+      <c r="I98" s="29" t="s">
         <v>385</v>
       </c>
-      <c r="J97" s="24" t="s">
+      <c r="J98" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="K97" s="23" t="s">
+      <c r="K98" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="L97" s="24" t="s">
+      <c r="L98" s="22" t="s">
         <v>387</v>
       </c>
-      <c r="M97" s="25" t="s">
+      <c r="M98" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="N97" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B73)</f>
-        <v>SoftVer:69</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A98" s="24" t="str">
+      <c r="N98" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B73)</f>
+        <v>softver:69</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A99" s="22" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/tool/70</v>
       </c>
-      <c r="B98" s="24">
+      <c r="B99" s="22">
         <v>70</v>
       </c>
-      <c r="C98" s="24" t="s">
+      <c r="C99" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D98" s="24" t="s">
+      <c r="D99" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="E98" s="24" t="s">
+      <c r="E99" s="22" t="s">
         <v>389</v>
       </c>
-      <c r="F98" s="24" t="s">
+      <c r="F99" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="G98" s="24" t="s">
+      <c r="G99" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="H98" s="28" t="s">
+      <c r="H99" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="I98" s="31" t="s">
+      <c r="I99" s="29" t="s">
         <v>390</v>
       </c>
-      <c r="J98" s="24" t="s">
+      <c r="J99" s="22" t="s">
         <v>391</v>
       </c>
-      <c r="K98" s="23" t="s">
+      <c r="K99" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="L98" s="24" t="s">
+      <c r="L99" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="M98" s="25" t="s">
+      <c r="M99" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="N98" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B74)</f>
-        <v>SoftVer:70</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="24" t="str">
+      <c r="N99" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B74)</f>
+        <v>softver:70</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="22" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/tool/71</v>
       </c>
-      <c r="B99" s="24">
+      <c r="B100" s="22">
         <v>71</v>
       </c>
-      <c r="C99" s="24" t="s">
+      <c r="C100" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D99" s="24" t="s">
+      <c r="D100" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="E99" s="24" t="s">
+      <c r="E100" s="22" t="s">
         <v>393</v>
       </c>
-      <c r="F99" s="24" t="s">
+      <c r="F100" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="G99" s="24" t="s">
+      <c r="G100" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="H99" s="28" t="s">
+      <c r="H100" s="26" t="s">
         <v>394</v>
       </c>
-      <c r="I99" s="31" t="s">
+      <c r="I100" s="29" t="s">
         <v>395</v>
       </c>
-      <c r="J99" s="24" t="s">
+      <c r="J100" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="K99" s="23" t="s">
+      <c r="K100" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="L99" s="24" t="s">
+      <c r="L100" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="M99" s="25" t="s">
+      <c r="M100" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="N99" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B75)</f>
-        <v>SoftVer:71</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A100" s="24" t="str">
+      <c r="N100" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B75)</f>
+        <v>softver:71</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A101" s="22" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/tool/72</v>
       </c>
-      <c r="B100" s="24">
+      <c r="B101" s="22">
         <v>72</v>
       </c>
-      <c r="C100" s="24" t="s">
+      <c r="C101" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D100" s="24" t="s">
+      <c r="D101" s="22" t="s">
         <v>872</v>
       </c>
-      <c r="E100" s="24" t="s">
+      <c r="E101" s="22" t="s">
         <v>396</v>
       </c>
-      <c r="F100" s="24" t="s">
+      <c r="F101" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="G100" s="24" t="s">
+      <c r="G101" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="H100" s="23" t="s">
+      <c r="H101" s="21" t="s">
         <v>397</v>
       </c>
-      <c r="I100" s="31" t="s">
+      <c r="I101" s="29" t="s">
         <v>398</v>
       </c>
-      <c r="J100" s="24" t="s">
+      <c r="J101" s="22" t="s">
         <v>399</v>
       </c>
-      <c r="K100" s="23" t="s">
+      <c r="K101" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="L100" s="24" t="s">
+      <c r="L101" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="M100" s="25" t="s">
+      <c r="M101" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="N100" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B76)</f>
-        <v>SoftVer:72</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A101" s="24" t="str">
+      <c r="N101" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B76)</f>
+        <v>softver:72</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="A102" s="22" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/tool/73</v>
       </c>
-      <c r="B101" s="24">
+      <c r="B102" s="22">
         <v>73</v>
       </c>
-      <c r="C101" s="24" t="s">
+      <c r="C102" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D101" s="24" t="s">
+      <c r="D102" s="22" t="s">
         <v>400</v>
       </c>
-      <c r="E101" s="24" t="s">
+      <c r="E102" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="F101" s="24" t="s">
+      <c r="F102" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="G101" s="24" t="s">
+      <c r="G102" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="H101" s="23" t="s">
+      <c r="H102" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="I101" s="31" t="s">
+      <c r="I102" s="29" t="s">
         <v>403</v>
       </c>
-      <c r="J101" s="24" t="s">
+      <c r="J102" s="22" t="s">
         <v>404</v>
       </c>
-      <c r="K101" s="23" t="s">
+      <c r="K102" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="L101" s="24" t="s">
+      <c r="L102" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="M101" s="25" t="s">
+      <c r="M102" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="N101" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B77)</f>
-        <v>SoftVer:73</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A102" s="24" t="str">
+      <c r="N102" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B77)</f>
+        <v>softver:73</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A103" s="22" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/tool/74</v>
       </c>
-      <c r="B102" s="24">
+      <c r="B103" s="22">
         <v>74</v>
       </c>
-      <c r="C102" s="24" t="s">
+      <c r="C103" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D102" s="24" t="s">
+      <c r="D103" s="22" t="s">
         <v>405</v>
       </c>
-      <c r="E102" s="24" t="s">
+      <c r="E103" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="F102" s="24" t="s">
+      <c r="F103" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G102" s="24" t="s">
+      <c r="G103" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="H102" s="28" t="s">
+      <c r="H103" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="I102" s="31" t="s">
+      <c r="I103" s="29" t="s">
         <v>408</v>
       </c>
-      <c r="J102" s="24" t="s">
+      <c r="J103" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="K102" s="23" t="s">
+      <c r="K103" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="L102" s="24" t="s">
+      <c r="L103" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="M102" s="25" t="s">
+      <c r="M103" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="N102" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B78)</f>
-        <v>SoftVer:74</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A103" s="24" t="str">
+      <c r="N103" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B78)</f>
+        <v>softver:74</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A104" s="22" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/tool/75</v>
       </c>
-      <c r="B103" s="24">
+      <c r="B104" s="22">
         <v>75</v>
       </c>
-      <c r="C103" s="24" t="s">
+      <c r="C104" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D103" s="24" t="s">
+      <c r="D104" s="22" t="s">
         <v>409</v>
       </c>
-      <c r="E103" s="24" t="s">
+      <c r="E104" s="22" t="s">
         <v>410</v>
       </c>
-      <c r="F103" s="24" t="s">
+      <c r="F104" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="G103" s="24" t="s">
+      <c r="G104" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="H103" s="28" t="s">
+      <c r="H104" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="I103" s="31" t="s">
+      <c r="I104" s="29" t="s">
         <v>411</v>
       </c>
-      <c r="J103" s="24" t="s">
+      <c r="J104" s="22" t="s">
         <v>412</v>
       </c>
-      <c r="K103" s="23" t="s">
+      <c r="K104" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="L103" s="24" t="s">
+      <c r="L104" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="M103" s="25" t="s">
+      <c r="M104" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="N103" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B79)</f>
-        <v>SoftVer:75</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A104" s="24" t="str">
+      <c r="N104" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B79)</f>
+        <v>softver:75</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="22" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/tool/76</v>
       </c>
-      <c r="B104" s="24">
+      <c r="B105" s="22">
         <v>76</v>
       </c>
-      <c r="C104" s="24" t="s">
+      <c r="C105" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D104" s="24" t="s">
+      <c r="D105" s="22" t="s">
         <v>414</v>
       </c>
-      <c r="E104" s="24" t="s">
+      <c r="E105" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="F104" s="24" t="s">
+      <c r="F105" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="G104" s="24" t="s">
+      <c r="G105" s="22" t="s">
         <v>416</v>
       </c>
-      <c r="H104" s="28" t="s">
+      <c r="H105" s="26" t="s">
         <v>417</v>
       </c>
-      <c r="I104" s="31" t="s">
+      <c r="I105" s="29" t="s">
         <v>418</v>
       </c>
-      <c r="J104" s="24" t="s">
+      <c r="J105" s="22" t="s">
         <v>419</v>
       </c>
-      <c r="K104" s="23" t="s">
+      <c r="K105" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="L104" s="24" t="s">
+      <c r="L105" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="M104" s="25" t="s">
+      <c r="M105" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="N104" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B80)</f>
-        <v>SoftVer:76</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A105" s="24" t="str">
+      <c r="N105" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B80)</f>
+        <v>softver:76</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A106" s="22" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/tool/77</v>
       </c>
-      <c r="B105" s="24">
+      <c r="B106" s="22">
         <v>77</v>
       </c>
-      <c r="C105" s="24" t="s">
+      <c r="C106" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D105" s="24" t="s">
+      <c r="D106" s="22" t="s">
         <v>420</v>
       </c>
-      <c r="E105" s="24" t="s">
+      <c r="E106" s="22" t="s">
         <v>421</v>
       </c>
-      <c r="F105" s="24" t="s">
+      <c r="F106" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G105" s="24" t="s">
+      <c r="G106" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="H105" s="28" t="s">
+      <c r="H106" s="26" t="s">
         <v>422</v>
       </c>
-      <c r="I105" s="31" t="s">
+      <c r="I106" s="29" t="s">
         <v>423</v>
       </c>
-      <c r="J105" s="24" t="s">
+      <c r="J106" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="K105" s="23" t="s">
+      <c r="K106" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="L105" s="24" t="s">
+      <c r="L106" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="M105" s="25" t="s">
+      <c r="M106" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="N105" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B81)</f>
-        <v>SoftVer:77</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M106" s="25"/>
-      <c r="N106" s="25"/>
+      <c r="N106" s="22" t="str">
+        <f>_xlfn.CONCAT("softver:",sdSoftwareVersion!B81)</f>
+        <v>softver:77</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M107" s="23"/>
+      <c r="N107" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A17" r:id="rId1" display="http://purl.org/vocab/vann/preferredNamespacePrefix" xr:uid="{D1B28BD7-EFDE-4E7D-83EF-47938DDFC262}"/>
+    <hyperlink ref="A18" r:id="rId1" display="http://purl.org/vocab/vann/preferredNamespacePrefix" xr:uid="{D1B28BD7-EFDE-4E7D-83EF-47938DDFC262}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
@@ -7299,19 +7317,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>660</v>
       </c>
       <c r="C2" t="s">
@@ -7319,16 +7337,16 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>425</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="19" t="s">
         <v>661</v>
       </c>
     </row>
@@ -7343,7 +7361,7 @@
       <c r="C5" t="s">
         <v>662</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>802</v>
       </c>
     </row>
@@ -7358,7 +7376,7 @@
       <c r="C6" t="s">
         <v>662</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>804</v>
       </c>
     </row>
@@ -7373,27 +7391,27 @@
       <c r="C7" t="s">
         <v>662</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D8" s="8"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D9" s="8"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D10" s="8"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D11" s="8"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D12" s="8"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="13"/>
+      <c r="B17" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7406,7 +7424,7 @@
   <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7418,22 +7436,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="29" t="s">
         <v>424</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7465,7 +7483,7 @@
       <c r="C5" t="s">
         <v>428</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>429</v>
       </c>
       <c r="E5" t="s">
@@ -7483,7 +7501,7 @@
       <c r="C6" t="s">
         <v>428</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>431</v>
       </c>
       <c r="E6" t="s">
@@ -7501,7 +7519,7 @@
       <c r="C7" t="s">
         <v>428</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>433</v>
       </c>
       <c r="E7" t="s">
@@ -7519,7 +7537,7 @@
       <c r="C8" t="s">
         <v>428</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>435</v>
       </c>
       <c r="E8" t="s">
@@ -7537,7 +7555,7 @@
       <c r="C9" t="s">
         <v>428</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>437</v>
       </c>
       <c r="E9" t="s">
@@ -7555,7 +7573,7 @@
       <c r="C10" t="s">
         <v>428</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>439</v>
       </c>
       <c r="E10" t="s">
@@ -7573,7 +7591,7 @@
       <c r="C11" t="s">
         <v>428</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>441</v>
       </c>
       <c r="E11" t="s">
@@ -7591,7 +7609,7 @@
       <c r="C12" t="s">
         <v>428</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>443</v>
       </c>
       <c r="E12" t="s">
@@ -7609,7 +7627,7 @@
       <c r="C13" t="s">
         <v>428</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>445</v>
       </c>
       <c r="E13" t="s">
@@ -7627,7 +7645,7 @@
       <c r="C14" t="s">
         <v>428</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E14" t="s">
@@ -7645,7 +7663,7 @@
       <c r="C15" t="s">
         <v>428</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E15" t="s">
@@ -7663,7 +7681,7 @@
       <c r="C16" t="s">
         <v>428</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>450</v>
       </c>
       <c r="E16" t="s">
@@ -7681,7 +7699,7 @@
       <c r="C17" t="s">
         <v>428</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>452</v>
       </c>
       <c r="E17" t="s">
@@ -7699,7 +7717,7 @@
       <c r="C18" t="s">
         <v>428</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="15" t="s">
         <v>454</v>
       </c>
       <c r="E18" t="s">
@@ -7717,7 +7735,7 @@
       <c r="C19" t="s">
         <v>428</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>456</v>
       </c>
       <c r="E19" t="s">
@@ -7735,7 +7753,7 @@
       <c r="C20" t="s">
         <v>428</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="18" t="s">
         <v>458</v>
       </c>
       <c r="E20" t="s">
@@ -7753,7 +7771,7 @@
       <c r="C21" t="s">
         <v>428</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>460</v>
       </c>
       <c r="E21" t="s">
@@ -7771,7 +7789,7 @@
       <c r="C22" t="s">
         <v>428</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>462</v>
       </c>
       <c r="E22" t="s">
@@ -7789,7 +7807,7 @@
       <c r="C23" t="s">
         <v>428</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>464</v>
       </c>
       <c r="E23" t="s">
@@ -7807,7 +7825,7 @@
       <c r="C24" t="s">
         <v>428</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>466</v>
       </c>
       <c r="E24" t="s">
@@ -7825,7 +7843,7 @@
       <c r="C25" t="s">
         <v>428</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>468</v>
       </c>
       <c r="E25" t="s">
@@ -7843,7 +7861,7 @@
       <c r="C26" t="s">
         <v>428</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>470</v>
       </c>
       <c r="E26" t="s">
@@ -7861,7 +7879,7 @@
       <c r="C27" t="s">
         <v>428</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="17" t="s">
         <v>894</v>
       </c>
       <c r="E27" t="s">
@@ -7879,7 +7897,7 @@
       <c r="C28" t="s">
         <v>428</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>473</v>
       </c>
       <c r="E28" t="s">
@@ -7897,7 +7915,7 @@
       <c r="C29" t="s">
         <v>428</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>475</v>
       </c>
       <c r="E29" t="s">
@@ -7915,7 +7933,7 @@
       <c r="C30" t="s">
         <v>428</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>477</v>
       </c>
       <c r="E30" t="s">
@@ -7933,7 +7951,7 @@
       <c r="C31" t="s">
         <v>428</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="6" t="s">
         <v>479</v>
       </c>
       <c r="E31" t="s">
@@ -7951,7 +7969,7 @@
       <c r="C32" t="s">
         <v>428</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>481</v>
       </c>
       <c r="E32" t="s">
@@ -7969,7 +7987,7 @@
       <c r="C33" t="s">
         <v>428</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="6" t="s">
         <v>483</v>
       </c>
       <c r="E33" t="s">
@@ -7987,7 +8005,7 @@
       <c r="C34" t="s">
         <v>428</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="6" t="s">
         <v>485</v>
       </c>
       <c r="E34" t="s">
@@ -8005,7 +8023,7 @@
       <c r="C35" t="s">
         <v>428</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="6" t="s">
         <v>487</v>
       </c>
       <c r="E35" t="s">
@@ -8023,7 +8041,7 @@
       <c r="C36" t="s">
         <v>428</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="6" t="s">
         <v>489</v>
       </c>
       <c r="E36" t="s">
@@ -8041,7 +8059,7 @@
       <c r="C37" t="s">
         <v>428</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>491</v>
       </c>
       <c r="E37" t="s">
@@ -8059,7 +8077,7 @@
       <c r="C38" t="s">
         <v>428</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="6" t="s">
         <v>491</v>
       </c>
       <c r="E38" t="s">
@@ -8077,7 +8095,7 @@
       <c r="C39" t="s">
         <v>428</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="6" t="s">
         <v>494</v>
       </c>
       <c r="E39" t="s">
@@ -8095,7 +8113,7 @@
       <c r="C40" t="s">
         <v>428</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>496</v>
       </c>
       <c r="E40" t="s">
@@ -8113,7 +8131,7 @@
       <c r="C41" t="s">
         <v>428</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="17" t="s">
         <v>498</v>
       </c>
       <c r="E41" t="s">
@@ -8131,7 +8149,7 @@
       <c r="C42" t="s">
         <v>428</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="6" t="s">
         <v>500</v>
       </c>
       <c r="E42" t="s">
@@ -8149,7 +8167,7 @@
       <c r="C43" t="s">
         <v>428</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="6" t="s">
         <v>502</v>
       </c>
       <c r="E43" t="s">
@@ -8167,7 +8185,7 @@
       <c r="C44" t="s">
         <v>428</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="6" t="s">
         <v>504</v>
       </c>
       <c r="E44" t="s">
@@ -8185,7 +8203,7 @@
       <c r="C45" t="s">
         <v>428</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="6" t="s">
         <v>429</v>
       </c>
       <c r="E45" t="s">
@@ -8203,7 +8221,7 @@
       <c r="C46" t="s">
         <v>428</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="6" t="s">
         <v>507</v>
       </c>
       <c r="E46" t="s">
@@ -8221,7 +8239,7 @@
       <c r="C47" t="s">
         <v>428</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="6" t="s">
         <v>509</v>
       </c>
       <c r="E47" t="s">
@@ -8239,7 +8257,7 @@
       <c r="C48" t="s">
         <v>428</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="6" t="s">
         <v>511</v>
       </c>
       <c r="E48" t="s">
@@ -8257,7 +8275,7 @@
       <c r="C49" t="s">
         <v>428</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="6" t="s">
         <v>511</v>
       </c>
       <c r="E49" t="s">
@@ -8275,7 +8293,7 @@
       <c r="C50" t="s">
         <v>428</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="6" t="s">
         <v>511</v>
       </c>
       <c r="E50" t="s">
@@ -8293,7 +8311,7 @@
       <c r="C51" t="s">
         <v>428</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="6" t="s">
         <v>511</v>
       </c>
       <c r="E51" t="s">
@@ -8311,7 +8329,7 @@
       <c r="C52" t="s">
         <v>428</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="6" t="s">
         <v>516</v>
       </c>
       <c r="E52" t="s">
@@ -8329,7 +8347,7 @@
       <c r="C53" t="s">
         <v>428</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="6" t="s">
         <v>518</v>
       </c>
       <c r="E53" t="s">
@@ -8347,7 +8365,7 @@
       <c r="C54" t="s">
         <v>428</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="6" t="s">
         <v>520</v>
       </c>
       <c r="E54" t="s">
@@ -8365,7 +8383,7 @@
       <c r="C55" t="s">
         <v>428</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="6" t="s">
         <v>522</v>
       </c>
       <c r="E55" t="s">
@@ -8383,7 +8401,7 @@
       <c r="C56" t="s">
         <v>428</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="6" t="s">
         <v>524</v>
       </c>
       <c r="E56" t="s">
@@ -8401,7 +8419,7 @@
       <c r="C57" t="s">
         <v>428</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="6" t="s">
         <v>526</v>
       </c>
       <c r="E57" t="s">
@@ -8419,7 +8437,7 @@
       <c r="C58" t="s">
         <v>428</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="6" t="s">
         <v>528</v>
       </c>
       <c r="E58" t="s">
@@ -8437,7 +8455,7 @@
       <c r="C59" t="s">
         <v>428</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="6" t="s">
         <v>530</v>
       </c>
       <c r="E59" t="s">
@@ -8455,7 +8473,7 @@
       <c r="C60" t="s">
         <v>428</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="6" t="s">
         <v>532</v>
       </c>
       <c r="E60" t="s">
@@ -8473,7 +8491,7 @@
       <c r="C61" t="s">
         <v>428</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="6" t="s">
         <v>534</v>
       </c>
       <c r="E61" t="s">
@@ -8491,7 +8509,7 @@
       <c r="C62" t="s">
         <v>428</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="17" t="s">
         <v>895</v>
       </c>
       <c r="E62" t="s">
@@ -8509,7 +8527,7 @@
       <c r="C63" t="s">
         <v>428</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="6" t="s">
         <v>537</v>
       </c>
       <c r="E63" t="s">
@@ -8527,7 +8545,7 @@
       <c r="C64" t="s">
         <v>428</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="6" t="s">
         <v>539</v>
       </c>
       <c r="E64" t="s">
@@ -8545,7 +8563,7 @@
       <c r="C65" t="s">
         <v>428</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="6" t="s">
         <v>541</v>
       </c>
       <c r="E65" t="s">
@@ -8563,7 +8581,7 @@
       <c r="C66" t="s">
         <v>428</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="6" t="s">
         <v>543</v>
       </c>
       <c r="E66" t="s">
@@ -8581,7 +8599,7 @@
       <c r="C67" t="s">
         <v>428</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="6" t="s">
         <v>545</v>
       </c>
       <c r="E67" t="s">
@@ -8599,7 +8617,7 @@
       <c r="C68" t="s">
         <v>428</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="6" t="s">
         <v>547</v>
       </c>
       <c r="E68" t="s">
@@ -8617,7 +8635,7 @@
       <c r="C69" t="s">
         <v>428</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="6" t="s">
         <v>549</v>
       </c>
       <c r="E69" t="s">
@@ -8635,7 +8653,7 @@
       <c r="C70" t="s">
         <v>428</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="6" t="s">
         <v>551</v>
       </c>
       <c r="E70" t="s">
@@ -8653,7 +8671,7 @@
       <c r="C71" t="s">
         <v>428</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="6" t="s">
         <v>553</v>
       </c>
       <c r="E71" t="s">
@@ -8671,7 +8689,7 @@
       <c r="C72" t="s">
         <v>428</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="6" t="s">
         <v>555</v>
       </c>
       <c r="E72" t="s">
@@ -8689,7 +8707,7 @@
       <c r="C73" t="s">
         <v>428</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="6" t="s">
         <v>896</v>
       </c>
       <c r="E73" t="s">
@@ -8707,7 +8725,7 @@
       <c r="C74" t="s">
         <v>428</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="6" t="s">
         <v>558</v>
       </c>
       <c r="E74" t="s">
@@ -8725,7 +8743,7 @@
       <c r="C75" t="s">
         <v>428</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="6" t="s">
         <v>560</v>
       </c>
       <c r="E75" t="s">
@@ -8743,7 +8761,7 @@
       <c r="C76" t="s">
         <v>428</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D76" s="6" t="s">
         <v>562</v>
       </c>
       <c r="E76" t="s">
@@ -8761,7 +8779,7 @@
       <c r="C77" t="s">
         <v>428</v>
       </c>
-      <c r="D77" s="18" t="s">
+      <c r="D77" s="17" t="s">
         <v>897</v>
       </c>
       <c r="E77" t="s">
@@ -8779,7 +8797,7 @@
       <c r="C78" t="s">
         <v>428</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="D78" s="6" t="s">
         <v>565</v>
       </c>
       <c r="E78" t="s">
@@ -8797,7 +8815,7 @@
       <c r="C79" t="s">
         <v>428</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D79" s="6" t="s">
         <v>567</v>
       </c>
       <c r="E79" t="s">
@@ -8815,7 +8833,7 @@
       <c r="C80" t="s">
         <v>428</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" s="6" t="s">
         <v>569</v>
       </c>
       <c r="E80" t="s">
@@ -8833,7 +8851,7 @@
       <c r="C81" t="s">
         <v>428</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D81" s="6" t="s">
         <v>571</v>
       </c>
       <c r="E81" t="s">
@@ -8841,10 +8859,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="https://examples.com/SoftVer/" xr:uid="{8488E27B-1064-4DF1-9C22-5326EF1B11CA}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{3D0CF3E6-41CA-4F29-A2C4-C5BD2DBEFD1E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8862,25 +8876,25 @@
     <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5546875" customWidth="1"/>
-    <col min="4" max="4" width="88.33203125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="86.6640625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="88.33203125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="86.6640625" style="21" customWidth="1"/>
     <col min="6" max="6" width="117.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>573</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
@@ -8888,10 +8902,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C3" t="s">
@@ -8908,13 +8922,13 @@
       <c r="C5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="21" t="s">
         <v>576</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="21" t="s">
         <v>577</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
@@ -8927,7 +8941,7 @@
       <c r="C6" t="s">
         <v>578</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="22" t="s">
         <v>816</v>
       </c>
     </row>
@@ -8942,7 +8956,7 @@
       <c r="C7" t="s">
         <v>578</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="22" t="s">
         <v>817</v>
       </c>
     </row>
@@ -8957,7 +8971,7 @@
       <c r="C8" t="s">
         <v>578</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="22" t="s">
         <v>818</v>
       </c>
     </row>
@@ -8972,7 +8986,7 @@
       <c r="C9" t="s">
         <v>578</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="22" t="s">
         <v>75</v>
       </c>
     </row>
@@ -8987,7 +9001,7 @@
       <c r="C10" t="s">
         <v>578</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="22" t="s">
         <v>819</v>
       </c>
     </row>
@@ -9002,13 +9016,13 @@
       <c r="C11" t="s">
         <v>578</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="22" t="s">
         <v>820</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="22" t="s">
         <v>820</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
@@ -9021,7 +9035,7 @@
       <c r="C12" t="s">
         <v>578</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="22" t="s">
         <v>819</v>
       </c>
     </row>
@@ -9036,10 +9050,10 @@
       <c r="C13" t="s">
         <v>578</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="22" t="s">
         <v>817</v>
       </c>
-      <c r="F13" s="22"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
@@ -9052,7 +9066,7 @@
       <c r="C14" t="s">
         <v>578</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="22" t="s">
         <v>821</v>
       </c>
     </row>
@@ -9067,13 +9081,13 @@
       <c r="C15" t="s">
         <v>578</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="22" t="s">
         <v>822</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="22" t="s">
         <v>822</v>
       </c>
-      <c r="F15" s="12"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
@@ -9086,7 +9100,7 @@
       <c r="C16" t="s">
         <v>578</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="22" t="s">
         <v>817</v>
       </c>
     </row>
@@ -9101,7 +9115,7 @@
       <c r="C17" t="s">
         <v>578</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="21" t="s">
         <v>823</v>
       </c>
     </row>
@@ -9116,7 +9130,7 @@
       <c r="C18" t="s">
         <v>578</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="22" t="s">
         <v>824</v>
       </c>
     </row>
@@ -9131,13 +9145,13 @@
       <c r="C19" t="s">
         <v>578</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="21" t="s">
         <v>861</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="21" t="s">
         <v>579</v>
       </c>
-      <c r="F19" s="23"/>
+      <c r="F19" s="21"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
@@ -9150,13 +9164,13 @@
       <c r="C20" t="s">
         <v>578</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="22" t="s">
         <v>862</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="21" t="s">
         <v>579</v>
       </c>
-      <c r="F20" s="23"/>
+      <c r="F20" s="21"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
@@ -9169,7 +9183,7 @@
       <c r="C21" t="s">
         <v>578</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="21" t="s">
         <v>825</v>
       </c>
     </row>
@@ -9184,7 +9198,7 @@
       <c r="C22" t="s">
         <v>578</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="21" t="s">
         <v>826</v>
       </c>
     </row>
@@ -9199,13 +9213,13 @@
       <c r="C23" t="s">
         <v>578</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="21" t="s">
         <v>827</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="21" t="s">
         <v>827</v>
       </c>
-      <c r="F23" s="12"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
@@ -9218,7 +9232,7 @@
       <c r="C24" t="s">
         <v>578</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="21" t="s">
         <v>828</v>
       </c>
     </row>
@@ -9233,7 +9247,7 @@
       <c r="C25" t="s">
         <v>578</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="21" t="s">
         <v>829</v>
       </c>
     </row>
@@ -9248,7 +9262,7 @@
       <c r="C26" t="s">
         <v>578</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="21" t="s">
         <v>825</v>
       </c>
     </row>
@@ -9263,7 +9277,7 @@
       <c r="C27" t="s">
         <v>578</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="21" t="s">
         <v>830</v>
       </c>
     </row>
@@ -9278,7 +9292,7 @@
       <c r="C28" t="s">
         <v>578</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="21" t="s">
         <v>817</v>
       </c>
     </row>
@@ -9293,7 +9307,7 @@
       <c r="C29" t="s">
         <v>578</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="21" t="s">
         <v>831</v>
       </c>
     </row>
@@ -9308,13 +9322,13 @@
       <c r="C30" t="s">
         <v>578</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="21" t="s">
         <v>864</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="21" t="s">
         <v>863</v>
       </c>
-      <c r="F30" s="23"/>
+      <c r="F30" s="21"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
@@ -9327,7 +9341,7 @@
       <c r="C31" t="s">
         <v>578</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="21" t="s">
         <v>819</v>
       </c>
     </row>
@@ -9342,7 +9356,7 @@
       <c r="C32" t="s">
         <v>578</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="21" t="s">
         <v>817</v>
       </c>
     </row>
@@ -9357,7 +9371,7 @@
       <c r="C33" t="s">
         <v>578</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="21" t="s">
         <v>832</v>
       </c>
     </row>
@@ -9372,7 +9386,7 @@
       <c r="C34" t="s">
         <v>578</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="21" t="s">
         <v>833</v>
       </c>
     </row>
@@ -9387,7 +9401,7 @@
       <c r="C35" t="s">
         <v>578</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="21" t="s">
         <v>825</v>
       </c>
     </row>
@@ -9402,7 +9416,7 @@
       <c r="C36" t="s">
         <v>578</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="21" t="s">
         <v>817</v>
       </c>
     </row>
@@ -9417,7 +9431,7 @@
       <c r="C37" t="s">
         <v>578</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="21" t="s">
         <v>819</v>
       </c>
     </row>
@@ -9432,7 +9446,7 @@
       <c r="C38" t="s">
         <v>578</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="21" t="s">
         <v>834</v>
       </c>
     </row>
@@ -9447,13 +9461,13 @@
       <c r="C39" t="s">
         <v>578</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="21" t="s">
         <v>835</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="E39" s="21" t="s">
         <v>835</v>
       </c>
-      <c r="F39" s="12"/>
+      <c r="F39" s="11"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
@@ -9466,13 +9480,13 @@
       <c r="C40" t="s">
         <v>578</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="21" t="s">
         <v>836</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="E40" s="21" t="s">
         <v>836</v>
       </c>
-      <c r="F40" s="12"/>
+      <c r="F40" s="11"/>
     </row>
     <row r="41" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
@@ -9485,13 +9499,13 @@
       <c r="C41" t="s">
         <v>578</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="21" t="s">
         <v>837</v>
       </c>
-      <c r="E41" s="23" t="s">
+      <c r="E41" s="21" t="s">
         <v>837</v>
       </c>
-      <c r="F41" s="12"/>
+      <c r="F41" s="11"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
@@ -9504,7 +9518,7 @@
       <c r="C42" t="s">
         <v>578</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="D42" s="21" t="s">
         <v>838</v>
       </c>
     </row>
@@ -9519,13 +9533,13 @@
       <c r="C43" t="s">
         <v>578</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="21" t="s">
         <v>839</v>
       </c>
-      <c r="E43" s="23" t="s">
+      <c r="E43" s="21" t="s">
         <v>839</v>
       </c>
-      <c r="F43" s="12"/>
+      <c r="F43" s="11"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
@@ -9538,7 +9552,7 @@
       <c r="C44" t="s">
         <v>578</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="D44" s="21" t="s">
         <v>817</v>
       </c>
     </row>
@@ -9553,7 +9567,7 @@
       <c r="C45" t="s">
         <v>578</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="21" t="s">
         <v>819</v>
       </c>
     </row>
@@ -9568,7 +9582,7 @@
       <c r="C46" t="s">
         <v>578</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="21" t="s">
         <v>817</v>
       </c>
     </row>
@@ -9583,7 +9597,7 @@
       <c r="C47" t="s">
         <v>578</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="21" t="s">
         <v>840</v>
       </c>
     </row>
@@ -9598,7 +9612,7 @@
       <c r="C48" t="s">
         <v>578</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="21" t="s">
         <v>841</v>
       </c>
     </row>
@@ -9613,13 +9627,13 @@
       <c r="C49" t="s">
         <v>578</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="21" t="s">
         <v>842</v>
       </c>
-      <c r="E49" s="23" t="s">
+      <c r="E49" s="21" t="s">
         <v>842</v>
       </c>
-      <c r="F49" s="12"/>
+      <c r="F49" s="11"/>
     </row>
     <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
@@ -9632,10 +9646,10 @@
       <c r="C50" t="s">
         <v>578</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="D50" s="21" t="s">
         <v>843</v>
       </c>
-      <c r="F50" s="12"/>
+      <c r="F50" s="11"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
@@ -9648,10 +9662,10 @@
       <c r="C51" t="s">
         <v>578</v>
       </c>
-      <c r="D51" s="23" t="s">
+      <c r="D51" s="21" t="s">
         <v>825</v>
       </c>
-      <c r="F51" s="12"/>
+      <c r="F51" s="11"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
@@ -9664,10 +9678,10 @@
       <c r="C52" t="s">
         <v>578</v>
       </c>
-      <c r="D52" s="23" t="s">
+      <c r="D52" s="21" t="s">
         <v>844</v>
       </c>
-      <c r="F52" s="12"/>
+      <c r="F52" s="11"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
@@ -9680,7 +9694,7 @@
       <c r="C53" t="s">
         <v>578</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="D53" s="21" t="s">
         <v>818</v>
       </c>
     </row>
@@ -9695,7 +9709,7 @@
       <c r="C54" t="s">
         <v>578</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D54" s="21" t="s">
         <v>845</v>
       </c>
     </row>
@@ -9710,7 +9724,7 @@
       <c r="C55" t="s">
         <v>578</v>
       </c>
-      <c r="D55" s="23" t="s">
+      <c r="D55" s="21" t="s">
         <v>846</v>
       </c>
     </row>
@@ -9725,7 +9739,7 @@
       <c r="C56" t="s">
         <v>578</v>
       </c>
-      <c r="D56" s="23" t="s">
+      <c r="D56" s="21" t="s">
         <v>817</v>
       </c>
     </row>
@@ -9740,7 +9754,7 @@
       <c r="C57" t="s">
         <v>578</v>
       </c>
-      <c r="D57" s="23" t="s">
+      <c r="D57" s="21" t="s">
         <v>847</v>
       </c>
     </row>
@@ -9755,7 +9769,7 @@
       <c r="C58" t="s">
         <v>578</v>
       </c>
-      <c r="D58" s="23" t="s">
+      <c r="D58" s="21" t="s">
         <v>817</v>
       </c>
     </row>
@@ -9770,7 +9784,7 @@
       <c r="C59" t="s">
         <v>578</v>
       </c>
-      <c r="E59" s="23" t="s">
+      <c r="E59" s="21" t="s">
         <v>848</v>
       </c>
     </row>
@@ -9785,7 +9799,7 @@
       <c r="C60" t="s">
         <v>578</v>
       </c>
-      <c r="D60" s="23" t="s">
+      <c r="D60" s="21" t="s">
         <v>821</v>
       </c>
     </row>
@@ -9800,7 +9814,7 @@
       <c r="C61" t="s">
         <v>578</v>
       </c>
-      <c r="D61" s="23" t="s">
+      <c r="D61" s="21" t="s">
         <v>849</v>
       </c>
     </row>
@@ -9815,7 +9829,7 @@
       <c r="C62" t="s">
         <v>578</v>
       </c>
-      <c r="D62" s="23" t="s">
+      <c r="D62" s="21" t="s">
         <v>831</v>
       </c>
     </row>
@@ -9830,7 +9844,7 @@
       <c r="C63" t="s">
         <v>578</v>
       </c>
-      <c r="D63" s="23" t="s">
+      <c r="D63" s="21" t="s">
         <v>819</v>
       </c>
     </row>
@@ -9845,7 +9859,7 @@
       <c r="C64" t="s">
         <v>578</v>
       </c>
-      <c r="D64" s="23" t="s">
+      <c r="D64" s="21" t="s">
         <v>819</v>
       </c>
     </row>
@@ -9860,7 +9874,7 @@
       <c r="C65" t="s">
         <v>578</v>
       </c>
-      <c r="D65" s="23" t="s">
+      <c r="D65" s="21" t="s">
         <v>850</v>
       </c>
     </row>
@@ -9875,7 +9889,7 @@
       <c r="C66" t="s">
         <v>578</v>
       </c>
-      <c r="D66" s="23" t="s">
+      <c r="D66" s="21" t="s">
         <v>821</v>
       </c>
     </row>
@@ -9890,7 +9904,7 @@
       <c r="C67" t="s">
         <v>578</v>
       </c>
-      <c r="D67" s="23" t="s">
+      <c r="D67" s="21" t="s">
         <v>821</v>
       </c>
     </row>
@@ -9905,13 +9919,13 @@
       <c r="C68" t="s">
         <v>578</v>
       </c>
-      <c r="D68" s="23" t="s">
+      <c r="D68" s="21" t="s">
         <v>851</v>
       </c>
-      <c r="E68" s="23" t="s">
+      <c r="E68" s="21" t="s">
         <v>579</v>
       </c>
-      <c r="F68" s="23"/>
+      <c r="F68" s="21"/>
     </row>
     <row r="69" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
@@ -9924,10 +9938,10 @@
       <c r="C69" t="s">
         <v>578</v>
       </c>
-      <c r="D69" s="23" t="s">
+      <c r="D69" s="21" t="s">
         <v>852</v>
       </c>
-      <c r="F69" s="23"/>
+      <c r="F69" s="21"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="str">
@@ -9940,7 +9954,7 @@
       <c r="C70" t="s">
         <v>578</v>
       </c>
-      <c r="D70" s="23" t="s">
+      <c r="D70" s="21" t="s">
         <v>853</v>
       </c>
     </row>
@@ -9955,7 +9969,7 @@
       <c r="C71" t="s">
         <v>578</v>
       </c>
-      <c r="D71" s="23" t="s">
+      <c r="D71" s="21" t="s">
         <v>819</v>
       </c>
     </row>
@@ -9970,7 +9984,7 @@
       <c r="C72" t="s">
         <v>578</v>
       </c>
-      <c r="D72" s="23" t="s">
+      <c r="D72" s="21" t="s">
         <v>854</v>
       </c>
     </row>
@@ -9985,7 +9999,7 @@
       <c r="C73" t="s">
         <v>578</v>
       </c>
-      <c r="D73" s="23" t="s">
+      <c r="D73" s="21" t="s">
         <v>855</v>
       </c>
     </row>
@@ -10000,7 +10014,7 @@
       <c r="C74" t="s">
         <v>578</v>
       </c>
-      <c r="D74" s="23" t="s">
+      <c r="D74" s="21" t="s">
         <v>856</v>
       </c>
     </row>
@@ -10015,7 +10029,7 @@
       <c r="C75" t="s">
         <v>578</v>
       </c>
-      <c r="D75" s="23" t="s">
+      <c r="D75" s="21" t="s">
         <v>817</v>
       </c>
     </row>
@@ -10030,7 +10044,7 @@
       <c r="C76" t="s">
         <v>578</v>
       </c>
-      <c r="D76" s="23" t="s">
+      <c r="D76" s="21" t="s">
         <v>857</v>
       </c>
     </row>
@@ -10045,7 +10059,7 @@
       <c r="C77" t="s">
         <v>578</v>
       </c>
-      <c r="D77" s="23" t="s">
+      <c r="D77" s="21" t="s">
         <v>858</v>
       </c>
     </row>
@@ -10060,7 +10074,7 @@
       <c r="C78" t="s">
         <v>578</v>
       </c>
-      <c r="D78" s="23" t="s">
+      <c r="D78" s="21" t="s">
         <v>821</v>
       </c>
     </row>
@@ -10075,7 +10089,7 @@
       <c r="C79" t="s">
         <v>578</v>
       </c>
-      <c r="D79" s="23" t="s">
+      <c r="D79" s="21" t="s">
         <v>859</v>
       </c>
     </row>
@@ -10090,7 +10104,7 @@
       <c r="C80" t="s">
         <v>578</v>
       </c>
-      <c r="D80" s="23" t="s">
+      <c r="D80" s="21" t="s">
         <v>817</v>
       </c>
     </row>
@@ -10105,7 +10119,7 @@
       <c r="C81" t="s">
         <v>578</v>
       </c>
-      <c r="D81" s="23" t="s">
+      <c r="D81" s="21" t="s">
         <v>832</v>
       </c>
     </row>
@@ -10120,7 +10134,7 @@
       <c r="C82" t="s">
         <v>578</v>
       </c>
-      <c r="D82" s="23" t="s">
+      <c r="D82" s="21" t="s">
         <v>860</v>
       </c>
     </row>
@@ -10147,19 +10161,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>575</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
@@ -10476,7 +10490,7 @@
       <c r="C24" t="s">
         <v>581</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="11" t="s">
         <v>600</v>
       </c>
     </row>
@@ -10566,7 +10580,7 @@
       <c r="C30" t="s">
         <v>581</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="11" t="s">
         <v>605</v>
       </c>
     </row>
@@ -10596,7 +10610,7 @@
       <c r="C32" t="s">
         <v>581</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="11" t="s">
         <v>607</v>
       </c>
     </row>
@@ -10626,7 +10640,7 @@
       <c r="C34" t="s">
         <v>581</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="11" t="s">
         <v>609</v>
       </c>
     </row>
@@ -10776,7 +10790,7 @@
       <c r="C44" t="s">
         <v>581</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="11" t="s">
         <v>619</v>
       </c>
     </row>
@@ -11076,7 +11090,7 @@
       <c r="C64" t="s">
         <v>581</v>
       </c>
-      <c r="D64" s="12" t="s">
+      <c r="D64" s="11" t="s">
         <v>638</v>
       </c>
     </row>
@@ -11477,19 +11491,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>660</v>
       </c>
       <c r="C2" t="s">
@@ -11521,7 +11535,7 @@
       <c r="C5" t="s">
         <v>662</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>663</v>
       </c>
     </row>
@@ -11536,7 +11550,7 @@
       <c r="C6" t="s">
         <v>662</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>664</v>
       </c>
     </row>
@@ -11551,7 +11565,7 @@
       <c r="C7" t="s">
         <v>662</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>665</v>
       </c>
     </row>
@@ -11566,7 +11580,7 @@
       <c r="C8" t="s">
         <v>662</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>666</v>
       </c>
     </row>
@@ -11581,7 +11595,7 @@
       <c r="C9" t="s">
         <v>662</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>667</v>
       </c>
     </row>
@@ -11596,7 +11610,7 @@
       <c r="C10" t="s">
         <v>662</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>668</v>
       </c>
     </row>
@@ -11611,7 +11625,7 @@
       <c r="C11" t="s">
         <v>662</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>669</v>
       </c>
     </row>
@@ -11641,19 +11655,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>660</v>
       </c>
       <c r="C2" t="s">
@@ -11661,16 +11675,16 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>425</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="19" t="s">
         <v>661</v>
       </c>
     </row>
@@ -11775,7 +11789,7 @@
       <c r="C11" t="s">
         <v>662</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>675</v>
       </c>
     </row>
@@ -11907,19 +11921,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
@@ -12041,7 +12055,7 @@
       <c r="C11" t="s">
         <v>684</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>691</v>
       </c>
     </row>
@@ -12146,7 +12160,7 @@
       <c r="C18" t="s">
         <v>684</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>697</v>
       </c>
     </row>
@@ -12311,7 +12325,7 @@
       <c r="C29" t="s">
         <v>684</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>708</v>
       </c>
     </row>
@@ -12476,7 +12490,7 @@
       <c r="C40" t="s">
         <v>684</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>718</v>
       </c>
     </row>
@@ -12596,7 +12610,7 @@
       <c r="C48" t="s">
         <v>684</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="6" t="s">
         <v>726</v>
       </c>
     </row>
@@ -12611,7 +12625,7 @@
       <c r="C49" t="s">
         <v>684</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="6" t="s">
         <v>726</v>
       </c>
     </row>
@@ -12626,7 +12640,7 @@
       <c r="C50" t="s">
         <v>684</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="6" t="s">
         <v>726</v>
       </c>
     </row>
@@ -12641,7 +12655,7 @@
       <c r="C51" t="s">
         <v>684</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="6" t="s">
         <v>726</v>
       </c>
     </row>
@@ -12686,7 +12700,7 @@
       <c r="C54" t="s">
         <v>684</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="6" t="s">
         <v>729</v>
       </c>
     </row>
@@ -12761,7 +12775,7 @@
       <c r="C59" t="s">
         <v>684</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="6" t="s">
         <v>734</v>
       </c>
     </row>
@@ -12851,7 +12865,7 @@
       <c r="C65" t="s">
         <v>684</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="6" t="s">
         <v>740</v>
       </c>
     </row>
@@ -12866,7 +12880,7 @@
       <c r="C66" t="s">
         <v>684</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="6" t="s">
         <v>741</v>
       </c>
     </row>
@@ -12896,7 +12910,7 @@
       <c r="C68" t="s">
         <v>684</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="6" t="s">
         <v>743</v>
       </c>
     </row>
@@ -12926,7 +12940,7 @@
       <c r="C70" t="s">
         <v>684</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="6" t="s">
         <v>745</v>
       </c>
     </row>
@@ -12971,7 +12985,7 @@
       <c r="C73" t="s">
         <v>684</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="6" t="s">
         <v>748</v>
       </c>
     </row>
@@ -13031,7 +13045,7 @@
       <c r="C77" t="s">
         <v>684</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D77" s="6" t="s">
         <v>752</v>
       </c>
     </row>
@@ -13118,19 +13132,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>660</v>
       </c>
       <c r="C2" t="s">
@@ -13426,19 +13440,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>791</v>
       </c>
       <c r="C2" t="s">
@@ -13446,16 +13460,16 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>425</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="19" t="s">
         <v>580</v>
       </c>
     </row>
@@ -13603,14 +13617,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="21f64c02-1f20-443d-801b-ae17df5c4a0a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bf3f9575-65b8-4549-b389-33a18b8943d7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13869,23 +13877,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="21f64c02-1f20-443d-801b-ae17df5c4a0a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bf3f9575-65b8-4549-b389-33a18b8943d7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D32E47C-7013-4565-B268-D2BE134A52BA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{164C3F70-F822-4EF6-AEFF-DC1ABB56CF75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="bf3f9575-65b8-4549-b389-33a18b8943d7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="21f64c02-1f20-443d-801b-ae17df5c4a0a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13910,9 +13915,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{164C3F70-F822-4EF6-AEFF-DC1ABB56CF75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D32E47C-7013-4565-B268-D2BE134A52BA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="bf3f9575-65b8-4549-b389-33a18b8943d7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="21f64c02-1f20-443d-801b-ae17df5c4a0a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/tools.xlsx
+++ b/tools.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aschiltz003\Documents\GitHub\Semantic-Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686A8F98-037D-492C-8BB7-92B9D642699E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABE6D6F-F829-4D1C-8983-4B3966A0BFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{AFCE36E2-F631-4322-AF27-256B8B7C0B04}"/>
   </bookViews>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="902">
   <si>
     <t>ConceptScheme URI</t>
   </si>
@@ -2801,6 +2801,15 @@
   </si>
   <si>
     <t>softver</t>
+  </si>
+  <si>
+    <t>dbo:Software</t>
+  </si>
+  <si>
+    <t>https://dbpedia.org/ontology/Software</t>
+  </si>
+  <si>
+    <t>Class URI</t>
   </si>
 </sst>
 </file>
@@ -3339,7 +3348,7 @@
   <dimension ref="A1:O107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3361,7 +3370,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>0</v>
+        <v>901</v>
       </c>
       <c r="B1" s="28" t="s">
         <v>1</v>
@@ -7305,7 +7314,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7318,7 +7327,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>901</v>
       </c>
       <c r="B1" t="s">
         <v>18</v>
@@ -7330,10 +7339,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>660</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>807</v>
+        <v>900</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -7359,7 +7368,7 @@
         <v>801</v>
       </c>
       <c r="C5" t="s">
-        <v>662</v>
+        <v>899</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>802</v>
@@ -7374,7 +7383,7 @@
         <v>803</v>
       </c>
       <c r="C6" t="s">
-        <v>662</v>
+        <v>899</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>804</v>
@@ -7389,7 +7398,7 @@
         <v>805</v>
       </c>
       <c r="C7" t="s">
-        <v>662</v>
+        <v>899</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>806</v>
@@ -7424,7 +7433,7 @@
   <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7437,7 +7446,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>901</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>424</v>
@@ -8868,7 +8877,7 @@
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8883,7 +8892,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>901</v>
       </c>
       <c r="B1" t="s">
         <v>573</v>
@@ -10149,7 +10158,7 @@
   <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10162,7 +10171,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>901</v>
       </c>
       <c r="B1" t="s">
         <v>575</v>
@@ -11909,7 +11918,7 @@
   <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11922,7 +11931,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>901</v>
       </c>
       <c r="B1" t="s">
         <v>24</v>
@@ -13430,9 +13439,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13441,7 +13448,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>901</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
@@ -13617,11 +13624,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007AEFB2A585EFEB438A74F703037745A4" ma:contentTypeVersion="22" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="066928f5f756ae6a0953337b70a1faf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf3f9575-65b8-4549-b389-33a18b8943d7" xmlns:ns3="21f64c02-1f20-443d-801b-ae17df5c4a0a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a35f3283c960054123670de2c4a4632" ns2:_="" ns3:_="">
     <xsd:import namespace="bf3f9575-65b8-4549-b389-33a18b8943d7"/>
@@ -13876,6 +13878,11 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -13888,14 +13895,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{164C3F70-F822-4EF6-AEFF-DC1ABB56CF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1435F584-9511-4912-AF17-F83A08F28CE8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13910,6 +13909,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{164C3F70-F822-4EF6-AEFF-DC1ABB56CF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tools.xlsx
+++ b/tools.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aschiltz003\Documents\GitHub\Semantic-Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABE6D6F-F829-4D1C-8983-4B3966A0BFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F45C15-E4A1-4845-AED8-41DDBD28936B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{AFCE36E2-F631-4322-AF27-256B8B7C0B04}"/>
   </bookViews>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="904">
   <si>
     <t>ConceptScheme URI</t>
   </si>
@@ -1828,12 +1828,6 @@
     <t>https://example.com/SoftCon/</t>
   </si>
   <si>
-    <t>DatasetSpecification</t>
-  </si>
-  <si>
-    <t>https://example.com/DataSpec/</t>
-  </si>
-  <si>
     <t>sd:hasInput(separator=",")</t>
   </si>
   <si>
@@ -2215,9 +2209,6 @@
     <t>https://github.com/morph-kgc/morph-kgc</t>
   </si>
   <si>
-    <t>https://github.com/lmazuel/onadbr:Graphical_user_interface</t>
-  </si>
-  <si>
     <t>https://github.com/OnToology/OnToology</t>
   </si>
   <si>
@@ -2554,153 +2545,6 @@
     <t>HDT</t>
   </si>
   <si>
-    <t>DataSpecification:56,DataSpecification:73,DataSpecification:39</t>
-  </si>
-  <si>
-    <t>DataSpecification:53</t>
-  </si>
-  <si>
-    <t>DataSpecification:12,DataSpecification:26,DataSpecification:80</t>
-  </si>
-  <si>
-    <t>DataSpecification:60</t>
-  </si>
-  <si>
-    <t>DataSpecification:56,DataSpecification:39,DataSpecification:38,DataSpecification:73,DataSpecification:70</t>
-  </si>
-  <si>
-    <t>DataSpecification:62</t>
-  </si>
-  <si>
-    <t>DataSpecification:73,DataSpecification:56,DataSpecification:39,DataSpecification:27,DataSpecification:55,DataSpecification:70,DataSpecification:38,DataSpecification:71,DataSpecification:57</t>
-  </si>
-  <si>
-    <t>DataSpecification:73</t>
-  </si>
-  <si>
-    <t>DataSpecification:12,DataSpecification:26,DataSpecification:80,DataSpecification:78,DataSpecification:79,DataSpecification:46</t>
-  </si>
-  <si>
-    <t>DataSpecification:46</t>
-  </si>
-  <si>
-    <t>DataSpecification:56,DataSpecification:47,DataSpecification:46,DataSpecification:40,DataSpecification:28,DataSpecification:73</t>
-  </si>
-  <si>
-    <t>DataSpecification:12,DataSpecification:26,DataSpecification:80,DataSpecification:53,DataSpecification:56,DataSpecification:73,DataSpecification:39</t>
-  </si>
-  <si>
-    <t>DataSpecification:37,DataSpecification:50,DataSpecification:44,DataSpecification:64,DataSpecification:32,DataSpecification:12,DataSpecification:72,DataSpecification:78,DataSpecification:79,DataSpecification:49,DataSpecification:19,DataSpecification:45,DataSpecification:66,DataSpecification:59,DataSpecification:63,DataSpecification:41,DataSpecification:26,DataSpecification:80</t>
-  </si>
-  <si>
-    <t>DataSpecification:46,DataSpecification:60,DataSpecification:53</t>
-  </si>
-  <si>
-    <t>DataSpecification:50,DataSpecification:37,DataSpecification:32,DataSpecification:64,DataSpecification:44,DataSpecification:14,DataSpecification:61,DataSpecification:13,DataSpecification:22,DataSpecification:8,DataSpecification:17,DataSpecification:2,DataSpecification:3,DataSpecification:16,DataSpecification:69,DataSpecification:4,DataSpecification:5,DataSpecification:6,DataSpecification:7</t>
-  </si>
-  <si>
-    <t>DataSpecification:58,DataSpecification:46,DataSpecification:60</t>
-  </si>
-  <si>
-    <t>DataSpecification:39</t>
-  </si>
-  <si>
-    <t>DataSpecification:78</t>
-  </si>
-  <si>
-    <t>DataSpecification:80</t>
-  </si>
-  <si>
-    <t>DataSpecification:56,DataSpecification:39,DataSpecification:73</t>
-  </si>
-  <si>
-    <t>DataSpecification:39,DataSpecification:38</t>
-  </si>
-  <si>
-    <t>DataSpecification:56,DataSpecification:82,DataSpecification:39,DataSpecification:38,DataSpecification:73,DataSpecification:71,DataSpecification:27,DataSpecification:23,DataSpecification:54,DataSpecification:34</t>
-  </si>
-  <si>
-    <t>DataSpecification:53,DataSpecification:73</t>
-  </si>
-  <si>
-    <t>DataSpecification:57,DataSpecification:27,DataSpecification:82,DataSpecification:38,DataSpecification:39,DataSpecification:54,DataSpecification:55,DataSpecification:56,DataSpecification:70,DataSpecification:71,DataSpecification:73</t>
-  </si>
-  <si>
-    <t>DataSpecification:79,DataSpecification:41,DataSpecification:12,DataSpecification:26,DataSpecification:80,DataSpecification:37,DataSpecification:50,DataSpecification:44,DataSpecification:64,DataSpecification:62,DataSpecification:25</t>
-  </si>
-  <si>
-    <t>DataSpecification:12,DataSpecification:26,DataSpecification:80,DataSpecification:67</t>
-  </si>
-  <si>
-    <t>DataSpecification:26,DataSpecification:40,DataSpecification:42,DataSpecification:43,DataSpecification:46,DataSpecification:48,DataSpecification:73</t>
-  </si>
-  <si>
-    <t>DataSpecification:72,DataSpecification:12,DataSpecification:24,DataSpecification:26,DataSpecification:79</t>
-  </si>
-  <si>
-    <t>DataSpecification:46,DataSpecification:60</t>
-  </si>
-  <si>
-    <t>DataSpecification:12,DataSpecification:26,DataSpecification:52,DataSpecification:80</t>
-  </si>
-  <si>
-    <t>DataSpecification:53,DataSpecification:80,DataSpecification:73,DataSpecification:82,DataSpecification:70</t>
-  </si>
-  <si>
-    <t>DataSpecification:83,DataSpecification:58</t>
-  </si>
-  <si>
-    <t>DataSpecification:73,DataSpecification:39,DataSpecification:82</t>
-  </si>
-  <si>
-    <t>DataSpecification:62,DataSpecification:53,DataSpecification:26,DataSpecification:80,DataSpecification:12,DataSpecification:37</t>
-  </si>
-  <si>
-    <t>DataSpecification:62,DataSpecification:60</t>
-  </si>
-  <si>
-    <t>DataSpecification:26,DataSpecification:24,DataSpecification:12,DataSpecification:80,DataSpecification:10,DataSpecification:74,DataSpecification:33,DataSpecification:78,DataSpecification:79,DataSpecification:15,DataSpecification:18,DataSpecification:9,DataSpecification:81</t>
-  </si>
-  <si>
-    <t>DataSpecification:53,DataSpecification:64,DataSpecification:80,DataSpecification:26,DataSpecification:12,DataSpecification:21,DataSpecification:24,DataSpecification:11,DataSpecification:74,DataSpecification:36,DataSpecification:76,DataSpecification:25</t>
-  </si>
-  <si>
-    <t>DataSpecification:12,DataSpecification:72</t>
-  </si>
-  <si>
-    <t>DataSpecification:73,DataSpecification:39</t>
-  </si>
-  <si>
-    <t>DataSpecification:46,DataSpecification:83,DataSpecification:53,DataSpecification:60</t>
-  </si>
-  <si>
-    <t>DataSpecification:12,DataSpecification:72,DataSpecification:78,DataSpecification:79,DataSpecification:1,DataSpecification:29,DataSpecification:37,DataSpecification:32,DataSpecification:50</t>
-  </si>
-  <si>
-    <t>DataSpecification:75,DataSpecification:26</t>
-  </si>
-  <si>
-    <t>DataSpecification:53,DataSpecification:80,DataSpecification:73,DataSpecification:46</t>
-  </si>
-  <si>
-    <t>DataSpecification:78,DataSpecification:79</t>
-  </si>
-  <si>
-    <t>DataSpecification:74</t>
-  </si>
-  <si>
-    <t>DataSpecification:30,DataSpecification:20,DataSpecification:25,DataSpecification:62,DataSpecification:12,DataSpecification:85,DataSpecification:27,DataSpecification:80,DataSpecification:53</t>
-  </si>
-  <si>
-    <t>DataSpecification:12,DataSpecification:53</t>
-  </si>
-  <si>
-    <t>DatasetSpecification:12,DatasetSpecification:64,DatasetSpecification:72,DatasetSpecification:78,DatasetSpecification:79, DatasetSpecification: 24, DatasetSpecification: 84</t>
-  </si>
-  <si>
-    <t>DataSpecification:12,DataSpecification:72,DataSpecification:74,DataSpecification:26,DataSpecification:80,DataSpecification:41,DataSpecification:78,DataSpecification:79,DataSpecification:51,DataSpecification:31,DataSpecification:53,DataSpecification:77</t>
-  </si>
-  <si>
     <t>Jython</t>
   </si>
   <si>
@@ -2806,10 +2650,172 @@
     <t>dbo:Software</t>
   </si>
   <si>
-    <t>https://dbpedia.org/ontology/Software</t>
-  </si>
-  <si>
     <t>Class URI</t>
+  </si>
+  <si>
+    <t>ClassURI</t>
+  </si>
+  <si>
+    <t>dss:56,dss:73,dss:39</t>
+  </si>
+  <si>
+    <t>dss:53</t>
+  </si>
+  <si>
+    <t>dss:12,dss:26,dss:80</t>
+  </si>
+  <si>
+    <t>dss:60</t>
+  </si>
+  <si>
+    <t>dss:56,dss:39,dss:38,dss:73,dss:70</t>
+  </si>
+  <si>
+    <t>dss:62</t>
+  </si>
+  <si>
+    <t>dss:73,dss:56,dss:39,dss:27,dss:55,dss:70,dss:38,dss:71,dss:57</t>
+  </si>
+  <si>
+    <t>dss:73</t>
+  </si>
+  <si>
+    <t>dss:12,dss:26,dss:80,dss:78,dss:79,dss:46</t>
+  </si>
+  <si>
+    <t>dss:30,dss:20,dss:25,dss:62,dss:12,dss:85,dss:27,dss:80,dss:53</t>
+  </si>
+  <si>
+    <t>dss:12,dss:53</t>
+  </si>
+  <si>
+    <t>dss:46</t>
+  </si>
+  <si>
+    <t>dss:56,dss:47,dss:46,dss:40,dss:28,dss:73</t>
+  </si>
+  <si>
+    <t>dss:12,dss:26,dss:80,dss:53,dss:56,dss:73,dss:39</t>
+  </si>
+  <si>
+    <t>dss:37,dss:50,dss:44,dss:64,dss:32,dss:12,dss:72,dss:78,dss:79,dss:49,dss:19,dss:45,dss:66,dss:59,dss:63,dss:41,dss:26,dss:80</t>
+  </si>
+  <si>
+    <t>dss:46,dss:60,dss:53</t>
+  </si>
+  <si>
+    <t>dss:50,dss:37,dss:32,dss:64,dss:44,dss:14,dss:61,dss:13,dss:22,dss:8,dss:17,dss:2,dss:3,dss:16,dss:69,dss:4,dss:5,dss:6,dss:7</t>
+  </si>
+  <si>
+    <t>dss:58,dss:46,dss:60</t>
+  </si>
+  <si>
+    <t>dss:12,dss:72,dss:74,dss:26,dss:80,dss:41,dss:78,dss:79,dss:51,dss:31,dss:53,dss:77</t>
+  </si>
+  <si>
+    <t>dss:39</t>
+  </si>
+  <si>
+    <t>dss:78</t>
+  </si>
+  <si>
+    <t>dss:80</t>
+  </si>
+  <si>
+    <t>dss:56,dss:39,dss:73</t>
+  </si>
+  <si>
+    <t>dss:39,dss:38</t>
+  </si>
+  <si>
+    <t>dss:56,dss:82,dss:39,dss:38,dss:73,dss:71,dss:27,dss:23,dss:54,dss:34</t>
+  </si>
+  <si>
+    <t>dss:53,dss:73</t>
+  </si>
+  <si>
+    <t>dss:57,dss:27,dss:82,dss:38,dss:39,dss:54,dss:55,dss:56,dss:70,dss:71,dss:73</t>
+  </si>
+  <si>
+    <t>dss:79,dss:41,dss:12,dss:26,dss:80,dss:37,dss:50,dss:44,dss:64,dss:62,dss:25</t>
+  </si>
+  <si>
+    <t>dss:12,dss:26,dss:80,dss:67</t>
+  </si>
+  <si>
+    <t>dss:26,dss:40,dss:42,dss:43,dss:46,dss:48,dss:73</t>
+  </si>
+  <si>
+    <t>dss:72,dss:12,dss:24,dss:26,dss:79</t>
+  </si>
+  <si>
+    <t>dss:46,dss:60</t>
+  </si>
+  <si>
+    <t>dss:12,dss:26,dss:52,dss:80</t>
+  </si>
+  <si>
+    <t>dss:53,dss:80,dss:73,dss:82,dss:70</t>
+  </si>
+  <si>
+    <t>dss:83,dss:58</t>
+  </si>
+  <si>
+    <t>dss:73,dss:39,dss:82</t>
+  </si>
+  <si>
+    <t>dss:62,dss:53,dss:26,dss:80,dss:12,dss:37</t>
+  </si>
+  <si>
+    <t>dss:62,dss:60</t>
+  </si>
+  <si>
+    <t>dss:26,dss:24,dss:12,dss:80,dss:10,dss:74,dss:33,dss:78,dss:79,dss:15,dss:18,dss:9,dss:81</t>
+  </si>
+  <si>
+    <t>dss:53,dss:64,dss:80,dss:26,dss:12,dss:21,dss:24,dss:11,dss:74,dss:36,dss:76,dss:25</t>
+  </si>
+  <si>
+    <t>dss:12,dss:72</t>
+  </si>
+  <si>
+    <t>dss:73,dss:39</t>
+  </si>
+  <si>
+    <t>dss:46,dss:83,dss:53,dss:60</t>
+  </si>
+  <si>
+    <t>dss:12,dss:72,dss:78,dss:79,dss:1,dss:29,dss:37,dss:32,dss:50</t>
+  </si>
+  <si>
+    <t>dss:75,dss:26</t>
+  </si>
+  <si>
+    <t>dss:53,dss:80,dss:73,dss:46</t>
+  </si>
+  <si>
+    <t>dss:78,dss:79</t>
+  </si>
+  <si>
+    <t>dss:74</t>
+  </si>
+  <si>
+    <t>dss</t>
+  </si>
+  <si>
+    <t>https://example.com/dss/</t>
+  </si>
+  <si>
+    <t>dss:72</t>
+  </si>
+  <si>
+    <t>dss:12,dss:64,dss:72,dss:78,dss:79,dss:24,dss:84</t>
+  </si>
+  <si>
+    <t>https://github.com/lmazuel/onagui</t>
+  </si>
+  <si>
+    <t>https://dbpedia.org/ontology/Software/</t>
   </si>
 </sst>
 </file>
@@ -2914,7 +2920,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2983,6 +2989,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3348,7 +3355,7 @@
   <dimension ref="A1:O107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3370,7 +3377,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>901</v>
+        <v>848</v>
       </c>
       <c r="B1" s="28" t="s">
         <v>1</v>
@@ -3536,7 +3543,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>898</v>
+        <v>846</v>
       </c>
       <c r="C16" s="29" t="s">
         <v>424</v>
@@ -3675,7 +3682,7 @@
         <v>60</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>868</v>
+        <v>816</v>
       </c>
       <c r="M29" s="8" t="s">
         <v>61</v>
@@ -3684,7 +3691,7 @@
         <v>426</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -3791,7 +3798,7 @@
         <v>62</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>871</v>
+        <v>819</v>
       </c>
       <c r="E32" s="22" t="s">
         <v>80</v>
@@ -3825,7 +3832,7 @@
         <v>softver:3</v>
       </c>
       <c r="O32" s="21" t="s">
-        <v>876</v>
+        <v>824</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="72" x14ac:dyDescent="0.3">
@@ -4070,7 +4077,7 @@
         <v>62</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>873</v>
+        <v>821</v>
       </c>
       <c r="E38" s="22" t="s">
         <v>120</v>
@@ -4104,7 +4111,7 @@
         <v>softver:9</v>
       </c>
       <c r="O38" t="s">
-        <v>877</v>
+        <v>825</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -4303,7 +4310,7 @@
         <v>62</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>869</v>
+        <v>817</v>
       </c>
       <c r="E43" s="22" t="s">
         <v>141</v>
@@ -4337,7 +4344,7 @@
         <v>softver:14</v>
       </c>
       <c r="O43" t="s">
-        <v>879</v>
+        <v>827</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
@@ -4386,7 +4393,7 @@
         <v>softver:15</v>
       </c>
       <c r="O44" t="s">
-        <v>878</v>
+        <v>826</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -4711,7 +4718,7 @@
         <v>softver:22</v>
       </c>
       <c r="O51" t="s">
-        <v>893</v>
+        <v>841</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="72" x14ac:dyDescent="0.3">
@@ -4806,7 +4813,7 @@
         <v>softver:24</v>
       </c>
       <c r="O53" t="s">
-        <v>880</v>
+        <v>828</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="72" x14ac:dyDescent="0.3">
@@ -4845,7 +4852,7 @@
         <v>194</v>
       </c>
       <c r="L54" s="22" t="s">
-        <v>867</v>
+        <v>815</v>
       </c>
       <c r="M54" s="23" t="s">
         <v>72</v>
@@ -5612,7 +5619,7 @@
         <v>62</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>874</v>
+        <v>822</v>
       </c>
       <c r="E71" s="22" t="s">
         <v>264</v>
@@ -5646,7 +5653,7 @@
         <v>softver:42</v>
       </c>
       <c r="O71" t="s">
-        <v>881</v>
+        <v>829</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
@@ -5695,7 +5702,7 @@
         <v>softver:43</v>
       </c>
       <c r="O72" t="s">
-        <v>882</v>
+        <v>830</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="72" x14ac:dyDescent="0.3">
@@ -5928,7 +5935,7 @@
         <v>softver:48</v>
       </c>
       <c r="O77" t="s">
-        <v>883</v>
+        <v>831</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
@@ -5977,7 +5984,7 @@
         <v>softver:49</v>
       </c>
       <c r="O78" t="s">
-        <v>884</v>
+        <v>832</v>
       </c>
     </row>
     <row r="79" spans="1:15" s="13" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5992,7 +5999,7 @@
         <v>62</v>
       </c>
       <c r="D79" s="22" t="s">
-        <v>870</v>
+        <v>818</v>
       </c>
       <c r="E79" s="22" t="s">
         <v>293</v>
@@ -6026,7 +6033,7 @@
         <v>softver:50</v>
       </c>
       <c r="O79" t="s">
-        <v>885</v>
+        <v>833</v>
       </c>
     </row>
     <row r="80" spans="1:15" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6088,7 +6095,7 @@
         <v>62</v>
       </c>
       <c r="D81" s="22" t="s">
-        <v>875</v>
+        <v>823</v>
       </c>
       <c r="E81" s="22" t="s">
         <v>304</v>
@@ -6122,7 +6129,7 @@
         <v>softver:52</v>
       </c>
       <c r="O81" t="s">
-        <v>886</v>
+        <v>834</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
@@ -6263,7 +6270,7 @@
         <v>softver:55</v>
       </c>
       <c r="O84" t="s">
-        <v>889</v>
+        <v>837</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="72" x14ac:dyDescent="0.3">
@@ -6588,7 +6595,7 @@
         <v>softver:62</v>
       </c>
       <c r="O91" t="s">
-        <v>890</v>
+        <v>838</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -6637,7 +6644,7 @@
         <v>softver:63</v>
       </c>
       <c r="O92" t="s">
-        <v>887</v>
+        <v>835</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="72" x14ac:dyDescent="0.3">
@@ -6686,7 +6693,7 @@
         <v>softver:64</v>
       </c>
       <c r="O93" t="s">
-        <v>888</v>
+        <v>836</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -6735,7 +6742,7 @@
         <v>softver:65</v>
       </c>
       <c r="O94" t="s">
-        <v>891</v>
+        <v>839</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="72" x14ac:dyDescent="0.3">
@@ -6876,7 +6883,7 @@
         <v>softver:68</v>
       </c>
       <c r="O97" t="s">
-        <v>892</v>
+        <v>840</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
@@ -7029,7 +7036,7 @@
         <v>62</v>
       </c>
       <c r="D101" s="22" t="s">
-        <v>872</v>
+        <v>820</v>
       </c>
       <c r="E101" s="22" t="s">
         <v>396</v>
@@ -7314,7 +7321,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7327,7 +7334,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>901</v>
+        <v>848</v>
       </c>
       <c r="B1" t="s">
         <v>18</v>
@@ -7341,8 +7348,8 @@
       <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>900</v>
+      <c r="C2" s="29" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -7356,7 +7363,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -7365,13 +7372,13 @@
         <v>https://dbpedia.org/resource/Graphical_user_interface</v>
       </c>
       <c r="B5" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C5" t="s">
-        <v>899</v>
+        <v>847</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -7380,13 +7387,13 @@
         <v>https://dbpedia.org/resource/Command-line_interface</v>
       </c>
       <c r="B6" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C6" t="s">
-        <v>899</v>
+        <v>847</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -7395,13 +7402,13 @@
         <v>https://dbpedia.org/resource/Web_API</v>
       </c>
       <c r="B7" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C7" t="s">
-        <v>899</v>
+        <v>847</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -7446,7 +7453,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>901</v>
+        <v>848</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>424</v>
@@ -7889,7 +7896,7 @@
         <v>428</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>894</v>
+        <v>842</v>
       </c>
       <c r="E27" t="s">
         <v>472</v>
@@ -8519,7 +8526,7 @@
         <v>428</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>895</v>
+        <v>843</v>
       </c>
       <c r="E62" t="s">
         <v>536</v>
@@ -8717,7 +8724,7 @@
         <v>428</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>896</v>
+        <v>844</v>
       </c>
       <c r="E73" t="s">
         <v>557</v>
@@ -8789,7 +8796,7 @@
         <v>428</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>897</v>
+        <v>845</v>
       </c>
       <c r="E77" t="s">
         <v>564</v>
@@ -8877,7 +8884,7 @@
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8892,7 +8899,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>901</v>
+        <v>849</v>
       </c>
       <c r="B1" t="s">
         <v>573</v>
@@ -8915,10 +8922,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="C3" t="s">
-        <v>575</v>
+        <v>898</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -8932,10 +8939,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F5" s="19"/>
     </row>
@@ -8948,10 +8955,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>816</v>
+        <v>850</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -8963,10 +8970,10 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>817</v>
+        <v>851</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -8978,10 +8985,10 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>818</v>
+        <v>852</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -8993,7 +9000,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>75</v>
@@ -9008,10 +9015,10 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>819</v>
+        <v>853</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9023,13 +9030,13 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>820</v>
+        <v>854</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>820</v>
+        <v>854</v>
       </c>
       <c r="F11" s="11"/>
     </row>
@@ -9042,10 +9049,10 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>819</v>
+        <v>853</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -9057,10 +9064,10 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>817</v>
+        <v>851</v>
       </c>
       <c r="F13" s="20"/>
     </row>
@@ -9073,10 +9080,10 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>821</v>
+        <v>855</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9088,13 +9095,13 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>822</v>
+        <v>856</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>822</v>
+        <v>856</v>
       </c>
       <c r="F15" s="11"/>
     </row>
@@ -9107,10 +9114,10 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>817</v>
+        <v>851</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -9122,10 +9129,10 @@
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>823</v>
+        <v>857</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9137,13 +9144,13 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/14</v>
@@ -9152,13 +9159,13 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>579</v>
+        <v>900</v>
       </c>
       <c r="F19" s="21"/>
     </row>
@@ -9171,13 +9178,13 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>579</v>
+        <v>900</v>
       </c>
       <c r="F20" s="21"/>
     </row>
@@ -9190,10 +9197,10 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>825</v>
+        <v>861</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9205,10 +9212,10 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>826</v>
+        <v>862</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9220,13 +9227,13 @@
         <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>827</v>
+        <v>863</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>827</v>
+        <v>863</v>
       </c>
       <c r="F23" s="11"/>
     </row>
@@ -9239,10 +9246,10 @@
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>828</v>
+        <v>864</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -9254,10 +9261,10 @@
         <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>829</v>
+        <v>865</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -9269,10 +9276,10 @@
         <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>825</v>
+        <v>861</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -9284,10 +9291,10 @@
         <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>830</v>
+        <v>866</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -9299,10 +9306,10 @@
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>817</v>
+        <v>851</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -9314,13 +9321,13 @@
         <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/25</v>
@@ -9329,13 +9336,13 @@
         <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>863</v>
+        <v>901</v>
       </c>
       <c r="F30" s="21"/>
     </row>
@@ -9348,10 +9355,10 @@
         <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>819</v>
+        <v>853</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -9363,10 +9370,10 @@
         <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>817</v>
+        <v>851</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -9378,10 +9385,10 @@
         <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>832</v>
+        <v>869</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -9393,10 +9400,10 @@
         <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>833</v>
+        <v>870</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -9408,10 +9415,10 @@
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>825</v>
+        <v>861</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -9423,10 +9430,10 @@
         <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>817</v>
+        <v>851</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -9438,10 +9445,10 @@
         <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>819</v>
+        <v>853</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -9453,10 +9460,10 @@
         <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>834</v>
+        <v>871</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -9468,13 +9475,13 @@
         <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>835</v>
+        <v>872</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>835</v>
+        <v>872</v>
       </c>
       <c r="F39" s="11"/>
     </row>
@@ -9487,13 +9494,13 @@
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>836</v>
+        <v>873</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>836</v>
+        <v>873</v>
       </c>
       <c r="F40" s="11"/>
     </row>
@@ -9506,13 +9513,13 @@
         <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>837</v>
+        <v>874</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>837</v>
+        <v>874</v>
       </c>
       <c r="F41" s="11"/>
     </row>
@@ -9525,10 +9532,10 @@
         <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>838</v>
+        <v>875</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -9540,13 +9547,13 @@
         <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>839</v>
+        <v>876</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>839</v>
+        <v>876</v>
       </c>
       <c r="F43" s="11"/>
     </row>
@@ -9559,10 +9566,10 @@
         <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>817</v>
+        <v>851</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -9574,10 +9581,10 @@
         <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>819</v>
+        <v>853</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -9589,10 +9596,10 @@
         <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>817</v>
+        <v>851</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -9604,10 +9611,10 @@
         <v>42</v>
       </c>
       <c r="C47" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>840</v>
+        <v>877</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -9619,10 +9626,10 @@
         <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>841</v>
+        <v>878</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9634,13 +9641,13 @@
         <v>44</v>
       </c>
       <c r="C49" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>842</v>
+        <v>879</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>842</v>
+        <v>879</v>
       </c>
       <c r="F49" s="11"/>
     </row>
@@ -9653,10 +9660,10 @@
         <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>843</v>
+        <v>880</v>
       </c>
       <c r="F50" s="11"/>
     </row>
@@ -9669,10 +9676,10 @@
         <v>46</v>
       </c>
       <c r="C51" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>825</v>
+        <v>861</v>
       </c>
       <c r="F51" s="11"/>
     </row>
@@ -9685,10 +9692,10 @@
         <v>47</v>
       </c>
       <c r="C52" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>844</v>
+        <v>881</v>
       </c>
       <c r="F52" s="11"/>
     </row>
@@ -9701,10 +9708,10 @@
         <v>48</v>
       </c>
       <c r="C53" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>818</v>
+        <v>852</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -9716,10 +9723,10 @@
         <v>49</v>
       </c>
       <c r="C54" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>845</v>
+        <v>882</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9731,10 +9738,10 @@
         <v>50</v>
       </c>
       <c r="C55" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>846</v>
+        <v>883</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -9746,10 +9753,10 @@
         <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>817</v>
+        <v>851</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -9761,10 +9768,10 @@
         <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>847</v>
+        <v>884</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -9776,10 +9783,10 @@
         <v>53</v>
       </c>
       <c r="C58" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>817</v>
+        <v>851</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -9791,10 +9798,10 @@
         <v>54</v>
       </c>
       <c r="C59" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>848</v>
+        <v>885</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -9806,10 +9813,10 @@
         <v>55</v>
       </c>
       <c r="C60" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>821</v>
+        <v>855</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9821,10 +9828,10 @@
         <v>56</v>
       </c>
       <c r="C61" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D61" s="21" t="s">
-        <v>849</v>
+        <v>886</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -9836,10 +9843,10 @@
         <v>57</v>
       </c>
       <c r="C62" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D62" s="21" t="s">
-        <v>831</v>
+        <v>867</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -9851,10 +9858,10 @@
         <v>58</v>
       </c>
       <c r="C63" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>819</v>
+        <v>853</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -9866,10 +9873,10 @@
         <v>59</v>
       </c>
       <c r="C64" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>819</v>
+        <v>853</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -9881,10 +9888,10 @@
         <v>60</v>
       </c>
       <c r="C65" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>850</v>
+        <v>887</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -9896,10 +9903,10 @@
         <v>61</v>
       </c>
       <c r="C66" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>821</v>
+        <v>855</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -9911,10 +9918,10 @@
         <v>62</v>
       </c>
       <c r="C67" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>821</v>
+        <v>855</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -9926,13 +9933,13 @@
         <v>63</v>
       </c>
       <c r="C68" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>851</v>
+        <v>888</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F68" s="21"/>
     </row>
@@ -9945,10 +9952,10 @@
         <v>64</v>
       </c>
       <c r="C69" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>852</v>
+        <v>889</v>
       </c>
       <c r="F69" s="21"/>
     </row>
@@ -9961,10 +9968,10 @@
         <v>65</v>
       </c>
       <c r="C70" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>853</v>
+        <v>890</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -9976,10 +9983,10 @@
         <v>66</v>
       </c>
       <c r="C71" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>819</v>
+        <v>853</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -9991,10 +9998,10 @@
         <v>67</v>
       </c>
       <c r="C72" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>854</v>
+        <v>891</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -10006,10 +10013,10 @@
         <v>68</v>
       </c>
       <c r="C73" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>855</v>
+        <v>892</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -10021,10 +10028,10 @@
         <v>69</v>
       </c>
       <c r="C74" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D74" s="21" t="s">
-        <v>856</v>
+        <v>893</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -10036,10 +10043,10 @@
         <v>70</v>
       </c>
       <c r="C75" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>817</v>
+        <v>851</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -10051,10 +10058,10 @@
         <v>71</v>
       </c>
       <c r="C76" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D76" s="21" t="s">
-        <v>857</v>
+        <v>894</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -10066,10 +10073,10 @@
         <v>72</v>
       </c>
       <c r="C77" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>858</v>
+        <v>895</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -10081,10 +10088,10 @@
         <v>73</v>
       </c>
       <c r="C78" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>821</v>
+        <v>855</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -10096,10 +10103,10 @@
         <v>74</v>
       </c>
       <c r="C79" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D79" s="21" t="s">
-        <v>859</v>
+        <v>896</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -10111,10 +10118,10 @@
         <v>75</v>
       </c>
       <c r="C80" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>817</v>
+        <v>851</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -10126,10 +10133,10 @@
         <v>76</v>
       </c>
       <c r="C81" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>832</v>
+        <v>869</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -10141,10 +10148,10 @@
         <v>77</v>
       </c>
       <c r="C82" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>860</v>
+        <v>897</v>
       </c>
     </row>
   </sheetData>
@@ -10158,7 +10165,7 @@
   <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10171,10 +10178,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="B1" t="s">
-        <v>575</v>
+        <v>848</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>899</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -10200,1286 +10207,1289 @@
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
-        <f>_xlfn.CONCAT("https://example.com/DataSpec/",B5)</f>
-        <v>https://example.com/DataSpec/1</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B5)</f>
+        <v>https://example.com/dss/1</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D5" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
-        <f t="shared" ref="A6:A69" si="0">_xlfn.CONCAT("https://example.com/DataSpec/",B6)</f>
-        <v>https://example.com/DataSpec/2</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B6)</f>
+        <v>https://example.com/dss/2</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>579</v>
+      </c>
+      <c r="D6" t="s">
         <v>581</v>
-      </c>
-      <c r="D6" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/3</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B7)</f>
+        <v>https://example.com/dss/3</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D7" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/4</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B8)</f>
+        <v>https://example.com/dss/4</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D8" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/5</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B9)</f>
+        <v>https://example.com/dss/5</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D9" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/6</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B10)</f>
+        <v>https://example.com/dss/6</v>
       </c>
       <c r="B10">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D10" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/7</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B11)</f>
+        <v>https://example.com/dss/7</v>
       </c>
       <c r="B11">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D11" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/8</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B12)</f>
+        <v>https://example.com/dss/8</v>
       </c>
       <c r="B12">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D12" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/9</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B13)</f>
+        <v>https://example.com/dss/9</v>
       </c>
       <c r="B13">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D13" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/10</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B14)</f>
+        <v>https://example.com/dss/10</v>
       </c>
       <c r="B14">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D14" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/11</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B15)</f>
+        <v>https://example.com/dss/11</v>
       </c>
       <c r="B15">
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D15" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/12</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B16)</f>
+        <v>https://example.com/dss/12</v>
       </c>
       <c r="B16">
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D16" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/13</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B17)</f>
+        <v>https://example.com/dss/13</v>
       </c>
       <c r="B17">
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D17" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/14</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B18)</f>
+        <v>https://example.com/dss/14</v>
       </c>
       <c r="B18">
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D18" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/15</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B19)</f>
+        <v>https://example.com/dss/15</v>
       </c>
       <c r="B19">
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D19" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/16</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B20)</f>
+        <v>https://example.com/dss/16</v>
       </c>
       <c r="B20">
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D20" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/17</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B21)</f>
+        <v>https://example.com/dss/17</v>
       </c>
       <c r="B21">
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D21" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/18</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B22)</f>
+        <v>https://example.com/dss/18</v>
       </c>
       <c r="B22">
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D22" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/19</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B23)</f>
+        <v>https://example.com/dss/19</v>
       </c>
       <c r="B23">
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D23" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/20</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B24)</f>
+        <v>https://example.com/dss/20</v>
       </c>
       <c r="B24">
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/21</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B25)</f>
+        <v>https://example.com/dss/21</v>
       </c>
       <c r="B25">
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D25" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/22</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B26)</f>
+        <v>https://example.com/dss/22</v>
       </c>
       <c r="B26">
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D26" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/23</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B27)</f>
+        <v>https://example.com/dss/23</v>
       </c>
       <c r="B27">
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D27" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/24</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B28)</f>
+        <v>https://example.com/dss/24</v>
       </c>
       <c r="B28">
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D28" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/25</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B29)</f>
+        <v>https://example.com/dss/25</v>
       </c>
       <c r="B29">
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D29" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/26</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B30)</f>
+        <v>https://example.com/dss/26</v>
       </c>
       <c r="B30">
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/27</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B31)</f>
+        <v>https://example.com/dss/27</v>
       </c>
       <c r="B31">
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D31" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/28</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B32)</f>
+        <v>https://example.com/dss/28</v>
       </c>
       <c r="B32">
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/29</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B33)</f>
+        <v>https://example.com/dss/29</v>
       </c>
       <c r="B33">
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D33" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/30</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B34)</f>
+        <v>https://example.com/dss/30</v>
       </c>
       <c r="B34">
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/31</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B35)</f>
+        <v>https://example.com/dss/31</v>
       </c>
       <c r="B35">
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D35" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/32</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B36)</f>
+        <v>https://example.com/dss/32</v>
       </c>
       <c r="B36">
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D36" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/33</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B37)</f>
+        <v>https://example.com/dss/33</v>
       </c>
       <c r="B37">
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D37" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/34</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B38)</f>
+        <v>https://example.com/dss/34</v>
       </c>
       <c r="B38">
         <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D38" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/35</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B39)</f>
+        <v>https://example.com/dss/35</v>
       </c>
       <c r="B39">
         <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D39" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/36</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B40)</f>
+        <v>https://example.com/dss/36</v>
       </c>
       <c r="B40">
         <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D40" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/37</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B41)</f>
+        <v>https://example.com/dss/37</v>
       </c>
       <c r="B41">
         <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D41" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/38</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B42)</f>
+        <v>https://example.com/dss/38</v>
       </c>
       <c r="B42">
         <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D42" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/39</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B43)</f>
+        <v>https://example.com/dss/39</v>
       </c>
       <c r="B43">
         <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D43" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/40</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B44)</f>
+        <v>https://example.com/dss/40</v>
       </c>
       <c r="B44">
         <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/41</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B45)</f>
+        <v>https://example.com/dss/41</v>
       </c>
       <c r="B45">
         <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D45" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/42</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B46)</f>
+        <v>https://example.com/dss/42</v>
       </c>
       <c r="B46">
         <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D46" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/43</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B47)</f>
+        <v>https://example.com/dss/43</v>
       </c>
       <c r="B47">
         <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D47" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/44</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B48)</f>
+        <v>https://example.com/dss/44</v>
       </c>
       <c r="B48">
         <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D48" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/45</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B49)</f>
+        <v>https://example.com/dss/45</v>
       </c>
       <c r="B49">
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D49" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/46</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B50)</f>
+        <v>https://example.com/dss/46</v>
       </c>
       <c r="B50">
         <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D50" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/47</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B51)</f>
+        <v>https://example.com/dss/47</v>
       </c>
       <c r="B51">
         <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D51" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/48</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B52)</f>
+        <v>https://example.com/dss/48</v>
       </c>
       <c r="B52">
         <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D52" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/49</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B53)</f>
+        <v>https://example.com/dss/49</v>
       </c>
       <c r="B53">
         <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D53" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/50</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B54)</f>
+        <v>https://example.com/dss/50</v>
       </c>
       <c r="B54">
         <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D54" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/51</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B55)</f>
+        <v>https://example.com/dss/51</v>
       </c>
       <c r="B55">
         <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D55" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/52</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B56)</f>
+        <v>https://example.com/dss/52</v>
       </c>
       <c r="B56">
         <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D56" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/53</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B57)</f>
+        <v>https://example.com/dss/53</v>
       </c>
       <c r="B57">
         <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D57" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/54</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B58)</f>
+        <v>https://example.com/dss/54</v>
       </c>
       <c r="B58">
         <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D58" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/55</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B59)</f>
+        <v>https://example.com/dss/55</v>
       </c>
       <c r="B59">
         <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D59" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/56</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B60)</f>
+        <v>https://example.com/dss/56</v>
       </c>
       <c r="B60">
         <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D60" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/57</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B61)</f>
+        <v>https://example.com/dss/57</v>
       </c>
       <c r="B61">
         <v>57</v>
       </c>
       <c r="C61" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D61" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/58</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B62)</f>
+        <v>https://example.com/dss/58</v>
       </c>
       <c r="B62">
         <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D62" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/59</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B63)</f>
+        <v>https://example.com/dss/59</v>
       </c>
       <c r="B63">
         <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D63" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/60</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B64)</f>
+        <v>https://example.com/dss/60</v>
       </c>
       <c r="B64">
         <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/61</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B65)</f>
+        <v>https://example.com/dss/61</v>
       </c>
       <c r="B65">
         <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D65" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/62</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B66)</f>
+        <v>https://example.com/dss/62</v>
       </c>
       <c r="B66">
         <v>62</v>
       </c>
       <c r="C66" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D66" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/63</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B67)</f>
+        <v>https://example.com/dss/63</v>
       </c>
       <c r="B67">
         <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D67" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/64</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B68)</f>
+        <v>https://example.com/dss/64</v>
       </c>
       <c r="B68">
         <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D68" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
-        <f t="shared" si="0"/>
-        <v>https://example.com/DataSpec/65</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B69)</f>
+        <v>https://example.com/dss/65</v>
       </c>
       <c r="B69">
         <v>65</v>
       </c>
       <c r="C69" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D69" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="str">
-        <f t="shared" ref="A70:A85" si="1">_xlfn.CONCAT("https://example.com/DataSpec/",B70)</f>
-        <v>https://example.com/DataSpec/66</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B70)</f>
+        <v>https://example.com/dss/66</v>
       </c>
       <c r="B70">
         <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D70" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="str">
-        <f t="shared" si="1"/>
-        <v>https://example.com/DataSpec/67</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B71)</f>
+        <v>https://example.com/dss/67</v>
       </c>
       <c r="B71">
         <v>67</v>
       </c>
       <c r="C71" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D71" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="str">
-        <f t="shared" si="1"/>
-        <v>https://example.com/DataSpec/68</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B72)</f>
+        <v>https://example.com/dss/68</v>
       </c>
       <c r="B72">
         <v>68</v>
       </c>
       <c r="C72" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D72" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="str">
-        <f t="shared" si="1"/>
-        <v>https://example.com/DataSpec/69</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B73)</f>
+        <v>https://example.com/dss/69</v>
       </c>
       <c r="B73">
         <v>69</v>
       </c>
       <c r="C73" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D73" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="str">
-        <f t="shared" si="1"/>
-        <v>https://example.com/DataSpec/70</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B74)</f>
+        <v>https://example.com/dss/70</v>
       </c>
       <c r="B74">
         <v>70</v>
       </c>
       <c r="C74" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D74" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
-        <f t="shared" si="1"/>
-        <v>https://example.com/DataSpec/71</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B75)</f>
+        <v>https://example.com/dss/71</v>
       </c>
       <c r="B75">
         <v>71</v>
       </c>
       <c r="C75" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D75" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="str">
-        <f t="shared" si="1"/>
-        <v>https://example.com/DataSpec/72</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B76)</f>
+        <v>https://example.com/dss/72</v>
       </c>
       <c r="B76">
         <v>72</v>
       </c>
       <c r="C76" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D76" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="str">
-        <f t="shared" si="1"/>
-        <v>https://example.com/DataSpec/73</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B77)</f>
+        <v>https://example.com/dss/73</v>
       </c>
       <c r="B77">
         <v>73</v>
       </c>
       <c r="C77" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D77" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="str">
-        <f t="shared" si="1"/>
-        <v>https://example.com/DataSpec/74</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B78)</f>
+        <v>https://example.com/dss/74</v>
       </c>
       <c r="B78">
         <v>74</v>
       </c>
       <c r="C78" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D78" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="str">
-        <f t="shared" si="1"/>
-        <v>https://example.com/DataSpec/75</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B79)</f>
+        <v>https://example.com/dss/75</v>
       </c>
       <c r="B79">
         <v>75</v>
       </c>
       <c r="C79" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D79" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="str">
-        <f t="shared" si="1"/>
-        <v>https://example.com/DataSpec/76</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B80)</f>
+        <v>https://example.com/dss/76</v>
       </c>
       <c r="B80">
         <v>76</v>
       </c>
       <c r="C80" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D80" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="str">
-        <f t="shared" si="1"/>
-        <v>https://example.com/DataSpec/77</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B81)</f>
+        <v>https://example.com/dss/77</v>
       </c>
       <c r="B81">
         <v>77</v>
       </c>
       <c r="C81" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D81" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="str">
-        <f t="shared" si="1"/>
-        <v>https://example.com/DataSpec/78</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B82)</f>
+        <v>https://example.com/dss/78</v>
       </c>
       <c r="B82">
         <v>78</v>
       </c>
       <c r="C82" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D82" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="str">
-        <f t="shared" si="1"/>
-        <v>https://example.com/DataSpec/79</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B83)</f>
+        <v>https://example.com/dss/79</v>
       </c>
       <c r="B83">
         <v>79</v>
       </c>
       <c r="C83" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D83" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="str">
-        <f t="shared" si="1"/>
-        <v>https://example.com/DataSpec/80</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B84)</f>
+        <v>https://example.com/dss/80</v>
       </c>
       <c r="B84">
         <v>80</v>
       </c>
       <c r="C84" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D84" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="str">
-        <f t="shared" si="1"/>
-        <v>https://example.com/DataSpec/81</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B85)</f>
+        <v>https://example.com/dss/81</v>
       </c>
       <c r="B85">
         <v>81</v>
       </c>
       <c r="C85" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D85" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="str">
-        <f t="shared" ref="A86" si="2">_xlfn.CONCAT("https://example.com/DataSpec/",B86)</f>
-        <v>https://example.com/DataSpec/82</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B86)</f>
+        <v>https://example.com/dss/82</v>
       </c>
       <c r="B86">
         <v>82</v>
       </c>
       <c r="C86" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D86" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="str">
-        <f t="shared" ref="A87" si="3">_xlfn.CONCAT("https://example.com/DataSpec/",B87)</f>
-        <v>https://example.com/DataSpec/83</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B87)</f>
+        <v>https://example.com/dss/83</v>
       </c>
       <c r="B87">
         <v>83</v>
       </c>
       <c r="C87" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D87" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="str">
-        <f t="shared" ref="A88" si="4">_xlfn.CONCAT("https://example.com/DataSpec/",B88)</f>
-        <v>https://example.com/DataSpec/84</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B88)</f>
+        <v>https://example.com/dss/84</v>
       </c>
       <c r="B88">
         <v>84</v>
       </c>
       <c r="C88" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D88" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="str">
-        <f t="shared" ref="A89" si="5">_xlfn.CONCAT("https://example.com/DataSpec/",B89)</f>
-        <v>https://example.com/DataSpec/85</v>
+        <f>_xlfn.CONCAT("https://example.com/dss/",B89)</f>
+        <v>https://example.com/dss/85</v>
       </c>
       <c r="B89">
         <v>85</v>
       </c>
       <c r="C89" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D89" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{611A8628-CB23-4EB7-A0BF-8DF8D0CDEEC0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11513,10 +11523,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -11530,7 +11540,7 @@
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -11542,10 +11552,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -11557,10 +11567,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>660</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>662</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -11572,10 +11582,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -11587,10 +11597,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -11602,10 +11612,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -11617,10 +11627,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -11632,10 +11642,10 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
   </sheetData>
@@ -11677,10 +11687,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -11694,7 +11704,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -11706,10 +11716,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D5" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -11721,10 +11731,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -11736,10 +11746,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D7" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -11751,10 +11761,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D8" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -11766,10 +11776,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D9" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -11781,10 +11791,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D10" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -11796,10 +11806,10 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -11811,10 +11821,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D12" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -11826,10 +11836,10 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D13" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -11841,10 +11851,10 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D14" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -11856,10 +11866,10 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D15" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -11871,10 +11881,10 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D16" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -11886,10 +11896,10 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D17" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -11901,10 +11911,10 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D18" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
   </sheetData>
@@ -11917,8 +11927,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11931,7 +11941,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>901</v>
+        <v>848</v>
       </c>
       <c r="B1" t="s">
         <v>24</v>
@@ -11960,7 +11970,7 @@
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -11972,10 +11982,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D5" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -11987,10 +11997,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>682</v>
+      </c>
+      <c r="D6" t="s">
         <v>684</v>
-      </c>
-      <c r="D6" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -12002,10 +12012,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D7" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -12017,10 +12027,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D8" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -12032,10 +12042,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D9" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -12047,10 +12057,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D10" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -12062,10 +12072,10 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -12077,10 +12087,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D12" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -12092,10 +12102,10 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D13" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -12107,10 +12117,10 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D14" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -12122,10 +12132,10 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D15" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -12137,10 +12147,10 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D16" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -12152,10 +12162,10 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D17" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -12167,10 +12177,10 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -12182,10 +12192,10 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D19" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -12197,10 +12207,10 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D20" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -12212,10 +12222,10 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D21" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -12227,10 +12237,10 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D22" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -12242,10 +12252,10 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D23" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -12257,10 +12267,10 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>684</v>
-      </c>
-      <c r="D24" t="s">
-        <v>703</v>
+        <v>682</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -12272,10 +12282,10 @@
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D25" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -12287,10 +12297,10 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D26" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -12302,10 +12312,10 @@
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D27" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -12317,10 +12327,10 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D28" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -12332,10 +12342,10 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -12347,10 +12357,10 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D30" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -12362,10 +12372,10 @@
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D31" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -12377,10 +12387,10 @@
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D32" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -12392,10 +12402,10 @@
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D33" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -12407,10 +12417,10 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D34" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -12422,10 +12432,10 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D35" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -12437,10 +12447,10 @@
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D36" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -12452,10 +12462,10 @@
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D37" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -12467,10 +12477,10 @@
         <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D38" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -12482,10 +12492,10 @@
         <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D39" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -12497,10 +12507,10 @@
         <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -12512,10 +12522,10 @@
         <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D41" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -12527,10 +12537,10 @@
         <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D42" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -12542,10 +12552,10 @@
         <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D43" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -12557,10 +12567,10 @@
         <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D44" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -12572,10 +12582,10 @@
         <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D45" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -12587,10 +12597,10 @@
         <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D46" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -12602,10 +12612,10 @@
         <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D47" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -12617,10 +12627,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -12632,10 +12642,10 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -12647,10 +12657,10 @@
         <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -12662,10 +12672,10 @@
         <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -12677,10 +12687,10 @@
         <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D52" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -12692,10 +12702,10 @@
         <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D53" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -12707,10 +12717,10 @@
         <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -12722,10 +12732,10 @@
         <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D55" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -12737,10 +12747,10 @@
         <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D56" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -12752,10 +12762,10 @@
         <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D57" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -12767,10 +12777,10 @@
         <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D58" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -12782,10 +12792,10 @@
         <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -12797,10 +12807,10 @@
         <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D60" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -12812,10 +12822,10 @@
         <v>57</v>
       </c>
       <c r="C61" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D61" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -12827,10 +12837,10 @@
         <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D62" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -12842,10 +12852,10 @@
         <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D63" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -12857,10 +12867,10 @@
         <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D64" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -12872,10 +12882,10 @@
         <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -12887,10 +12897,10 @@
         <v>62</v>
       </c>
       <c r="C66" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -12902,10 +12912,10 @@
         <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D67" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -12917,10 +12927,10 @@
         <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -12932,10 +12942,10 @@
         <v>65</v>
       </c>
       <c r="C69" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D69" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -12947,10 +12957,10 @@
         <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -12962,10 +12972,10 @@
         <v>67</v>
       </c>
       <c r="C71" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D71" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -12977,10 +12987,10 @@
         <v>68</v>
       </c>
       <c r="C72" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D72" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -12992,10 +13002,10 @@
         <v>69</v>
       </c>
       <c r="C73" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -13007,10 +13017,10 @@
         <v>70</v>
       </c>
       <c r="C74" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D74" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -13022,10 +13032,10 @@
         <v>71</v>
       </c>
       <c r="C75" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D75" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -13037,10 +13047,10 @@
         <v>72</v>
       </c>
       <c r="C76" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D76" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -13052,10 +13062,10 @@
         <v>73</v>
       </c>
       <c r="C77" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -13067,10 +13077,10 @@
         <v>74</v>
       </c>
       <c r="C78" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D78" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -13082,10 +13092,10 @@
         <v>75</v>
       </c>
       <c r="C79" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D79" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -13097,10 +13107,10 @@
         <v>76</v>
       </c>
       <c r="C80" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D80" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -13112,10 +13122,10 @@
         <v>77</v>
       </c>
       <c r="C81" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D81" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>
@@ -13154,10 +13164,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -13171,7 +13181,7 @@
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -13180,13 +13190,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/MIT</v>
       </c>
       <c r="B5" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C5" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D5" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -13195,13 +13205,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/APACHE_2_0</v>
       </c>
       <c r="B6" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C6" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D6" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -13210,13 +13220,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/BSD_2_CLAUSE</v>
       </c>
       <c r="B7" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C7" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D7" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -13225,13 +13235,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/BSD_3_CLAUSE</v>
       </c>
       <c r="B8" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C8" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D8" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -13240,13 +13250,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/CC_BYNC_3_0</v>
       </c>
       <c r="B9" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C9" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D9" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -13255,13 +13265,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/CC_BYSA_4_0</v>
       </c>
       <c r="B10" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C10" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D10" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -13270,13 +13280,13 @@
         <v>https://spdx.org/licenses/CECILL-2.0</v>
       </c>
       <c r="B11" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C11" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D11" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -13285,13 +13295,13 @@
         <v>https://spdx.org/licenses/CECILL-C</v>
       </c>
       <c r="B12" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C12" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D12" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -13300,13 +13310,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/EUPL_1_2</v>
       </c>
       <c r="B13" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C13" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D13" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -13315,13 +13325,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/AGPL_3_0</v>
       </c>
       <c r="B14" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C14" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D14" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -13330,13 +13340,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/LGPL_2_1</v>
       </c>
       <c r="B15" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C15" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D15" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -13345,13 +13355,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/LGPL_3_0</v>
       </c>
       <c r="B16" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C16" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D16" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -13360,13 +13370,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/GPL_2_0</v>
       </c>
       <c r="B17" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C17" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D17" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -13375,13 +13385,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/GPL_3_0</v>
       </c>
       <c r="B18" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C18" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D18" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -13390,13 +13400,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/ISC</v>
       </c>
       <c r="B19" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C19" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D19" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -13405,13 +13415,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/MPL_1_1</v>
       </c>
       <c r="B20" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C20" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D20" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -13420,13 +13430,13 @@
         <v>https://spdx.org/licenses/Unlicense</v>
       </c>
       <c r="B21" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C21" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D21" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
   </sheetData>
@@ -13448,7 +13458,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>901</v>
+        <v>848</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
@@ -13460,10 +13470,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C2" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -13477,7 +13487,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -13489,10 +13499,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="D5" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -13504,10 +13514,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="D6" t="s">
-        <v>866</v>
+        <v>814</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -13519,10 +13529,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="D7" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -13534,10 +13544,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
+        <v>790</v>
+      </c>
+      <c r="D8" t="s">
         <v>793</v>
-      </c>
-      <c r="D8" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -13549,10 +13559,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="D9" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -13564,10 +13574,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="D10" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -13579,10 +13589,10 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="D11" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -13594,10 +13604,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="D12" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -13609,10 +13619,10 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="D13" t="s">
-        <v>865</v>
+        <v>813</v>
       </c>
     </row>
   </sheetData>
@@ -13624,6 +13634,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007AEFB2A585EFEB438A74F703037745A4" ma:contentTypeVersion="22" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="066928f5f756ae6a0953337b70a1faf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf3f9575-65b8-4549-b389-33a18b8943d7" xmlns:ns3="21f64c02-1f20-443d-801b-ae17df5c4a0a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a35f3283c960054123670de2c4a4632" ns2:_="" ns3:_="">
     <xsd:import namespace="bf3f9575-65b8-4549-b389-33a18b8943d7"/>
@@ -13878,11 +13893,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -13895,6 +13905,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{164C3F70-F822-4EF6-AEFF-DC1ABB56CF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1435F584-9511-4912-AF17-F83A08F28CE8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13909,14 +13927,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{164C3F70-F822-4EF6-AEFF-DC1ABB56CF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tools.xlsx
+++ b/tools.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aschiltz003\Documents\GitHub\Semantic-Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E73724-FE2C-4003-84A6-29E22A48933E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05460F51-B861-4D1D-BFCD-B874DDCA4308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{AFCE36E2-F631-4322-AF27-256B8B7C0B04}"/>
   </bookViews>
@@ -774,10 +774,6 @@
     <t>Raptor</t>
   </si>
   <si>
-    <t>Raptor is a free software / Open Source C library that provides a set of parsers and serializers that
-generate Resource Description Framework (RDF) triples by parsing syntaxes or serialize the triples into a syntax.</t>
-  </si>
-  <si>
     <t>https://librdf.org/raptor/</t>
   </si>
   <si>
@@ -2816,6 +2812,9 @@
   </si>
   <si>
     <t>comp:3,comp:4</t>
+  </si>
+  <si>
+    <t>Raptor is a free software / Open Source C library that provides a set of parsers and serializers that generate Resource Description Framework (RDF) triples by parsing syntaxes or serialize the triples into a syntax.</t>
   </si>
 </sst>
 </file>
@@ -3354,8 +3353,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F106" sqref="F30:G106"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3377,7 +3376,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B1" s="28" t="s">
         <v>1</v>
@@ -3543,10 +3542,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -3667,7 +3666,7 @@
         <v>55</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H29" s="8" t="s">
         <v>56</v>
@@ -3682,16 +3681,16 @@
         <v>59</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="M29" s="8" t="s">
         <v>60</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -3798,7 +3797,7 @@
         <v>61</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E32" s="22" t="s">
         <v>79</v>
@@ -3832,7 +3831,7 @@
         <v>softver:3</v>
       </c>
       <c r="O32" s="21" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="72" x14ac:dyDescent="0.3">
@@ -4077,7 +4076,7 @@
         <v>61</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E38" s="22" t="s">
         <v>119</v>
@@ -4111,7 +4110,7 @@
         <v>softver:9</v>
       </c>
       <c r="O38" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -4310,7 +4309,7 @@
         <v>61</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E43" s="22" t="s">
         <v>140</v>
@@ -4344,7 +4343,7 @@
         <v>softver:14</v>
       </c>
       <c r="O43" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
@@ -4365,7 +4364,7 @@
         <v>147</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="G44" s="22" t="s">
         <v>148</v>
@@ -4393,7 +4392,7 @@
         <v>softver:15</v>
       </c>
       <c r="O44" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -4718,7 +4717,7 @@
         <v>softver:22</v>
       </c>
       <c r="O51" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="72" x14ac:dyDescent="0.3">
@@ -4813,7 +4812,7 @@
         <v>softver:24</v>
       </c>
       <c r="O53" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="72" x14ac:dyDescent="0.3">
@@ -4852,7 +4851,7 @@
         <v>192</v>
       </c>
       <c r="L54" s="22" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="M54" s="23" t="s">
         <v>71</v>
@@ -5187,7 +5186,7 @@
       </c>
       <c r="O61" s="27"/>
     </row>
-    <row r="62" spans="1:15" s="13" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" s="13" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A62" s="22" t="str">
         <f t="shared" ref="A62:A93" si="1">_xlfn.CONCAT("https://example.com/tool/",B62)</f>
         <v>https://example.com/tool/33</v>
@@ -5202,7 +5201,7 @@
         <v>222</v>
       </c>
       <c r="E62" s="22" t="s">
-        <v>223</v>
+        <v>903</v>
       </c>
       <c r="F62" s="22" t="s">
         <v>80</v>
@@ -5211,16 +5210,16 @@
         <v>81</v>
       </c>
       <c r="H62" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="I62" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="I62" s="29" t="s">
+      <c r="J62" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="J62" s="22" t="s">
+      <c r="K62" s="21" t="s">
         <v>226</v>
-      </c>
-      <c r="K62" s="21" t="s">
-        <v>227</v>
       </c>
       <c r="L62" s="22" t="s">
         <v>74</v>
@@ -5246,10 +5245,10 @@
         <v>61</v>
       </c>
       <c r="D63" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="E63" s="22" t="s">
         <v>228</v>
-      </c>
-      <c r="E63" s="22" t="s">
-        <v>229</v>
       </c>
       <c r="F63" s="22" t="s">
         <v>80</v>
@@ -5258,16 +5257,16 @@
         <v>102</v>
       </c>
       <c r="H63" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="I63" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="I63" s="29" t="s">
-        <v>231</v>
-      </c>
       <c r="J63" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="K63" s="21" t="s">
         <v>226</v>
-      </c>
-      <c r="K63" s="21" t="s">
-        <v>227</v>
       </c>
       <c r="L63" s="22" t="s">
         <v>70</v>
@@ -5293,10 +5292,10 @@
         <v>61</v>
       </c>
       <c r="D64" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="E64" s="22" t="s">
         <v>232</v>
-      </c>
-      <c r="E64" s="22" t="s">
-        <v>233</v>
       </c>
       <c r="F64" s="22" t="s">
         <v>80</v>
@@ -5305,16 +5304,16 @@
         <v>102</v>
       </c>
       <c r="H64" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="I64" s="29" t="s">
         <v>234</v>
-      </c>
-      <c r="I64" s="29" t="s">
-        <v>235</v>
       </c>
       <c r="J64" s="22" t="s">
         <v>111</v>
       </c>
       <c r="K64" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L64" s="22" t="s">
         <v>70</v>
@@ -5340,10 +5339,10 @@
         <v>61</v>
       </c>
       <c r="D65" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="E65" s="22" t="s">
         <v>237</v>
-      </c>
-      <c r="E65" s="22" t="s">
-        <v>238</v>
       </c>
       <c r="F65" s="22" t="s">
         <v>80</v>
@@ -5352,10 +5351,10 @@
         <v>102</v>
       </c>
       <c r="H65" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="I65" s="29" t="s">
         <v>239</v>
-      </c>
-      <c r="I65" s="29" t="s">
-        <v>240</v>
       </c>
       <c r="J65" s="22" t="s">
         <v>168</v>
@@ -5387,25 +5386,25 @@
         <v>61</v>
       </c>
       <c r="D66" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="E66" s="22" t="s">
         <v>241</v>
-      </c>
-      <c r="E66" s="22" t="s">
-        <v>242</v>
       </c>
       <c r="F66" s="22" t="s">
         <v>200</v>
       </c>
       <c r="G66" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H66" s="26" t="s">
         <v>74</v>
       </c>
       <c r="I66" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="J66" s="22" t="s">
         <v>244</v>
-      </c>
-      <c r="J66" s="22" t="s">
-        <v>245</v>
       </c>
       <c r="K66" s="21" t="s">
         <v>77</v>
@@ -5434,10 +5433,10 @@
         <v>61</v>
       </c>
       <c r="D67" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="E67" s="22" t="s">
         <v>246</v>
-      </c>
-      <c r="E67" s="22" t="s">
-        <v>247</v>
       </c>
       <c r="F67" s="22" t="s">
         <v>80</v>
@@ -5449,10 +5448,10 @@
         <v>74</v>
       </c>
       <c r="I67" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="J67" s="22" t="s">
         <v>248</v>
-      </c>
-      <c r="J67" s="22" t="s">
-        <v>249</v>
       </c>
       <c r="K67" s="21" t="s">
         <v>69</v>
@@ -5481,10 +5480,10 @@
         <v>61</v>
       </c>
       <c r="D68" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="E68" s="22" t="s">
         <v>250</v>
-      </c>
-      <c r="E68" s="22" t="s">
-        <v>251</v>
       </c>
       <c r="F68" s="22" t="s">
         <v>114</v>
@@ -5493,10 +5492,10 @@
         <v>115</v>
       </c>
       <c r="H68" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="I68" s="29" t="s">
         <v>252</v>
-      </c>
-      <c r="I68" s="29" t="s">
-        <v>253</v>
       </c>
       <c r="J68" s="22" t="s">
         <v>76</v>
@@ -5527,10 +5526,10 @@
         <v>61</v>
       </c>
       <c r="D69" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="E69" s="22" t="s">
         <v>254</v>
-      </c>
-      <c r="E69" s="22" t="s">
-        <v>255</v>
       </c>
       <c r="F69" s="22" t="s">
         <v>93</v>
@@ -5542,7 +5541,7 @@
         <v>74</v>
       </c>
       <c r="I69" s="29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J69" s="22" t="s">
         <v>76</v>
@@ -5573,10 +5572,10 @@
         <v>61</v>
       </c>
       <c r="D70" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="E70" s="22" t="s">
         <v>257</v>
-      </c>
-      <c r="E70" s="22" t="s">
-        <v>258</v>
       </c>
       <c r="F70" s="22" t="s">
         <v>120</v>
@@ -5588,16 +5587,16 @@
         <v>74</v>
       </c>
       <c r="I70" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="J70" s="22" t="s">
         <v>259</v>
-      </c>
-      <c r="J70" s="22" t="s">
-        <v>260</v>
       </c>
       <c r="K70" s="21" t="s">
         <v>197</v>
       </c>
       <c r="L70" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M70" s="23" t="s">
         <v>156</v>
@@ -5619,10 +5618,10 @@
         <v>61</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E71" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F71" s="22" t="s">
         <v>80</v>
@@ -5631,10 +5630,10 @@
         <v>81</v>
       </c>
       <c r="H71" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="I71" s="29" t="s">
         <v>263</v>
-      </c>
-      <c r="I71" s="29" t="s">
-        <v>264</v>
       </c>
       <c r="J71" s="22" t="s">
         <v>76</v>
@@ -5653,7 +5652,7 @@
         <v>softver:42</v>
       </c>
       <c r="O71" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
@@ -5668,10 +5667,10 @@
         <v>61</v>
       </c>
       <c r="D72" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="E72" s="22" t="s">
         <v>265</v>
-      </c>
-      <c r="E72" s="22" t="s">
-        <v>266</v>
       </c>
       <c r="F72" s="22" t="s">
         <v>80</v>
@@ -5680,13 +5679,13 @@
         <v>81</v>
       </c>
       <c r="H72" s="26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I72" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="J72" s="22" t="s">
         <v>267</v>
-      </c>
-      <c r="J72" s="22" t="s">
-        <v>268</v>
       </c>
       <c r="K72" s="21" t="s">
         <v>69</v>
@@ -5702,7 +5701,7 @@
         <v>softver:43</v>
       </c>
       <c r="O72" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="72" x14ac:dyDescent="0.3">
@@ -5717,10 +5716,10 @@
         <v>61</v>
       </c>
       <c r="D73" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="E73" s="22" t="s">
         <v>269</v>
-      </c>
-      <c r="E73" s="22" t="s">
-        <v>270</v>
       </c>
       <c r="F73" s="22" t="s">
         <v>80</v>
@@ -5729,10 +5728,10 @@
         <v>102</v>
       </c>
       <c r="H73" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="I73" s="29" t="s">
         <v>271</v>
-      </c>
-      <c r="I73" s="29" t="s">
-        <v>272</v>
       </c>
       <c r="J73" s="22" t="s">
         <v>76</v>
@@ -5763,10 +5762,10 @@
         <v>61</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E74" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F74" s="22" t="s">
         <v>120</v>
@@ -5775,10 +5774,10 @@
         <v>121</v>
       </c>
       <c r="H74" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="I74" s="29" t="s">
         <v>274</v>
-      </c>
-      <c r="I74" s="29" t="s">
-        <v>275</v>
       </c>
       <c r="J74" s="22" t="s">
         <v>76</v>
@@ -5809,10 +5808,10 @@
         <v>61</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E75" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F75" s="22" t="s">
         <v>114</v>
@@ -5821,10 +5820,10 @@
         <v>115</v>
       </c>
       <c r="H75" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I75" s="29" t="s">
         <v>277</v>
-      </c>
-      <c r="I75" s="29" t="s">
-        <v>278</v>
       </c>
       <c r="J75" s="22" t="s">
         <v>76</v>
@@ -5855,10 +5854,10 @@
         <v>61</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E76" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F76" s="22" t="s">
         <v>114</v>
@@ -5867,10 +5866,10 @@
         <v>115</v>
       </c>
       <c r="H76" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="I76" s="29" t="s">
         <v>280</v>
-      </c>
-      <c r="I76" s="29" t="s">
-        <v>281</v>
       </c>
       <c r="J76" s="22" t="s">
         <v>76</v>
@@ -5901,10 +5900,10 @@
         <v>61</v>
       </c>
       <c r="D77" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="E77" s="22" t="s">
         <v>282</v>
-      </c>
-      <c r="E77" s="22" t="s">
-        <v>283</v>
       </c>
       <c r="F77" s="22" t="s">
         <v>80</v>
@@ -5913,16 +5912,16 @@
         <v>81</v>
       </c>
       <c r="H77" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="I77" s="29" t="s">
         <v>284</v>
-      </c>
-      <c r="I77" s="29" t="s">
-        <v>285</v>
       </c>
       <c r="J77" s="22" t="s">
         <v>68</v>
       </c>
       <c r="K77" s="21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L77" s="22" t="s">
         <v>83</v>
@@ -5935,7 +5934,7 @@
         <v>softver:48</v>
       </c>
       <c r="O77" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
@@ -5950,10 +5949,10 @@
         <v>61</v>
       </c>
       <c r="D78" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="E78" s="22" t="s">
         <v>287</v>
-      </c>
-      <c r="E78" s="22" t="s">
-        <v>288</v>
       </c>
       <c r="F78" s="22" t="s">
         <v>80</v>
@@ -5962,10 +5961,10 @@
         <v>81</v>
       </c>
       <c r="H78" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="I78" s="29" t="s">
         <v>289</v>
-      </c>
-      <c r="I78" s="29" t="s">
-        <v>290</v>
       </c>
       <c r="J78" s="22" t="s">
         <v>168</v>
@@ -5984,7 +5983,7 @@
         <v>softver:49</v>
       </c>
       <c r="O78" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="79" spans="1:15" s="13" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5999,25 +5998,25 @@
         <v>61</v>
       </c>
       <c r="D79" s="22" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E79" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="F79" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="F79" s="22" t="s">
+      <c r="G79" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="G79" s="22" t="s">
+      <c r="H79" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="H79" s="21" t="s">
+      <c r="I79" s="29" t="s">
         <v>294</v>
       </c>
-      <c r="I79" s="29" t="s">
+      <c r="J79" s="22" t="s">
         <v>295</v>
-      </c>
-      <c r="J79" s="22" t="s">
-        <v>296</v>
       </c>
       <c r="K79" s="21" t="s">
         <v>210</v>
@@ -6033,7 +6032,7 @@
         <v>softver:50</v>
       </c>
       <c r="O79" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="80" spans="1:15" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6048,10 +6047,10 @@
         <v>61</v>
       </c>
       <c r="D80" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="E80" s="22" t="s">
         <v>297</v>
-      </c>
-      <c r="E80" s="22" t="s">
-        <v>298</v>
       </c>
       <c r="F80" s="22" t="s">
         <v>114</v>
@@ -6060,16 +6059,16 @@
         <v>115</v>
       </c>
       <c r="H80" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="I80" s="29" t="s">
         <v>299</v>
-      </c>
-      <c r="I80" s="29" t="s">
-        <v>300</v>
       </c>
       <c r="J80" s="22" t="s">
         <v>68</v>
       </c>
       <c r="K80" s="21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L80" s="22" t="s">
         <v>70</v>
@@ -6095,10 +6094,10 @@
         <v>61</v>
       </c>
       <c r="D81" s="22" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E81" s="22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F81" s="22" t="s">
         <v>120</v>
@@ -6110,10 +6109,10 @@
         <v>74</v>
       </c>
       <c r="I81" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="J81" s="22" t="s">
         <v>303</v>
-      </c>
-      <c r="J81" s="22" t="s">
-        <v>304</v>
       </c>
       <c r="K81" s="21" t="s">
         <v>69</v>
@@ -6129,7 +6128,7 @@
         <v>softver:52</v>
       </c>
       <c r="O81" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
@@ -6144,10 +6143,10 @@
         <v>61</v>
       </c>
       <c r="D82" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="E82" s="22" t="s">
         <v>305</v>
-      </c>
-      <c r="E82" s="22" t="s">
-        <v>306</v>
       </c>
       <c r="F82" s="22" t="s">
         <v>114</v>
@@ -6156,13 +6155,13 @@
         <v>115</v>
       </c>
       <c r="H82" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="I82" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="I82" s="29" t="s">
+      <c r="J82" s="22" t="s">
         <v>308</v>
-      </c>
-      <c r="J82" s="22" t="s">
-        <v>309</v>
       </c>
       <c r="K82" s="21" t="s">
         <v>69</v>
@@ -6190,10 +6189,10 @@
         <v>61</v>
       </c>
       <c r="D83" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="E83" s="22" t="s">
         <v>310</v>
-      </c>
-      <c r="E83" s="22" t="s">
-        <v>311</v>
       </c>
       <c r="F83" s="22" t="s">
         <v>80</v>
@@ -6205,13 +6204,13 @@
         <v>74</v>
       </c>
       <c r="I83" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J83" s="22" t="s">
         <v>168</v>
       </c>
       <c r="K83" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L83" s="22" t="s">
         <v>74</v>
@@ -6236,22 +6235,22 @@
         <v>61</v>
       </c>
       <c r="D84" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="E84" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="E84" s="22" t="s">
+      <c r="F84" s="22" t="s">
+        <v>902</v>
+      </c>
+      <c r="G84" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="F84" s="22" t="s">
-        <v>903</v>
-      </c>
-      <c r="G84" s="22" t="s">
+      <c r="H84" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="H84" s="21" t="s">
+      <c r="I84" s="29" t="s">
         <v>316</v>
-      </c>
-      <c r="I84" s="29" t="s">
-        <v>317</v>
       </c>
       <c r="J84" s="22" t="s">
         <v>68</v>
@@ -6270,7 +6269,7 @@
         <v>softver:55</v>
       </c>
       <c r="O84" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="72" x14ac:dyDescent="0.3">
@@ -6285,10 +6284,10 @@
         <v>61</v>
       </c>
       <c r="D85" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="E85" s="22" t="s">
         <v>318</v>
-      </c>
-      <c r="E85" s="22" t="s">
-        <v>319</v>
       </c>
       <c r="F85" s="22" t="s">
         <v>64</v>
@@ -6297,13 +6296,13 @@
         <v>65</v>
       </c>
       <c r="H85" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="I85" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="I85" s="29" t="s">
+      <c r="J85" s="22" t="s">
         <v>321</v>
-      </c>
-      <c r="J85" s="22" t="s">
-        <v>322</v>
       </c>
       <c r="K85" s="21" t="s">
         <v>77</v>
@@ -6331,10 +6330,10 @@
         <v>61</v>
       </c>
       <c r="D86" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="E86" s="22" t="s">
         <v>323</v>
-      </c>
-      <c r="E86" s="22" t="s">
-        <v>324</v>
       </c>
       <c r="F86" s="22" t="s">
         <v>120</v>
@@ -6343,10 +6342,10 @@
         <v>121</v>
       </c>
       <c r="H86" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="I86" s="29" t="s">
         <v>325</v>
-      </c>
-      <c r="I86" s="29" t="s">
-        <v>326</v>
       </c>
       <c r="J86" s="22" t="s">
         <v>76</v>
@@ -6377,10 +6376,10 @@
         <v>61</v>
       </c>
       <c r="D87" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="E87" s="22" t="s">
         <v>327</v>
-      </c>
-      <c r="E87" s="22" t="s">
-        <v>328</v>
       </c>
       <c r="F87" s="22" t="s">
         <v>114</v>
@@ -6389,10 +6388,10 @@
         <v>220</v>
       </c>
       <c r="H87" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="I87" s="29" t="s">
         <v>329</v>
-      </c>
-      <c r="I87" s="29" t="s">
-        <v>330</v>
       </c>
       <c r="J87" s="22" t="s">
         <v>97</v>
@@ -6423,10 +6422,10 @@
         <v>61</v>
       </c>
       <c r="D88" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="E88" s="22" t="s">
         <v>331</v>
-      </c>
-      <c r="E88" s="22" t="s">
-        <v>332</v>
       </c>
       <c r="F88" s="22" t="s">
         <v>114</v>
@@ -6435,10 +6434,10 @@
         <v>220</v>
       </c>
       <c r="H88" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="I88" s="29" t="s">
         <v>333</v>
-      </c>
-      <c r="I88" s="29" t="s">
-        <v>334</v>
       </c>
       <c r="J88" s="22" t="s">
         <v>168</v>
@@ -6469,10 +6468,10 @@
         <v>61</v>
       </c>
       <c r="D89" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="E89" s="22" t="s">
         <v>335</v>
-      </c>
-      <c r="E89" s="22" t="s">
-        <v>336</v>
       </c>
       <c r="F89" s="22" t="s">
         <v>120</v>
@@ -6481,13 +6480,13 @@
         <v>121</v>
       </c>
       <c r="H89" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="I89" s="29" t="s">
         <v>337</v>
       </c>
-      <c r="I89" s="29" t="s">
+      <c r="J89" s="22" t="s">
         <v>338</v>
-      </c>
-      <c r="J89" s="22" t="s">
-        <v>339</v>
       </c>
       <c r="K89" s="21" t="s">
         <v>69</v>
@@ -6515,25 +6514,25 @@
         <v>61</v>
       </c>
       <c r="D90" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="E90" s="22" t="s">
         <v>340</v>
-      </c>
-      <c r="E90" s="22" t="s">
-        <v>341</v>
       </c>
       <c r="F90" s="22" t="s">
         <v>200</v>
       </c>
       <c r="G90" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="H90" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="H90" s="29" t="s">
+      <c r="I90" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="I90" s="29" t="s">
+      <c r="J90" s="22" t="s">
         <v>344</v>
-      </c>
-      <c r="J90" s="22" t="s">
-        <v>345</v>
       </c>
       <c r="K90" s="21" t="s">
         <v>77</v>
@@ -6561,22 +6560,22 @@
         <v>61</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E91" s="22" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F91" s="22" t="s">
         <v>200</v>
       </c>
       <c r="G91" s="22" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H91" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="I91" s="29" t="s">
         <v>347</v>
-      </c>
-      <c r="I91" s="29" t="s">
-        <v>348</v>
       </c>
       <c r="J91" s="22" t="s">
         <v>68</v>
@@ -6595,7 +6594,7 @@
         <v>softver:62</v>
       </c>
       <c r="O91" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -6610,22 +6609,22 @@
         <v>61</v>
       </c>
       <c r="D92" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="E92" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="E92" s="22" t="s">
+      <c r="F92" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="F92" s="22" t="s">
+      <c r="G92" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="G92" s="22" t="s">
+      <c r="H92" s="26" t="s">
         <v>352</v>
       </c>
-      <c r="H92" s="26" t="s">
+      <c r="I92" s="29" t="s">
         <v>353</v>
-      </c>
-      <c r="I92" s="29" t="s">
-        <v>354</v>
       </c>
       <c r="J92" s="22" t="s">
         <v>76</v>
@@ -6644,7 +6643,7 @@
         <v>softver:63</v>
       </c>
       <c r="O92" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="72" x14ac:dyDescent="0.3">
@@ -6659,22 +6658,22 @@
         <v>61</v>
       </c>
       <c r="D93" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="E93" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="E93" s="22" t="s">
+      <c r="F93" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="G93" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="H93" s="21" t="s">
         <v>356</v>
       </c>
-      <c r="F93" s="22" t="s">
-        <v>351</v>
-      </c>
-      <c r="G93" s="22" t="s">
-        <v>352</v>
-      </c>
-      <c r="H93" s="21" t="s">
+      <c r="I93" s="29" t="s">
         <v>357</v>
-      </c>
-      <c r="I93" s="29" t="s">
-        <v>358</v>
       </c>
       <c r="J93" s="22" t="s">
         <v>76</v>
@@ -6693,7 +6692,7 @@
         <v>softver:64</v>
       </c>
       <c r="O93" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -6708,10 +6707,10 @@
         <v>61</v>
       </c>
       <c r="D94" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="E94" s="22" t="s">
         <v>359</v>
-      </c>
-      <c r="E94" s="22" t="s">
-        <v>360</v>
       </c>
       <c r="F94" s="22" t="s">
         <v>80</v>
@@ -6720,16 +6719,16 @@
         <v>81</v>
       </c>
       <c r="H94" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="I94" s="29" t="s">
         <v>361</v>
-      </c>
-      <c r="I94" s="29" t="s">
-        <v>362</v>
       </c>
       <c r="J94" s="22" t="s">
         <v>76</v>
       </c>
       <c r="K94" s="21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L94" s="22" t="s">
         <v>145</v>
@@ -6742,7 +6741,7 @@
         <v>softver:65</v>
       </c>
       <c r="O94" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="72" x14ac:dyDescent="0.3">
@@ -6757,10 +6756,10 @@
         <v>61</v>
       </c>
       <c r="D95" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="E95" s="22" t="s">
         <v>364</v>
-      </c>
-      <c r="E95" s="22" t="s">
-        <v>365</v>
       </c>
       <c r="F95" s="22" t="s">
         <v>93</v>
@@ -6769,16 +6768,16 @@
         <v>94</v>
       </c>
       <c r="H95" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="I95" s="29" t="s">
         <v>366</v>
       </c>
-      <c r="I95" s="29" t="s">
+      <c r="J95" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="K95" s="21" t="s">
         <v>367</v>
-      </c>
-      <c r="J95" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="K95" s="21" t="s">
-        <v>368</v>
       </c>
       <c r="L95" s="22" t="s">
         <v>74</v>
@@ -6803,10 +6802,10 @@
         <v>61</v>
       </c>
       <c r="D96" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="E96" s="22" t="s">
         <v>369</v>
-      </c>
-      <c r="E96" s="22" t="s">
-        <v>370</v>
       </c>
       <c r="F96" s="22" t="s">
         <v>114</v>
@@ -6815,10 +6814,10 @@
         <v>115</v>
       </c>
       <c r="H96" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="I96" s="29" t="s">
         <v>371</v>
-      </c>
-      <c r="I96" s="29" t="s">
-        <v>372</v>
       </c>
       <c r="J96" s="22" t="s">
         <v>68</v>
@@ -6849,22 +6848,22 @@
         <v>61</v>
       </c>
       <c r="D97" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="E97" s="22" t="s">
         <v>373</v>
       </c>
-      <c r="E97" s="22" t="s">
+      <c r="F97" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="F97" s="22" t="s">
+      <c r="G97" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="G97" s="21" t="s">
+      <c r="H97" s="21" t="s">
         <v>376</v>
       </c>
-      <c r="H97" s="21" t="s">
+      <c r="I97" s="29" t="s">
         <v>377</v>
-      </c>
-      <c r="I97" s="29" t="s">
-        <v>378</v>
       </c>
       <c r="J97" s="22" t="s">
         <v>76</v>
@@ -6883,7 +6882,7 @@
         <v>softver:68</v>
       </c>
       <c r="O97" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
@@ -6898,10 +6897,10 @@
         <v>61</v>
       </c>
       <c r="D98" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="E98" s="22" t="s">
         <v>379</v>
-      </c>
-      <c r="E98" s="22" t="s">
-        <v>380</v>
       </c>
       <c r="F98" s="22" t="s">
         <v>80</v>
@@ -6910,19 +6909,19 @@
         <v>81</v>
       </c>
       <c r="H98" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="I98" s="29" t="s">
         <v>381</v>
-      </c>
-      <c r="I98" s="29" t="s">
-        <v>382</v>
       </c>
       <c r="J98" s="22" t="s">
         <v>68</v>
       </c>
       <c r="K98" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="L98" s="22" t="s">
         <v>383</v>
-      </c>
-      <c r="L98" s="22" t="s">
-        <v>384</v>
       </c>
       <c r="M98" s="23" t="s">
         <v>78</v>
@@ -6944,25 +6943,25 @@
         <v>61</v>
       </c>
       <c r="D99" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="E99" s="22" t="s">
         <v>385</v>
-      </c>
-      <c r="E99" s="22" t="s">
-        <v>386</v>
       </c>
       <c r="F99" s="22" t="s">
         <v>200</v>
       </c>
       <c r="G99" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H99" s="26" t="s">
         <v>74</v>
       </c>
       <c r="I99" s="29" t="s">
+        <v>386</v>
+      </c>
+      <c r="J99" s="22" t="s">
         <v>387</v>
-      </c>
-      <c r="J99" s="22" t="s">
-        <v>388</v>
       </c>
       <c r="K99" s="21" t="s">
         <v>69</v>
@@ -6990,22 +6989,22 @@
         <v>61</v>
       </c>
       <c r="D100" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="E100" s="22" t="s">
         <v>389</v>
-      </c>
-      <c r="E100" s="22" t="s">
-        <v>390</v>
       </c>
       <c r="F100" s="22" t="s">
         <v>200</v>
       </c>
       <c r="G100" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H100" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="I100" s="29" t="s">
         <v>391</v>
-      </c>
-      <c r="I100" s="29" t="s">
-        <v>392</v>
       </c>
       <c r="J100" s="22" t="s">
         <v>68</v>
@@ -7036,10 +7035,10 @@
         <v>61</v>
       </c>
       <c r="D101" s="22" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E101" s="22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F101" s="22" t="s">
         <v>120</v>
@@ -7048,13 +7047,13 @@
         <v>121</v>
       </c>
       <c r="H101" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="I101" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="I101" s="29" t="s">
+      <c r="J101" s="22" t="s">
         <v>395</v>
-      </c>
-      <c r="J101" s="22" t="s">
-        <v>396</v>
       </c>
       <c r="K101" s="21" t="s">
         <v>77</v>
@@ -7082,25 +7081,25 @@
         <v>61</v>
       </c>
       <c r="D102" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="E102" s="22" t="s">
         <v>397</v>
-      </c>
-      <c r="E102" s="22" t="s">
-        <v>398</v>
       </c>
       <c r="F102" s="22" t="s">
         <v>200</v>
       </c>
       <c r="G102" s="22" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H102" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="I102" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="I102" s="29" t="s">
+      <c r="J102" s="22" t="s">
         <v>400</v>
-      </c>
-      <c r="J102" s="22" t="s">
-        <v>401</v>
       </c>
       <c r="K102" s="21" t="s">
         <v>192</v>
@@ -7128,10 +7127,10 @@
         <v>61</v>
       </c>
       <c r="D103" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="E103" s="22" t="s">
         <v>402</v>
-      </c>
-      <c r="E103" s="22" t="s">
-        <v>403</v>
       </c>
       <c r="F103" s="22" t="s">
         <v>80</v>
@@ -7140,10 +7139,10 @@
         <v>81</v>
       </c>
       <c r="H103" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="I103" s="29" t="s">
         <v>404</v>
-      </c>
-      <c r="I103" s="29" t="s">
-        <v>405</v>
       </c>
       <c r="J103" s="22" t="s">
         <v>76</v>
@@ -7174,28 +7173,28 @@
         <v>61</v>
       </c>
       <c r="D104" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="E104" s="22" t="s">
         <v>406</v>
-      </c>
-      <c r="E104" s="22" t="s">
-        <v>407</v>
       </c>
       <c r="F104" s="22" t="s">
         <v>200</v>
       </c>
       <c r="G104" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H104" s="26" t="s">
         <v>74</v>
       </c>
       <c r="I104" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="J104" s="22" t="s">
         <v>408</v>
       </c>
-      <c r="J104" s="22" t="s">
+      <c r="K104" s="21" t="s">
         <v>409</v>
-      </c>
-      <c r="K104" s="21" t="s">
-        <v>410</v>
       </c>
       <c r="L104" s="22" t="s">
         <v>74</v>
@@ -7220,28 +7219,28 @@
         <v>61</v>
       </c>
       <c r="D105" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="E105" s="22" t="s">
         <v>411</v>
-      </c>
-      <c r="E105" s="22" t="s">
-        <v>412</v>
       </c>
       <c r="F105" s="22" t="s">
         <v>93</v>
       </c>
       <c r="G105" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="H105" s="26" t="s">
         <v>413</v>
       </c>
-      <c r="H105" s="26" t="s">
+      <c r="I105" s="29" t="s">
         <v>414</v>
       </c>
-      <c r="I105" s="29" t="s">
+      <c r="J105" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="J105" s="22" t="s">
-        <v>416</v>
-      </c>
       <c r="K105" s="21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L105" s="22" t="s">
         <v>70</v>
@@ -7266,10 +7265,10 @@
         <v>61</v>
       </c>
       <c r="D106" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="E106" s="22" t="s">
         <v>417</v>
-      </c>
-      <c r="E106" s="22" t="s">
-        <v>418</v>
       </c>
       <c r="F106" s="22" t="s">
         <v>64</v>
@@ -7278,10 +7277,10 @@
         <v>65</v>
       </c>
       <c r="H106" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="I106" s="29" t="s">
         <v>419</v>
-      </c>
-      <c r="I106" s="29" t="s">
-        <v>420</v>
       </c>
       <c r="J106" s="22" t="s">
         <v>76</v>
@@ -7334,7 +7333,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B1" t="s">
         <v>18</v>
@@ -7349,7 +7348,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -7357,13 +7356,13 @@
         <v>50</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -7372,13 +7371,13 @@
         <v>https://dbpedia.org/resource/Graphical_user_interface</v>
       </c>
       <c r="B5" t="s">
+        <v>794</v>
+      </c>
+      <c r="C5" t="s">
+        <v>843</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>795</v>
-      </c>
-      <c r="C5" t="s">
-        <v>844</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -7387,13 +7386,13 @@
         <v>https://dbpedia.org/resource/Command-line_interface</v>
       </c>
       <c r="B6" t="s">
+        <v>796</v>
+      </c>
+      <c r="C6" t="s">
+        <v>843</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>797</v>
-      </c>
-      <c r="C6" t="s">
-        <v>844</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -7402,13 +7401,13 @@
         <v>https://dbpedia.org/resource/Web_API</v>
       </c>
       <c r="B7" t="s">
+        <v>798</v>
+      </c>
+      <c r="C7" t="s">
+        <v>843</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>799</v>
-      </c>
-      <c r="C7" t="s">
-        <v>844</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -7453,10 +7452,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -7476,16 +7475,16 @@
         <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>
       <c r="D4" t="s">
+        <v>422</v>
+      </c>
+      <c r="E4" t="s">
         <v>423</v>
-      </c>
-      <c r="E4" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -7497,13 +7496,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" t="s">
         <v>426</v>
-      </c>
-      <c r="E5" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -7515,13 +7514,13 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="E6" t="s">
         <v>428</v>
-      </c>
-      <c r="E6" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -7533,13 +7532,13 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="E7" t="s">
         <v>430</v>
-      </c>
-      <c r="E7" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -7551,13 +7550,13 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="E8" t="s">
         <v>432</v>
-      </c>
-      <c r="E8" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -7569,13 +7568,13 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="E9" t="s">
         <v>434</v>
-      </c>
-      <c r="E9" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -7587,13 +7586,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="E10" t="s">
         <v>436</v>
-      </c>
-      <c r="E10" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -7605,13 +7604,13 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="E11" t="s">
         <v>438</v>
-      </c>
-      <c r="E11" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -7623,13 +7622,13 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E12" t="s">
         <v>440</v>
-      </c>
-      <c r="E12" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -7641,13 +7640,13 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="E13" t="s">
         <v>442</v>
-      </c>
-      <c r="E13" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -7659,13 +7658,13 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="E14" t="s">
         <v>444</v>
-      </c>
-      <c r="E14" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -7677,13 +7676,13 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -7695,13 +7694,13 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E16" t="s">
         <v>447</v>
-      </c>
-      <c r="E16" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -7713,13 +7712,13 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E17" t="s">
         <v>449</v>
-      </c>
-      <c r="E17" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -7731,13 +7730,13 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D18" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="E18" t="s">
         <v>451</v>
-      </c>
-      <c r="E18" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -7749,13 +7748,13 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D19" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="E19" t="s">
         <v>453</v>
-      </c>
-      <c r="E19" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -7767,13 +7766,13 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D20" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="E20" t="s">
         <v>455</v>
-      </c>
-      <c r="E20" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -7785,13 +7784,13 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D21" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="E21" t="s">
         <v>457</v>
-      </c>
-      <c r="E21" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -7803,13 +7802,13 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D22" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="E22" t="s">
         <v>459</v>
-      </c>
-      <c r="E22" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -7821,13 +7820,13 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D23" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="E23" t="s">
         <v>461</v>
-      </c>
-      <c r="E23" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -7839,13 +7838,13 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D24" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="E24" t="s">
         <v>463</v>
-      </c>
-      <c r="E24" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -7857,13 +7856,13 @@
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D25" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="E25" t="s">
         <v>465</v>
-      </c>
-      <c r="E25" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -7875,13 +7874,13 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D26" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="E26" t="s">
         <v>467</v>
-      </c>
-      <c r="E26" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -7893,13 +7892,13 @@
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E27" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -7911,13 +7910,13 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D28" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="E28" t="s">
         <v>470</v>
-      </c>
-      <c r="E28" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -7929,13 +7928,13 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D29" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="E29" t="s">
         <v>472</v>
-      </c>
-      <c r="E29" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -7947,13 +7946,13 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D30" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="E30" t="s">
         <v>474</v>
-      </c>
-      <c r="E30" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -7965,13 +7964,13 @@
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D31" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="E31" t="s">
         <v>476</v>
-      </c>
-      <c r="E31" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -7983,13 +7982,13 @@
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D32" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="E32" t="s">
         <v>478</v>
-      </c>
-      <c r="E32" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -8001,13 +8000,13 @@
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D33" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="E33" t="s">
         <v>480</v>
-      </c>
-      <c r="E33" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -8019,13 +8018,13 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D34" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E34" t="s">
         <v>482</v>
-      </c>
-      <c r="E34" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -8037,13 +8036,13 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D35" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="E35" t="s">
         <v>484</v>
-      </c>
-      <c r="E35" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -8055,13 +8054,13 @@
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D36" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E36" t="s">
         <v>486</v>
-      </c>
-      <c r="E36" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -8073,13 +8072,13 @@
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D37" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="E37" t="s">
         <v>488</v>
-      </c>
-      <c r="E37" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -8091,13 +8090,13 @@
         <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E38" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -8109,13 +8108,13 @@
         <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D39" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="E39" t="s">
         <v>491</v>
-      </c>
-      <c r="E39" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -8127,13 +8126,13 @@
         <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D40" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="E40" t="s">
         <v>493</v>
-      </c>
-      <c r="E40" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -8145,13 +8144,13 @@
         <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D41" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="E41" t="s">
         <v>495</v>
-      </c>
-      <c r="E41" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -8163,13 +8162,13 @@
         <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D42" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="E42" t="s">
         <v>497</v>
-      </c>
-      <c r="E42" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -8181,13 +8180,13 @@
         <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D43" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="E43" t="s">
         <v>499</v>
-      </c>
-      <c r="E43" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -8199,13 +8198,13 @@
         <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D44" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="E44" t="s">
         <v>501</v>
-      </c>
-      <c r="E44" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -8217,13 +8216,13 @@
         <v>41</v>
       </c>
       <c r="C45" t="s">
+        <v>424</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>426</v>
-      </c>
       <c r="E45" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -8235,13 +8234,13 @@
         <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D46" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="E46" t="s">
         <v>504</v>
-      </c>
-      <c r="E46" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -8253,13 +8252,13 @@
         <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D47" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="E47" t="s">
         <v>506</v>
-      </c>
-      <c r="E47" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -8271,13 +8270,13 @@
         <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D48" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="E48" t="s">
         <v>508</v>
-      </c>
-      <c r="E48" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -8289,13 +8288,13 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E49" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -8307,13 +8306,13 @@
         <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E50" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -8325,13 +8324,13 @@
         <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E51" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -8343,13 +8342,13 @@
         <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D52" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="E52" t="s">
         <v>513</v>
-      </c>
-      <c r="E52" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -8361,13 +8360,13 @@
         <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D53" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="E53" t="s">
         <v>515</v>
-      </c>
-      <c r="E53" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -8379,13 +8378,13 @@
         <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D54" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="E54" t="s">
         <v>517</v>
-      </c>
-      <c r="E54" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -8397,13 +8396,13 @@
         <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D55" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="E55" t="s">
         <v>519</v>
-      </c>
-      <c r="E55" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -8415,13 +8414,13 @@
         <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D56" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="E56" t="s">
         <v>521</v>
-      </c>
-      <c r="E56" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -8433,13 +8432,13 @@
         <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D57" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="E57" t="s">
         <v>523</v>
-      </c>
-      <c r="E57" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -8451,13 +8450,13 @@
         <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D58" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="E58" t="s">
         <v>525</v>
-      </c>
-      <c r="E58" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -8469,13 +8468,13 @@
         <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D59" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="E59" t="s">
         <v>527</v>
-      </c>
-      <c r="E59" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -8487,13 +8486,13 @@
         <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D60" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="E60" t="s">
         <v>529</v>
-      </c>
-      <c r="E60" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -8505,13 +8504,13 @@
         <v>57</v>
       </c>
       <c r="C61" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D61" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="E61" t="s">
         <v>531</v>
-      </c>
-      <c r="E61" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -8523,13 +8522,13 @@
         <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E62" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -8541,13 +8540,13 @@
         <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D63" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="E63" t="s">
         <v>534</v>
-      </c>
-      <c r="E63" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -8559,13 +8558,13 @@
         <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D64" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="E64" t="s">
         <v>536</v>
-      </c>
-      <c r="E64" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -8577,13 +8576,13 @@
         <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D65" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="E65" t="s">
         <v>538</v>
-      </c>
-      <c r="E65" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -8595,13 +8594,13 @@
         <v>62</v>
       </c>
       <c r="C66" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D66" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="E66" t="s">
         <v>540</v>
-      </c>
-      <c r="E66" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -8613,13 +8612,13 @@
         <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D67" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="E67" t="s">
         <v>542</v>
-      </c>
-      <c r="E67" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -8631,13 +8630,13 @@
         <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D68" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="E68" t="s">
         <v>544</v>
-      </c>
-      <c r="E68" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -8649,13 +8648,13 @@
         <v>65</v>
       </c>
       <c r="C69" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D69" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="E69" t="s">
         <v>546</v>
-      </c>
-      <c r="E69" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -8667,13 +8666,13 @@
         <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D70" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="E70" t="s">
         <v>548</v>
-      </c>
-      <c r="E70" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -8685,13 +8684,13 @@
         <v>67</v>
       </c>
       <c r="C71" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D71" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="E71" t="s">
         <v>550</v>
-      </c>
-      <c r="E71" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -8703,13 +8702,13 @@
         <v>68</v>
       </c>
       <c r="C72" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D72" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="E72" t="s">
         <v>552</v>
-      </c>
-      <c r="E72" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -8721,13 +8720,13 @@
         <v>69</v>
       </c>
       <c r="C73" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E73" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -8739,13 +8738,13 @@
         <v>70</v>
       </c>
       <c r="C74" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D74" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="E74" t="s">
         <v>555</v>
-      </c>
-      <c r="E74" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -8757,13 +8756,13 @@
         <v>71</v>
       </c>
       <c r="C75" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D75" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="E75" t="s">
         <v>557</v>
-      </c>
-      <c r="E75" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -8775,13 +8774,13 @@
         <v>72</v>
       </c>
       <c r="C76" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D76" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="E76" t="s">
         <v>559</v>
-      </c>
-      <c r="E76" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -8793,13 +8792,13 @@
         <v>73</v>
       </c>
       <c r="C77" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E77" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -8811,13 +8810,13 @@
         <v>74</v>
       </c>
       <c r="C78" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D78" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="E78" t="s">
         <v>562</v>
-      </c>
-      <c r="E78" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -8829,13 +8828,13 @@
         <v>75</v>
       </c>
       <c r="C79" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D79" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="E79" t="s">
         <v>564</v>
-      </c>
-      <c r="E79" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -8847,13 +8846,13 @@
         <v>76</v>
       </c>
       <c r="C80" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D80" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="E80" t="s">
         <v>566</v>
-      </c>
-      <c r="E80" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -8865,13 +8864,13 @@
         <v>77</v>
       </c>
       <c r="C81" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D81" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="E81" t="s">
         <v>568</v>
-      </c>
-      <c r="E81" t="s">
-        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -8899,10 +8898,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -8922,10 +8921,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>895</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -8933,16 +8932,16 @@
         <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="21" t="s">
+        <v>570</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>571</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>572</v>
       </c>
       <c r="F5" s="19"/>
     </row>
@@ -8955,10 +8954,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -8970,10 +8969,10 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -8985,10 +8984,10 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -9000,7 +8999,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>74</v>
@@ -9015,10 +9014,10 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9030,13 +9029,13 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F11" s="11"/>
     </row>
@@ -9049,10 +9048,10 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -9064,10 +9063,10 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F13" s="20"/>
     </row>
@@ -9080,10 +9079,10 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9095,13 +9094,13 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F15" s="11"/>
     </row>
@@ -9114,10 +9113,10 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -9129,10 +9128,10 @@
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9144,10 +9143,10 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -9159,13 +9158,13 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F19" s="21"/>
     </row>
@@ -9178,13 +9177,13 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F20" s="21"/>
     </row>
@@ -9197,10 +9196,10 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9212,10 +9211,10 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9227,13 +9226,13 @@
         <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F23" s="11"/>
     </row>
@@ -9246,10 +9245,10 @@
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -9261,10 +9260,10 @@
         <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -9276,10 +9275,10 @@
         <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -9291,10 +9290,10 @@
         <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -9306,10 +9305,10 @@
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -9321,10 +9320,10 @@
         <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -9336,13 +9335,13 @@
         <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F30" s="21"/>
     </row>
@@ -9355,10 +9354,10 @@
         <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -9370,10 +9369,10 @@
         <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -9385,10 +9384,10 @@
         <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -9400,10 +9399,10 @@
         <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -9415,10 +9414,10 @@
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -9430,10 +9429,10 @@
         <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -9445,10 +9444,10 @@
         <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -9460,10 +9459,10 @@
         <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -9475,13 +9474,13 @@
         <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F39" s="11"/>
     </row>
@@ -9494,13 +9493,13 @@
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F40" s="11"/>
     </row>
@@ -9513,13 +9512,13 @@
         <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F41" s="11"/>
     </row>
@@ -9532,10 +9531,10 @@
         <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -9547,13 +9546,13 @@
         <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F43" s="11"/>
     </row>
@@ -9566,10 +9565,10 @@
         <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -9581,10 +9580,10 @@
         <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -9596,10 +9595,10 @@
         <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -9611,10 +9610,10 @@
         <v>42</v>
       </c>
       <c r="C47" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -9626,10 +9625,10 @@
         <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -9641,13 +9640,13 @@
         <v>44</v>
       </c>
       <c r="C49" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F49" s="11"/>
     </row>
@@ -9660,10 +9659,10 @@
         <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F50" s="11"/>
     </row>
@@ -9676,10 +9675,10 @@
         <v>46</v>
       </c>
       <c r="C51" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F51" s="11"/>
     </row>
@@ -9692,10 +9691,10 @@
         <v>47</v>
       </c>
       <c r="C52" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F52" s="11"/>
     </row>
@@ -9708,10 +9707,10 @@
         <v>48</v>
       </c>
       <c r="C53" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -9723,10 +9722,10 @@
         <v>49</v>
       </c>
       <c r="C54" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -9738,10 +9737,10 @@
         <v>50</v>
       </c>
       <c r="C55" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -9753,10 +9752,10 @@
         <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -9768,10 +9767,10 @@
         <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -9783,10 +9782,10 @@
         <v>53</v>
       </c>
       <c r="C58" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -9798,10 +9797,10 @@
         <v>54</v>
       </c>
       <c r="C59" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -9813,10 +9812,10 @@
         <v>55</v>
       </c>
       <c r="C60" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -9828,10 +9827,10 @@
         <v>56</v>
       </c>
       <c r="C61" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D61" s="21" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -9843,10 +9842,10 @@
         <v>57</v>
       </c>
       <c r="C62" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D62" s="21" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -9858,10 +9857,10 @@
         <v>58</v>
       </c>
       <c r="C63" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -9873,10 +9872,10 @@
         <v>59</v>
       </c>
       <c r="C64" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -9888,10 +9887,10 @@
         <v>60</v>
       </c>
       <c r="C65" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -9903,10 +9902,10 @@
         <v>61</v>
       </c>
       <c r="C66" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -9918,10 +9917,10 @@
         <v>62</v>
       </c>
       <c r="C67" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -9933,13 +9932,13 @@
         <v>63</v>
       </c>
       <c r="C68" t="s">
+        <v>572</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>884</v>
+      </c>
+      <c r="E68" s="21" t="s">
         <v>573</v>
-      </c>
-      <c r="D68" s="21" t="s">
-        <v>885</v>
-      </c>
-      <c r="E68" s="21" t="s">
-        <v>574</v>
       </c>
       <c r="F68" s="21"/>
     </row>
@@ -9952,10 +9951,10 @@
         <v>64</v>
       </c>
       <c r="C69" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F69" s="21"/>
     </row>
@@ -9968,10 +9967,10 @@
         <v>65</v>
       </c>
       <c r="C70" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -9983,10 +9982,10 @@
         <v>66</v>
       </c>
       <c r="C71" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -9998,10 +9997,10 @@
         <v>67</v>
       </c>
       <c r="C72" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -10013,10 +10012,10 @@
         <v>68</v>
       </c>
       <c r="C73" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -10028,10 +10027,10 @@
         <v>69</v>
       </c>
       <c r="C74" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D74" s="21" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -10043,10 +10042,10 @@
         <v>70</v>
       </c>
       <c r="C75" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -10058,10 +10057,10 @@
         <v>71</v>
       </c>
       <c r="C76" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D76" s="21" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -10073,10 +10072,10 @@
         <v>72</v>
       </c>
       <c r="C77" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -10088,10 +10087,10 @@
         <v>73</v>
       </c>
       <c r="C78" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -10103,10 +10102,10 @@
         <v>74</v>
       </c>
       <c r="C79" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D79" s="21" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -10118,10 +10117,10 @@
         <v>75</v>
       </c>
       <c r="C80" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -10133,10 +10132,10 @@
         <v>76</v>
       </c>
       <c r="C81" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -10148,10 +10147,10 @@
         <v>77</v>
       </c>
       <c r="C82" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
   </sheetData>
@@ -10178,10 +10177,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -10201,13 +10200,13 @@
         <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -10219,10 +10218,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>575</v>
+      </c>
+      <c r="D5" t="s">
         <v>576</v>
-      </c>
-      <c r="D5" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -10234,10 +10233,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -10249,10 +10248,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -10264,10 +10263,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -10279,10 +10278,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -10294,10 +10293,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D10" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -10309,10 +10308,10 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D11" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -10324,10 +10323,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -10339,10 +10338,10 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D13" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -10354,10 +10353,10 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D14" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -10369,10 +10368,10 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D15" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -10384,10 +10383,10 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D16" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -10399,10 +10398,10 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D17" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -10414,10 +10413,10 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D18" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -10429,10 +10428,10 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D19" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -10444,10 +10443,10 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D20" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -10459,10 +10458,10 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D21" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -10474,10 +10473,10 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D22" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -10489,10 +10488,10 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D23" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -10504,10 +10503,10 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -10519,10 +10518,10 @@
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D25" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -10534,10 +10533,10 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D26" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -10549,10 +10548,10 @@
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D27" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -10564,10 +10563,10 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D28" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -10579,10 +10578,10 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D29" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -10594,10 +10593,10 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -10609,10 +10608,10 @@
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D31" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -10624,10 +10623,10 @@
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -10639,10 +10638,10 @@
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D33" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -10654,10 +10653,10 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -10669,10 +10668,10 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D35" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -10684,10 +10683,10 @@
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D36" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -10699,10 +10698,10 @@
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D37" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -10714,10 +10713,10 @@
         <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D38" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -10729,10 +10728,10 @@
         <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D39" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -10744,10 +10743,10 @@
         <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D40" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -10759,10 +10758,10 @@
         <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D41" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -10774,10 +10773,10 @@
         <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D42" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -10789,10 +10788,10 @@
         <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D43" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -10804,10 +10803,10 @@
         <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -10819,10 +10818,10 @@
         <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D45" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -10834,10 +10833,10 @@
         <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D46" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -10849,10 +10848,10 @@
         <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D47" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -10864,10 +10863,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D48" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -10879,10 +10878,10 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D49" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -10894,10 +10893,10 @@
         <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D50" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -10909,10 +10908,10 @@
         <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D51" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -10924,10 +10923,10 @@
         <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D52" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -10939,10 +10938,10 @@
         <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D53" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -10954,10 +10953,10 @@
         <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D54" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -10969,10 +10968,10 @@
         <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -10984,10 +10983,10 @@
         <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D56" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -10999,10 +10998,10 @@
         <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D57" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -11014,10 +11013,10 @@
         <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D58" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -11029,10 +11028,10 @@
         <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D59" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -11044,10 +11043,10 @@
         <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D60" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -11059,10 +11058,10 @@
         <v>57</v>
       </c>
       <c r="C61" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D61" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -11074,10 +11073,10 @@
         <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D62" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -11089,10 +11088,10 @@
         <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D63" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -11104,10 +11103,10 @@
         <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -11119,10 +11118,10 @@
         <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D65" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -11134,10 +11133,10 @@
         <v>62</v>
       </c>
       <c r="C66" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D66" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -11149,10 +11148,10 @@
         <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D67" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -11164,25 +11163,25 @@
         <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D68" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
-        <f t="shared" ref="A69:A100" si="2">_xlfn.CONCAT("https://example.com/dss/",B69)</f>
+        <f t="shared" ref="A69:A89" si="2">_xlfn.CONCAT("https://example.com/dss/",B69)</f>
         <v>https://example.com/dss/65</v>
       </c>
       <c r="B69">
         <v>65</v>
       </c>
       <c r="C69" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D69" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -11194,10 +11193,10 @@
         <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D70" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -11209,10 +11208,10 @@
         <v>67</v>
       </c>
       <c r="C71" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D71" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -11224,10 +11223,10 @@
         <v>68</v>
       </c>
       <c r="C72" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D72" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -11239,10 +11238,10 @@
         <v>69</v>
       </c>
       <c r="C73" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D73" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -11254,10 +11253,10 @@
         <v>70</v>
       </c>
       <c r="C74" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D74" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -11269,10 +11268,10 @@
         <v>71</v>
       </c>
       <c r="C75" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D75" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -11284,10 +11283,10 @@
         <v>72</v>
       </c>
       <c r="C76" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D76" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -11299,10 +11298,10 @@
         <v>73</v>
       </c>
       <c r="C77" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D77" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -11314,10 +11313,10 @@
         <v>74</v>
       </c>
       <c r="C78" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D78" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -11329,10 +11328,10 @@
         <v>75</v>
       </c>
       <c r="C79" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D79" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -11344,10 +11343,10 @@
         <v>76</v>
       </c>
       <c r="C80" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D80" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -11359,10 +11358,10 @@
         <v>77</v>
       </c>
       <c r="C81" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D81" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -11374,10 +11373,10 @@
         <v>78</v>
       </c>
       <c r="C82" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D82" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -11389,10 +11388,10 @@
         <v>79</v>
       </c>
       <c r="C83" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D83" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -11404,10 +11403,10 @@
         <v>80</v>
       </c>
       <c r="C84" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D84" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -11419,10 +11418,10 @@
         <v>81</v>
       </c>
       <c r="C85" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D85" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -11434,10 +11433,10 @@
         <v>82</v>
       </c>
       <c r="C86" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D86" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -11449,10 +11448,10 @@
         <v>83</v>
       </c>
       <c r="C87" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D87" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -11464,10 +11463,10 @@
         <v>84</v>
       </c>
       <c r="C88" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D88" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -11479,10 +11478,10 @@
         <v>85</v>
       </c>
       <c r="C89" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D89" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
   </sheetData>
@@ -11523,10 +11522,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -11534,13 +11533,13 @@
         <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -11552,10 +11551,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>656</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>657</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -11567,10 +11566,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -11582,10 +11581,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -11597,10 +11596,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -11612,10 +11611,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -11627,10 +11626,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -11642,10 +11641,10 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
   </sheetData>
@@ -11687,10 +11686,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -11698,13 +11697,13 @@
         <v>50</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -11716,10 +11715,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -11731,10 +11730,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -11746,10 +11745,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -11761,10 +11760,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D8" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -11776,10 +11775,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -11791,10 +11790,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -11806,10 +11805,10 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -11821,10 +11820,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D12" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -11836,10 +11835,10 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D13" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -11851,10 +11850,10 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D14" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -11866,10 +11865,10 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D15" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -11881,10 +11880,10 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D16" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -11896,10 +11895,10 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D17" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -11911,10 +11910,10 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
   </sheetData>
@@ -11941,7 +11940,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B1" t="s">
         <v>24</v>
@@ -11964,13 +11963,13 @@
         <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -11982,10 +11981,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>678</v>
+      </c>
+      <c r="D5" t="s">
         <v>679</v>
-      </c>
-      <c r="D5" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -11997,10 +11996,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -12012,10 +12011,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -12027,10 +12026,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -12042,10 +12041,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -12057,10 +12056,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D10" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -12072,10 +12071,10 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -12087,10 +12086,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D12" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -12102,10 +12101,10 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D13" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -12117,10 +12116,10 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D14" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -12132,10 +12131,10 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D15" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -12147,10 +12146,10 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D16" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -12162,10 +12161,10 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D17" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -12177,10 +12176,10 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -12192,10 +12191,10 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D19" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -12207,10 +12206,10 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -12222,10 +12221,10 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D21" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -12237,10 +12236,10 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D22" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -12252,10 +12251,10 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -12267,10 +12266,10 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -12282,10 +12281,10 @@
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D25" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -12297,10 +12296,10 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D26" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -12312,10 +12311,10 @@
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D27" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -12327,10 +12326,10 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D28" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -12342,10 +12341,10 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -12357,10 +12356,10 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D30" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -12372,10 +12371,10 @@
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D31" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -12387,10 +12386,10 @@
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D32" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -12402,10 +12401,10 @@
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D33" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -12417,10 +12416,10 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D34" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -12432,10 +12431,10 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D35" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -12447,10 +12446,10 @@
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D36" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -12462,10 +12461,10 @@
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D37" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -12477,10 +12476,10 @@
         <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D38" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -12492,10 +12491,10 @@
         <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D39" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -12507,10 +12506,10 @@
         <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -12522,10 +12521,10 @@
         <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D41" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -12537,10 +12536,10 @@
         <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D42" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -12552,10 +12551,10 @@
         <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D43" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -12567,10 +12566,10 @@
         <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D44" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -12582,10 +12581,10 @@
         <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D45" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -12597,10 +12596,10 @@
         <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D46" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -12612,10 +12611,10 @@
         <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D47" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -12627,10 +12626,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -12642,10 +12641,10 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -12657,10 +12656,10 @@
         <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -12672,10 +12671,10 @@
         <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -12687,10 +12686,10 @@
         <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D52" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -12702,10 +12701,10 @@
         <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D53" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -12717,10 +12716,10 @@
         <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -12732,10 +12731,10 @@
         <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D55" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -12747,10 +12746,10 @@
         <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D56" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -12762,10 +12761,10 @@
         <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D57" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -12777,10 +12776,10 @@
         <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D58" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -12792,10 +12791,10 @@
         <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -12807,10 +12806,10 @@
         <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D60" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -12822,10 +12821,10 @@
         <v>57</v>
       </c>
       <c r="C61" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D61" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -12837,10 +12836,10 @@
         <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D62" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -12852,10 +12851,10 @@
         <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D63" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -12867,10 +12866,10 @@
         <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D64" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -12882,10 +12881,10 @@
         <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -12897,10 +12896,10 @@
         <v>62</v>
       </c>
       <c r="C66" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -12912,10 +12911,10 @@
         <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D67" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -12927,10 +12926,10 @@
         <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -12942,10 +12941,10 @@
         <v>65</v>
       </c>
       <c r="C69" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D69" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -12957,10 +12956,10 @@
         <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -12972,10 +12971,10 @@
         <v>67</v>
       </c>
       <c r="C71" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D71" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -12987,10 +12986,10 @@
         <v>68</v>
       </c>
       <c r="C72" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D72" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -13002,10 +13001,10 @@
         <v>69</v>
       </c>
       <c r="C73" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -13017,10 +13016,10 @@
         <v>70</v>
       </c>
       <c r="C74" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D74" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -13032,10 +13031,10 @@
         <v>71</v>
       </c>
       <c r="C75" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D75" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -13047,10 +13046,10 @@
         <v>72</v>
       </c>
       <c r="C76" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D76" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -13062,10 +13061,10 @@
         <v>73</v>
       </c>
       <c r="C77" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -13077,10 +13076,10 @@
         <v>74</v>
       </c>
       <c r="C78" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D78" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -13092,10 +13091,10 @@
         <v>75</v>
       </c>
       <c r="C79" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D79" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -13107,10 +13106,10 @@
         <v>76</v>
       </c>
       <c r="C80" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D80" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -13122,10 +13121,10 @@
         <v>77</v>
       </c>
       <c r="C81" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D81" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
   </sheetData>
@@ -13164,10 +13163,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -13175,13 +13174,13 @@
         <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -13190,13 +13189,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/MIT</v>
       </c>
       <c r="B5" t="s">
+        <v>750</v>
+      </c>
+      <c r="C5" t="s">
+        <v>656</v>
+      </c>
+      <c r="D5" t="s">
         <v>751</v>
-      </c>
-      <c r="C5" t="s">
-        <v>657</v>
-      </c>
-      <c r="D5" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -13205,13 +13204,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/APACHE_2_0</v>
       </c>
       <c r="B6" t="s">
+        <v>752</v>
+      </c>
+      <c r="C6" t="s">
+        <v>656</v>
+      </c>
+      <c r="D6" t="s">
         <v>753</v>
-      </c>
-      <c r="C6" t="s">
-        <v>657</v>
-      </c>
-      <c r="D6" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -13220,13 +13219,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/BSD_2_CLAUSE</v>
       </c>
       <c r="B7" t="s">
+        <v>754</v>
+      </c>
+      <c r="C7" t="s">
+        <v>656</v>
+      </c>
+      <c r="D7" t="s">
         <v>755</v>
-      </c>
-      <c r="C7" t="s">
-        <v>657</v>
-      </c>
-      <c r="D7" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -13235,13 +13234,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/BSD_3_CLAUSE</v>
       </c>
       <c r="B8" t="s">
+        <v>756</v>
+      </c>
+      <c r="C8" t="s">
+        <v>656</v>
+      </c>
+      <c r="D8" t="s">
         <v>757</v>
-      </c>
-      <c r="C8" t="s">
-        <v>657</v>
-      </c>
-      <c r="D8" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -13250,13 +13249,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/CC_BYNC_3_0</v>
       </c>
       <c r="B9" t="s">
+        <v>758</v>
+      </c>
+      <c r="C9" t="s">
+        <v>656</v>
+      </c>
+      <c r="D9" t="s">
         <v>759</v>
-      </c>
-      <c r="C9" t="s">
-        <v>657</v>
-      </c>
-      <c r="D9" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -13265,13 +13264,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/CC_BYSA_4_0</v>
       </c>
       <c r="B10" t="s">
+        <v>760</v>
+      </c>
+      <c r="C10" t="s">
+        <v>656</v>
+      </c>
+      <c r="D10" t="s">
         <v>761</v>
-      </c>
-      <c r="C10" t="s">
-        <v>657</v>
-      </c>
-      <c r="D10" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -13280,13 +13279,13 @@
         <v>https://spdx.org/licenses/CECILL-2.0</v>
       </c>
       <c r="B11" t="s">
+        <v>762</v>
+      </c>
+      <c r="C11" t="s">
+        <v>656</v>
+      </c>
+      <c r="D11" t="s">
         <v>763</v>
-      </c>
-      <c r="C11" t="s">
-        <v>657</v>
-      </c>
-      <c r="D11" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -13295,13 +13294,13 @@
         <v>https://spdx.org/licenses/CECILL-C</v>
       </c>
       <c r="B12" t="s">
+        <v>764</v>
+      </c>
+      <c r="C12" t="s">
+        <v>656</v>
+      </c>
+      <c r="D12" t="s">
         <v>765</v>
-      </c>
-      <c r="C12" t="s">
-        <v>657</v>
-      </c>
-      <c r="D12" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -13310,13 +13309,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/EUPL_1_2</v>
       </c>
       <c r="B13" t="s">
+        <v>766</v>
+      </c>
+      <c r="C13" t="s">
+        <v>656</v>
+      </c>
+      <c r="D13" t="s">
         <v>767</v>
-      </c>
-      <c r="C13" t="s">
-        <v>657</v>
-      </c>
-      <c r="D13" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -13325,13 +13324,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/AGPL_3_0</v>
       </c>
       <c r="B14" t="s">
+        <v>768</v>
+      </c>
+      <c r="C14" t="s">
+        <v>656</v>
+      </c>
+      <c r="D14" t="s">
         <v>769</v>
-      </c>
-      <c r="C14" t="s">
-        <v>657</v>
-      </c>
-      <c r="D14" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -13340,13 +13339,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/LGPL_2_1</v>
       </c>
       <c r="B15" t="s">
+        <v>770</v>
+      </c>
+      <c r="C15" t="s">
+        <v>656</v>
+      </c>
+      <c r="D15" t="s">
         <v>771</v>
-      </c>
-      <c r="C15" t="s">
-        <v>657</v>
-      </c>
-      <c r="D15" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -13355,13 +13354,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/LGPL_3_0</v>
       </c>
       <c r="B16" t="s">
+        <v>772</v>
+      </c>
+      <c r="C16" t="s">
+        <v>656</v>
+      </c>
+      <c r="D16" t="s">
         <v>773</v>
-      </c>
-      <c r="C16" t="s">
-        <v>657</v>
-      </c>
-      <c r="D16" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -13370,13 +13369,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/GPL_2_0</v>
       </c>
       <c r="B17" t="s">
+        <v>774</v>
+      </c>
+      <c r="C17" t="s">
+        <v>656</v>
+      </c>
+      <c r="D17" t="s">
         <v>775</v>
-      </c>
-      <c r="C17" t="s">
-        <v>657</v>
-      </c>
-      <c r="D17" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -13385,13 +13384,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/GPL_3_0</v>
       </c>
       <c r="B18" t="s">
+        <v>776</v>
+      </c>
+      <c r="C18" t="s">
+        <v>656</v>
+      </c>
+      <c r="D18" t="s">
         <v>777</v>
-      </c>
-      <c r="C18" t="s">
-        <v>657</v>
-      </c>
-      <c r="D18" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -13400,13 +13399,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/ISC</v>
       </c>
       <c r="B19" t="s">
+        <v>778</v>
+      </c>
+      <c r="C19" t="s">
+        <v>656</v>
+      </c>
+      <c r="D19" t="s">
         <v>779</v>
-      </c>
-      <c r="C19" t="s">
-        <v>657</v>
-      </c>
-      <c r="D19" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -13415,13 +13414,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/MPL_1_1</v>
       </c>
       <c r="B20" t="s">
+        <v>780</v>
+      </c>
+      <c r="C20" t="s">
+        <v>656</v>
+      </c>
+      <c r="D20" t="s">
         <v>781</v>
-      </c>
-      <c r="C20" t="s">
-        <v>657</v>
-      </c>
-      <c r="D20" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -13430,13 +13429,13 @@
         <v>https://spdx.org/licenses/Unlicense</v>
       </c>
       <c r="B21" t="s">
+        <v>782</v>
+      </c>
+      <c r="C21" t="s">
+        <v>656</v>
+      </c>
+      <c r="D21" t="s">
         <v>783</v>
-      </c>
-      <c r="C21" t="s">
-        <v>657</v>
-      </c>
-      <c r="D21" t="s">
-        <v>784</v>
       </c>
     </row>
   </sheetData>
@@ -13458,7 +13457,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
@@ -13470,10 +13469,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="C2" t="s">
         <v>785</v>
-      </c>
-      <c r="C2" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -13481,13 +13480,13 @@
         <v>50</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -13499,10 +13498,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D5" t="s">
         <v>787</v>
-      </c>
-      <c r="D5" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -13514,10 +13513,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -13529,10 +13528,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -13544,10 +13543,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -13559,10 +13558,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D9" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -13574,10 +13573,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D10" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -13589,10 +13588,10 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D11" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -13604,10 +13603,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D12" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -13619,10 +13618,10 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D13" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
   </sheetData>
@@ -13634,14 +13633,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="21f64c02-1f20-443d-801b-ae17df5c4a0a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bf3f9575-65b8-4549-b389-33a18b8943d7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13900,23 +13893,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="21f64c02-1f20-443d-801b-ae17df5c4a0a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bf3f9575-65b8-4549-b389-33a18b8943d7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D32E47C-7013-4565-B268-D2BE134A52BA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{164C3F70-F822-4EF6-AEFF-DC1ABB56CF75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="bf3f9575-65b8-4549-b389-33a18b8943d7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="21f64c02-1f20-443d-801b-ae17df5c4a0a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13941,9 +13931,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{164C3F70-F822-4EF6-AEFF-DC1ABB56CF75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D32E47C-7013-4565-B268-D2BE134A52BA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="bf3f9575-65b8-4549-b389-33a18b8943d7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="21f64c02-1f20-443d-801b-ae17df5c4a0a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/tools.xlsx
+++ b/tools.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aschiltz003\Documents\GitHub\Semantic-Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05460F51-B861-4D1D-BFCD-B874DDCA4308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE747A32-5017-4FB5-897F-66B2BD82790F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{AFCE36E2-F631-4322-AF27-256B8B7C0B04}"/>
   </bookViews>
@@ -1227,9 +1227,6 @@
     <t>VocBench is a web-based, multilingual, collaborative development platform for managing OWL ontologies, SKOS(/XL) thesauri, Ontolex-lemon lexicons and generic RDF datasets.</t>
   </si>
   <si>
-    <t>comp:1,comp:2,comp3,comp5</t>
-  </si>
-  <si>
     <t>function:1,function:3,function:7,function:9,function:10,function:13,function:14</t>
   </si>
   <si>
@@ -2815,6 +2812,9 @@
   </si>
   <si>
     <t>Raptor is a free software / Open Source C library that provides a set of parsers and serializers that generate Resource Description Framework (RDF) triples by parsing syntaxes or serialize the triples into a syntax.</t>
+  </si>
+  <si>
+    <t>comp:1,comp:2,comp:3,comp:5</t>
   </si>
 </sst>
 </file>
@@ -3353,8 +3353,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3376,7 +3376,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B1" s="28" t="s">
         <v>1</v>
@@ -3542,10 +3542,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -3666,7 +3666,7 @@
         <v>55</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H29" s="8" t="s">
         <v>56</v>
@@ -3681,16 +3681,16 @@
         <v>59</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="M29" s="8" t="s">
         <v>60</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -3797,7 +3797,7 @@
         <v>61</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E32" s="22" t="s">
         <v>79</v>
@@ -3831,7 +3831,7 @@
         <v>softver:3</v>
       </c>
       <c r="O32" s="21" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="72" x14ac:dyDescent="0.3">
@@ -4076,7 +4076,7 @@
         <v>61</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E38" s="22" t="s">
         <v>119</v>
@@ -4110,7 +4110,7 @@
         <v>softver:9</v>
       </c>
       <c r="O38" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -4309,7 +4309,7 @@
         <v>61</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E43" s="22" t="s">
         <v>140</v>
@@ -4343,7 +4343,7 @@
         <v>softver:14</v>
       </c>
       <c r="O43" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
@@ -4364,7 +4364,7 @@
         <v>147</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G44" s="22" t="s">
         <v>148</v>
@@ -4392,7 +4392,7 @@
         <v>softver:15</v>
       </c>
       <c r="O44" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -4717,7 +4717,7 @@
         <v>softver:22</v>
       </c>
       <c r="O51" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="72" x14ac:dyDescent="0.3">
@@ -4812,7 +4812,7 @@
         <v>softver:24</v>
       </c>
       <c r="O53" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="72" x14ac:dyDescent="0.3">
@@ -4851,7 +4851,7 @@
         <v>192</v>
       </c>
       <c r="L54" s="22" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="M54" s="23" t="s">
         <v>71</v>
@@ -5201,7 +5201,7 @@
         <v>222</v>
       </c>
       <c r="E62" s="22" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F62" s="22" t="s">
         <v>80</v>
@@ -5618,7 +5618,7 @@
         <v>61</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E71" s="22" t="s">
         <v>261</v>
@@ -5652,7 +5652,7 @@
         <v>softver:42</v>
       </c>
       <c r="O71" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
@@ -5701,7 +5701,7 @@
         <v>softver:43</v>
       </c>
       <c r="O72" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="72" x14ac:dyDescent="0.3">
@@ -5934,7 +5934,7 @@
         <v>softver:48</v>
       </c>
       <c r="O77" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
@@ -5983,7 +5983,7 @@
         <v>softver:49</v>
       </c>
       <c r="O78" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="79" spans="1:15" s="13" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5998,7 +5998,7 @@
         <v>61</v>
       </c>
       <c r="D79" s="22" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E79" s="22" t="s">
         <v>290</v>
@@ -6032,7 +6032,7 @@
         <v>softver:50</v>
       </c>
       <c r="O79" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="80" spans="1:15" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6094,7 +6094,7 @@
         <v>61</v>
       </c>
       <c r="D81" s="22" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E81" s="22" t="s">
         <v>301</v>
@@ -6128,7 +6128,7 @@
         <v>softver:52</v>
       </c>
       <c r="O81" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
@@ -6241,7 +6241,7 @@
         <v>313</v>
       </c>
       <c r="F84" s="22" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="G84" s="22" t="s">
         <v>314</v>
@@ -6269,7 +6269,7 @@
         <v>softver:55</v>
       </c>
       <c r="O84" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="72" x14ac:dyDescent="0.3">
@@ -6594,7 +6594,7 @@
         <v>softver:62</v>
       </c>
       <c r="O91" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -6643,7 +6643,7 @@
         <v>softver:63</v>
       </c>
       <c r="O92" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="72" x14ac:dyDescent="0.3">
@@ -6692,7 +6692,7 @@
         <v>softver:64</v>
       </c>
       <c r="O93" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -6741,7 +6741,7 @@
         <v>softver:65</v>
       </c>
       <c r="O94" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="72" x14ac:dyDescent="0.3">
@@ -6854,16 +6854,16 @@
         <v>373</v>
       </c>
       <c r="F97" s="22" t="s">
+        <v>903</v>
+      </c>
+      <c r="G97" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="G97" s="21" t="s">
+      <c r="H97" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="H97" s="21" t="s">
+      <c r="I97" s="29" t="s">
         <v>376</v>
-      </c>
-      <c r="I97" s="29" t="s">
-        <v>377</v>
       </c>
       <c r="J97" s="22" t="s">
         <v>76</v>
@@ -6882,7 +6882,7 @@
         <v>softver:68</v>
       </c>
       <c r="O97" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
@@ -6897,10 +6897,10 @@
         <v>61</v>
       </c>
       <c r="D98" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="E98" s="22" t="s">
         <v>378</v>
-      </c>
-      <c r="E98" s="22" t="s">
-        <v>379</v>
       </c>
       <c r="F98" s="22" t="s">
         <v>80</v>
@@ -6909,19 +6909,19 @@
         <v>81</v>
       </c>
       <c r="H98" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="I98" s="29" t="s">
         <v>380</v>
-      </c>
-      <c r="I98" s="29" t="s">
-        <v>381</v>
       </c>
       <c r="J98" s="22" t="s">
         <v>68</v>
       </c>
       <c r="K98" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="L98" s="22" t="s">
         <v>382</v>
-      </c>
-      <c r="L98" s="22" t="s">
-        <v>383</v>
       </c>
       <c r="M98" s="23" t="s">
         <v>78</v>
@@ -6943,10 +6943,10 @@
         <v>61</v>
       </c>
       <c r="D99" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="E99" s="22" t="s">
         <v>384</v>
-      </c>
-      <c r="E99" s="22" t="s">
-        <v>385</v>
       </c>
       <c r="F99" s="22" t="s">
         <v>200</v>
@@ -6958,10 +6958,10 @@
         <v>74</v>
       </c>
       <c r="I99" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="J99" s="22" t="s">
         <v>386</v>
-      </c>
-      <c r="J99" s="22" t="s">
-        <v>387</v>
       </c>
       <c r="K99" s="21" t="s">
         <v>69</v>
@@ -6989,10 +6989,10 @@
         <v>61</v>
       </c>
       <c r="D100" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="E100" s="22" t="s">
         <v>388</v>
-      </c>
-      <c r="E100" s="22" t="s">
-        <v>389</v>
       </c>
       <c r="F100" s="22" t="s">
         <v>200</v>
@@ -7001,10 +7001,10 @@
         <v>242</v>
       </c>
       <c r="H100" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="I100" s="29" t="s">
         <v>390</v>
-      </c>
-      <c r="I100" s="29" t="s">
-        <v>391</v>
       </c>
       <c r="J100" s="22" t="s">
         <v>68</v>
@@ -7035,10 +7035,10 @@
         <v>61</v>
       </c>
       <c r="D101" s="22" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E101" s="22" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F101" s="22" t="s">
         <v>120</v>
@@ -7047,13 +7047,13 @@
         <v>121</v>
       </c>
       <c r="H101" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="I101" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="I101" s="29" t="s">
+      <c r="J101" s="22" t="s">
         <v>394</v>
-      </c>
-      <c r="J101" s="22" t="s">
-        <v>395</v>
       </c>
       <c r="K101" s="21" t="s">
         <v>77</v>
@@ -7081,10 +7081,10 @@
         <v>61</v>
       </c>
       <c r="D102" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="E102" s="22" t="s">
         <v>396</v>
-      </c>
-      <c r="E102" s="22" t="s">
-        <v>397</v>
       </c>
       <c r="F102" s="22" t="s">
         <v>200</v>
@@ -7093,13 +7093,13 @@
         <v>341</v>
       </c>
       <c r="H102" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="I102" s="29" t="s">
         <v>398</v>
       </c>
-      <c r="I102" s="29" t="s">
+      <c r="J102" s="22" t="s">
         <v>399</v>
-      </c>
-      <c r="J102" s="22" t="s">
-        <v>400</v>
       </c>
       <c r="K102" s="21" t="s">
         <v>192</v>
@@ -7127,10 +7127,10 @@
         <v>61</v>
       </c>
       <c r="D103" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="E103" s="22" t="s">
         <v>401</v>
-      </c>
-      <c r="E103" s="22" t="s">
-        <v>402</v>
       </c>
       <c r="F103" s="22" t="s">
         <v>80</v>
@@ -7139,10 +7139,10 @@
         <v>81</v>
       </c>
       <c r="H103" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="I103" s="29" t="s">
         <v>403</v>
-      </c>
-      <c r="I103" s="29" t="s">
-        <v>404</v>
       </c>
       <c r="J103" s="22" t="s">
         <v>76</v>
@@ -7173,10 +7173,10 @@
         <v>61</v>
       </c>
       <c r="D104" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="E104" s="22" t="s">
         <v>405</v>
-      </c>
-      <c r="E104" s="22" t="s">
-        <v>406</v>
       </c>
       <c r="F104" s="22" t="s">
         <v>200</v>
@@ -7188,13 +7188,13 @@
         <v>74</v>
       </c>
       <c r="I104" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="J104" s="22" t="s">
         <v>407</v>
       </c>
-      <c r="J104" s="22" t="s">
+      <c r="K104" s="21" t="s">
         <v>408</v>
-      </c>
-      <c r="K104" s="21" t="s">
-        <v>409</v>
       </c>
       <c r="L104" s="22" t="s">
         <v>74</v>
@@ -7219,25 +7219,25 @@
         <v>61</v>
       </c>
       <c r="D105" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="E105" s="22" t="s">
         <v>410</v>
-      </c>
-      <c r="E105" s="22" t="s">
-        <v>411</v>
       </c>
       <c r="F105" s="22" t="s">
         <v>93</v>
       </c>
       <c r="G105" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="H105" s="26" t="s">
         <v>412</v>
       </c>
-      <c r="H105" s="26" t="s">
+      <c r="I105" s="29" t="s">
         <v>413</v>
       </c>
-      <c r="I105" s="29" t="s">
+      <c r="J105" s="22" t="s">
         <v>414</v>
-      </c>
-      <c r="J105" s="22" t="s">
-        <v>415</v>
       </c>
       <c r="K105" s="21" t="s">
         <v>300</v>
@@ -7265,10 +7265,10 @@
         <v>61</v>
       </c>
       <c r="D106" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="E106" s="22" t="s">
         <v>416</v>
-      </c>
-      <c r="E106" s="22" t="s">
-        <v>417</v>
       </c>
       <c r="F106" s="22" t="s">
         <v>64</v>
@@ -7277,10 +7277,10 @@
         <v>65</v>
       </c>
       <c r="H106" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="I106" s="29" t="s">
         <v>418</v>
-      </c>
-      <c r="I106" s="29" t="s">
-        <v>419</v>
       </c>
       <c r="J106" s="22" t="s">
         <v>76</v>
@@ -7333,7 +7333,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B1" t="s">
         <v>18</v>
@@ -7348,7 +7348,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -7356,13 +7356,13 @@
         <v>50</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -7371,13 +7371,13 @@
         <v>https://dbpedia.org/resource/Graphical_user_interface</v>
       </c>
       <c r="B5" t="s">
+        <v>793</v>
+      </c>
+      <c r="C5" t="s">
+        <v>842</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>794</v>
-      </c>
-      <c r="C5" t="s">
-        <v>843</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -7386,13 +7386,13 @@
         <v>https://dbpedia.org/resource/Command-line_interface</v>
       </c>
       <c r="B6" t="s">
+        <v>795</v>
+      </c>
+      <c r="C6" t="s">
+        <v>842</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>796</v>
-      </c>
-      <c r="C6" t="s">
-        <v>843</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -7401,13 +7401,13 @@
         <v>https://dbpedia.org/resource/Web_API</v>
       </c>
       <c r="B7" t="s">
+        <v>797</v>
+      </c>
+      <c r="C7" t="s">
+        <v>842</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>798</v>
-      </c>
-      <c r="C7" t="s">
-        <v>843</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -7452,10 +7452,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -7475,16 +7475,16 @@
         <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>
       <c r="D4" t="s">
+        <v>421</v>
+      </c>
+      <c r="E4" t="s">
         <v>422</v>
-      </c>
-      <c r="E4" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -7496,13 +7496,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>423</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" t="s">
         <v>425</v>
-      </c>
-      <c r="E5" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -7514,13 +7514,13 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="E6" t="s">
         <v>427</v>
-      </c>
-      <c r="E6" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -7532,13 +7532,13 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="E7" t="s">
         <v>429</v>
-      </c>
-      <c r="E7" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -7550,13 +7550,13 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="E8" t="s">
         <v>431</v>
-      </c>
-      <c r="E8" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -7568,13 +7568,13 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="E9" t="s">
         <v>433</v>
-      </c>
-      <c r="E9" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -7586,13 +7586,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="E10" t="s">
         <v>435</v>
-      </c>
-      <c r="E10" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -7604,13 +7604,13 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="E11" t="s">
         <v>437</v>
-      </c>
-      <c r="E11" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -7622,13 +7622,13 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E12" t="s">
         <v>439</v>
-      </c>
-      <c r="E12" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -7640,13 +7640,13 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="E13" t="s">
         <v>441</v>
-      </c>
-      <c r="E13" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -7658,13 +7658,13 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E14" t="s">
         <v>443</v>
-      </c>
-      <c r="E14" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -7676,13 +7676,13 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -7694,13 +7694,13 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="E16" t="s">
         <v>446</v>
-      </c>
-      <c r="E16" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -7712,13 +7712,13 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="E17" t="s">
         <v>448</v>
-      </c>
-      <c r="E17" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -7730,13 +7730,13 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D18" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="E18" t="s">
         <v>450</v>
-      </c>
-      <c r="E18" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -7748,13 +7748,13 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D19" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="E19" t="s">
         <v>452</v>
-      </c>
-      <c r="E19" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -7766,13 +7766,13 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D20" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="E20" t="s">
         <v>454</v>
-      </c>
-      <c r="E20" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -7784,13 +7784,13 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D21" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="E21" t="s">
         <v>456</v>
-      </c>
-      <c r="E21" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -7802,13 +7802,13 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D22" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="E22" t="s">
         <v>458</v>
-      </c>
-      <c r="E22" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -7820,13 +7820,13 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D23" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="E23" t="s">
         <v>460</v>
-      </c>
-      <c r="E23" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -7838,13 +7838,13 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D24" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="E24" t="s">
         <v>462</v>
-      </c>
-      <c r="E24" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -7856,13 +7856,13 @@
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D25" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="E25" t="s">
         <v>464</v>
-      </c>
-      <c r="E25" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -7874,13 +7874,13 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D26" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="E26" t="s">
         <v>466</v>
-      </c>
-      <c r="E26" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -7892,13 +7892,13 @@
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E27" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -7910,13 +7910,13 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D28" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="E28" t="s">
         <v>469</v>
-      </c>
-      <c r="E28" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -7928,13 +7928,13 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D29" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="E29" t="s">
         <v>471</v>
-      </c>
-      <c r="E29" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -7946,13 +7946,13 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D30" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="E30" t="s">
         <v>473</v>
-      </c>
-      <c r="E30" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -7964,13 +7964,13 @@
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D31" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="E31" t="s">
         <v>475</v>
-      </c>
-      <c r="E31" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -7982,13 +7982,13 @@
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D32" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="E32" t="s">
         <v>477</v>
-      </c>
-      <c r="E32" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -8000,13 +8000,13 @@
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D33" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="E33" t="s">
         <v>479</v>
-      </c>
-      <c r="E33" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -8018,13 +8018,13 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D34" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="E34" t="s">
         <v>481</v>
-      </c>
-      <c r="E34" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -8036,13 +8036,13 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D35" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="E35" t="s">
         <v>483</v>
-      </c>
-      <c r="E35" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -8054,13 +8054,13 @@
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D36" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="E36" t="s">
         <v>485</v>
-      </c>
-      <c r="E36" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -8072,13 +8072,13 @@
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D37" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="E37" t="s">
         <v>487</v>
-      </c>
-      <c r="E37" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -8090,13 +8090,13 @@
         <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E38" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -8108,13 +8108,13 @@
         <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D39" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E39" t="s">
         <v>490</v>
-      </c>
-      <c r="E39" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -8126,13 +8126,13 @@
         <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D40" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="E40" t="s">
         <v>492</v>
-      </c>
-      <c r="E40" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -8144,13 +8144,13 @@
         <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D41" s="17" t="s">
+        <v>493</v>
+      </c>
+      <c r="E41" t="s">
         <v>494</v>
-      </c>
-      <c r="E41" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -8162,13 +8162,13 @@
         <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D42" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="E42" t="s">
         <v>496</v>
-      </c>
-      <c r="E42" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -8180,13 +8180,13 @@
         <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D43" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="E43" t="s">
         <v>498</v>
-      </c>
-      <c r="E43" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -8198,13 +8198,13 @@
         <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D44" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="E44" t="s">
         <v>500</v>
-      </c>
-      <c r="E44" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -8216,13 +8216,13 @@
         <v>41</v>
       </c>
       <c r="C45" t="s">
+        <v>423</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>425</v>
-      </c>
       <c r="E45" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -8234,13 +8234,13 @@
         <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D46" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="E46" t="s">
         <v>503</v>
-      </c>
-      <c r="E46" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -8252,13 +8252,13 @@
         <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D47" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="E47" t="s">
         <v>505</v>
-      </c>
-      <c r="E47" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -8270,13 +8270,13 @@
         <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D48" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="E48" t="s">
         <v>507</v>
-      </c>
-      <c r="E48" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -8288,13 +8288,13 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E49" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -8306,13 +8306,13 @@
         <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E50" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -8324,13 +8324,13 @@
         <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E51" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -8342,13 +8342,13 @@
         <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D52" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="E52" t="s">
         <v>512</v>
-      </c>
-      <c r="E52" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -8360,13 +8360,13 @@
         <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D53" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="E53" t="s">
         <v>514</v>
-      </c>
-      <c r="E53" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -8378,13 +8378,13 @@
         <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D54" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="E54" t="s">
         <v>516</v>
-      </c>
-      <c r="E54" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -8396,13 +8396,13 @@
         <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D55" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="E55" t="s">
         <v>518</v>
-      </c>
-      <c r="E55" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -8414,13 +8414,13 @@
         <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D56" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="E56" t="s">
         <v>520</v>
-      </c>
-      <c r="E56" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -8432,13 +8432,13 @@
         <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D57" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="E57" t="s">
         <v>522</v>
-      </c>
-      <c r="E57" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -8450,13 +8450,13 @@
         <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D58" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="E58" t="s">
         <v>524</v>
-      </c>
-      <c r="E58" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -8468,13 +8468,13 @@
         <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D59" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="E59" t="s">
         <v>526</v>
-      </c>
-      <c r="E59" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -8486,13 +8486,13 @@
         <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D60" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="E60" t="s">
         <v>528</v>
-      </c>
-      <c r="E60" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -8504,13 +8504,13 @@
         <v>57</v>
       </c>
       <c r="C61" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D61" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="E61" t="s">
         <v>530</v>
-      </c>
-      <c r="E61" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -8522,13 +8522,13 @@
         <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E62" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -8540,13 +8540,13 @@
         <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D63" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="E63" t="s">
         <v>533</v>
-      </c>
-      <c r="E63" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -8558,13 +8558,13 @@
         <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D64" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="E64" t="s">
         <v>535</v>
-      </c>
-      <c r="E64" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -8576,13 +8576,13 @@
         <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D65" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="E65" t="s">
         <v>537</v>
-      </c>
-      <c r="E65" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -8594,13 +8594,13 @@
         <v>62</v>
       </c>
       <c r="C66" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D66" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="E66" t="s">
         <v>539</v>
-      </c>
-      <c r="E66" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -8612,13 +8612,13 @@
         <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D67" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="E67" t="s">
         <v>541</v>
-      </c>
-      <c r="E67" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -8630,13 +8630,13 @@
         <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D68" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="E68" t="s">
         <v>543</v>
-      </c>
-      <c r="E68" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -8648,13 +8648,13 @@
         <v>65</v>
       </c>
       <c r="C69" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D69" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="E69" t="s">
         <v>545</v>
-      </c>
-      <c r="E69" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -8666,13 +8666,13 @@
         <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D70" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="E70" t="s">
         <v>547</v>
-      </c>
-      <c r="E70" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -8684,13 +8684,13 @@
         <v>67</v>
       </c>
       <c r="C71" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D71" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="E71" t="s">
         <v>549</v>
-      </c>
-      <c r="E71" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -8702,13 +8702,13 @@
         <v>68</v>
       </c>
       <c r="C72" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D72" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="E72" t="s">
         <v>551</v>
-      </c>
-      <c r="E72" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -8720,13 +8720,13 @@
         <v>69</v>
       </c>
       <c r="C73" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E73" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -8738,13 +8738,13 @@
         <v>70</v>
       </c>
       <c r="C74" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D74" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="E74" t="s">
         <v>554</v>
-      </c>
-      <c r="E74" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -8756,13 +8756,13 @@
         <v>71</v>
       </c>
       <c r="C75" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D75" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="E75" t="s">
         <v>556</v>
-      </c>
-      <c r="E75" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -8774,13 +8774,13 @@
         <v>72</v>
       </c>
       <c r="C76" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D76" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="E76" t="s">
         <v>558</v>
-      </c>
-      <c r="E76" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -8792,13 +8792,13 @@
         <v>73</v>
       </c>
       <c r="C77" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E77" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -8810,13 +8810,13 @@
         <v>74</v>
       </c>
       <c r="C78" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D78" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="E78" t="s">
         <v>561</v>
-      </c>
-      <c r="E78" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -8828,13 +8828,13 @@
         <v>75</v>
       </c>
       <c r="C79" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D79" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="E79" t="s">
         <v>563</v>
-      </c>
-      <c r="E79" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -8846,13 +8846,13 @@
         <v>76</v>
       </c>
       <c r="C80" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D80" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="E80" t="s">
         <v>565</v>
-      </c>
-      <c r="E80" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -8864,13 +8864,13 @@
         <v>77</v>
       </c>
       <c r="C81" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D81" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="E81" t="s">
         <v>567</v>
-      </c>
-      <c r="E81" t="s">
-        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -8898,10 +8898,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -8921,10 +8921,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>894</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -8932,16 +8932,16 @@
         <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="21" t="s">
+        <v>569</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>570</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>571</v>
       </c>
       <c r="F5" s="19"/>
     </row>
@@ -8954,10 +8954,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -8969,10 +8969,10 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -8984,10 +8984,10 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -8999,7 +8999,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>74</v>
@@ -9014,10 +9014,10 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9029,13 +9029,13 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F11" s="11"/>
     </row>
@@ -9048,10 +9048,10 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -9063,10 +9063,10 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F13" s="20"/>
     </row>
@@ -9079,10 +9079,10 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9094,13 +9094,13 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F15" s="11"/>
     </row>
@@ -9113,10 +9113,10 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -9128,10 +9128,10 @@
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9143,10 +9143,10 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -9158,13 +9158,13 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F19" s="21"/>
     </row>
@@ -9177,13 +9177,13 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F20" s="21"/>
     </row>
@@ -9196,10 +9196,10 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9211,10 +9211,10 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9226,13 +9226,13 @@
         <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F23" s="11"/>
     </row>
@@ -9245,10 +9245,10 @@
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -9260,10 +9260,10 @@
         <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -9275,10 +9275,10 @@
         <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -9290,10 +9290,10 @@
         <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -9305,10 +9305,10 @@
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -9320,10 +9320,10 @@
         <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -9335,13 +9335,13 @@
         <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F30" s="21"/>
     </row>
@@ -9354,10 +9354,10 @@
         <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -9369,10 +9369,10 @@
         <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -9384,10 +9384,10 @@
         <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -9399,10 +9399,10 @@
         <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -9414,10 +9414,10 @@
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -9429,10 +9429,10 @@
         <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -9444,10 +9444,10 @@
         <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -9459,10 +9459,10 @@
         <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -9474,13 +9474,13 @@
         <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F39" s="11"/>
     </row>
@@ -9493,13 +9493,13 @@
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F40" s="11"/>
     </row>
@@ -9512,13 +9512,13 @@
         <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F41" s="11"/>
     </row>
@@ -9531,10 +9531,10 @@
         <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -9546,13 +9546,13 @@
         <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F43" s="11"/>
     </row>
@@ -9565,10 +9565,10 @@
         <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -9580,10 +9580,10 @@
         <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -9595,10 +9595,10 @@
         <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -9610,10 +9610,10 @@
         <v>42</v>
       </c>
       <c r="C47" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -9625,10 +9625,10 @@
         <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -9640,13 +9640,13 @@
         <v>44</v>
       </c>
       <c r="C49" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F49" s="11"/>
     </row>
@@ -9659,10 +9659,10 @@
         <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F50" s="11"/>
     </row>
@@ -9675,10 +9675,10 @@
         <v>46</v>
       </c>
       <c r="C51" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F51" s="11"/>
     </row>
@@ -9691,10 +9691,10 @@
         <v>47</v>
       </c>
       <c r="C52" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F52" s="11"/>
     </row>
@@ -9707,10 +9707,10 @@
         <v>48</v>
       </c>
       <c r="C53" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -9722,10 +9722,10 @@
         <v>49</v>
       </c>
       <c r="C54" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -9737,10 +9737,10 @@
         <v>50</v>
       </c>
       <c r="C55" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -9752,10 +9752,10 @@
         <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -9767,10 +9767,10 @@
         <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -9782,10 +9782,10 @@
         <v>53</v>
       </c>
       <c r="C58" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -9797,10 +9797,10 @@
         <v>54</v>
       </c>
       <c r="C59" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -9812,10 +9812,10 @@
         <v>55</v>
       </c>
       <c r="C60" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -9827,10 +9827,10 @@
         <v>56</v>
       </c>
       <c r="C61" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D61" s="21" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -9842,10 +9842,10 @@
         <v>57</v>
       </c>
       <c r="C62" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D62" s="21" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -9857,10 +9857,10 @@
         <v>58</v>
       </c>
       <c r="C63" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -9872,10 +9872,10 @@
         <v>59</v>
       </c>
       <c r="C64" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -9887,10 +9887,10 @@
         <v>60</v>
       </c>
       <c r="C65" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -9902,10 +9902,10 @@
         <v>61</v>
       </c>
       <c r="C66" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -9917,10 +9917,10 @@
         <v>62</v>
       </c>
       <c r="C67" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -9932,13 +9932,13 @@
         <v>63</v>
       </c>
       <c r="C68" t="s">
+        <v>571</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>883</v>
+      </c>
+      <c r="E68" s="21" t="s">
         <v>572</v>
-      </c>
-      <c r="D68" s="21" t="s">
-        <v>884</v>
-      </c>
-      <c r="E68" s="21" t="s">
-        <v>573</v>
       </c>
       <c r="F68" s="21"/>
     </row>
@@ -9951,10 +9951,10 @@
         <v>64</v>
       </c>
       <c r="C69" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F69" s="21"/>
     </row>
@@ -9967,10 +9967,10 @@
         <v>65</v>
       </c>
       <c r="C70" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -9982,10 +9982,10 @@
         <v>66</v>
       </c>
       <c r="C71" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -9997,10 +9997,10 @@
         <v>67</v>
       </c>
       <c r="C72" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -10012,10 +10012,10 @@
         <v>68</v>
       </c>
       <c r="C73" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -10027,10 +10027,10 @@
         <v>69</v>
       </c>
       <c r="C74" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D74" s="21" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -10042,10 +10042,10 @@
         <v>70</v>
       </c>
       <c r="C75" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -10057,10 +10057,10 @@
         <v>71</v>
       </c>
       <c r="C76" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D76" s="21" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -10072,10 +10072,10 @@
         <v>72</v>
       </c>
       <c r="C77" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -10087,10 +10087,10 @@
         <v>73</v>
       </c>
       <c r="C78" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -10102,10 +10102,10 @@
         <v>74</v>
       </c>
       <c r="C79" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D79" s="21" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -10117,10 +10117,10 @@
         <v>75</v>
       </c>
       <c r="C80" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -10132,10 +10132,10 @@
         <v>76</v>
       </c>
       <c r="C81" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -10147,10 +10147,10 @@
         <v>77</v>
       </c>
       <c r="C82" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
   </sheetData>
@@ -10177,10 +10177,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -10200,13 +10200,13 @@
         <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -10218,10 +10218,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>574</v>
+      </c>
+      <c r="D5" t="s">
         <v>575</v>
-      </c>
-      <c r="D5" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -10233,10 +10233,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -10248,10 +10248,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -10263,10 +10263,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -10278,10 +10278,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -10293,10 +10293,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -10308,10 +10308,10 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D11" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -10323,10 +10323,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -10338,10 +10338,10 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D13" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -10353,10 +10353,10 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D14" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -10368,10 +10368,10 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D15" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -10383,10 +10383,10 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D16" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -10398,10 +10398,10 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D17" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -10413,10 +10413,10 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D18" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -10428,10 +10428,10 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -10443,10 +10443,10 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D20" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -10458,10 +10458,10 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D21" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -10473,10 +10473,10 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D22" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -10488,10 +10488,10 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D23" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -10503,10 +10503,10 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -10518,10 +10518,10 @@
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D25" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -10533,10 +10533,10 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D26" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -10548,10 +10548,10 @@
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D27" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -10563,10 +10563,10 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D28" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -10578,10 +10578,10 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D29" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -10593,10 +10593,10 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -10608,10 +10608,10 @@
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D31" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -10623,10 +10623,10 @@
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -10638,10 +10638,10 @@
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D33" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -10653,10 +10653,10 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -10668,10 +10668,10 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D35" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -10683,10 +10683,10 @@
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D36" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -10698,10 +10698,10 @@
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D37" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -10713,10 +10713,10 @@
         <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D38" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -10728,10 +10728,10 @@
         <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D39" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -10743,10 +10743,10 @@
         <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D40" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -10758,10 +10758,10 @@
         <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D41" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -10773,10 +10773,10 @@
         <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -10788,10 +10788,10 @@
         <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D43" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -10803,10 +10803,10 @@
         <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -10818,10 +10818,10 @@
         <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D45" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -10833,10 +10833,10 @@
         <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D46" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -10848,10 +10848,10 @@
         <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D47" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -10863,10 +10863,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D48" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -10878,10 +10878,10 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D49" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -10893,10 +10893,10 @@
         <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D50" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -10908,10 +10908,10 @@
         <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D51" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -10923,10 +10923,10 @@
         <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D52" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -10938,10 +10938,10 @@
         <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D53" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -10953,10 +10953,10 @@
         <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D54" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -10968,10 +10968,10 @@
         <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D55" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -10983,10 +10983,10 @@
         <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D56" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -10998,10 +10998,10 @@
         <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D57" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -11013,10 +11013,10 @@
         <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D58" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -11028,10 +11028,10 @@
         <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D59" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -11043,10 +11043,10 @@
         <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D60" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -11058,10 +11058,10 @@
         <v>57</v>
       </c>
       <c r="C61" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D61" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -11073,10 +11073,10 @@
         <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D62" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -11088,10 +11088,10 @@
         <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D63" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -11103,10 +11103,10 @@
         <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -11118,10 +11118,10 @@
         <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D65" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -11133,10 +11133,10 @@
         <v>62</v>
       </c>
       <c r="C66" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D66" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -11148,10 +11148,10 @@
         <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D67" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -11163,10 +11163,10 @@
         <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D68" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -11178,10 +11178,10 @@
         <v>65</v>
       </c>
       <c r="C69" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D69" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -11193,10 +11193,10 @@
         <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D70" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -11208,10 +11208,10 @@
         <v>67</v>
       </c>
       <c r="C71" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D71" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -11223,10 +11223,10 @@
         <v>68</v>
       </c>
       <c r="C72" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D72" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -11238,10 +11238,10 @@
         <v>69</v>
       </c>
       <c r="C73" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D73" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -11253,10 +11253,10 @@
         <v>70</v>
       </c>
       <c r="C74" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D74" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -11268,10 +11268,10 @@
         <v>71</v>
       </c>
       <c r="C75" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D75" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -11283,10 +11283,10 @@
         <v>72</v>
       </c>
       <c r="C76" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D76" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -11298,10 +11298,10 @@
         <v>73</v>
       </c>
       <c r="C77" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D77" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -11313,10 +11313,10 @@
         <v>74</v>
       </c>
       <c r="C78" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D78" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -11328,10 +11328,10 @@
         <v>75</v>
       </c>
       <c r="C79" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D79" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -11343,10 +11343,10 @@
         <v>76</v>
       </c>
       <c r="C80" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D80" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -11358,10 +11358,10 @@
         <v>77</v>
       </c>
       <c r="C81" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D81" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -11373,10 +11373,10 @@
         <v>78</v>
       </c>
       <c r="C82" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D82" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -11388,10 +11388,10 @@
         <v>79</v>
       </c>
       <c r="C83" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D83" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -11403,10 +11403,10 @@
         <v>80</v>
       </c>
       <c r="C84" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D84" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -11418,10 +11418,10 @@
         <v>81</v>
       </c>
       <c r="C85" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D85" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -11433,10 +11433,10 @@
         <v>82</v>
       </c>
       <c r="C86" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D86" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -11448,10 +11448,10 @@
         <v>83</v>
       </c>
       <c r="C87" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D87" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -11463,10 +11463,10 @@
         <v>84</v>
       </c>
       <c r="C88" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D88" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -11478,10 +11478,10 @@
         <v>85</v>
       </c>
       <c r="C89" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D89" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
   </sheetData>
@@ -11522,10 +11522,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -11533,13 +11533,13 @@
         <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -11551,10 +11551,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>656</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -11566,10 +11566,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -11581,10 +11581,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -11596,10 +11596,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -11611,10 +11611,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -11626,10 +11626,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -11641,10 +11641,10 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
   </sheetData>
@@ -11686,10 +11686,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -11697,13 +11697,13 @@
         <v>50</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -11715,10 +11715,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -11730,10 +11730,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -11745,10 +11745,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -11760,10 +11760,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D8" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -11775,10 +11775,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -11790,10 +11790,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D10" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -11805,10 +11805,10 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -11820,10 +11820,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D12" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -11835,10 +11835,10 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D13" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -11850,10 +11850,10 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D14" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -11865,10 +11865,10 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D15" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -11880,10 +11880,10 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D16" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -11895,10 +11895,10 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D17" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -11910,10 +11910,10 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -11940,7 +11940,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B1" t="s">
         <v>24</v>
@@ -11963,13 +11963,13 @@
         <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -11981,10 +11981,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>677</v>
+      </c>
+      <c r="D5" t="s">
         <v>678</v>
-      </c>
-      <c r="D5" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -11996,10 +11996,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -12011,10 +12011,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -12026,10 +12026,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -12041,10 +12041,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -12056,10 +12056,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D10" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -12071,10 +12071,10 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -12086,10 +12086,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D12" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -12101,10 +12101,10 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D13" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -12116,10 +12116,10 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D14" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -12131,10 +12131,10 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D15" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -12146,10 +12146,10 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D16" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -12161,10 +12161,10 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -12176,10 +12176,10 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -12191,10 +12191,10 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D19" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -12206,10 +12206,10 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D20" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -12221,10 +12221,10 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D21" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -12236,10 +12236,10 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D22" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -12251,10 +12251,10 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -12266,10 +12266,10 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -12281,10 +12281,10 @@
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D25" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -12296,10 +12296,10 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D26" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -12311,10 +12311,10 @@
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D27" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -12326,10 +12326,10 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D28" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -12341,10 +12341,10 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -12356,10 +12356,10 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D30" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -12371,10 +12371,10 @@
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D31" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -12386,10 +12386,10 @@
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D32" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -12401,10 +12401,10 @@
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D33" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -12416,10 +12416,10 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D34" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -12431,10 +12431,10 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D35" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -12446,10 +12446,10 @@
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D36" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -12461,10 +12461,10 @@
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D37" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -12476,10 +12476,10 @@
         <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D38" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -12491,10 +12491,10 @@
         <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D39" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -12506,10 +12506,10 @@
         <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -12521,10 +12521,10 @@
         <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D41" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -12536,10 +12536,10 @@
         <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D42" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -12551,10 +12551,10 @@
         <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -12566,10 +12566,10 @@
         <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D44" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -12581,10 +12581,10 @@
         <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D45" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -12596,10 +12596,10 @@
         <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D46" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -12611,10 +12611,10 @@
         <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D47" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -12626,10 +12626,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -12641,10 +12641,10 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -12656,10 +12656,10 @@
         <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -12671,10 +12671,10 @@
         <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -12686,10 +12686,10 @@
         <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D52" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -12701,10 +12701,10 @@
         <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D53" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -12716,10 +12716,10 @@
         <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -12731,10 +12731,10 @@
         <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D55" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -12746,10 +12746,10 @@
         <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D56" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -12761,10 +12761,10 @@
         <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D57" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -12776,10 +12776,10 @@
         <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D58" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -12791,10 +12791,10 @@
         <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -12806,10 +12806,10 @@
         <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D60" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -12821,10 +12821,10 @@
         <v>57</v>
       </c>
       <c r="C61" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D61" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -12836,10 +12836,10 @@
         <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D62" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -12851,10 +12851,10 @@
         <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D63" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -12866,10 +12866,10 @@
         <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D64" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -12881,10 +12881,10 @@
         <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -12896,10 +12896,10 @@
         <v>62</v>
       </c>
       <c r="C66" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -12911,10 +12911,10 @@
         <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D67" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -12926,10 +12926,10 @@
         <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -12941,10 +12941,10 @@
         <v>65</v>
       </c>
       <c r="C69" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D69" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -12956,10 +12956,10 @@
         <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -12971,10 +12971,10 @@
         <v>67</v>
       </c>
       <c r="C71" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D71" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -12986,10 +12986,10 @@
         <v>68</v>
       </c>
       <c r="C72" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D72" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -13001,10 +13001,10 @@
         <v>69</v>
       </c>
       <c r="C73" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -13016,10 +13016,10 @@
         <v>70</v>
       </c>
       <c r="C74" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D74" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -13031,10 +13031,10 @@
         <v>71</v>
       </c>
       <c r="C75" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D75" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -13046,10 +13046,10 @@
         <v>72</v>
       </c>
       <c r="C76" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D76" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -13061,10 +13061,10 @@
         <v>73</v>
       </c>
       <c r="C77" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -13076,10 +13076,10 @@
         <v>74</v>
       </c>
       <c r="C78" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D78" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -13091,10 +13091,10 @@
         <v>75</v>
       </c>
       <c r="C79" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D79" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -13106,10 +13106,10 @@
         <v>76</v>
       </c>
       <c r="C80" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D80" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -13121,10 +13121,10 @@
         <v>77</v>
       </c>
       <c r="C81" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D81" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
   </sheetData>
@@ -13163,10 +13163,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -13174,13 +13174,13 @@
         <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -13189,13 +13189,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/MIT</v>
       </c>
       <c r="B5" t="s">
+        <v>749</v>
+      </c>
+      <c r="C5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D5" t="s">
         <v>750</v>
-      </c>
-      <c r="C5" t="s">
-        <v>656</v>
-      </c>
-      <c r="D5" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -13204,13 +13204,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/APACHE_2_0</v>
       </c>
       <c r="B6" t="s">
+        <v>751</v>
+      </c>
+      <c r="C6" t="s">
+        <v>655</v>
+      </c>
+      <c r="D6" t="s">
         <v>752</v>
-      </c>
-      <c r="C6" t="s">
-        <v>656</v>
-      </c>
-      <c r="D6" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -13219,13 +13219,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/BSD_2_CLAUSE</v>
       </c>
       <c r="B7" t="s">
+        <v>753</v>
+      </c>
+      <c r="C7" t="s">
+        <v>655</v>
+      </c>
+      <c r="D7" t="s">
         <v>754</v>
-      </c>
-      <c r="C7" t="s">
-        <v>656</v>
-      </c>
-      <c r="D7" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -13234,13 +13234,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/BSD_3_CLAUSE</v>
       </c>
       <c r="B8" t="s">
+        <v>755</v>
+      </c>
+      <c r="C8" t="s">
+        <v>655</v>
+      </c>
+      <c r="D8" t="s">
         <v>756</v>
-      </c>
-      <c r="C8" t="s">
-        <v>656</v>
-      </c>
-      <c r="D8" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -13249,13 +13249,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/CC_BYNC_3_0</v>
       </c>
       <c r="B9" t="s">
+        <v>757</v>
+      </c>
+      <c r="C9" t="s">
+        <v>655</v>
+      </c>
+      <c r="D9" t="s">
         <v>758</v>
-      </c>
-      <c r="C9" t="s">
-        <v>656</v>
-      </c>
-      <c r="D9" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -13264,13 +13264,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/CC_BYSA_4_0</v>
       </c>
       <c r="B10" t="s">
+        <v>759</v>
+      </c>
+      <c r="C10" t="s">
+        <v>655</v>
+      </c>
+      <c r="D10" t="s">
         <v>760</v>
-      </c>
-      <c r="C10" t="s">
-        <v>656</v>
-      </c>
-      <c r="D10" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -13279,13 +13279,13 @@
         <v>https://spdx.org/licenses/CECILL-2.0</v>
       </c>
       <c r="B11" t="s">
+        <v>761</v>
+      </c>
+      <c r="C11" t="s">
+        <v>655</v>
+      </c>
+      <c r="D11" t="s">
         <v>762</v>
-      </c>
-      <c r="C11" t="s">
-        <v>656</v>
-      </c>
-      <c r="D11" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -13294,13 +13294,13 @@
         <v>https://spdx.org/licenses/CECILL-C</v>
       </c>
       <c r="B12" t="s">
+        <v>763</v>
+      </c>
+      <c r="C12" t="s">
+        <v>655</v>
+      </c>
+      <c r="D12" t="s">
         <v>764</v>
-      </c>
-      <c r="C12" t="s">
-        <v>656</v>
-      </c>
-      <c r="D12" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -13309,13 +13309,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/EUPL_1_2</v>
       </c>
       <c r="B13" t="s">
+        <v>765</v>
+      </c>
+      <c r="C13" t="s">
+        <v>655</v>
+      </c>
+      <c r="D13" t="s">
         <v>766</v>
-      </c>
-      <c r="C13" t="s">
-        <v>656</v>
-      </c>
-      <c r="D13" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -13324,13 +13324,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/AGPL_3_0</v>
       </c>
       <c r="B14" t="s">
+        <v>767</v>
+      </c>
+      <c r="C14" t="s">
+        <v>655</v>
+      </c>
+      <c r="D14" t="s">
         <v>768</v>
-      </c>
-      <c r="C14" t="s">
-        <v>656</v>
-      </c>
-      <c r="D14" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -13339,13 +13339,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/LGPL_2_1</v>
       </c>
       <c r="B15" t="s">
+        <v>769</v>
+      </c>
+      <c r="C15" t="s">
+        <v>655</v>
+      </c>
+      <c r="D15" t="s">
         <v>770</v>
-      </c>
-      <c r="C15" t="s">
-        <v>656</v>
-      </c>
-      <c r="D15" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -13354,13 +13354,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/LGPL_3_0</v>
       </c>
       <c r="B16" t="s">
+        <v>771</v>
+      </c>
+      <c r="C16" t="s">
+        <v>655</v>
+      </c>
+      <c r="D16" t="s">
         <v>772</v>
-      </c>
-      <c r="C16" t="s">
-        <v>656</v>
-      </c>
-      <c r="D16" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -13369,13 +13369,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/GPL_2_0</v>
       </c>
       <c r="B17" t="s">
+        <v>773</v>
+      </c>
+      <c r="C17" t="s">
+        <v>655</v>
+      </c>
+      <c r="D17" t="s">
         <v>774</v>
-      </c>
-      <c r="C17" t="s">
-        <v>656</v>
-      </c>
-      <c r="D17" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -13384,13 +13384,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/GPL_3_0</v>
       </c>
       <c r="B18" t="s">
+        <v>775</v>
+      </c>
+      <c r="C18" t="s">
+        <v>655</v>
+      </c>
+      <c r="D18" t="s">
         <v>776</v>
-      </c>
-      <c r="C18" t="s">
-        <v>656</v>
-      </c>
-      <c r="D18" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -13399,13 +13399,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/ISC</v>
       </c>
       <c r="B19" t="s">
+        <v>777</v>
+      </c>
+      <c r="C19" t="s">
+        <v>655</v>
+      </c>
+      <c r="D19" t="s">
         <v>778</v>
-      </c>
-      <c r="C19" t="s">
-        <v>656</v>
-      </c>
-      <c r="D19" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -13414,13 +13414,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/MPL_1_1</v>
       </c>
       <c r="B20" t="s">
+        <v>779</v>
+      </c>
+      <c r="C20" t="s">
+        <v>655</v>
+      </c>
+      <c r="D20" t="s">
         <v>780</v>
-      </c>
-      <c r="C20" t="s">
-        <v>656</v>
-      </c>
-      <c r="D20" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -13429,13 +13429,13 @@
         <v>https://spdx.org/licenses/Unlicense</v>
       </c>
       <c r="B21" t="s">
+        <v>781</v>
+      </c>
+      <c r="C21" t="s">
+        <v>655</v>
+      </c>
+      <c r="D21" t="s">
         <v>782</v>
-      </c>
-      <c r="C21" t="s">
-        <v>656</v>
-      </c>
-      <c r="D21" t="s">
-        <v>783</v>
       </c>
     </row>
   </sheetData>
@@ -13457,7 +13457,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
@@ -13469,10 +13469,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="C2" t="s">
         <v>784</v>
-      </c>
-      <c r="C2" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -13480,13 +13480,13 @@
         <v>50</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -13498,10 +13498,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>785</v>
+      </c>
+      <c r="D5" t="s">
         <v>786</v>
-      </c>
-      <c r="D5" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -13513,10 +13513,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D6" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -13528,10 +13528,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D7" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -13543,10 +13543,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -13558,10 +13558,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D9" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -13573,10 +13573,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D10" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -13588,10 +13588,10 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D11" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -13603,10 +13603,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D12" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -13618,10 +13618,10 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D13" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
   </sheetData>
@@ -13633,8 +13633,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="21f64c02-1f20-443d-801b-ae17df5c4a0a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bf3f9575-65b8-4549-b389-33a18b8943d7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13893,20 +13899,23 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="21f64c02-1f20-443d-801b-ae17df5c4a0a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bf3f9575-65b8-4549-b389-33a18b8943d7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{164C3F70-F822-4EF6-AEFF-DC1ABB56CF75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D32E47C-7013-4565-B268-D2BE134A52BA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="bf3f9575-65b8-4549-b389-33a18b8943d7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="21f64c02-1f20-443d-801b-ae17df5c4a0a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13931,18 +13940,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D32E47C-7013-4565-B268-D2BE134A52BA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{164C3F70-F822-4EF6-AEFF-DC1ABB56CF75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="bf3f9575-65b8-4549-b389-33a18b8943d7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="21f64c02-1f20-443d-801b-ae17df5c4a0a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/tools.xlsx
+++ b/tools.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pwceur.sharepoint.com/sites/be-adv-ovajkrudgsc8gy87cbtq/Shared Documents/SEMIC 15/Task 07 Creation, maintenance and packaging of tools/A07.03 Maintenance, packaging of existing Catalogue of Services and Access to Base Registries tools and evolution/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="303" documentId="13_ncr:1_{E6520019-6155-41E8-96E2-15ECA33B3CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05C4F6F7-DDF9-49CE-B878-C8C0EAC330C6}"/>
+  <xr:revisionPtr revIDLastSave="306" documentId="13_ncr:1_{E6520019-6155-41E8-96E2-15ECA33B3CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7DCEC8A-A87A-413D-95DD-8340D82DA773}"/>
   <bookViews>
-    <workbookView xWindow="-4260" yWindow="-17388" windowWidth="30936" windowHeight="16776" xr2:uid="{AFCE36E2-F631-4322-AF27-256B8B7C0B04}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{AFCE36E2-F631-4322-AF27-256B8B7C0B04}"/>
   </bookViews>
   <sheets>
     <sheet name="Tool" sheetId="2" r:id="rId1"/>
@@ -2830,10 +2830,10 @@
     <t>https://smartdataanalytics.github.io/RdfProcessingToolkit/</t>
   </si>
   <si>
-    <t>comp:7,comp:6,comp:5,comp:1</t>
-  </si>
-  <si>
-    <t>function:2,function:12,function:3,function:7</t>
+    <t>function:2,function:12,function:7,function:11</t>
+  </si>
+  <si>
+    <t>comp:7,comp:6,comp:5</t>
   </si>
 </sst>
 </file>
@@ -3367,8 +3367,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7320,10 +7320,10 @@
         <v>900</v>
       </c>
       <c r="F106" s="24" t="s">
+        <v>909</v>
+      </c>
+      <c r="G106" s="24" t="s">
         <v>908</v>
-      </c>
-      <c r="G106" s="24" t="s">
-        <v>909</v>
       </c>
       <c r="H106" t="s">
         <v>907</v>
@@ -13748,14 +13748,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="21f64c02-1f20-443d-801b-ae17df5c4a0a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bf3f9575-65b8-4549-b389-33a18b8943d7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14014,23 +14008,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="21f64c02-1f20-443d-801b-ae17df5c4a0a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bf3f9575-65b8-4549-b389-33a18b8943d7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D32E47C-7013-4565-B268-D2BE134A52BA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{164C3F70-F822-4EF6-AEFF-DC1ABB56CF75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="21f64c02-1f20-443d-801b-ae17df5c4a0a"/>
-    <ds:schemaRef ds:uri="bf3f9575-65b8-4549-b389-33a18b8943d7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14055,9 +14046,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{164C3F70-F822-4EF6-AEFF-DC1ABB56CF75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D32E47C-7013-4565-B268-D2BE134A52BA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="21f64c02-1f20-443d-801b-ae17df5c4a0a"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bf3f9575-65b8-4549-b389-33a18b8943d7"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/tools.xlsx
+++ b/tools.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pwceur.sharepoint.com/sites/be-adv-ovajkrudgsc8gy87cbtq/Shared Documents/SEMIC 15/Task 07 Creation, maintenance and packaging of tools/A07.03 Maintenance, packaging of existing Catalogue of Services and Access to Base Registries tools and evolution/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estani002\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="306" documentId="13_ncr:1_{E6520019-6155-41E8-96E2-15ECA33B3CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7DCEC8A-A87A-413D-95DD-8340D82DA773}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26939C8-ED8B-4DBD-8D8F-442B94D307C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{AFCE36E2-F631-4322-AF27-256B8B7C0B04}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="7" xr2:uid="{AFCE36E2-F631-4322-AF27-256B8B7C0B04}"/>
   </bookViews>
   <sheets>
     <sheet name="Tool" sheetId="2" r:id="rId1"/>
@@ -3367,28 +3367,28 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+    <sheetView topLeftCell="A101" workbookViewId="0">
       <selection activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="39" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="24"/>
-    <col min="3" max="3" width="29.44140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="8.90625" style="24"/>
+    <col min="3" max="3" width="29.453125" style="24" customWidth="1"/>
     <col min="4" max="4" width="27" style="24" customWidth="1"/>
-    <col min="5" max="5" width="35.109375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="35.08984375" style="24" customWidth="1"/>
     <col min="6" max="8" width="27" style="24" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="24"/>
-    <col min="13" max="14" width="26.44140625" style="24" customWidth="1"/>
-    <col min="15" max="15" width="25.6640625" style="24" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="8"/>
+    <col min="9" max="9" width="17.6328125" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.6328125" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.6328125" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.90625" style="24"/>
+    <col min="13" max="14" width="26.453125" style="24" customWidth="1"/>
+    <col min="15" max="15" width="25.6328125" style="24" customWidth="1"/>
+    <col min="16" max="16384" width="8.90625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
         <v>2</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
         <v>2</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
         <v>2</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>2</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
         <v>2</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
         <v>2</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
         <v>2</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
         <v>2</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
         <v>2</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
         <v>2</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
         <v>2</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="26" t="s">
         <v>31</v>
       </c>
@@ -3560,7 +3560,7 @@
       </c>
       <c r="C16" s="10"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="26" t="s">
         <v>33</v>
       </c>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="C17" s="10"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="26" t="s">
         <v>35</v>
       </c>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="C18" s="10"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
         <v>37</v>
       </c>
@@ -3587,14 +3587,14 @@
       </c>
       <c r="C19" s="10"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="10"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="26" t="s">
         <v>40</v>
       </c>
@@ -3603,7 +3603,7 @@
       </c>
       <c r="C21" s="10"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="26" t="s">
         <v>41</v>
       </c>
@@ -3612,7 +3612,7 @@
       </c>
       <c r="C22" s="10"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
         <v>43</v>
       </c>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="C23" s="10"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="26" t="s">
         <v>45</v>
       </c>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="C24" s="10"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="26" t="s">
         <v>47</v>
       </c>
@@ -3639,17 +3639,17 @@
       </c>
       <c r="C25" s="10"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="26" t="s">
         <v>49</v>
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="10"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C27" s="8"/>
     </row>
-    <row r="28" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>50</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="24" t="str">
         <f t="shared" ref="A29:A60" si="0">_xlfn.CONCAT("https://example.com/tool/",B29)</f>
         <v>https://example.com/tool/1</v>
@@ -3742,7 +3742,7 @@
         <v>SoftVer:1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/2</v>
@@ -3788,7 +3788,7 @@
         <v>SoftVer:2</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A31" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/3</v>
@@ -3837,7 +3837,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A32" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/4</v>
@@ -3883,7 +3883,7 @@
         <v>SoftVer:4</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A33" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/5</v>
@@ -3929,7 +3929,7 @@
         <v>SoftVer:5</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A34" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/6</v>
@@ -3975,7 +3975,7 @@
         <v>SoftVer:6</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A35" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/7</v>
@@ -4021,7 +4021,7 @@
         <v>SoftVer:7</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/8</v>
@@ -4067,7 +4067,7 @@
         <v>SoftVer:8</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/9</v>
@@ -4116,7 +4116,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/10</v>
@@ -4162,7 +4162,7 @@
         <v>SoftVer:10</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A39" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/11</v>
@@ -4208,7 +4208,7 @@
         <v>SoftVer:11</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/12</v>
@@ -4254,7 +4254,7 @@
         <v>SoftVer:12</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="116" x14ac:dyDescent="0.35">
       <c r="A41" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/13</v>
@@ -4300,7 +4300,7 @@
         <v>SoftVer:13</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/14</v>
@@ -4349,7 +4349,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A43" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/15</v>
@@ -4398,7 +4398,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/16</v>
@@ -4444,7 +4444,7 @@
         <v>SoftVer:16</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A45" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/17</v>
@@ -4490,7 +4490,7 @@
         <v>SoftVer:17</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A46" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/18</v>
@@ -4536,7 +4536,7 @@
         <v>SoftVer:18</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A47" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/19</v>
@@ -4582,7 +4582,7 @@
         <v>SoftVer:19</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/20</v>
@@ -4628,7 +4628,7 @@
         <v>SoftVer:20</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A49" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/21</v>
@@ -4674,7 +4674,7 @@
         <v>SoftVer:21</v>
       </c>
     </row>
-    <row r="50" spans="1:15" s="14" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" s="14" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A50" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/22</v>
@@ -4723,7 +4723,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A51" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/23</v>
@@ -4769,7 +4769,7 @@
         <v>SoftVer:23</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A52" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/24</v>
@@ -4818,7 +4818,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A53" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/25</v>
@@ -4864,7 +4864,7 @@
         <v>SoftVer:25</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/26</v>
@@ -4910,7 +4910,7 @@
         <v>SoftVer:26</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A55" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/27</v>
@@ -4956,7 +4956,7 @@
         <v>SoftVer:27</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A56" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/28</v>
@@ -5002,7 +5002,7 @@
         <v>SoftVer:28</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A57" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/29</v>
@@ -5048,7 +5048,7 @@
         <v>SoftVer:29</v>
       </c>
     </row>
-    <row r="58" spans="1:15" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" s="14" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/30</v>
@@ -5095,7 +5095,7 @@
       </c>
       <c r="O58" s="29"/>
     </row>
-    <row r="59" spans="1:15" s="14" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" s="14" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A59" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/31</v>
@@ -5142,7 +5142,7 @@
       </c>
       <c r="O59" s="29"/>
     </row>
-    <row r="60" spans="1:15" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" s="14" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/32</v>
@@ -5189,7 +5189,7 @@
       </c>
       <c r="O60" s="29"/>
     </row>
-    <row r="61" spans="1:15" s="14" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" s="14" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A61" s="24" t="str">
         <f t="shared" ref="A61:A92" si="1">_xlfn.CONCAT("https://example.com/tool/",B61)</f>
         <v>https://example.com/tool/33</v>
@@ -5236,7 +5236,7 @@
       </c>
       <c r="O61" s="29"/>
     </row>
-    <row r="62" spans="1:15" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" s="14" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A62" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/34</v>
@@ -5283,7 +5283,7 @@
       </c>
       <c r="O62" s="29"/>
     </row>
-    <row r="63" spans="1:15" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" s="14" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A63" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/35</v>
@@ -5330,7 +5330,7 @@
       </c>
       <c r="O63" s="29"/>
     </row>
-    <row r="64" spans="1:15" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" s="14" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A64" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/36</v>
@@ -5377,7 +5377,7 @@
       </c>
       <c r="O64" s="29"/>
     </row>
-    <row r="65" spans="1:15" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" s="14" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A65" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/37</v>
@@ -5424,7 +5424,7 @@
       </c>
       <c r="O65" s="29"/>
     </row>
-    <row r="66" spans="1:15" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" s="14" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A66" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/38</v>
@@ -5471,7 +5471,7 @@
       </c>
       <c r="O66" s="29"/>
     </row>
-    <row r="67" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A67" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/39</v>
@@ -5517,7 +5517,7 @@
         <v>SoftVer:39</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A68" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/40</v>
@@ -5563,7 +5563,7 @@
         <v>SoftVer:40</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A69" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/41</v>
@@ -5609,7 +5609,7 @@
         <v>SoftVer:41</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A70" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/42</v>
@@ -5658,7 +5658,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A71" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/43</v>
@@ -5707,7 +5707,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A72" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/44</v>
@@ -5753,7 +5753,7 @@
         <v>SoftVer:44</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A73" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/45</v>
@@ -5799,7 +5799,7 @@
         <v>SoftVer:45</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A74" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/46</v>
@@ -5845,7 +5845,7 @@
         <v>SoftVer:46</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A75" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/47</v>
@@ -5891,7 +5891,7 @@
         <v>SoftVer:47</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A76" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/48</v>
@@ -5940,7 +5940,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A77" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/49</v>
@@ -5989,7 +5989,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="78" spans="1:15" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" s="14" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A78" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/50</v>
@@ -6038,7 +6038,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="79" spans="1:15" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" s="14" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/51</v>
@@ -6085,7 +6085,7 @@
       </c>
       <c r="O79" s="29"/>
     </row>
-    <row r="80" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A80" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/52</v>
@@ -6134,7 +6134,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/53</v>
@@ -6180,7 +6180,7 @@
         <v>SoftVer:53</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A82" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/54</v>
@@ -6226,7 +6226,7 @@
         <v>SoftVer:54</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A83" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/55</v>
@@ -6275,7 +6275,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A84" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/56</v>
@@ -6321,7 +6321,7 @@
         <v>SoftVer:56</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A85" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/57</v>
@@ -6367,7 +6367,7 @@
         <v>SoftVer:57</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A86" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/58</v>
@@ -6413,7 +6413,7 @@
         <v>SoftVer:58</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A87" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/59</v>
@@ -6459,7 +6459,7 @@
         <v>SoftVer:59</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A88" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/60</v>
@@ -6505,7 +6505,7 @@
         <v>SoftVer:60</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A89" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/61</v>
@@ -6551,7 +6551,7 @@
         <v>SoftVer:61</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A90" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/62</v>
@@ -6600,7 +6600,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A91" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/63</v>
@@ -6649,7 +6649,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A92" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/64</v>
@@ -6698,7 +6698,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A93" s="24" t="str">
         <f t="shared" ref="A93:A105" si="2">_xlfn.CONCAT("https://example.com/tool/",B93)</f>
         <v>https://example.com/tool/65</v>
@@ -6747,7 +6747,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A94" s="24" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/tool/66</v>
@@ -6793,7 +6793,7 @@
         <v>SoftVer:66</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="24" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/tool/67</v>
@@ -6839,7 +6839,7 @@
         <v>SoftVer:67</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A96" s="24" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/tool/68</v>
@@ -6888,7 +6888,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A97" s="24" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/tool/69</v>
@@ -6934,7 +6934,7 @@
         <v>SoftVer:69</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="24" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/tool/70</v>
@@ -6980,7 +6980,7 @@
         <v>SoftVer:70</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" s="24" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/tool/71</v>
@@ -7026,7 +7026,7 @@
         <v>SoftVer:71</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A100" s="24" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/tool/72</v>
@@ -7072,7 +7072,7 @@
         <v>SoftVer:72</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A101" s="24" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/tool/73</v>
@@ -7118,7 +7118,7 @@
         <v>SoftVer:73</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A102" s="24" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/tool/74</v>
@@ -7164,7 +7164,7 @@
         <v>SoftVer:74</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A103" s="24" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/tool/75</v>
@@ -7210,7 +7210,7 @@
         <v>SoftVer:75</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A104" s="24" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/tool/76</v>
@@ -7256,7 +7256,7 @@
         <v>SoftVer:76</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A105" s="24" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/tool/77</v>
@@ -7302,7 +7302,7 @@
         <v>SoftVer:77</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A106" s="24" t="str">
         <f t="shared" ref="A106" si="3">_xlfn.CONCAT("https://example.com/tool/",B106)</f>
         <v>https://example.com/tool/78</v>
@@ -7368,15 +7368,15 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="49.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7385,7 +7385,7 @@
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
         <v>50</v>
       </c>
@@ -7410,7 +7410,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>_xlfn.CONCAT("https://dbpedia.org/resource/",B5)</f>
         <v>https://dbpedia.org/resource/Graphical_user_interface</v>
@@ -7425,7 +7425,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>_xlfn.CONCAT("https://dbpedia.org/resource/",B6)</f>
         <v>https://dbpedia.org/resource/Command-line_interface</v>
@@ -7440,7 +7440,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f>_xlfn.CONCAT("https://dbpedia.org/resource/",B7)</f>
         <v>https://dbpedia.org/resource/Web_API</v>
@@ -7455,22 +7455,22 @@
         <v>806</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D12" s="8"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="13"/>
     </row>
   </sheetData>
@@ -7487,15 +7487,15 @@
       <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.54296875" customWidth="1"/>
+    <col min="4" max="4" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7504,7 +7504,7 @@
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -7515,7 +7515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>_xlfn.CONCAT("https://example.com/SoftVer/",B5)</f>
         <v>https://example.com/SoftVer/1</v>
@@ -7550,7 +7550,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f t="shared" ref="A6:A69" si="0">_xlfn.CONCAT("https://example.com/SoftVer/",B6)</f>
         <v>https://example.com/SoftVer/2</v>
@@ -7568,7 +7568,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/3</v>
@@ -7586,7 +7586,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/4</v>
@@ -7604,7 +7604,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/5</v>
@@ -7622,7 +7622,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/6</v>
@@ -7640,7 +7640,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/7</v>
@@ -7658,7 +7658,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/8</v>
@@ -7676,7 +7676,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/9</v>
@@ -7694,7 +7694,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/10</v>
@@ -7712,7 +7712,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/11</v>
@@ -7730,7 +7730,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/12</v>
@@ -7748,7 +7748,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/13</v>
@@ -7766,7 +7766,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/14</v>
@@ -7784,7 +7784,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/15</v>
@@ -7802,7 +7802,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/16</v>
@@ -7820,7 +7820,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/17</v>
@@ -7838,7 +7838,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/18</v>
@@ -7856,7 +7856,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/19</v>
@@ -7874,7 +7874,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/20</v>
@@ -7892,7 +7892,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/21</v>
@@ -7910,7 +7910,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/22</v>
@@ -7928,7 +7928,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/23</v>
@@ -7946,7 +7946,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/24</v>
@@ -7964,7 +7964,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/25</v>
@@ -7982,7 +7982,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/26</v>
@@ -8000,7 +8000,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/27</v>
@@ -8018,7 +8018,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/28</v>
@@ -8036,7 +8036,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/29</v>
@@ -8054,7 +8054,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/30</v>
@@ -8072,7 +8072,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/31</v>
@@ -8090,7 +8090,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/32</v>
@@ -8108,7 +8108,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/33</v>
@@ -8126,7 +8126,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/34</v>
@@ -8144,7 +8144,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/35</v>
@@ -8162,7 +8162,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/36</v>
@@ -8180,7 +8180,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/37</v>
@@ -8198,7 +8198,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/38</v>
@@ -8216,7 +8216,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/39</v>
@@ -8234,7 +8234,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/40</v>
@@ -8252,7 +8252,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/41</v>
@@ -8270,7 +8270,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/42</v>
@@ -8288,7 +8288,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/43</v>
@@ -8306,7 +8306,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/44</v>
@@ -8324,7 +8324,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/45</v>
@@ -8342,7 +8342,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/46</v>
@@ -8360,7 +8360,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/47</v>
@@ -8378,7 +8378,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/48</v>
@@ -8396,7 +8396,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/49</v>
@@ -8414,7 +8414,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/50</v>
@@ -8432,7 +8432,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/51</v>
@@ -8450,7 +8450,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/52</v>
@@ -8468,7 +8468,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/53</v>
@@ -8486,7 +8486,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/54</v>
@@ -8504,7 +8504,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/55</v>
@@ -8522,7 +8522,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/56</v>
@@ -8540,7 +8540,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/57</v>
@@ -8558,7 +8558,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/58</v>
@@ -8576,7 +8576,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/59</v>
@@ -8594,7 +8594,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/60</v>
@@ -8612,7 +8612,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/61</v>
@@ -8630,7 +8630,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/62</v>
@@ -8648,7 +8648,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/63</v>
@@ -8666,7 +8666,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/64</v>
@@ -8684,7 +8684,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/65</v>
@@ -8702,7 +8702,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="str">
         <f t="shared" ref="A70:A81" si="1">_xlfn.CONCAT("https://example.com/SoftVer/",B70)</f>
         <v>https://example.com/SoftVer/66</v>
@@ -8720,7 +8720,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftVer/67</v>
@@ -8738,7 +8738,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftVer/68</v>
@@ -8756,7 +8756,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftVer/69</v>
@@ -8774,7 +8774,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftVer/70</v>
@@ -8792,7 +8792,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftVer/71</v>
@@ -8810,7 +8810,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftVer/72</v>
@@ -8828,7 +8828,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftVer/73</v>
@@ -8846,7 +8846,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftVer/74</v>
@@ -8864,7 +8864,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftVer/75</v>
@@ -8882,7 +8882,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftVer/76</v>
@@ -8900,7 +8900,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftVer/77</v>
@@ -8918,7 +8918,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="str">
         <f t="shared" ref="A82" si="2">_xlfn.CONCAT("https://example.com/SoftVer/",B82)</f>
         <v>https://example.com/SoftVer/78</v>
@@ -8954,17 +8954,17 @@
       <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" customWidth="1"/>
-    <col min="4" max="4" width="88.33203125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="86.6640625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="117.33203125" customWidth="1"/>
+    <col min="1" max="1" width="31.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.54296875" customWidth="1"/>
+    <col min="4" max="4" width="88.36328125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="86.6328125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="117.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8973,7 +8973,7 @@
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -8984,7 +8984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -8995,7 +8995,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -9013,7 +9013,7 @@
       </c>
       <c r="F5" s="21"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>_xlfn.CONCAT("https://example.com/SoftCon/",B6)</f>
         <v>https://example.com/SoftCon/1</v>
@@ -9028,7 +9028,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f t="shared" ref="A7:A70" si="0">_xlfn.CONCAT("https://example.com/SoftCon/",B7)</f>
         <v>https://example.com/SoftCon/2</v>
@@ -9043,7 +9043,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/3</v>
@@ -9058,7 +9058,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/4</v>
@@ -9073,7 +9073,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/5</v>
@@ -9088,7 +9088,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/6</v>
@@ -9107,7 +9107,7 @@
       </c>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/7</v>
@@ -9122,7 +9122,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/8</v>
@@ -9138,7 +9138,7 @@
       </c>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/9</v>
@@ -9153,7 +9153,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/10</v>
@@ -9172,7 +9172,7 @@
       </c>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/11</v>
@@ -9187,7 +9187,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/12</v>
@@ -9202,7 +9202,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/13</v>
@@ -9217,7 +9217,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/14</v>
@@ -9236,7 +9236,7 @@
       </c>
       <c r="F19" s="23"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/15</v>
@@ -9255,7 +9255,7 @@
       </c>
       <c r="F20" s="23"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/16</v>
@@ -9270,7 +9270,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/17</v>
@@ -9285,7 +9285,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/18</v>
@@ -9304,7 +9304,7 @@
       </c>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/19</v>
@@ -9319,7 +9319,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/20</v>
@@ -9334,7 +9334,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/21</v>
@@ -9349,7 +9349,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/22</v>
@@ -9364,7 +9364,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/23</v>
@@ -9379,7 +9379,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/24</v>
@@ -9394,7 +9394,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/25</v>
@@ -9413,7 +9413,7 @@
       </c>
       <c r="F30" s="23"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/26</v>
@@ -9428,7 +9428,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/27</v>
@@ -9443,7 +9443,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/28</v>
@@ -9458,7 +9458,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/29</v>
@@ -9473,7 +9473,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/30</v>
@@ -9488,7 +9488,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/31</v>
@@ -9503,7 +9503,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/32</v>
@@ -9518,7 +9518,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/33</v>
@@ -9533,7 +9533,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/34</v>
@@ -9552,7 +9552,7 @@
       </c>
       <c r="F39" s="12"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/35</v>
@@ -9571,7 +9571,7 @@
       </c>
       <c r="F40" s="12"/>
     </row>
-    <row r="41" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/36</v>
@@ -9590,7 +9590,7 @@
       </c>
       <c r="F41" s="12"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/37</v>
@@ -9605,7 +9605,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/38</v>
@@ -9624,7 +9624,7 @@
       </c>
       <c r="F43" s="12"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/39</v>
@@ -9639,7 +9639,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/40</v>
@@ -9654,7 +9654,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/41</v>
@@ -9669,7 +9669,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/42</v>
@@ -9684,7 +9684,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/43</v>
@@ -9699,7 +9699,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/44</v>
@@ -9718,7 +9718,7 @@
       </c>
       <c r="F49" s="12"/>
     </row>
-    <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/45</v>
@@ -9734,7 +9734,7 @@
       </c>
       <c r="F50" s="12"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/46</v>
@@ -9750,7 +9750,7 @@
       </c>
       <c r="F51" s="12"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/47</v>
@@ -9766,7 +9766,7 @@
       </c>
       <c r="F52" s="12"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/48</v>
@@ -9781,7 +9781,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/49</v>
@@ -9796,7 +9796,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/50</v>
@@ -9811,7 +9811,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/51</v>
@@ -9826,7 +9826,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/52</v>
@@ -9841,7 +9841,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/53</v>
@@ -9856,7 +9856,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/54</v>
@@ -9871,7 +9871,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/55</v>
@@ -9886,7 +9886,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/56</v>
@@ -9901,7 +9901,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/57</v>
@@ -9916,7 +9916,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/58</v>
@@ -9931,7 +9931,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/59</v>
@@ -9946,7 +9946,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/60</v>
@@ -9961,7 +9961,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/61</v>
@@ -9976,7 +9976,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/62</v>
@@ -9991,7 +9991,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A68" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/63</v>
@@ -10010,7 +10010,7 @@
       </c>
       <c r="F68" s="23"/>
     </row>
-    <row r="69" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A69" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/64</v>
@@ -10026,7 +10026,7 @@
       </c>
       <c r="F69" s="23"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/65</v>
@@ -10041,7 +10041,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="str">
         <f t="shared" ref="A71:A82" si="1">_xlfn.CONCAT("https://example.com/SoftCon/",B71)</f>
         <v>https://example.com/SoftCon/66</v>
@@ -10056,7 +10056,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftCon/67</v>
@@ -10071,7 +10071,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftCon/68</v>
@@ -10086,7 +10086,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftCon/69</v>
@@ -10101,7 +10101,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftCon/70</v>
@@ -10116,7 +10116,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftCon/71</v>
@@ -10131,7 +10131,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftCon/72</v>
@@ -10146,7 +10146,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftCon/73</v>
@@ -10161,7 +10161,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftCon/74</v>
@@ -10176,7 +10176,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftCon/75</v>
@@ -10191,7 +10191,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftCon/76</v>
@@ -10206,7 +10206,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftCon/77</v>
@@ -10221,7 +10221,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" t="str">
         <f t="shared" ref="A83" si="2">_xlfn.CONCAT("https://example.com/SoftCon/",B83)</f>
         <v>https://example.com/SoftCon/78</v>
@@ -10253,15 +10253,15 @@
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.54296875" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -10270,7 +10270,7 @@
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -10281,7 +10281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -10295,7 +10295,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>_xlfn.CONCAT("https://example.com/DataSpec/",B5)</f>
         <v>https://example.com/DataSpec/1</v>
@@ -10310,7 +10310,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f t="shared" ref="A6:A69" si="0">_xlfn.CONCAT("https://example.com/DataSpec/",B6)</f>
         <v>https://example.com/DataSpec/2</v>
@@ -10325,7 +10325,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/3</v>
@@ -10340,7 +10340,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/4</v>
@@ -10355,7 +10355,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/5</v>
@@ -10370,7 +10370,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/6</v>
@@ -10385,7 +10385,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/7</v>
@@ -10400,7 +10400,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/8</v>
@@ -10415,7 +10415,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/9</v>
@@ -10430,7 +10430,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/10</v>
@@ -10445,7 +10445,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/11</v>
@@ -10460,7 +10460,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/12</v>
@@ -10475,7 +10475,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/13</v>
@@ -10490,7 +10490,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/14</v>
@@ -10505,7 +10505,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/15</v>
@@ -10520,7 +10520,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/16</v>
@@ -10535,7 +10535,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/17</v>
@@ -10550,7 +10550,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/18</v>
@@ -10565,7 +10565,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/19</v>
@@ -10580,7 +10580,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/20</v>
@@ -10595,7 +10595,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/21</v>
@@ -10610,7 +10610,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/22</v>
@@ -10625,7 +10625,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/23</v>
@@ -10640,7 +10640,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/24</v>
@@ -10655,7 +10655,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/25</v>
@@ -10670,7 +10670,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/26</v>
@@ -10685,7 +10685,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/27</v>
@@ -10700,7 +10700,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/28</v>
@@ -10715,7 +10715,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/29</v>
@@ -10730,7 +10730,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/30</v>
@@ -10745,7 +10745,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/31</v>
@@ -10760,7 +10760,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/32</v>
@@ -10775,7 +10775,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/33</v>
@@ -10790,7 +10790,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/34</v>
@@ -10805,7 +10805,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/35</v>
@@ -10820,7 +10820,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/36</v>
@@ -10835,7 +10835,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/37</v>
@@ -10850,7 +10850,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/38</v>
@@ -10865,7 +10865,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/39</v>
@@ -10880,7 +10880,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/40</v>
@@ -10895,7 +10895,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/41</v>
@@ -10910,7 +10910,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/42</v>
@@ -10925,7 +10925,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/43</v>
@@ -10940,7 +10940,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/44</v>
@@ -10955,7 +10955,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/45</v>
@@ -10970,7 +10970,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/46</v>
@@ -10985,7 +10985,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/47</v>
@@ -11000,7 +11000,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/48</v>
@@ -11015,7 +11015,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/49</v>
@@ -11030,7 +11030,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/50</v>
@@ -11045,7 +11045,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/51</v>
@@ -11060,7 +11060,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/52</v>
@@ -11075,7 +11075,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/53</v>
@@ -11090,7 +11090,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/54</v>
@@ -11105,7 +11105,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/55</v>
@@ -11120,7 +11120,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/56</v>
@@ -11135,7 +11135,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/57</v>
@@ -11150,7 +11150,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/58</v>
@@ -11165,7 +11165,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/59</v>
@@ -11180,7 +11180,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/60</v>
@@ -11195,7 +11195,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/61</v>
@@ -11210,7 +11210,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/62</v>
@@ -11225,7 +11225,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/63</v>
@@ -11240,7 +11240,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/64</v>
@@ -11255,7 +11255,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/65</v>
@@ -11270,7 +11270,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="str">
         <f t="shared" ref="A70:A85" si="1">_xlfn.CONCAT("https://example.com/DataSpec/",B70)</f>
         <v>https://example.com/DataSpec/66</v>
@@ -11285,7 +11285,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/DataSpec/67</v>
@@ -11300,7 +11300,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/DataSpec/68</v>
@@ -11315,7 +11315,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/DataSpec/69</v>
@@ -11330,7 +11330,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/DataSpec/70</v>
@@ -11345,7 +11345,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/DataSpec/71</v>
@@ -11360,7 +11360,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/DataSpec/72</v>
@@ -11375,7 +11375,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/DataSpec/73</v>
@@ -11390,7 +11390,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/DataSpec/74</v>
@@ -11405,7 +11405,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/DataSpec/75</v>
@@ -11420,7 +11420,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/DataSpec/76</v>
@@ -11435,7 +11435,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/DataSpec/77</v>
@@ -11450,7 +11450,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/DataSpec/78</v>
@@ -11465,7 +11465,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/DataSpec/79</v>
@@ -11480,7 +11480,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/DataSpec/80</v>
@@ -11495,7 +11495,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/DataSpec/81</v>
@@ -11510,7 +11510,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="str">
         <f t="shared" ref="A86" si="2">_xlfn.CONCAT("https://example.com/DataSpec/",B86)</f>
         <v>https://example.com/DataSpec/82</v>
@@ -11525,7 +11525,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="str">
         <f t="shared" ref="A87" si="3">_xlfn.CONCAT("https://example.com/DataSpec/",B87)</f>
         <v>https://example.com/DataSpec/83</v>
@@ -11540,7 +11540,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="str">
         <f t="shared" ref="A88" si="4">_xlfn.CONCAT("https://example.com/DataSpec/",B88)</f>
         <v>https://example.com/DataSpec/84</v>
@@ -11555,7 +11555,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="str">
         <f t="shared" ref="A89" si="5">_xlfn.CONCAT("https://example.com/DataSpec/",B89)</f>
         <v>https://example.com/DataSpec/85</v>
@@ -11570,7 +11570,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="str">
         <f t="shared" ref="A90" si="6">_xlfn.CONCAT("https://example.com/DataSpec/",B90)</f>
         <v>https://example.com/DataSpec/86</v>
@@ -11600,13 +11600,13 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="31.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -11615,7 +11615,7 @@
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -11626,7 +11626,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -11640,7 +11640,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f t="shared" ref="A5:A11" si="0">_xlfn.CONCAT("https://example.com/ArchComp/",B5)</f>
         <v>https://example.com/ArchComp/1</v>
@@ -11655,7 +11655,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/ArchComp/2</v>
@@ -11670,7 +11670,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/ArchComp/3</v>
@@ -11685,7 +11685,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/ArchComp/4</v>
@@ -11700,7 +11700,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/ArchComp/5</v>
@@ -11715,7 +11715,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/ArchComp/6</v>
@@ -11730,7 +11730,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/ArchComp/7</v>
@@ -11763,14 +11763,14 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -11779,7 +11779,7 @@
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -11790,7 +11790,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
         <v>50</v>
       </c>
@@ -11804,7 +11804,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f t="shared" ref="A5:A18" si="0">_xlfn.CONCAT("https://example.com/Functionality/",B5)</f>
         <v>https://example.com/Functionality/1</v>
@@ -11819,7 +11819,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/Functionality/2</v>
@@ -11834,7 +11834,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/Functionality/3</v>
@@ -11849,7 +11849,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/Functionality/4</v>
@@ -11864,7 +11864,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/Functionality/5</v>
@@ -11879,7 +11879,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/Functionality/6</v>
@@ -11894,7 +11894,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/Functionality/7</v>
@@ -11909,7 +11909,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/Functionality/8</v>
@@ -11924,7 +11924,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/Functionality/9</v>
@@ -11939,7 +11939,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/Functionality/10</v>
@@ -11954,7 +11954,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/Functionality/11</v>
@@ -11969,7 +11969,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/Functionality/12</v>
@@ -11984,7 +11984,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/Functionality/13</v>
@@ -11999,7 +11999,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/Functionality/14</v>
@@ -12028,15 +12028,15 @@
       <selection activeCell="A81" sqref="A81:C82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="32.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" customWidth="1"/>
+    <col min="3" max="3" width="16.08984375" customWidth="1"/>
     <col min="4" max="4" width="52" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -12045,7 +12045,7 @@
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -12056,7 +12056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -12070,7 +12070,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f t="shared" ref="A5:A36" si="0">_xlfn.CONCAT("https://example.com/SourceCode/",B5)</f>
         <v>https://example.com/SourceCode/1</v>
@@ -12085,7 +12085,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/2</v>
@@ -12100,7 +12100,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/3</v>
@@ -12115,7 +12115,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/4</v>
@@ -12130,7 +12130,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/5</v>
@@ -12145,7 +12145,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/6</v>
@@ -12160,7 +12160,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/7</v>
@@ -12175,7 +12175,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/8</v>
@@ -12190,7 +12190,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/9</v>
@@ -12205,7 +12205,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/10</v>
@@ -12220,7 +12220,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/11</v>
@@ -12235,7 +12235,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/12</v>
@@ -12250,7 +12250,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/13</v>
@@ -12265,7 +12265,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/14</v>
@@ -12280,7 +12280,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/15</v>
@@ -12295,7 +12295,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/16</v>
@@ -12310,7 +12310,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/17</v>
@@ -12325,7 +12325,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/18</v>
@@ -12340,7 +12340,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/19</v>
@@ -12355,7 +12355,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/20</v>
@@ -12370,7 +12370,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/21</v>
@@ -12385,7 +12385,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/22</v>
@@ -12400,7 +12400,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/23</v>
@@ -12415,7 +12415,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/24</v>
@@ -12430,7 +12430,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/25</v>
@@ -12445,7 +12445,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/26</v>
@@ -12460,7 +12460,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/27</v>
@@ -12475,7 +12475,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/28</v>
@@ -12490,7 +12490,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/29</v>
@@ -12505,7 +12505,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/30</v>
@@ -12520,7 +12520,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/31</v>
@@ -12535,7 +12535,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/32</v>
@@ -12550,7 +12550,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
         <f t="shared" ref="A37:A68" si="1">_xlfn.CONCAT("https://example.com/SourceCode/",B37)</f>
         <v>https://example.com/SourceCode/33</v>
@@ -12565,7 +12565,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/34</v>
@@ -12580,7 +12580,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/35</v>
@@ -12595,7 +12595,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/36</v>
@@ -12610,7 +12610,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/37</v>
@@ -12625,7 +12625,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/38</v>
@@ -12640,7 +12640,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/39</v>
@@ -12655,7 +12655,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/40</v>
@@ -12670,7 +12670,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/41</v>
@@ -12685,7 +12685,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/42</v>
@@ -12700,7 +12700,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/43</v>
@@ -12715,7 +12715,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/44</v>
@@ -12730,7 +12730,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/45</v>
@@ -12745,7 +12745,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/46</v>
@@ -12760,7 +12760,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/47</v>
@@ -12775,7 +12775,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/48</v>
@@ -12790,7 +12790,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/49</v>
@@ -12805,7 +12805,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/50</v>
@@ -12820,7 +12820,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/51</v>
@@ -12835,7 +12835,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/52</v>
@@ -12850,7 +12850,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/53</v>
@@ -12865,7 +12865,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/54</v>
@@ -12880,7 +12880,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/55</v>
@@ -12895,7 +12895,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/56</v>
@@ -12910,7 +12910,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/57</v>
@@ -12925,7 +12925,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/58</v>
@@ -12940,7 +12940,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/59</v>
@@ -12955,7 +12955,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/60</v>
@@ -12970,7 +12970,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/61</v>
@@ -12985,7 +12985,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/62</v>
@@ -13000,7 +13000,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/63</v>
@@ -13015,7 +13015,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/64</v>
@@ -13030,7 +13030,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="str">
         <f t="shared" ref="A69:A81" si="2">_xlfn.CONCAT("https://example.com/SourceCode/",B69)</f>
         <v>https://example.com/SourceCode/65</v>
@@ -13045,7 +13045,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/SourceCode/66</v>
@@ -13060,7 +13060,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/SourceCode/67</v>
@@ -13075,7 +13075,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/SourceCode/68</v>
@@ -13090,7 +13090,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/SourceCode/69</v>
@@ -13105,7 +13105,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/SourceCode/70</v>
@@ -13120,7 +13120,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/SourceCode/71</v>
@@ -13135,7 +13135,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/SourceCode/72</v>
@@ -13150,7 +13150,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/SourceCode/73</v>
@@ -13165,7 +13165,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/SourceCode/74</v>
@@ -13180,7 +13180,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/SourceCode/75</v>
@@ -13195,7 +13195,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/SourceCode/76</v>
@@ -13210,7 +13210,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/SourceCode/77</v>
@@ -13225,7 +13225,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="str">
         <f t="shared" ref="A82" si="3">_xlfn.CONCAT("https://example.com/SourceCode/",B82)</f>
         <v>https://example.com/SourceCode/78</v>
@@ -13250,19 +13250,19 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="60.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -13271,7 +13271,7 @@
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -13282,7 +13282,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -13296,7 +13296,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>_xlfn.CONCAT("http://publications.europa.eu/resource/authority/licence/",B5)</f>
         <v>http://publications.europa.eu/resource/authority/licence/MIT</v>
@@ -13311,7 +13311,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f t="shared" ref="A6:A20" si="0">_xlfn.CONCAT("http://publications.europa.eu/resource/authority/licence/",B6)</f>
         <v>http://publications.europa.eu/resource/authority/licence/APACHE_2_0</v>
@@ -13326,7 +13326,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>http://publications.europa.eu/resource/authority/licence/BSD_2_CLAUSE</v>
@@ -13341,7 +13341,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>http://publications.europa.eu/resource/authority/licence/BSD_3_CLAUSE</v>
@@ -13356,7 +13356,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>http://publications.europa.eu/resource/authority/licence/CC_BYNC_3_0</v>
@@ -13371,7 +13371,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>http://publications.europa.eu/resource/authority/licence/CC_BYSA_4_0</v>
@@ -13386,10 +13386,10 @@
         <v>768</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
-        <f>_xlfn.CONCAT("https://spdx.org/licenses/",B11)</f>
-        <v>https://spdx.org/licenses/CECILL-2.0</v>
+        <f>_xlfn.CONCAT("http://spdx.org/licenses/",B11)</f>
+        <v>http://spdx.org/licenses/CECILL-2.0</v>
       </c>
       <c r="B11" t="s">
         <v>769</v>
@@ -13401,10 +13401,10 @@
         <v>770</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
-        <f>_xlfn.CONCAT("https://spdx.org/licenses/",B12)</f>
-        <v>https://spdx.org/licenses/CECILL-C</v>
+        <f>_xlfn.CONCAT("http://spdx.org/licenses/",B12)</f>
+        <v>http://spdx.org/licenses/CECILL-C</v>
       </c>
       <c r="B12" t="s">
         <v>771</v>
@@ -13416,7 +13416,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>http://publications.europa.eu/resource/authority/licence/EUPL_1_2</v>
@@ -13431,7 +13431,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>http://publications.europa.eu/resource/authority/licence/AGPL_3_0</v>
@@ -13446,7 +13446,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>http://publications.europa.eu/resource/authority/licence/LGPL_2_1</v>
@@ -13461,7 +13461,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>http://publications.europa.eu/resource/authority/licence/LGPL_3_0</v>
@@ -13476,7 +13476,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>http://publications.europa.eu/resource/authority/licence/GPL_2_0</v>
@@ -13491,7 +13491,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>http://publications.europa.eu/resource/authority/licence/GPL_3_0</v>
@@ -13506,7 +13506,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>http://publications.europa.eu/resource/authority/licence/ISC</v>
@@ -13521,7 +13521,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>http://publications.europa.eu/resource/authority/licence/MPL_1_1</v>
@@ -13536,10 +13536,10 @@
         <v>788</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
-        <f>_xlfn.CONCAT("https://spdx.org/licenses/",B21)</f>
-        <v>https://spdx.org/licenses/Unlicense</v>
+        <f>_xlfn.CONCAT("http://spdx.org/licenses/",B21)</f>
+        <v>http://spdx.org/licenses/Unlicense</v>
       </c>
       <c r="B21" t="s">
         <v>789</v>
@@ -13565,12 +13565,12 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -13579,7 +13579,7 @@
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -13590,7 +13590,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
         <v>50</v>
       </c>
@@ -13604,7 +13604,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f t="shared" ref="A5:A12" si="0">_xlfn.CONCAT("https://example.com/skills/",B5)</f>
         <v>https://example.com/skills/1</v>
@@ -13619,7 +13619,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/skills/2</v>
@@ -13634,7 +13634,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/skills/3</v>
@@ -13649,7 +13649,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/skills/4</v>
@@ -13664,7 +13664,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/skills/5</v>
@@ -13679,7 +13679,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/skills/6</v>
@@ -13694,7 +13694,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/skills/7</v>
@@ -13709,7 +13709,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/skills/8</v>
@@ -13724,7 +13724,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f t="shared" ref="A13" si="1">_xlfn.CONCAT("https://example.com/skills/",B13)</f>
         <v>https://example.com/skills/9</v>
@@ -13753,6 +13753,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="21f64c02-1f20-443d-801b-ae17df5c4a0a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bf3f9575-65b8-4549-b389-33a18b8943d7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007AEFB2A585EFEB438A74F703037745A4" ma:contentTypeVersion="22" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="066928f5f756ae6a0953337b70a1faf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf3f9575-65b8-4549-b389-33a18b8943d7" xmlns:ns3="21f64c02-1f20-443d-801b-ae17df5c4a0a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a35f3283c960054123670de2c4a4632" ns2:_="" ns3:_="">
     <xsd:import namespace="bf3f9575-65b8-4549-b389-33a18b8943d7"/>
@@ -14007,17 +14018,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="21f64c02-1f20-443d-801b-ae17df5c4a0a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bf3f9575-65b8-4549-b389-33a18b8943d7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{164C3F70-F822-4EF6-AEFF-DC1ABB56CF75}">
   <ds:schemaRefs>
@@ -14027,6 +14027,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D32E47C-7013-4565-B268-D2BE134A52BA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="21f64c02-1f20-443d-801b-ae17df5c4a0a"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bf3f9575-65b8-4549-b389-33a18b8943d7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1435F584-9511-4912-AF17-F83A08F28CE8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14043,21 +14060,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D32E47C-7013-4565-B268-D2BE134A52BA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="21f64c02-1f20-443d-801b-ae17df5c4a0a"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bf3f9575-65b8-4549-b389-33a18b8943d7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/tools.xlsx
+++ b/tools.xlsx
@@ -5,12 +5,13 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estani002\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aschiltz003\Documents\GitHub\Semantic-Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26939C8-ED8B-4DBD-8D8F-442B94D307C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8414C1-0828-43BA-A3B4-E5FC4BB47428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="7" xr2:uid="{AFCE36E2-F631-4322-AF27-256B8B7C0B04}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{AFCE36E2-F631-4322-AF27-256B8B7C0B04}"/>
+    <workbookView xWindow="38280" yWindow="-330" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F22DAEFA-B4F7-4D29-958A-77B34B5639A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tool" sheetId="2" r:id="rId1"/>
@@ -103,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1927" uniqueCount="926">
   <si>
     <t>ConceptScheme URI</t>
   </si>
@@ -2834,6 +2835,54 @@
   </si>
   <si>
     <t>comp:7,comp:6,comp:5</t>
+  </si>
+  <si>
+    <t>OwlDocGen</t>
+  </si>
+  <si>
+    <t>Atramhasis</t>
+  </si>
+  <si>
+    <t>OwlDocGen generates ontology documentation from OWL ontology definitions.</t>
+  </si>
+  <si>
+    <t>Atramhasis is an online SKOS editor. This webapplication enables users to create SKOS vocabularies consisting of Concepts and Collections.</t>
+  </si>
+  <si>
+    <t>https://atramhasis.readthedocs.io/en/latest/</t>
+  </si>
+  <si>
+    <t>https://github.com/radkovo/OwlDocGen</t>
+  </si>
+  <si>
+    <t>https://github.com/OnroerendErfgoed/atramhasis</t>
+  </si>
+  <si>
+    <t>source:79</t>
+  </si>
+  <si>
+    <t>source:80</t>
+  </si>
+  <si>
+    <t>Python,Css</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>2.0.0</t>
+  </si>
+  <si>
+    <t>https://example.com/SoftCon/79</t>
+  </si>
+  <si>
+    <t>https://example.com/SoftCon/80</t>
+  </si>
+  <si>
+    <t>DataSpecification:46,DataSpecification:56,DataSpecification:73</t>
+  </si>
+  <si>
+    <t>DataSpecification:24</t>
   </si>
 </sst>
 </file>
@@ -3365,30 +3414,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E901194B-12F3-43EA-8282-C97AC613BB27}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O106"/>
+  <dimension ref="A1:O108"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="F107" sqref="F107"/>
+    <sheetView topLeftCell="E102" workbookViewId="0">
+      <selection activeCell="N106" sqref="N106:N108"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.90625" style="24"/>
-    <col min="3" max="3" width="29.453125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="24"/>
+    <col min="3" max="3" width="29.44140625" style="24" customWidth="1"/>
     <col min="4" max="4" width="27" style="24" customWidth="1"/>
-    <col min="5" max="5" width="35.08984375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="35.109375" style="24" customWidth="1"/>
     <col min="6" max="8" width="27" style="24" customWidth="1"/>
-    <col min="9" max="9" width="17.6328125" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.6328125" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.6328125" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.90625" style="24"/>
-    <col min="13" max="14" width="26.453125" style="24" customWidth="1"/>
-    <col min="15" max="15" width="25.6328125" style="24" customWidth="1"/>
-    <col min="16" max="16384" width="8.90625" style="8"/>
+    <col min="9" max="9" width="17.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="24"/>
+    <col min="13" max="14" width="26.44140625" style="24" customWidth="1"/>
+    <col min="15" max="15" width="25.6640625" style="24" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -3397,7 +3447,7 @@
       </c>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
@@ -3408,7 +3458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
@@ -3419,7 +3469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
@@ -3430,7 +3480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>2</v>
       </c>
@@ -3441,7 +3491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>2</v>
       </c>
@@ -3452,7 +3502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>2</v>
       </c>
@@ -3463,7 +3513,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>2</v>
       </c>
@@ -3474,7 +3524,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>2</v>
       </c>
@@ -3485,7 +3535,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>2</v>
       </c>
@@ -3496,7 +3546,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>2</v>
       </c>
@@ -3507,7 +3557,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>2</v>
       </c>
@@ -3518,7 +3568,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>2</v>
       </c>
@@ -3529,7 +3579,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>2</v>
       </c>
@@ -3540,7 +3590,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>2</v>
       </c>
@@ -3551,7 +3601,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>31</v>
       </c>
@@ -3560,7 +3610,7 @@
       </c>
       <c r="C16" s="10"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>33</v>
       </c>
@@ -3569,7 +3619,7 @@
       </c>
       <c r="C17" s="10"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>35</v>
       </c>
@@ -3578,7 +3628,7 @@
       </c>
       <c r="C18" s="10"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>37</v>
       </c>
@@ -3587,14 +3637,14 @@
       </c>
       <c r="C19" s="10"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="10"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
         <v>40</v>
       </c>
@@ -3603,7 +3653,7 @@
       </c>
       <c r="C21" s="10"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>41</v>
       </c>
@@ -3612,7 +3662,7 @@
       </c>
       <c r="C22" s="10"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
         <v>43</v>
       </c>
@@ -3621,7 +3671,7 @@
       </c>
       <c r="C23" s="10"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
         <v>45</v>
       </c>
@@ -3630,7 +3680,7 @@
       </c>
       <c r="C24" s="10"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
         <v>47</v>
       </c>
@@ -3639,17 +3689,17 @@
       </c>
       <c r="C25" s="10"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>49</v>
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="10"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C27" s="8"/>
     </row>
-    <row r="28" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>50</v>
       </c>
@@ -3696,7 +3746,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="str">
         <f t="shared" ref="A29:A60" si="0">_xlfn.CONCAT("https://example.com/tool/",B29)</f>
         <v>https://example.com/tool/1</v>
@@ -3742,7 +3792,7 @@
         <v>SoftVer:1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/2</v>
@@ -3788,7 +3838,7 @@
         <v>SoftVer:2</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/3</v>
@@ -3837,7 +3887,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="87" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/4</v>
@@ -3883,7 +3933,7 @@
         <v>SoftVer:4</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/5</v>
@@ -3929,7 +3979,7 @@
         <v>SoftVer:5</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="87" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/6</v>
@@ -3975,7 +4025,7 @@
         <v>SoftVer:6</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/7</v>
@@ -4021,7 +4071,7 @@
         <v>SoftVer:7</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/8</v>
@@ -4067,7 +4117,7 @@
         <v>SoftVer:8</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/9</v>
@@ -4116,7 +4166,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/10</v>
@@ -4162,7 +4212,7 @@
         <v>SoftVer:10</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/11</v>
@@ -4208,7 +4258,7 @@
         <v>SoftVer:11</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/12</v>
@@ -4254,7 +4304,7 @@
         <v>SoftVer:12</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="116" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/13</v>
@@ -4300,7 +4350,7 @@
         <v>SoftVer:13</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/14</v>
@@ -4349,7 +4399,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A43" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/15</v>
@@ -4398,7 +4448,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/16</v>
@@ -4444,7 +4494,7 @@
         <v>SoftVer:16</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="87" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/17</v>
@@ -4490,7 +4540,7 @@
         <v>SoftVer:17</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A46" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/18</v>
@@ -4536,7 +4586,7 @@
         <v>SoftVer:18</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/19</v>
@@ -4582,7 +4632,7 @@
         <v>SoftVer:19</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/20</v>
@@ -4628,7 +4678,7 @@
         <v>SoftVer:20</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="87" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A49" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/21</v>
@@ -4674,7 +4724,7 @@
         <v>SoftVer:21</v>
       </c>
     </row>
-    <row r="50" spans="1:15" s="14" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" s="14" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A50" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/22</v>
@@ -4723,7 +4773,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A51" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/23</v>
@@ -4769,7 +4819,7 @@
         <v>SoftVer:23</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="87" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A52" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/24</v>
@@ -4818,7 +4868,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A53" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/25</v>
@@ -4864,7 +4914,7 @@
         <v>SoftVer:25</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/26</v>
@@ -4910,7 +4960,7 @@
         <v>SoftVer:26</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A55" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/27</v>
@@ -4956,7 +5006,7 @@
         <v>SoftVer:27</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/28</v>
@@ -5002,7 +5052,7 @@
         <v>SoftVer:28</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/29</v>
@@ -5048,7 +5098,7 @@
         <v>SoftVer:29</v>
       </c>
     </row>
-    <row r="58" spans="1:15" s="14" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/30</v>
@@ -5095,7 +5145,7 @@
       </c>
       <c r="O58" s="29"/>
     </row>
-    <row r="59" spans="1:15" s="14" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" s="14" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A59" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/31</v>
@@ -5142,7 +5192,7 @@
       </c>
       <c r="O59" s="29"/>
     </row>
-    <row r="60" spans="1:15" s="14" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/tool/32</v>
@@ -5189,7 +5239,7 @@
       </c>
       <c r="O60" s="29"/>
     </row>
-    <row r="61" spans="1:15" s="14" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" s="14" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A61" s="24" t="str">
         <f t="shared" ref="A61:A92" si="1">_xlfn.CONCAT("https://example.com/tool/",B61)</f>
         <v>https://example.com/tool/33</v>
@@ -5236,7 +5286,7 @@
       </c>
       <c r="O61" s="29"/>
     </row>
-    <row r="62" spans="1:15" s="14" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A62" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/34</v>
@@ -5283,7 +5333,7 @@
       </c>
       <c r="O62" s="29"/>
     </row>
-    <row r="63" spans="1:15" s="14" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/35</v>
@@ -5330,7 +5380,7 @@
       </c>
       <c r="O63" s="29"/>
     </row>
-    <row r="64" spans="1:15" s="14" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A64" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/36</v>
@@ -5377,7 +5427,7 @@
       </c>
       <c r="O64" s="29"/>
     </row>
-    <row r="65" spans="1:15" s="14" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/37</v>
@@ -5424,7 +5474,7 @@
       </c>
       <c r="O65" s="29"/>
     </row>
-    <row r="66" spans="1:15" s="14" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/38</v>
@@ -5471,7 +5521,7 @@
       </c>
       <c r="O66" s="29"/>
     </row>
-    <row r="67" spans="1:15" ht="87" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A67" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/39</v>
@@ -5517,7 +5567,7 @@
         <v>SoftVer:39</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="87" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A68" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/40</v>
@@ -5563,7 +5613,7 @@
         <v>SoftVer:40</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/41</v>
@@ -5609,7 +5659,7 @@
         <v>SoftVer:41</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A70" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/42</v>
@@ -5658,7 +5708,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="87" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A71" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/43</v>
@@ -5707,7 +5757,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/44</v>
@@ -5753,7 +5803,7 @@
         <v>SoftVer:44</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A73" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/45</v>
@@ -5799,7 +5849,7 @@
         <v>SoftVer:45</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A74" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/46</v>
@@ -5845,7 +5895,7 @@
         <v>SoftVer:46</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A75" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/47</v>
@@ -5891,7 +5941,7 @@
         <v>SoftVer:47</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/48</v>
@@ -5940,7 +5990,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A77" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/49</v>
@@ -5989,7 +6039,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="78" spans="1:15" s="14" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/50</v>
@@ -6038,7 +6088,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="79" spans="1:15" s="14" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/51</v>
@@ -6085,7 +6135,7 @@
       </c>
       <c r="O79" s="29"/>
     </row>
-    <row r="80" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A80" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/52</v>
@@ -6134,7 +6184,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/53</v>
@@ -6180,7 +6230,7 @@
         <v>SoftVer:53</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A82" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/54</v>
@@ -6226,7 +6276,7 @@
         <v>SoftVer:54</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A83" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/55</v>
@@ -6275,7 +6325,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A84" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/56</v>
@@ -6321,7 +6371,7 @@
         <v>SoftVer:56</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A85" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/57</v>
@@ -6367,7 +6417,7 @@
         <v>SoftVer:57</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="87" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A86" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/58</v>
@@ -6413,7 +6463,7 @@
         <v>SoftVer:58</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="87" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A87" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/59</v>
@@ -6459,7 +6509,7 @@
         <v>SoftVer:59</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A88" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/60</v>
@@ -6505,7 +6555,7 @@
         <v>SoftVer:60</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A89" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/61</v>
@@ -6551,7 +6601,7 @@
         <v>SoftVer:61</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A90" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/62</v>
@@ -6600,7 +6650,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A91" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/63</v>
@@ -6649,7 +6699,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A92" s="24" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/tool/64</v>
@@ -6698,7 +6748,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" s="24" t="str">
         <f t="shared" ref="A93:A105" si="2">_xlfn.CONCAT("https://example.com/tool/",B93)</f>
         <v>https://example.com/tool/65</v>
@@ -6747,7 +6797,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A94" s="24" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/tool/66</v>
@@ -6793,7 +6843,7 @@
         <v>SoftVer:66</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="24" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/tool/67</v>
@@ -6839,7 +6889,7 @@
         <v>SoftVer:67</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A96" s="24" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/tool/68</v>
@@ -6888,7 +6938,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A97" s="24" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/tool/69</v>
@@ -6934,7 +6984,7 @@
         <v>SoftVer:69</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="24" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/tool/70</v>
@@ -6980,7 +7030,7 @@
         <v>SoftVer:70</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="24" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/tool/71</v>
@@ -7026,7 +7076,7 @@
         <v>SoftVer:71</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" s="24" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/tool/72</v>
@@ -7072,7 +7122,7 @@
         <v>SoftVer:72</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A101" s="24" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/tool/73</v>
@@ -7118,7 +7168,7 @@
         <v>SoftVer:73</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A102" s="24" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/tool/74</v>
@@ -7164,7 +7214,7 @@
         <v>SoftVer:74</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A103" s="24" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/tool/75</v>
@@ -7210,7 +7260,7 @@
         <v>SoftVer:75</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A104" s="24" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/tool/76</v>
@@ -7256,7 +7306,7 @@
         <v>SoftVer:76</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A105" s="24" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/tool/77</v>
@@ -7302,7 +7352,7 @@
         <v>SoftVer:77</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A106" s="24" t="str">
         <f t="shared" ref="A106" si="3">_xlfn.CONCAT("https://example.com/tool/",B106)</f>
         <v>https://example.com/tool/78</v>
@@ -7316,7 +7366,7 @@
       <c r="D106" t="s">
         <v>899</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="24" t="s">
         <v>900</v>
       </c>
       <c r="F106" s="24" t="s">
@@ -7346,6 +7396,92 @@
       <c r="N106" s="24" t="str">
         <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B82)</f>
         <v>SoftVer:78</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A107" s="24" t="str">
+        <f t="shared" ref="A107:A108" si="4">_xlfn.CONCAT("https://example.com/tool/",B107)</f>
+        <v>https://example.com/tool/79</v>
+      </c>
+      <c r="B107" s="24">
+        <v>79</v>
+      </c>
+      <c r="C107" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D107" s="24" t="s">
+        <v>910</v>
+      </c>
+      <c r="E107" s="24" t="s">
+        <v>912</v>
+      </c>
+      <c r="F107" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="G107" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="I107" s="31" t="s">
+        <v>917</v>
+      </c>
+      <c r="J107" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="K107" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="L107" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="M107" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="N107" s="24" t="str">
+        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B83)</f>
+        <v>SoftVer:79</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A108" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v>https://example.com/tool/80</v>
+      </c>
+      <c r="B108" s="24">
+        <v>80</v>
+      </c>
+      <c r="C108" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D108" s="24" t="s">
+        <v>911</v>
+      </c>
+      <c r="E108" s="24" t="s">
+        <v>913</v>
+      </c>
+      <c r="F108" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G108" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="H108" s="24" t="s">
+        <v>914</v>
+      </c>
+      <c r="I108" s="31" t="s">
+        <v>918</v>
+      </c>
+      <c r="J108" s="24" t="s">
+        <v>919</v>
+      </c>
+      <c r="K108" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="M108" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="N108" s="24" t="str">
+        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B84)</f>
+        <v>SoftVer:80</v>
       </c>
     </row>
   </sheetData>
@@ -7367,16 +7503,17 @@
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.453125" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7385,7 +7522,7 @@
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -7396,7 +7533,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>50</v>
       </c>
@@ -7410,7 +7547,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>_xlfn.CONCAT("https://dbpedia.org/resource/",B5)</f>
         <v>https://dbpedia.org/resource/Graphical_user_interface</v>
@@ -7425,7 +7562,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>_xlfn.CONCAT("https://dbpedia.org/resource/",B6)</f>
         <v>https://dbpedia.org/resource/Command-line_interface</v>
@@ -7440,7 +7577,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>_xlfn.CONCAT("https://dbpedia.org/resource/",B7)</f>
         <v>https://dbpedia.org/resource/Web_API</v>
@@ -7455,22 +7592,22 @@
         <v>806</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D12" s="8"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="13"/>
     </row>
   </sheetData>
@@ -7481,21 +7618,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196F26FF-2DFA-4E7A-9BE4-6EAD0F66898D}">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+      <selection activeCell="E81" sqref="E81:E84"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.54296875" customWidth="1"/>
-    <col min="4" max="4" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7504,7 +7642,7 @@
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -7515,7 +7653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -7532,7 +7670,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>_xlfn.CONCAT("https://example.com/SoftVer/",B5)</f>
         <v>https://example.com/SoftVer/1</v>
@@ -7550,7 +7688,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" ref="A6:A69" si="0">_xlfn.CONCAT("https://example.com/SoftVer/",B6)</f>
         <v>https://example.com/SoftVer/2</v>
@@ -7568,7 +7706,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/3</v>
@@ -7586,7 +7724,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/4</v>
@@ -7604,7 +7742,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/5</v>
@@ -7622,7 +7760,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/6</v>
@@ -7640,7 +7778,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/7</v>
@@ -7658,7 +7796,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/8</v>
@@ -7676,7 +7814,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/9</v>
@@ -7694,7 +7832,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/10</v>
@@ -7712,7 +7850,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/11</v>
@@ -7730,7 +7868,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/12</v>
@@ -7748,7 +7886,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/13</v>
@@ -7766,7 +7904,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/14</v>
@@ -7784,7 +7922,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/15</v>
@@ -7802,7 +7940,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/16</v>
@@ -7820,7 +7958,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/17</v>
@@ -7838,7 +7976,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/18</v>
@@ -7856,7 +7994,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/19</v>
@@ -7874,7 +8012,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/20</v>
@@ -7892,7 +8030,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/21</v>
@@ -7910,7 +8048,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/22</v>
@@ -7928,7 +8066,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/23</v>
@@ -7946,7 +8084,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/24</v>
@@ -7964,7 +8102,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/25</v>
@@ -7982,7 +8120,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/26</v>
@@ -8000,7 +8138,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/27</v>
@@ -8018,7 +8156,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/28</v>
@@ -8036,7 +8174,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/29</v>
@@ -8054,7 +8192,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/30</v>
@@ -8072,7 +8210,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/31</v>
@@ -8090,7 +8228,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/32</v>
@@ -8108,7 +8246,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/33</v>
@@ -8126,7 +8264,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/34</v>
@@ -8144,7 +8282,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/35</v>
@@ -8162,7 +8300,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/36</v>
@@ -8180,7 +8318,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/37</v>
@@ -8198,7 +8336,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/38</v>
@@ -8216,7 +8354,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/39</v>
@@ -8234,7 +8372,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/40</v>
@@ -8252,7 +8390,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/41</v>
@@ -8270,7 +8408,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/42</v>
@@ -8288,7 +8426,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/43</v>
@@ -8306,7 +8444,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/44</v>
@@ -8324,7 +8462,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/45</v>
@@ -8342,7 +8480,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/46</v>
@@ -8360,7 +8498,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/47</v>
@@ -8378,7 +8516,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/48</v>
@@ -8396,7 +8534,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/49</v>
@@ -8414,7 +8552,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/50</v>
@@ -8432,7 +8570,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/51</v>
@@ -8450,7 +8588,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/52</v>
@@ -8468,7 +8606,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/53</v>
@@ -8486,7 +8624,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/54</v>
@@ -8504,7 +8642,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/55</v>
@@ -8522,7 +8660,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/56</v>
@@ -8540,7 +8678,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/57</v>
@@ -8558,7 +8696,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/58</v>
@@ -8576,7 +8714,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/59</v>
@@ -8594,7 +8732,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/60</v>
@@ -8612,7 +8750,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/61</v>
@@ -8630,7 +8768,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/62</v>
@@ -8648,7 +8786,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/63</v>
@@ -8666,7 +8804,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/64</v>
@@ -8684,7 +8822,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftVer/65</v>
@@ -8702,7 +8840,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="str">
         <f t="shared" ref="A70:A81" si="1">_xlfn.CONCAT("https://example.com/SoftVer/",B70)</f>
         <v>https://example.com/SoftVer/66</v>
@@ -8720,7 +8858,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftVer/67</v>
@@ -8738,7 +8876,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftVer/68</v>
@@ -8756,7 +8894,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftVer/69</v>
@@ -8774,7 +8912,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftVer/70</v>
@@ -8792,7 +8930,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftVer/71</v>
@@ -8810,7 +8948,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftVer/72</v>
@@ -8828,7 +8966,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftVer/73</v>
@@ -8846,7 +8984,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftVer/74</v>
@@ -8864,7 +9002,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftVer/75</v>
@@ -8882,7 +9020,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftVer/76</v>
@@ -8900,7 +9038,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftVer/77</v>
@@ -8918,7 +9056,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="str">
         <f t="shared" ref="A82" si="2">_xlfn.CONCAT("https://example.com/SoftVer/",B82)</f>
         <v>https://example.com/SoftVer/78</v>
@@ -8934,6 +9072,42 @@
       </c>
       <c r="E82" t="s">
         <v>904</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="str">
+        <f t="shared" ref="A83:A84" si="3">_xlfn.CONCAT("https://example.com/SoftVer/",B83)</f>
+        <v>https://example.com/SoftVer/79</v>
+      </c>
+      <c r="B83">
+        <v>79</v>
+      </c>
+      <c r="C83" t="s">
+        <v>428</v>
+      </c>
+      <c r="D83" t="s">
+        <v>920</v>
+      </c>
+      <c r="E83" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="str">
+        <f t="shared" si="3"/>
+        <v>https://example.com/SoftVer/80</v>
+      </c>
+      <c r="B84">
+        <v>80</v>
+      </c>
+      <c r="C84" t="s">
+        <v>428</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>921</v>
+      </c>
+      <c r="E84" t="s">
+        <v>923</v>
       </c>
     </row>
   </sheetData>
@@ -8948,23 +9122,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C00D37D-2BE6-4922-A4F7-4D4C5329FA01}">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.54296875" customWidth="1"/>
-    <col min="4" max="4" width="88.36328125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="86.6328125" style="23" customWidth="1"/>
-    <col min="6" max="6" width="117.36328125" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="4" max="4" width="88.33203125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="86.6640625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="117.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8973,7 +9148,7 @@
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -8984,7 +9159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -8995,7 +9170,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -9013,7 +9188,7 @@
       </c>
       <c r="F5" s="21"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>_xlfn.CONCAT("https://example.com/SoftCon/",B6)</f>
         <v>https://example.com/SoftCon/1</v>
@@ -9028,7 +9203,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" ref="A7:A70" si="0">_xlfn.CONCAT("https://example.com/SoftCon/",B7)</f>
         <v>https://example.com/SoftCon/2</v>
@@ -9043,7 +9218,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/3</v>
@@ -9058,7 +9233,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/4</v>
@@ -9073,7 +9248,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/5</v>
@@ -9088,7 +9263,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/6</v>
@@ -9107,7 +9282,7 @@
       </c>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/7</v>
@@ -9122,7 +9297,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/8</v>
@@ -9138,7 +9313,7 @@
       </c>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/9</v>
@@ -9153,7 +9328,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/10</v>
@@ -9172,7 +9347,7 @@
       </c>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/11</v>
@@ -9187,7 +9362,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/12</v>
@@ -9202,7 +9377,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/13</v>
@@ -9217,7 +9392,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/14</v>
@@ -9236,7 +9411,7 @@
       </c>
       <c r="F19" s="23"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/15</v>
@@ -9255,7 +9430,7 @@
       </c>
       <c r="F20" s="23"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/16</v>
@@ -9270,7 +9445,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/17</v>
@@ -9285,7 +9460,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/18</v>
@@ -9304,7 +9479,7 @@
       </c>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/19</v>
@@ -9319,7 +9494,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/20</v>
@@ -9334,7 +9509,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/21</v>
@@ -9349,7 +9524,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/22</v>
@@ -9364,7 +9539,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/23</v>
@@ -9379,7 +9554,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/24</v>
@@ -9394,7 +9569,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/25</v>
@@ -9413,7 +9588,7 @@
       </c>
       <c r="F30" s="23"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/26</v>
@@ -9428,7 +9603,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/27</v>
@@ -9443,7 +9618,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/28</v>
@@ -9458,7 +9633,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/29</v>
@@ -9473,7 +9648,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/30</v>
@@ -9488,7 +9663,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/31</v>
@@ -9503,7 +9678,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/32</v>
@@ -9518,7 +9693,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/33</v>
@@ -9533,7 +9708,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/34</v>
@@ -9552,7 +9727,7 @@
       </c>
       <c r="F39" s="12"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/35</v>
@@ -9571,7 +9746,7 @@
       </c>
       <c r="F40" s="12"/>
     </row>
-    <row r="41" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/36</v>
@@ -9590,7 +9765,7 @@
       </c>
       <c r="F41" s="12"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/37</v>
@@ -9605,7 +9780,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/38</v>
@@ -9624,7 +9799,7 @@
       </c>
       <c r="F43" s="12"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/39</v>
@@ -9639,7 +9814,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/40</v>
@@ -9654,7 +9829,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/41</v>
@@ -9669,7 +9844,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/42</v>
@@ -9684,7 +9859,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/43</v>
@@ -9699,7 +9874,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/44</v>
@@ -9718,7 +9893,7 @@
       </c>
       <c r="F49" s="12"/>
     </row>
-    <row r="50" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/45</v>
@@ -9734,7 +9909,7 @@
       </c>
       <c r="F50" s="12"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/46</v>
@@ -9750,7 +9925,7 @@
       </c>
       <c r="F51" s="12"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/47</v>
@@ -9766,7 +9941,7 @@
       </c>
       <c r="F52" s="12"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/48</v>
@@ -9781,7 +9956,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/49</v>
@@ -9796,7 +9971,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/50</v>
@@ -9811,7 +9986,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/51</v>
@@ -9826,7 +10001,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/52</v>
@@ -9841,7 +10016,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/53</v>
@@ -9856,7 +10031,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/54</v>
@@ -9871,7 +10046,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/55</v>
@@ -9886,7 +10061,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/56</v>
@@ -9901,7 +10076,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/57</v>
@@ -9916,7 +10091,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/58</v>
@@ -9931,7 +10106,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/59</v>
@@ -9946,7 +10121,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/60</v>
@@ -9961,7 +10136,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/61</v>
@@ -9976,7 +10151,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/62</v>
@@ -9991,7 +10166,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/63</v>
@@ -10010,7 +10185,7 @@
       </c>
       <c r="F68" s="23"/>
     </row>
-    <row r="69" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/64</v>
@@ -10026,7 +10201,7 @@
       </c>
       <c r="F69" s="23"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SoftCon/65</v>
@@ -10041,7 +10216,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="str">
         <f t="shared" ref="A71:A82" si="1">_xlfn.CONCAT("https://example.com/SoftCon/",B71)</f>
         <v>https://example.com/SoftCon/66</v>
@@ -10056,7 +10231,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftCon/67</v>
@@ -10071,7 +10246,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftCon/68</v>
@@ -10086,7 +10261,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftCon/69</v>
@@ -10101,7 +10276,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftCon/70</v>
@@ -10116,7 +10291,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftCon/71</v>
@@ -10131,7 +10306,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftCon/72</v>
@@ -10146,7 +10321,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftCon/73</v>
@@ -10161,7 +10336,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftCon/74</v>
@@ -10176,7 +10351,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftCon/75</v>
@@ -10191,7 +10366,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftCon/76</v>
@@ -10206,7 +10381,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SoftCon/77</v>
@@ -10221,9 +10396,9 @@
         <v>860</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="str">
-        <f t="shared" ref="A83" si="2">_xlfn.CONCAT("https://example.com/SoftCon/",B83)</f>
+        <f t="shared" ref="A83:A85" si="2">_xlfn.CONCAT("https://example.com/SoftCon/",B83)</f>
         <v>https://example.com/SoftCon/78</v>
       </c>
       <c r="B83">
@@ -10237,6 +10412,39 @@
       </c>
       <c r="E83" s="23" t="s">
         <v>906</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="str">
+        <f t="shared" si="2"/>
+        <v>https://example.com/SoftCon/79</v>
+      </c>
+      <c r="B84">
+        <v>79</v>
+      </c>
+      <c r="C84" t="s">
+        <v>578</v>
+      </c>
+      <c r="D84" s="23" t="s">
+        <v>924</v>
+      </c>
+      <c r="E84" s="23" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="str">
+        <f t="shared" ref="A85" si="3">_xlfn.CONCAT("https://example.com/SoftCon/",B85)</f>
+        <v>https://example.com/SoftCon/80</v>
+      </c>
+      <c r="B85">
+        <v>80</v>
+      </c>
+      <c r="C85" t="s">
+        <v>578</v>
+      </c>
+      <c r="D85" s="23" t="s">
+        <v>819</v>
       </c>
     </row>
   </sheetData>
@@ -10249,19 +10457,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77F4F05-CC8F-47F5-BAFC-4EC2DFFDAC8A}">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="1">
+      <selection activeCell="D64" sqref="D64"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.54296875" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -10270,7 +10481,7 @@
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -10281,7 +10492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -10295,7 +10506,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>_xlfn.CONCAT("https://example.com/DataSpec/",B5)</f>
         <v>https://example.com/DataSpec/1</v>
@@ -10310,7 +10521,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" ref="A6:A69" si="0">_xlfn.CONCAT("https://example.com/DataSpec/",B6)</f>
         <v>https://example.com/DataSpec/2</v>
@@ -10325,7 +10536,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/3</v>
@@ -10340,7 +10551,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/4</v>
@@ -10355,7 +10566,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/5</v>
@@ -10370,7 +10581,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/6</v>
@@ -10385,7 +10596,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/7</v>
@@ -10400,7 +10611,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/8</v>
@@ -10415,7 +10626,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/9</v>
@@ -10430,7 +10641,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/10</v>
@@ -10445,7 +10656,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/11</v>
@@ -10460,7 +10671,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/12</v>
@@ -10475,7 +10686,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/13</v>
@@ -10490,7 +10701,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/14</v>
@@ -10505,7 +10716,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/15</v>
@@ -10520,7 +10731,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/16</v>
@@ -10535,7 +10746,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/17</v>
@@ -10550,7 +10761,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/18</v>
@@ -10565,7 +10776,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/19</v>
@@ -10580,7 +10791,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/20</v>
@@ -10595,7 +10806,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/21</v>
@@ -10610,7 +10821,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/22</v>
@@ -10625,7 +10836,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/23</v>
@@ -10640,7 +10851,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/24</v>
@@ -10655,7 +10866,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/25</v>
@@ -10670,7 +10881,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/26</v>
@@ -10685,7 +10896,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/27</v>
@@ -10700,7 +10911,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/28</v>
@@ -10715,7 +10926,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/29</v>
@@ -10730,7 +10941,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/30</v>
@@ -10745,7 +10956,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/31</v>
@@ -10760,7 +10971,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/32</v>
@@ -10775,7 +10986,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/33</v>
@@ -10790,7 +11001,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/34</v>
@@ -10805,7 +11016,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/35</v>
@@ -10820,7 +11031,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/36</v>
@@ -10835,7 +11046,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/37</v>
@@ -10850,7 +11061,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/38</v>
@@ -10865,7 +11076,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/39</v>
@@ -10880,7 +11091,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/40</v>
@@ -10895,7 +11106,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/41</v>
@@ -10910,7 +11121,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/42</v>
@@ -10925,7 +11136,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/43</v>
@@ -10940,7 +11151,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/44</v>
@@ -10955,7 +11166,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/45</v>
@@ -10970,7 +11181,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/46</v>
@@ -10985,7 +11196,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/47</v>
@@ -11000,7 +11211,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/48</v>
@@ -11015,7 +11226,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/49</v>
@@ -11030,7 +11241,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/50</v>
@@ -11045,7 +11256,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/51</v>
@@ -11060,7 +11271,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/52</v>
@@ -11075,7 +11286,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/53</v>
@@ -11090,7 +11301,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/54</v>
@@ -11105,7 +11316,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/55</v>
@@ -11120,7 +11331,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/56</v>
@@ -11135,7 +11346,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/57</v>
@@ -11150,7 +11361,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/58</v>
@@ -11165,7 +11376,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/59</v>
@@ -11180,7 +11391,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/60</v>
@@ -11195,7 +11406,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/61</v>
@@ -11210,7 +11421,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/62</v>
@@ -11225,7 +11436,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/63</v>
@@ -11240,7 +11451,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/64</v>
@@ -11255,7 +11466,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/DataSpec/65</v>
@@ -11270,7 +11481,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="str">
         <f t="shared" ref="A70:A85" si="1">_xlfn.CONCAT("https://example.com/DataSpec/",B70)</f>
         <v>https://example.com/DataSpec/66</v>
@@ -11285,7 +11496,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/DataSpec/67</v>
@@ -11300,7 +11511,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/DataSpec/68</v>
@@ -11315,7 +11526,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/DataSpec/69</v>
@@ -11330,7 +11541,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/DataSpec/70</v>
@@ -11345,7 +11556,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/DataSpec/71</v>
@@ -11360,7 +11571,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/DataSpec/72</v>
@@ -11375,7 +11586,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/DataSpec/73</v>
@@ -11390,7 +11601,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/DataSpec/74</v>
@@ -11405,7 +11616,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/DataSpec/75</v>
@@ -11420,7 +11631,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/DataSpec/76</v>
@@ -11435,7 +11646,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/DataSpec/77</v>
@@ -11450,7 +11661,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/DataSpec/78</v>
@@ -11465,7 +11676,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/DataSpec/79</v>
@@ -11480,7 +11691,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/DataSpec/80</v>
@@ -11495,7 +11706,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/DataSpec/81</v>
@@ -11510,7 +11721,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="str">
         <f t="shared" ref="A86" si="2">_xlfn.CONCAT("https://example.com/DataSpec/",B86)</f>
         <v>https://example.com/DataSpec/82</v>
@@ -11525,7 +11736,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="str">
         <f t="shared" ref="A87" si="3">_xlfn.CONCAT("https://example.com/DataSpec/",B87)</f>
         <v>https://example.com/DataSpec/83</v>
@@ -11540,7 +11751,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="str">
         <f t="shared" ref="A88" si="4">_xlfn.CONCAT("https://example.com/DataSpec/",B88)</f>
         <v>https://example.com/DataSpec/84</v>
@@ -11555,7 +11766,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="str">
         <f t="shared" ref="A89" si="5">_xlfn.CONCAT("https://example.com/DataSpec/",B89)</f>
         <v>https://example.com/DataSpec/85</v>
@@ -11570,7 +11781,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="str">
         <f t="shared" ref="A90" si="6">_xlfn.CONCAT("https://example.com/DataSpec/",B90)</f>
         <v>https://example.com/DataSpec/86</v>
@@ -11599,14 +11810,17 @@
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
+    <sheetView workbookViewId="1">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -11615,7 +11829,7 @@
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -11626,7 +11840,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -11640,7 +11854,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f t="shared" ref="A5:A11" si="0">_xlfn.CONCAT("https://example.com/ArchComp/",B5)</f>
         <v>https://example.com/ArchComp/1</v>
@@ -11655,7 +11869,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/ArchComp/2</v>
@@ -11670,7 +11884,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/ArchComp/3</v>
@@ -11685,7 +11899,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/ArchComp/4</v>
@@ -11700,7 +11914,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/ArchComp/5</v>
@@ -11715,7 +11929,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/ArchComp/6</v>
@@ -11730,7 +11944,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/ArchComp/7</v>
@@ -11762,15 +11976,16 @@
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -11779,7 +11994,7 @@
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -11790,7 +12005,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>50</v>
       </c>
@@ -11804,7 +12019,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f t="shared" ref="A5:A18" si="0">_xlfn.CONCAT("https://example.com/Functionality/",B5)</f>
         <v>https://example.com/Functionality/1</v>
@@ -11819,7 +12034,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/Functionality/2</v>
@@ -11834,7 +12049,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/Functionality/3</v>
@@ -11849,7 +12064,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/Functionality/4</v>
@@ -11864,7 +12079,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/Functionality/5</v>
@@ -11879,7 +12094,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/Functionality/6</v>
@@ -11894,7 +12109,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/Functionality/7</v>
@@ -11909,7 +12124,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/Functionality/8</v>
@@ -11924,7 +12139,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/Functionality/9</v>
@@ -11939,7 +12154,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/Functionality/10</v>
@@ -11954,7 +12169,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/Functionality/11</v>
@@ -11969,7 +12184,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/Functionality/12</v>
@@ -11984,7 +12199,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/Functionality/13</v>
@@ -11999,7 +12214,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/Functionality/14</v>
@@ -12022,21 +12237,22 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D390BFC-9D07-4275-B941-A9803FF5EDFC}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81:C82"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" customWidth="1"/>
+    <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
     <col min="4" max="4" width="52" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -12045,7 +12261,7 @@
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -12056,7 +12272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -12070,7 +12286,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f t="shared" ref="A5:A36" si="0">_xlfn.CONCAT("https://example.com/SourceCode/",B5)</f>
         <v>https://example.com/SourceCode/1</v>
@@ -12085,7 +12301,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/2</v>
@@ -12100,7 +12316,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/3</v>
@@ -12115,7 +12331,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/4</v>
@@ -12130,7 +12346,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/5</v>
@@ -12145,7 +12361,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/6</v>
@@ -12160,7 +12376,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/7</v>
@@ -12175,7 +12391,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/8</v>
@@ -12190,7 +12406,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/9</v>
@@ -12205,7 +12421,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/10</v>
@@ -12220,7 +12436,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/11</v>
@@ -12235,7 +12451,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/12</v>
@@ -12250,7 +12466,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/13</v>
@@ -12265,7 +12481,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/14</v>
@@ -12280,7 +12496,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/15</v>
@@ -12295,7 +12511,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/16</v>
@@ -12310,7 +12526,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/17</v>
@@ -12325,7 +12541,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/18</v>
@@ -12340,7 +12556,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/19</v>
@@ -12355,7 +12571,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/20</v>
@@ -12370,7 +12586,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/21</v>
@@ -12385,7 +12601,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/22</v>
@@ -12400,7 +12616,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/23</v>
@@ -12415,7 +12631,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/24</v>
@@ -12430,7 +12646,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/25</v>
@@ -12445,7 +12661,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/26</v>
@@ -12460,7 +12676,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/27</v>
@@ -12475,7 +12691,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/28</v>
@@ -12490,7 +12706,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/29</v>
@@ -12505,7 +12721,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/30</v>
@@ -12520,7 +12736,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/31</v>
@@ -12535,7 +12751,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/SourceCode/32</v>
@@ -12550,7 +12766,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f t="shared" ref="A37:A68" si="1">_xlfn.CONCAT("https://example.com/SourceCode/",B37)</f>
         <v>https://example.com/SourceCode/33</v>
@@ -12565,7 +12781,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/34</v>
@@ -12580,7 +12796,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/35</v>
@@ -12595,7 +12811,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/36</v>
@@ -12610,7 +12826,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/37</v>
@@ -12625,7 +12841,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/38</v>
@@ -12640,7 +12856,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/39</v>
@@ -12655,7 +12871,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/40</v>
@@ -12670,7 +12886,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/41</v>
@@ -12685,7 +12901,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/42</v>
@@ -12700,7 +12916,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/43</v>
@@ -12715,7 +12931,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/44</v>
@@ -12730,7 +12946,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/45</v>
@@ -12745,7 +12961,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/46</v>
@@ -12760,7 +12976,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/47</v>
@@ -12775,7 +12991,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/48</v>
@@ -12790,7 +13006,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/49</v>
@@ -12805,7 +13021,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/50</v>
@@ -12820,7 +13036,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/51</v>
@@ -12835,7 +13051,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/52</v>
@@ -12850,7 +13066,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/53</v>
@@ -12865,7 +13081,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/54</v>
@@ -12880,7 +13096,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/55</v>
@@ -12895,7 +13111,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/56</v>
@@ -12910,7 +13126,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/57</v>
@@ -12925,7 +13141,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/58</v>
@@ -12940,7 +13156,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/59</v>
@@ -12955,7 +13171,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/60</v>
@@ -12970,7 +13186,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/61</v>
@@ -12985,7 +13201,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/62</v>
@@ -13000,7 +13216,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/63</v>
@@ -13015,7 +13231,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
         <f t="shared" si="1"/>
         <v>https://example.com/SourceCode/64</v>
@@ -13030,7 +13246,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
         <f t="shared" ref="A69:A81" si="2">_xlfn.CONCAT("https://example.com/SourceCode/",B69)</f>
         <v>https://example.com/SourceCode/65</v>
@@ -13045,7 +13261,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/SourceCode/66</v>
@@ -13060,7 +13276,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/SourceCode/67</v>
@@ -13075,7 +13291,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/SourceCode/68</v>
@@ -13090,7 +13306,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/SourceCode/69</v>
@@ -13105,7 +13321,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/SourceCode/70</v>
@@ -13120,7 +13336,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/SourceCode/71</v>
@@ -13135,7 +13351,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/SourceCode/72</v>
@@ -13150,7 +13366,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/SourceCode/73</v>
@@ -13165,7 +13381,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/SourceCode/74</v>
@@ -13180,7 +13396,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/SourceCode/75</v>
@@ -13195,7 +13411,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/SourceCode/76</v>
@@ -13210,7 +13426,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/SourceCode/77</v>
@@ -13225,7 +13441,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="str">
         <f t="shared" ref="A82" si="3">_xlfn.CONCAT("https://example.com/SourceCode/",B82)</f>
         <v>https://example.com/SourceCode/78</v>
@@ -13238,6 +13454,36 @@
       </c>
       <c r="D82" t="s">
         <v>901</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="str">
+        <f t="shared" ref="A83:A84" si="4">_xlfn.CONCAT("https://example.com/SourceCode/",B83)</f>
+        <v>https://example.com/SourceCode/79</v>
+      </c>
+      <c r="B83">
+        <v>79</v>
+      </c>
+      <c r="C83" t="s">
+        <v>684</v>
+      </c>
+      <c r="D83" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="str">
+        <f t="shared" si="4"/>
+        <v>https://example.com/SourceCode/80</v>
+      </c>
+      <c r="B84">
+        <v>80</v>
+      </c>
+      <c r="C84" t="s">
+        <v>684</v>
+      </c>
+      <c r="D84" t="s">
+        <v>916</v>
       </c>
     </row>
   </sheetData>
@@ -13250,19 +13496,20 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="60.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -13271,7 +13518,7 @@
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -13282,7 +13529,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -13296,7 +13543,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>_xlfn.CONCAT("http://publications.europa.eu/resource/authority/licence/",B5)</f>
         <v>http://publications.europa.eu/resource/authority/licence/MIT</v>
@@ -13311,7 +13558,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" ref="A6:A20" si="0">_xlfn.CONCAT("http://publications.europa.eu/resource/authority/licence/",B6)</f>
         <v>http://publications.europa.eu/resource/authority/licence/APACHE_2_0</v>
@@ -13326,7 +13573,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>http://publications.europa.eu/resource/authority/licence/BSD_2_CLAUSE</v>
@@ -13341,7 +13588,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>http://publications.europa.eu/resource/authority/licence/BSD_3_CLAUSE</v>
@@ -13356,7 +13603,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>http://publications.europa.eu/resource/authority/licence/CC_BYNC_3_0</v>
@@ -13371,7 +13618,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>http://publications.europa.eu/resource/authority/licence/CC_BYSA_4_0</v>
@@ -13386,7 +13633,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>_xlfn.CONCAT("http://spdx.org/licenses/",B11)</f>
         <v>http://spdx.org/licenses/CECILL-2.0</v>
@@ -13401,7 +13648,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>_xlfn.CONCAT("http://spdx.org/licenses/",B12)</f>
         <v>http://spdx.org/licenses/CECILL-C</v>
@@ -13416,7 +13663,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>http://publications.europa.eu/resource/authority/licence/EUPL_1_2</v>
@@ -13431,7 +13678,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>http://publications.europa.eu/resource/authority/licence/AGPL_3_0</v>
@@ -13446,7 +13693,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>http://publications.europa.eu/resource/authority/licence/LGPL_2_1</v>
@@ -13461,7 +13708,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>http://publications.europa.eu/resource/authority/licence/LGPL_3_0</v>
@@ -13476,7 +13723,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>http://publications.europa.eu/resource/authority/licence/GPL_2_0</v>
@@ -13491,7 +13738,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>http://publications.europa.eu/resource/authority/licence/GPL_3_0</v>
@@ -13506,7 +13753,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>http://publications.europa.eu/resource/authority/licence/ISC</v>
@@ -13521,7 +13768,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>http://publications.europa.eu/resource/authority/licence/MPL_1_1</v>
@@ -13536,7 +13783,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f>_xlfn.CONCAT("http://spdx.org/licenses/",B21)</f>
         <v>http://spdx.org/licenses/Unlicense</v>
@@ -13564,13 +13811,14 @@
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -13579,7 +13827,7 @@
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -13590,7 +13838,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>50</v>
       </c>
@@ -13604,7 +13852,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f t="shared" ref="A5:A12" si="0">_xlfn.CONCAT("https://example.com/skills/",B5)</f>
         <v>https://example.com/skills/1</v>
@@ -13619,7 +13867,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/skills/2</v>
@@ -13634,7 +13882,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/skills/3</v>
@@ -13649,7 +13897,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/skills/4</v>
@@ -13664,7 +13912,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/skills/5</v>
@@ -13679,7 +13927,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/skills/6</v>
@@ -13694,7 +13942,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/skills/7</v>
@@ -13709,7 +13957,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>https://example.com/skills/8</v>
@@ -13724,7 +13972,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" ref="A13" si="1">_xlfn.CONCAT("https://example.com/skills/",B13)</f>
         <v>https://example.com/skills/9</v>
@@ -13748,22 +13996,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="21f64c02-1f20-443d-801b-ae17df5c4a0a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bf3f9575-65b8-4549-b389-33a18b8943d7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007AEFB2A585EFEB438A74F703037745A4" ma:contentTypeVersion="22" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="066928f5f756ae6a0953337b70a1faf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf3f9575-65b8-4549-b389-33a18b8943d7" xmlns:ns3="21f64c02-1f20-443d-801b-ae17df5c4a0a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a35f3283c960054123670de2c4a4632" ns2:_="" ns3:_="">
     <xsd:import namespace="bf3f9575-65b8-4549-b389-33a18b8943d7"/>
@@ -14018,10 +14250,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="21f64c02-1f20-443d-801b-ae17df5c4a0a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bf3f9575-65b8-4549-b389-33a18b8943d7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{164C3F70-F822-4EF6-AEFF-DC1ABB56CF75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1435F584-9511-4912-AF17-F83A08F28CE8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bf3f9575-65b8-4549-b389-33a18b8943d7"/>
+    <ds:schemaRef ds:uri="21f64c02-1f20-443d-801b-ae17df5c4a0a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14044,20 +14303,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1435F584-9511-4912-AF17-F83A08F28CE8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{164C3F70-F822-4EF6-AEFF-DC1ABB56CF75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bf3f9575-65b8-4549-b389-33a18b8943d7"/>
-    <ds:schemaRef ds:uri="21f64c02-1f20-443d-801b-ae17df5c4a0a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/tools.xlsx
+++ b/tools.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aschiltz003\Documents\GitHub\Semantic-Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8414C1-0828-43BA-A3B4-E5FC4BB47428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AF9449-4D8D-4ABF-AED7-68EBFB21D6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{AFCE36E2-F631-4322-AF27-256B8B7C0B04}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{AFCE36E2-F631-4322-AF27-256B8B7C0B04}"/>
     <workbookView xWindow="38280" yWindow="-330" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F22DAEFA-B4F7-4D29-958A-77B34B5639A9}"/>
   </bookViews>
   <sheets>
@@ -2879,10 +2879,10 @@
     <t>https://example.com/SoftCon/80</t>
   </si>
   <si>
-    <t>DataSpecification:46,DataSpecification:56,DataSpecification:73</t>
-  </si>
-  <si>
-    <t>DataSpecification:24</t>
+    <t>DataSpecification:24,DataSpecification:33</t>
+  </si>
+  <si>
+    <t>DataSpecification:46,DataSpecification:56,DataSpecification:73,DataSpecification:27,DataSpecification:39,DataSpecification:38,DataSpecification:55,DataSpecification:70</t>
   </si>
 </sst>
 </file>
@@ -9124,8 +9124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C00D37D-2BE6-4922-A4F7-4D4C5329FA01}">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -10398,7 +10398,7 @@
     </row>
     <row r="83" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="str">
-        <f t="shared" ref="A83:A85" si="2">_xlfn.CONCAT("https://example.com/SoftCon/",B83)</f>
+        <f t="shared" ref="A83:A84" si="2">_xlfn.CONCAT("https://example.com/SoftCon/",B83)</f>
         <v>https://example.com/SoftCon/78</v>
       </c>
       <c r="B83">
@@ -10414,7 +10414,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" t="str">
         <f t="shared" si="2"/>
         <v>https://example.com/SoftCon/79</v>
@@ -10426,10 +10426,10 @@
         <v>578</v>
       </c>
       <c r="D84" s="23" t="s">
+        <v>925</v>
+      </c>
+      <c r="E84" s="23" t="s">
         <v>924</v>
-      </c>
-      <c r="E84" s="23" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -10457,11 +10457,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77F4F05-CC8F-47F5-BAFC-4EC2DFFDAC8A}">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="1">
-      <selection activeCell="D64" sqref="D64"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13996,6 +13996,22 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="21f64c02-1f20-443d-801b-ae17df5c4a0a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bf3f9575-65b8-4549-b389-33a18b8943d7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007AEFB2A585EFEB438A74F703037745A4" ma:contentTypeVersion="22" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="066928f5f756ae6a0953337b70a1faf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf3f9575-65b8-4549-b389-33a18b8943d7" xmlns:ns3="21f64c02-1f20-443d-801b-ae17df5c4a0a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a35f3283c960054123670de2c4a4632" ns2:_="" ns3:_="">
     <xsd:import namespace="bf3f9575-65b8-4549-b389-33a18b8943d7"/>
@@ -14250,37 +14266,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="21f64c02-1f20-443d-801b-ae17df5c4a0a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bf3f9575-65b8-4549-b389-33a18b8943d7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1435F584-9511-4912-AF17-F83A08F28CE8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{164C3F70-F822-4EF6-AEFF-DC1ABB56CF75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bf3f9575-65b8-4549-b389-33a18b8943d7"/>
-    <ds:schemaRef ds:uri="21f64c02-1f20-443d-801b-ae17df5c4a0a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14303,9 +14292,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{164C3F70-F822-4EF6-AEFF-DC1ABB56CF75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1435F584-9511-4912-AF17-F83A08F28CE8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bf3f9575-65b8-4549-b389-33a18b8943d7"/>
+    <ds:schemaRef ds:uri="21f64c02-1f20-443d-801b-ae17df5c4a0a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/tools.xlsx
+++ b/tools.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aschiltz003\Documents\GitHub\Semantic-Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AF9449-4D8D-4ABF-AED7-68EBFB21D6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF67720-2629-41C1-8C99-E7A4F08C18BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{AFCE36E2-F631-4322-AF27-256B8B7C0B04}"/>
-    <workbookView xWindow="38280" yWindow="-330" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F22DAEFA-B4F7-4D29-958A-77B34B5639A9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{AFCE36E2-F631-4322-AF27-256B8B7C0B04}"/>
+    <workbookView xWindow="-3960" yWindow="-17280" windowWidth="15552" windowHeight="16656" firstSheet="2" activeTab="3" xr2:uid="{0E96A4A3-DE97-4179-AD86-618651601A04}"/>
   </bookViews>
   <sheets>
     <sheet name="Tool" sheetId="2" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1927" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="945">
   <si>
     <t>ConceptScheme URI</t>
   </si>
@@ -2883,6 +2883,63 @@
   </si>
   <si>
     <t>DataSpecification:46,DataSpecification:56,DataSpecification:73,DataSpecification:27,DataSpecification:39,DataSpecification:38,DataSpecification:55,DataSpecification:70</t>
+  </si>
+  <si>
+    <t>RDF Playground</t>
+  </si>
+  <si>
+    <t>RDF Sketch</t>
+  </si>
+  <si>
+    <t>RDF Playground allows web users to write RDF as Turtle, check its syntax, visualize the data as a graph, and use SPARQL, RDFS, OWL, SHACL and ShEx.</t>
+  </si>
+  <si>
+    <t>https://rdfplayground.dcc.uchile.cl/</t>
+  </si>
+  <si>
+    <t>https://sketch.zazuko.com/</t>
+  </si>
+  <si>
+    <t>https://github.com/RDFPlaygroundProject/RDFPlayground</t>
+  </si>
+  <si>
+    <t>https://example.com/SoftCon/81</t>
+  </si>
+  <si>
+    <t>https://example.com/SoftCon/82</t>
+  </si>
+  <si>
+    <t>source:81</t>
+  </si>
+  <si>
+    <t>source:82</t>
+  </si>
+  <si>
+    <t>Python,Kotlin</t>
+  </si>
+  <si>
+    <t>Sketch RDF in the web browser with immediate visualization.</t>
+  </si>
+  <si>
+    <t>comp:13</t>
+  </si>
+  <si>
+    <t>https://github.com/zazuko/rdf-sketch</t>
+  </si>
+  <si>
+    <t>SPARQL</t>
+  </si>
+  <si>
+    <t>DataSpecification:73,DataSpecification:46,DataSpecification:83,DataSpecification:87</t>
+  </si>
+  <si>
+    <t>0.1.3</t>
+  </si>
+  <si>
+    <t>Vue,TypeScript</t>
+  </si>
+  <si>
+    <t>DataSpecification:73,DataSpecification:27,DataSpecification:38,DataSpecification:39,DataSpecification:56,DataSpecification:82</t>
   </si>
 </sst>
 </file>
@@ -3414,12 +3471,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E901194B-12F3-43EA-8282-C97AC613BB27}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O108"/>
+  <dimension ref="A1:O110"/>
   <sheetViews>
-    <sheetView topLeftCell="E102" workbookViewId="0">
-      <selection activeCell="N106" sqref="N106:N108"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="N110" sqref="N110"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView topLeftCell="D104" workbookViewId="1">
+      <selection activeCell="L110" sqref="L110"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7482,6 +7541,98 @@
       <c r="N108" s="24" t="str">
         <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B84)</f>
         <v>SoftVer:80</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A109" s="24" t="str">
+        <f t="shared" ref="A109:A110" si="5">_xlfn.CONCAT("https://example.com/tool/",B109)</f>
+        <v>https://example.com/tool/81</v>
+      </c>
+      <c r="B109" s="24">
+        <v>81</v>
+      </c>
+      <c r="C109" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D109" s="24" t="s">
+        <v>926</v>
+      </c>
+      <c r="E109" s="24" t="s">
+        <v>928</v>
+      </c>
+      <c r="F109" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="G109" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="H109" s="24" t="s">
+        <v>929</v>
+      </c>
+      <c r="I109" s="31" t="s">
+        <v>934</v>
+      </c>
+      <c r="J109" s="24" t="s">
+        <v>936</v>
+      </c>
+      <c r="K109" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="L109" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="M109" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="N109" s="24" t="str">
+        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B85)</f>
+        <v>SoftVer:81</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A110" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>https://example.com/tool/82</v>
+      </c>
+      <c r="B110" s="24">
+        <v>82</v>
+      </c>
+      <c r="C110" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D110" s="24" t="s">
+        <v>927</v>
+      </c>
+      <c r="E110" s="24" t="s">
+        <v>937</v>
+      </c>
+      <c r="F110" s="24" t="s">
+        <v>938</v>
+      </c>
+      <c r="G110" s="24" t="s">
+        <v>938</v>
+      </c>
+      <c r="H110" s="24" t="s">
+        <v>930</v>
+      </c>
+      <c r="I110" s="31" t="s">
+        <v>935</v>
+      </c>
+      <c r="J110" s="24" t="s">
+        <v>943</v>
+      </c>
+      <c r="K110" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L110" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="M110" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="N110" s="24" t="str">
+        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B86)</f>
+        <v>SoftVer:82</v>
       </c>
     </row>
   </sheetData>
@@ -7618,10 +7769,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196F26FF-2DFA-4E7A-9BE4-6EAD0F66898D}">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81:E84"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -9110,6 +9261,42 @@
         <v>923</v>
       </c>
     </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="str">
+        <f t="shared" ref="A85:A86" si="4">_xlfn.CONCAT("https://example.com/SoftVer/",B85)</f>
+        <v>https://example.com/SoftVer/81</v>
+      </c>
+      <c r="B85">
+        <v>81</v>
+      </c>
+      <c r="C85" t="s">
+        <v>428</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="E85" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="str">
+        <f t="shared" si="4"/>
+        <v>https://example.com/SoftVer/82</v>
+      </c>
+      <c r="B86">
+        <v>82</v>
+      </c>
+      <c r="C86" t="s">
+        <v>428</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>942</v>
+      </c>
+      <c r="E86" t="s">
+        <v>933</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -9122,10 +9309,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C00D37D-2BE6-4922-A4F7-4D4C5329FA01}">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -10447,6 +10634,36 @@
         <v>819</v>
       </c>
     </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="str">
+        <f t="shared" ref="A86:A87" si="4">_xlfn.CONCAT("https://example.com/SoftCon/",B86)</f>
+        <v>https://example.com/SoftCon/81</v>
+      </c>
+      <c r="B86">
+        <v>81</v>
+      </c>
+      <c r="C86" t="s">
+        <v>578</v>
+      </c>
+      <c r="D86" s="23" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A87" t="str">
+        <f t="shared" si="4"/>
+        <v>https://example.com/SoftCon/82</v>
+      </c>
+      <c r="B87">
+        <v>82</v>
+      </c>
+      <c r="C87" t="s">
+        <v>578</v>
+      </c>
+      <c r="D87" s="23" t="s">
+        <v>944</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -10455,13 +10672,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77F4F05-CC8F-47F5-BAFC-4EC2DFFDAC8A}">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="1">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="1">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11796,6 +12013,21 @@
         <v>898</v>
       </c>
     </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="str">
+        <f t="shared" ref="A91" si="7">_xlfn.CONCAT("https://example.com/DataSpec/",B91)</f>
+        <v>https://example.com/DataSpec/87</v>
+      </c>
+      <c r="B91">
+        <v>87</v>
+      </c>
+      <c r="C91" t="s">
+        <v>581</v>
+      </c>
+      <c r="D91" t="s">
+        <v>940</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11808,11 +12040,9 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11974,7 +12204,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -12237,10 +12467,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D390BFC-9D07-4275-B941-A9803FF5EDFC}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -13484,6 +13714,36 @@
       </c>
       <c r="D84" t="s">
         <v>916</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="str">
+        <f t="shared" ref="A85:A86" si="5">_xlfn.CONCAT("https://example.com/SourceCode/",B85)</f>
+        <v>https://example.com/SourceCode/81</v>
+      </c>
+      <c r="B85">
+        <v>81</v>
+      </c>
+      <c r="C85" t="s">
+        <v>684</v>
+      </c>
+      <c r="D85" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="str">
+        <f t="shared" si="5"/>
+        <v>https://example.com/SourceCode/82</v>
+      </c>
+      <c r="B86">
+        <v>82</v>
+      </c>
+      <c r="C86" t="s">
+        <v>684</v>
+      </c>
+      <c r="D86" t="s">
+        <v>939</v>
       </c>
     </row>
   </sheetData>
@@ -13809,7 +14069,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -13996,22 +14256,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="21f64c02-1f20-443d-801b-ae17df5c4a0a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bf3f9575-65b8-4549-b389-33a18b8943d7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007AEFB2A585EFEB438A74F703037745A4" ma:contentTypeVersion="22" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="066928f5f756ae6a0953337b70a1faf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf3f9575-65b8-4549-b389-33a18b8943d7" xmlns:ns3="21f64c02-1f20-443d-801b-ae17df5c4a0a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a35f3283c960054123670de2c4a4632" ns2:_="" ns3:_="">
     <xsd:import namespace="bf3f9575-65b8-4549-b389-33a18b8943d7"/>
@@ -14266,10 +14510,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="21f64c02-1f20-443d-801b-ae17df5c4a0a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bf3f9575-65b8-4549-b389-33a18b8943d7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{164C3F70-F822-4EF6-AEFF-DC1ABB56CF75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1435F584-9511-4912-AF17-F83A08F28CE8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bf3f9575-65b8-4549-b389-33a18b8943d7"/>
+    <ds:schemaRef ds:uri="21f64c02-1f20-443d-801b-ae17df5c4a0a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14292,20 +14563,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1435F584-9511-4912-AF17-F83A08F28CE8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{164C3F70-F822-4EF6-AEFF-DC1ABB56CF75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bf3f9575-65b8-4549-b389-33a18b8943d7"/>
-    <ds:schemaRef ds:uri="21f64c02-1f20-443d-801b-ae17df5c4a0a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/tools.xlsx
+++ b/tools.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aschiltz003\Documents\GitHub\Semantic-Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF67720-2629-41C1-8C99-E7A4F08C18BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FE81D1-94E1-4527-889A-676511DB15A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{AFCE36E2-F631-4322-AF27-256B8B7C0B04}"/>
-    <workbookView xWindow="-3960" yWindow="-17280" windowWidth="15552" windowHeight="16656" firstSheet="2" activeTab="3" xr2:uid="{0E96A4A3-DE97-4179-AD86-618651601A04}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{AFCE36E2-F631-4322-AF27-256B8B7C0B04}"/>
   </bookViews>
   <sheets>
     <sheet name="Tool" sheetId="2" r:id="rId1"/>
@@ -104,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="941">
   <si>
     <t>ConceptScheme URI</t>
   </si>
@@ -1269,18 +1268,6 @@
   </si>
   <si>
     <t>skills:1</t>
-  </si>
-  <si>
-    <t>VSCode RDF Sketch</t>
-  </si>
-  <si>
-    <t>Visualise RDF data in VSCode (plug-in)</t>
-  </si>
-  <si>
-    <t>source:70</t>
-  </si>
-  <si>
-    <t>TypeScript,JavaScript</t>
   </si>
   <si>
     <t>WebVOWL</t>
@@ -3471,13 +3458,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E901194B-12F3-43EA-8282-C97AC613BB27}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O110"/>
+  <dimension ref="A1:O109"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="N110" sqref="N110"/>
-    </sheetView>
-    <sheetView topLeftCell="D104" workbookViewId="1">
-      <selection activeCell="L110" sqref="L110"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98:XFD98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3793,16 +3777,16 @@
         <v>60</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="M28" s="9" t="s">
         <v>61</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -3909,7 +3893,7 @@
         <v>62</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="E31" s="24" t="s">
         <v>80</v>
@@ -3943,7 +3927,7 @@
         <v>SoftVer:3</v>
       </c>
       <c r="O31" s="23" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="72" x14ac:dyDescent="0.3">
@@ -4188,7 +4172,7 @@
         <v>62</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="E37" s="24" t="s">
         <v>120</v>
@@ -4222,7 +4206,7 @@
         <v>SoftVer:9</v>
       </c>
       <c r="O37" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -4421,7 +4405,7 @@
         <v>62</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="E42" s="24" t="s">
         <v>141</v>
@@ -4455,7 +4439,7 @@
         <v>SoftVer:14</v>
       </c>
       <c r="O42" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
@@ -4504,7 +4488,7 @@
         <v>SoftVer:15</v>
       </c>
       <c r="O43" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -4829,7 +4813,7 @@
         <v>SoftVer:22</v>
       </c>
       <c r="O50" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="72" x14ac:dyDescent="0.3">
@@ -4924,7 +4908,7 @@
         <v>SoftVer:24</v>
       </c>
       <c r="O52" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="72" x14ac:dyDescent="0.3">
@@ -4963,7 +4947,7 @@
         <v>194</v>
       </c>
       <c r="L53" s="24" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="M53" s="25" t="s">
         <v>72</v>
@@ -5730,7 +5714,7 @@
         <v>62</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="E70" s="24" t="s">
         <v>264</v>
@@ -5764,7 +5748,7 @@
         <v>SoftVer:42</v>
       </c>
       <c r="O70" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
@@ -5813,7 +5797,7 @@
         <v>SoftVer:43</v>
       </c>
       <c r="O71" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="72" x14ac:dyDescent="0.3">
@@ -6046,7 +6030,7 @@
         <v>SoftVer:48</v>
       </c>
       <c r="O76" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
@@ -6095,7 +6079,7 @@
         <v>SoftVer:49</v>
       </c>
       <c r="O77" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="78" spans="1:15" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6110,7 +6094,7 @@
         <v>62</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="E78" s="24" t="s">
         <v>293</v>
@@ -6144,7 +6128,7 @@
         <v>SoftVer:50</v>
       </c>
       <c r="O78" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
     </row>
     <row r="79" spans="1:15" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6206,7 +6190,7 @@
         <v>62</v>
       </c>
       <c r="D80" s="24" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="E80" s="24" t="s">
         <v>304</v>
@@ -6240,7 +6224,7 @@
         <v>SoftVer:52</v>
       </c>
       <c r="O80" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
@@ -6381,7 +6365,7 @@
         <v>SoftVer:55</v>
       </c>
       <c r="O83" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="72" x14ac:dyDescent="0.3">
@@ -6706,7 +6690,7 @@
         <v>SoftVer:62</v>
       </c>
       <c r="O90" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -6755,7 +6739,7 @@
         <v>SoftVer:63</v>
       </c>
       <c r="O91" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="72" x14ac:dyDescent="0.3">
@@ -6804,12 +6788,12 @@
         <v>SoftVer:64</v>
       </c>
       <c r="O92" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" s="24" t="str">
-        <f t="shared" ref="A93:A105" si="2">_xlfn.CONCAT("https://example.com/tool/",B93)</f>
+        <f t="shared" ref="A93:A104" si="2">_xlfn.CONCAT("https://example.com/tool/",B93)</f>
         <v>https://example.com/tool/65</v>
       </c>
       <c r="B93" s="24">
@@ -6853,7 +6837,7 @@
         <v>SoftVer:65</v>
       </c>
       <c r="O93" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="72" x14ac:dyDescent="0.3">
@@ -6994,7 +6978,7 @@
         <v>SoftVer:68</v>
       </c>
       <c r="O96" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
@@ -7046,10 +7030,10 @@
     <row r="98" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="24" t="str">
         <f t="shared" si="2"/>
-        <v>https://example.com/tool/70</v>
+        <v>https://example.com/tool/71</v>
       </c>
       <c r="B98" s="24">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C98" s="24" t="s">
         <v>62</v>
@@ -7067,13 +7051,13 @@
         <v>245</v>
       </c>
       <c r="H98" s="28" t="s">
-        <v>75</v>
+        <v>390</v>
       </c>
       <c r="I98" s="31" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J98" s="24" t="s">
-        <v>391</v>
+        <v>69</v>
       </c>
       <c r="K98" s="23" t="s">
         <v>70</v>
@@ -7082,158 +7066,158 @@
         <v>75</v>
       </c>
       <c r="M98" s="25" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="N98" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B74)</f>
-        <v>SoftVer:70</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B75)</f>
+        <v>SoftVer:71</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A99" s="24" t="str">
         <f t="shared" si="2"/>
-        <v>https://example.com/tool/71</v>
+        <v>https://example.com/tool/72</v>
       </c>
       <c r="B99" s="24">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C99" s="24" t="s">
         <v>62</v>
       </c>
       <c r="D99" s="24" t="s">
+        <v>868</v>
+      </c>
+      <c r="E99" s="24" t="s">
         <v>392</v>
       </c>
-      <c r="E99" s="24" t="s">
+      <c r="F99" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="G99" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H99" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="F99" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="G99" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="H99" s="28" t="s">
+      <c r="I99" s="31" t="s">
         <v>394</v>
       </c>
-      <c r="I99" s="31" t="s">
+      <c r="J99" s="24" t="s">
         <v>395</v>
       </c>
-      <c r="J99" s="24" t="s">
-        <v>69</v>
-      </c>
       <c r="K99" s="23" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L99" s="24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M99" s="25" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="N99" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B75)</f>
-        <v>SoftVer:71</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B76)</f>
+        <v>SoftVer:72</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A100" s="24" t="str">
         <f t="shared" si="2"/>
-        <v>https://example.com/tool/72</v>
+        <v>https://example.com/tool/73</v>
       </c>
       <c r="B100" s="24">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C100" s="24" t="s">
         <v>62</v>
       </c>
       <c r="D100" s="24" t="s">
-        <v>872</v>
+        <v>396</v>
       </c>
       <c r="E100" s="24" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F100" s="24" t="s">
-        <v>121</v>
+        <v>202</v>
       </c>
       <c r="G100" s="24" t="s">
-        <v>122</v>
+        <v>345</v>
       </c>
       <c r="H100" s="23" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I100" s="31" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J100" s="24" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K100" s="23" t="s">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="L100" s="24" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M100" s="25" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="N100" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B76)</f>
-        <v>SoftVer:72</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B77)</f>
+        <v>SoftVer:73</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A101" s="24" t="str">
         <f t="shared" si="2"/>
-        <v>https://example.com/tool/73</v>
+        <v>https://example.com/tool/74</v>
       </c>
       <c r="B101" s="24">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C101" s="24" t="s">
         <v>62</v>
       </c>
       <c r="D101" s="24" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E101" s="24" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F101" s="24" t="s">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="G101" s="24" t="s">
-        <v>345</v>
-      </c>
-      <c r="H101" s="23" t="s">
-        <v>402</v>
+        <v>82</v>
+      </c>
+      <c r="H101" s="28" t="s">
+        <v>403</v>
       </c>
       <c r="I101" s="31" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J101" s="24" t="s">
-        <v>404</v>
+        <v>77</v>
       </c>
       <c r="K101" s="23" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="L101" s="24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M101" s="25" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="N101" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B77)</f>
-        <v>SoftVer:73</v>
+        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B78)</f>
+        <v>SoftVer:74</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A102" s="24" t="str">
         <f t="shared" si="2"/>
-        <v>https://example.com/tool/74</v>
+        <v>https://example.com/tool/75</v>
       </c>
       <c r="B102" s="24">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C102" s="24" t="s">
         <v>62</v>
@@ -7245,154 +7229,154 @@
         <v>406</v>
       </c>
       <c r="F102" s="24" t="s">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="G102" s="24" t="s">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c r="H102" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I102" s="31" t="s">
         <v>407</v>
       </c>
-      <c r="I102" s="31" t="s">
+      <c r="J102" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="J102" s="24" t="s">
-        <v>77</v>
-      </c>
       <c r="K102" s="23" t="s">
-        <v>212</v>
+        <v>409</v>
       </c>
       <c r="L102" s="24" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M102" s="25" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="N102" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B78)</f>
-        <v>SoftVer:74</v>
+        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B79)</f>
+        <v>SoftVer:75</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A103" s="24" t="str">
         <f t="shared" si="2"/>
-        <v>https://example.com/tool/75</v>
+        <v>https://example.com/tool/76</v>
       </c>
       <c r="B103" s="24">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C103" s="24" t="s">
         <v>62</v>
       </c>
       <c r="D103" s="24" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E103" s="24" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F103" s="24" t="s">
-        <v>202</v>
+        <v>94</v>
       </c>
       <c r="G103" s="24" t="s">
-        <v>245</v>
+        <v>412</v>
       </c>
       <c r="H103" s="28" t="s">
-        <v>75</v>
+        <v>413</v>
       </c>
       <c r="I103" s="31" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="J103" s="24" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="K103" s="23" t="s">
-        <v>413</v>
+        <v>303</v>
       </c>
       <c r="L103" s="24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M103" s="25" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="N103" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B79)</f>
-        <v>SoftVer:75</v>
+        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B80)</f>
+        <v>SoftVer:76</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A104" s="24" t="str">
         <f t="shared" si="2"/>
-        <v>https://example.com/tool/76</v>
+        <v>https://example.com/tool/77</v>
       </c>
       <c r="B104" s="24">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C104" s="24" t="s">
         <v>62</v>
       </c>
       <c r="D104" s="24" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E104" s="24" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F104" s="24" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="G104" s="24" t="s">
-        <v>416</v>
+        <v>66</v>
       </c>
       <c r="H104" s="28" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="I104" s="31" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="J104" s="24" t="s">
-        <v>419</v>
+        <v>77</v>
       </c>
       <c r="K104" s="23" t="s">
-        <v>303</v>
+        <v>78</v>
       </c>
       <c r="L104" s="24" t="s">
         <v>71</v>
       </c>
       <c r="M104" s="25" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="N104" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B80)</f>
-        <v>SoftVer:76</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B81)</f>
+        <v>SoftVer:77</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A105" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v>https://example.com/tool/77</v>
+        <f t="shared" ref="A105" si="3">_xlfn.CONCAT("https://example.com/tool/",B105)</f>
+        <v>https://example.com/tool/78</v>
       </c>
       <c r="B105" s="24">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C105" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D105" s="24" t="s">
-        <v>420</v>
+      <c r="D105" t="s">
+        <v>895</v>
       </c>
       <c r="E105" s="24" t="s">
-        <v>421</v>
+        <v>896</v>
       </c>
       <c r="F105" s="24" t="s">
-        <v>65</v>
+        <v>905</v>
       </c>
       <c r="G105" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="H105" s="28" t="s">
-        <v>422</v>
+        <v>904</v>
+      </c>
+      <c r="H105" t="s">
+        <v>903</v>
       </c>
       <c r="I105" s="31" t="s">
-        <v>423</v>
+        <v>898</v>
       </c>
       <c r="J105" s="24" t="s">
         <v>77</v>
@@ -7404,41 +7388,38 @@
         <v>71</v>
       </c>
       <c r="M105" s="25" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="N105" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B81)</f>
-        <v>SoftVer:77</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B82)</f>
+        <v>SoftVer:78</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A106" s="24" t="str">
-        <f t="shared" ref="A106" si="3">_xlfn.CONCAT("https://example.com/tool/",B106)</f>
-        <v>https://example.com/tool/78</v>
+        <f t="shared" ref="A106:A107" si="4">_xlfn.CONCAT("https://example.com/tool/",B106)</f>
+        <v>https://example.com/tool/79</v>
       </c>
       <c r="B106" s="24">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C106" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D106" t="s">
-        <v>899</v>
+      <c r="D106" s="24" t="s">
+        <v>906</v>
       </c>
       <c r="E106" s="24" t="s">
-        <v>900</v>
+        <v>908</v>
       </c>
       <c r="F106" s="24" t="s">
-        <v>909</v>
+        <v>121</v>
       </c>
       <c r="G106" s="24" t="s">
-        <v>908</v>
-      </c>
-      <c r="H106" t="s">
-        <v>907</v>
+        <v>122</v>
       </c>
       <c r="I106" s="31" t="s">
-        <v>902</v>
+        <v>913</v>
       </c>
       <c r="J106" s="24" t="s">
         <v>77</v>
@@ -7453,130 +7434,133 @@
         <v>85</v>
       </c>
       <c r="N106" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B82)</f>
-        <v>SoftVer:78</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B83)</f>
+        <v>SoftVer:79</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A107" s="24" t="str">
-        <f t="shared" ref="A107:A108" si="4">_xlfn.CONCAT("https://example.com/tool/",B107)</f>
-        <v>https://example.com/tool/79</v>
+        <f t="shared" si="4"/>
+        <v>https://example.com/tool/80</v>
       </c>
       <c r="B107" s="24">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C107" s="24" t="s">
         <v>62</v>
       </c>
       <c r="D107" s="24" t="s">
+        <v>907</v>
+      </c>
+      <c r="E107" s="24" t="s">
+        <v>909</v>
+      </c>
+      <c r="F107" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G107" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="H107" s="24" t="s">
         <v>910</v>
       </c>
-      <c r="E107" s="24" t="s">
-        <v>912</v>
-      </c>
-      <c r="F107" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="G107" s="24" t="s">
-        <v>122</v>
-      </c>
       <c r="I107" s="31" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="J107" s="24" t="s">
-        <v>77</v>
+        <v>915</v>
       </c>
       <c r="K107" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="L107" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="M107" s="25" t="s">
-        <v>85</v>
+        <v>303</v>
+      </c>
+      <c r="M107" s="24" t="s">
+        <v>100</v>
       </c>
       <c r="N107" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B83)</f>
-        <v>SoftVer:79</v>
+        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B84)</f>
+        <v>SoftVer:80</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A108" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v>https://example.com/tool/80</v>
+        <f t="shared" ref="A108:A109" si="5">_xlfn.CONCAT("https://example.com/tool/",B108)</f>
+        <v>https://example.com/tool/81</v>
       </c>
       <c r="B108" s="24">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C108" s="24" t="s">
         <v>62</v>
       </c>
       <c r="D108" s="24" t="s">
-        <v>911</v>
+        <v>922</v>
       </c>
       <c r="E108" s="24" t="s">
-        <v>913</v>
+        <v>924</v>
       </c>
       <c r="F108" s="24" t="s">
-        <v>94</v>
+        <v>294</v>
       </c>
       <c r="G108" s="24" t="s">
-        <v>95</v>
+        <v>295</v>
       </c>
       <c r="H108" s="24" t="s">
-        <v>914</v>
+        <v>925</v>
       </c>
       <c r="I108" s="31" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
       <c r="J108" s="24" t="s">
-        <v>919</v>
+        <v>932</v>
       </c>
       <c r="K108" s="23" t="s">
-        <v>303</v>
+        <v>78</v>
+      </c>
+      <c r="L108" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="M108" s="24" t="s">
         <v>100</v>
       </c>
       <c r="N108" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B84)</f>
-        <v>SoftVer:80</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B85)</f>
+        <v>SoftVer:81</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="24" t="str">
-        <f t="shared" ref="A109:A110" si="5">_xlfn.CONCAT("https://example.com/tool/",B109)</f>
-        <v>https://example.com/tool/81</v>
+        <f t="shared" si="5"/>
+        <v>https://example.com/tool/82</v>
       </c>
       <c r="B109" s="24">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C109" s="24" t="s">
         <v>62</v>
       </c>
       <c r="D109" s="24" t="s">
+        <v>923</v>
+      </c>
+      <c r="E109" s="24" t="s">
+        <v>933</v>
+      </c>
+      <c r="F109" s="24" t="s">
+        <v>934</v>
+      </c>
+      <c r="G109" s="24" t="s">
+        <v>934</v>
+      </c>
+      <c r="H109" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="E109" s="24" t="s">
-        <v>928</v>
-      </c>
-      <c r="F109" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="G109" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="H109" s="24" t="s">
-        <v>929</v>
-      </c>
       <c r="I109" s="31" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="J109" s="24" t="s">
-        <v>936</v>
-      </c>
-      <c r="K109" s="23" t="s">
-        <v>78</v>
+        <v>939</v>
+      </c>
+      <c r="K109" s="24" t="s">
+        <v>70</v>
       </c>
       <c r="L109" s="24" t="s">
         <v>71</v>
@@ -7585,52 +7569,6 @@
         <v>100</v>
       </c>
       <c r="N109" s="24" t="str">
-        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B85)</f>
-        <v>SoftVer:81</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v>https://example.com/tool/82</v>
-      </c>
-      <c r="B110" s="24">
-        <v>82</v>
-      </c>
-      <c r="C110" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D110" s="24" t="s">
-        <v>927</v>
-      </c>
-      <c r="E110" s="24" t="s">
-        <v>937</v>
-      </c>
-      <c r="F110" s="24" t="s">
-        <v>938</v>
-      </c>
-      <c r="G110" s="24" t="s">
-        <v>938</v>
-      </c>
-      <c r="H110" s="24" t="s">
-        <v>930</v>
-      </c>
-      <c r="I110" s="31" t="s">
-        <v>935</v>
-      </c>
-      <c r="J110" s="24" t="s">
-        <v>943</v>
-      </c>
-      <c r="K110" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="L110" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="M110" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="N110" s="24" t="str">
         <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B86)</f>
         <v>SoftVer:82</v>
       </c>
@@ -7654,7 +7592,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7678,10 +7615,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C2" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -7689,13 +7626,13 @@
         <v>50</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -7704,13 +7641,13 @@
         <v>https://dbpedia.org/resource/Graphical_user_interface</v>
       </c>
       <c r="B5" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="C5" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -7719,13 +7656,13 @@
         <v>https://dbpedia.org/resource/Command-line_interface</v>
       </c>
       <c r="B6" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="C6" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -7734,13 +7671,13 @@
         <v>https://dbpedia.org/resource/Web_API</v>
       </c>
       <c r="B7" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="C7" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -7774,7 +7711,6 @@
     <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="E86" sqref="E86"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7789,7 +7725,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C1" s="4"/>
     </row>
@@ -7809,16 +7745,16 @@
         <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E4" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -7830,13 +7766,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E5" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -7848,13 +7784,13 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="E6" t="s">
         <v>428</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="E6" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -7866,13 +7802,13 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -7884,13 +7820,13 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -7902,13 +7838,13 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E9" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -7920,13 +7856,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E10" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -7938,13 +7874,13 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E11" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -7956,13 +7892,13 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E12" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -7974,13 +7910,13 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E13" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -7992,13 +7928,13 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="E14" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -8010,13 +7946,13 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="E15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -8028,13 +7964,13 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E16" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -8046,13 +7982,13 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E17" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -8064,13 +8000,13 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="E18" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -8082,13 +8018,13 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E19" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -8100,13 +8036,13 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E20" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -8118,13 +8054,13 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E21" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -8136,13 +8072,13 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E22" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -8154,13 +8090,13 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E23" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -8172,13 +8108,13 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E24" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -8190,13 +8126,13 @@
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E25" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -8208,13 +8144,13 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E26" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -8226,13 +8162,13 @@
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="E27" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -8244,13 +8180,13 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E28" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -8262,13 +8198,13 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E29" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -8280,13 +8216,13 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E30" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -8298,13 +8234,13 @@
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E31" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -8316,13 +8252,13 @@
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E32" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -8334,13 +8270,13 @@
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E33" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -8352,13 +8288,13 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E34" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -8370,13 +8306,13 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E35" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -8388,13 +8324,13 @@
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="E36" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -8406,13 +8342,13 @@
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E37" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -8424,13 +8360,13 @@
         <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -8442,13 +8378,13 @@
         <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E39" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -8460,13 +8396,13 @@
         <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E40" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -8478,13 +8414,13 @@
         <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E41" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -8496,13 +8432,13 @@
         <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E42" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -8514,13 +8450,13 @@
         <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="E43" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -8532,13 +8468,13 @@
         <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="E44" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -8550,13 +8486,13 @@
         <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E45" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -8568,13 +8504,13 @@
         <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E46" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -8586,13 +8522,13 @@
         <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E47" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -8604,13 +8540,13 @@
         <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E48" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -8622,13 +8558,13 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E49" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -8640,13 +8576,13 @@
         <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E50" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -8658,13 +8594,13 @@
         <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D51" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="E51" t="s">
         <v>511</v>
-      </c>
-      <c r="E51" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -8676,13 +8612,13 @@
         <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="E52" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -8694,13 +8630,13 @@
         <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E53" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -8712,13 +8648,13 @@
         <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E54" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -8730,13 +8666,13 @@
         <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="E55" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -8748,13 +8684,13 @@
         <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E56" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -8766,13 +8702,13 @@
         <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E57" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -8784,13 +8720,13 @@
         <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E58" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -8802,13 +8738,13 @@
         <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E59" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -8820,13 +8756,13 @@
         <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E60" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -8838,13 +8774,13 @@
         <v>57</v>
       </c>
       <c r="C61" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E61" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -8856,13 +8792,13 @@
         <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="E62" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -8874,13 +8810,13 @@
         <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E63" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -8892,13 +8828,13 @@
         <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E64" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -8910,13 +8846,13 @@
         <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E65" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -8928,13 +8864,13 @@
         <v>62</v>
       </c>
       <c r="C66" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E66" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -8946,13 +8882,13 @@
         <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E67" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -8964,13 +8900,13 @@
         <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E68" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -8982,13 +8918,13 @@
         <v>65</v>
       </c>
       <c r="C69" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E69" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -9000,13 +8936,13 @@
         <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="E70" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -9018,13 +8954,13 @@
         <v>67</v>
       </c>
       <c r="C71" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="E71" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -9036,13 +8972,13 @@
         <v>68</v>
       </c>
       <c r="C72" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="E72" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -9054,13 +8990,13 @@
         <v>69</v>
       </c>
       <c r="C73" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="E73" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -9072,13 +9008,13 @@
         <v>70</v>
       </c>
       <c r="C74" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="E74" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -9090,13 +9026,13 @@
         <v>71</v>
       </c>
       <c r="C75" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="E75" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -9108,13 +9044,13 @@
         <v>72</v>
       </c>
       <c r="C76" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="E76" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -9126,13 +9062,13 @@
         <v>73</v>
       </c>
       <c r="C77" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="E77" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -9144,13 +9080,13 @@
         <v>74</v>
       </c>
       <c r="C78" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E78" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -9162,13 +9098,13 @@
         <v>75</v>
       </c>
       <c r="C79" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E79" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -9180,13 +9116,13 @@
         <v>76</v>
       </c>
       <c r="C80" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E80" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -9198,13 +9134,13 @@
         <v>77</v>
       </c>
       <c r="C81" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E81" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -9216,13 +9152,13 @@
         <v>78</v>
       </c>
       <c r="C82" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="E82" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -9234,13 +9170,13 @@
         <v>79</v>
       </c>
       <c r="C83" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D83" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="E83" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -9252,13 +9188,13 @@
         <v>80</v>
       </c>
       <c r="C84" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="E84" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -9270,13 +9206,13 @@
         <v>81</v>
       </c>
       <c r="C85" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E85" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -9288,13 +9224,13 @@
         <v>82</v>
       </c>
       <c r="C86" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="E86" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
     </row>
   </sheetData>
@@ -9311,10 +9247,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C00D37D-2BE6-4922-A4F7-4D4C5329FA01}">
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+    <sheetView topLeftCell="A69" workbookViewId="0">
       <selection activeCell="D87" sqref="D87"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9331,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C1" s="4"/>
     </row>
@@ -9351,10 +9286,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C3" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -9362,16 +9297,16 @@
         <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F5" s="21"/>
     </row>
@@ -9384,10 +9319,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -9399,10 +9334,10 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -9414,10 +9349,10 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -9429,7 +9364,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>75</v>
@@ -9444,10 +9379,10 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9459,13 +9394,13 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="F11" s="12"/>
     </row>
@@ -9478,10 +9413,10 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -9493,10 +9428,10 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="F13" s="22"/>
     </row>
@@ -9509,10 +9444,10 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9524,13 +9459,13 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="F15" s="12"/>
     </row>
@@ -9543,10 +9478,10 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -9558,10 +9493,10 @@
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9573,10 +9508,10 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9588,13 +9523,13 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F19" s="23"/>
     </row>
@@ -9607,13 +9542,13 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F20" s="23"/>
     </row>
@@ -9626,10 +9561,10 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9641,10 +9576,10 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9656,13 +9591,13 @@
         <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="F23" s="12"/>
     </row>
@@ -9675,10 +9610,10 @@
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -9690,10 +9625,10 @@
         <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -9705,10 +9640,10 @@
         <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -9720,10 +9655,10 @@
         <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -9735,10 +9670,10 @@
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -9750,10 +9685,10 @@
         <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -9765,13 +9700,13 @@
         <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="F30" s="23"/>
     </row>
@@ -9784,10 +9719,10 @@
         <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -9799,10 +9734,10 @@
         <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -9814,10 +9749,10 @@
         <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -9829,10 +9764,10 @@
         <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -9844,10 +9779,10 @@
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -9859,10 +9794,10 @@
         <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -9874,10 +9809,10 @@
         <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -9889,10 +9824,10 @@
         <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -9904,13 +9839,13 @@
         <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="F39" s="12"/>
     </row>
@@ -9923,13 +9858,13 @@
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="F40" s="12"/>
     </row>
@@ -9942,13 +9877,13 @@
         <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="F41" s="12"/>
     </row>
@@ -9961,10 +9896,10 @@
         <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -9976,13 +9911,13 @@
         <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="F43" s="12"/>
     </row>
@@ -9995,10 +9930,10 @@
         <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -10010,10 +9945,10 @@
         <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -10025,10 +9960,10 @@
         <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -10040,10 +9975,10 @@
         <v>42</v>
       </c>
       <c r="C47" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -10055,10 +9990,10 @@
         <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -10070,13 +10005,13 @@
         <v>44</v>
       </c>
       <c r="C49" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="F49" s="12"/>
     </row>
@@ -10089,10 +10024,10 @@
         <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="F50" s="12"/>
     </row>
@@ -10105,10 +10040,10 @@
         <v>46</v>
       </c>
       <c r="C51" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="F51" s="12"/>
     </row>
@@ -10121,10 +10056,10 @@
         <v>47</v>
       </c>
       <c r="C52" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="F52" s="12"/>
     </row>
@@ -10137,10 +10072,10 @@
         <v>48</v>
       </c>
       <c r="C53" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -10152,10 +10087,10 @@
         <v>49</v>
       </c>
       <c r="C54" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -10167,10 +10102,10 @@
         <v>50</v>
       </c>
       <c r="C55" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -10182,10 +10117,10 @@
         <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -10197,10 +10132,10 @@
         <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -10212,10 +10147,10 @@
         <v>53</v>
       </c>
       <c r="C58" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -10227,10 +10162,10 @@
         <v>54</v>
       </c>
       <c r="C59" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -10242,10 +10177,10 @@
         <v>55</v>
       </c>
       <c r="C60" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -10257,10 +10192,10 @@
         <v>56</v>
       </c>
       <c r="C61" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -10272,10 +10207,10 @@
         <v>57</v>
       </c>
       <c r="C62" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -10287,10 +10222,10 @@
         <v>58</v>
       </c>
       <c r="C63" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -10302,10 +10237,10 @@
         <v>59</v>
       </c>
       <c r="C64" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -10317,10 +10252,10 @@
         <v>60</v>
       </c>
       <c r="C65" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -10332,10 +10267,10 @@
         <v>61</v>
       </c>
       <c r="C66" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -10347,10 +10282,10 @@
         <v>62</v>
       </c>
       <c r="C67" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -10362,13 +10297,13 @@
         <v>63</v>
       </c>
       <c r="C68" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="E68" s="23" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F68" s="23"/>
     </row>
@@ -10381,10 +10316,10 @@
         <v>64</v>
       </c>
       <c r="C69" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="F69" s="23"/>
     </row>
@@ -10397,10 +10332,10 @@
         <v>65</v>
       </c>
       <c r="C70" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -10412,10 +10347,10 @@
         <v>66</v>
       </c>
       <c r="C71" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -10427,10 +10362,10 @@
         <v>67</v>
       </c>
       <c r="C72" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -10442,10 +10377,10 @@
         <v>68</v>
       </c>
       <c r="C73" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -10457,10 +10392,10 @@
         <v>69</v>
       </c>
       <c r="C74" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -10472,10 +10407,10 @@
         <v>70</v>
       </c>
       <c r="C75" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -10487,10 +10422,10 @@
         <v>71</v>
       </c>
       <c r="C76" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -10502,10 +10437,10 @@
         <v>72</v>
       </c>
       <c r="C77" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -10517,10 +10452,10 @@
         <v>73</v>
       </c>
       <c r="C78" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -10532,10 +10467,10 @@
         <v>74</v>
       </c>
       <c r="C79" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -10547,10 +10482,10 @@
         <v>75</v>
       </c>
       <c r="C80" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D80" s="23" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -10562,10 +10497,10 @@
         <v>76</v>
       </c>
       <c r="C81" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D81" s="23" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -10577,10 +10512,10 @@
         <v>77</v>
       </c>
       <c r="C82" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -10592,13 +10527,13 @@
         <v>78</v>
       </c>
       <c r="C83" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="E83" s="23" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -10610,13 +10545,13 @@
         <v>79</v>
       </c>
       <c r="C84" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="E84" s="23" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -10628,10 +10563,10 @@
         <v>80</v>
       </c>
       <c r="C85" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -10643,10 +10578,10 @@
         <v>81</v>
       </c>
       <c r="C86" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -10658,10 +10593,10 @@
         <v>82</v>
       </c>
       <c r="C87" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D87" s="23" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
     </row>
   </sheetData>
@@ -10677,9 +10612,6 @@
     <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="D77" sqref="D77"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="1">
-      <selection activeCell="D91" sqref="D91"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10694,7 +10626,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C1" s="4"/>
     </row>
@@ -10714,13 +10646,13 @@
         <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -10732,10 +10664,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D5" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -10747,10 +10679,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D6" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -10762,10 +10694,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -10777,10 +10709,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
+        <v>577</v>
+      </c>
+      <c r="D8" t="s">
         <v>581</v>
-      </c>
-      <c r="D8" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -10792,10 +10724,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D9" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -10807,10 +10739,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D10" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -10822,10 +10754,10 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D11" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -10837,10 +10769,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D12" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -10852,10 +10784,10 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D13" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -10867,10 +10799,10 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D14" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -10882,10 +10814,10 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D15" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -10897,10 +10829,10 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D16" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -10912,10 +10844,10 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D17" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -10927,10 +10859,10 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D18" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -10942,10 +10874,10 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D19" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -10957,10 +10889,10 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D20" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -10972,10 +10904,10 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D21" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -10987,10 +10919,10 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D22" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -11002,10 +10934,10 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D23" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -11017,10 +10949,10 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -11032,10 +10964,10 @@
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D25" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -11047,10 +10979,10 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D26" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -11062,10 +10994,10 @@
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D27" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -11077,10 +11009,10 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D28" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -11092,10 +11024,10 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D29" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -11107,10 +11039,10 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -11122,10 +11054,10 @@
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D31" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -11137,10 +11069,10 @@
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -11152,10 +11084,10 @@
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D33" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -11167,10 +11099,10 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -11182,10 +11114,10 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D35" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -11197,10 +11129,10 @@
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D36" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -11212,10 +11144,10 @@
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D37" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -11227,10 +11159,10 @@
         <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D38" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -11242,10 +11174,10 @@
         <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D39" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -11257,10 +11189,10 @@
         <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D40" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -11272,10 +11204,10 @@
         <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D41" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -11287,10 +11219,10 @@
         <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D42" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -11302,10 +11234,10 @@
         <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D43" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -11317,10 +11249,10 @@
         <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -11332,10 +11264,10 @@
         <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D45" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -11347,10 +11279,10 @@
         <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D46" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -11362,10 +11294,10 @@
         <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D47" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -11377,10 +11309,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D48" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -11392,10 +11324,10 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D49" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -11407,10 +11339,10 @@
         <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D50" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -11422,10 +11354,10 @@
         <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D51" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -11437,10 +11369,10 @@
         <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D52" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -11452,10 +11384,10 @@
         <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D53" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -11467,10 +11399,10 @@
         <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D54" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -11482,10 +11414,10 @@
         <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D55" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -11497,10 +11429,10 @@
         <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D56" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -11512,10 +11444,10 @@
         <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D57" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -11527,10 +11459,10 @@
         <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D58" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -11542,10 +11474,10 @@
         <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D59" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -11557,10 +11489,10 @@
         <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D60" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -11572,10 +11504,10 @@
         <v>57</v>
       </c>
       <c r="C61" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D61" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -11587,10 +11519,10 @@
         <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D62" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -11602,10 +11534,10 @@
         <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D63" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -11617,10 +11549,10 @@
         <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -11632,10 +11564,10 @@
         <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D65" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -11647,10 +11579,10 @@
         <v>62</v>
       </c>
       <c r="C66" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D66" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -11662,10 +11594,10 @@
         <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D67" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -11677,10 +11609,10 @@
         <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D68" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -11692,10 +11624,10 @@
         <v>65</v>
       </c>
       <c r="C69" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D69" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -11707,10 +11639,10 @@
         <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D70" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -11722,10 +11654,10 @@
         <v>67</v>
       </c>
       <c r="C71" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D71" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -11737,10 +11669,10 @@
         <v>68</v>
       </c>
       <c r="C72" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D72" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -11752,10 +11684,10 @@
         <v>69</v>
       </c>
       <c r="C73" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D73" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -11767,10 +11699,10 @@
         <v>70</v>
       </c>
       <c r="C74" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D74" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -11782,10 +11714,10 @@
         <v>71</v>
       </c>
       <c r="C75" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D75" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -11797,10 +11729,10 @@
         <v>72</v>
       </c>
       <c r="C76" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D76" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -11812,10 +11744,10 @@
         <v>73</v>
       </c>
       <c r="C77" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D77" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -11827,10 +11759,10 @@
         <v>74</v>
       </c>
       <c r="C78" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D78" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -11842,10 +11774,10 @@
         <v>75</v>
       </c>
       <c r="C79" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D79" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -11857,10 +11789,10 @@
         <v>76</v>
       </c>
       <c r="C80" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D80" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -11872,10 +11804,10 @@
         <v>77</v>
       </c>
       <c r="C81" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D81" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -11887,10 +11819,10 @@
         <v>78</v>
       </c>
       <c r="C82" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D82" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -11902,10 +11834,10 @@
         <v>79</v>
       </c>
       <c r="C83" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D83" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -11917,10 +11849,10 @@
         <v>80</v>
       </c>
       <c r="C84" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D84" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -11932,10 +11864,10 @@
         <v>81</v>
       </c>
       <c r="C85" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D85" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -11947,10 +11879,10 @@
         <v>82</v>
       </c>
       <c r="C86" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D86" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -11962,10 +11894,10 @@
         <v>83</v>
       </c>
       <c r="C87" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D87" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -11977,10 +11909,10 @@
         <v>84</v>
       </c>
       <c r="C88" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D88" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -11992,10 +11924,10 @@
         <v>85</v>
       </c>
       <c r="C89" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D89" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -12007,10 +11939,10 @@
         <v>86</v>
       </c>
       <c r="C90" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D90" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -12022,10 +11954,10 @@
         <v>87</v>
       </c>
       <c r="C91" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D91" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
     </row>
   </sheetData>
@@ -12042,7 +11974,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -12064,10 +11995,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C2" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -12075,13 +12006,13 @@
         <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -12093,10 +12024,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -12108,10 +12039,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -12123,10 +12054,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -12138,10 +12069,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
+        <v>658</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>662</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -12153,10 +12084,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -12168,10 +12099,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -12183,10 +12114,10 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -12206,7 +12137,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -12229,10 +12159,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C2" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -12240,13 +12170,13 @@
         <v>50</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -12258,10 +12188,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D5" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -12273,10 +12203,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D6" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -12288,10 +12218,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D7" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -12303,10 +12233,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D8" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -12318,10 +12248,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
+        <v>658</v>
+      </c>
+      <c r="D9" t="s">
         <v>662</v>
-      </c>
-      <c r="D9" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -12333,10 +12263,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D10" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -12348,10 +12278,10 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -12363,10 +12293,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D12" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -12378,10 +12308,10 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D13" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -12393,10 +12323,10 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D14" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -12408,10 +12338,10 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D15" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -12423,10 +12353,10 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D16" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -12438,10 +12368,10 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D17" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -12453,10 +12383,10 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D18" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -12472,7 +12402,6 @@
     <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="D86" sqref="D86"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -12507,13 +12436,13 @@
         <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -12525,10 +12454,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D5" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -12540,10 +12469,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D6" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -12555,10 +12484,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D7" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -12570,10 +12499,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
+        <v>680</v>
+      </c>
+      <c r="D8" t="s">
         <v>684</v>
-      </c>
-      <c r="D8" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -12585,10 +12514,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D9" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -12600,10 +12529,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D10" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -12615,10 +12544,10 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -12630,10 +12559,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D12" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -12645,10 +12574,10 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D13" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -12660,10 +12589,10 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D14" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -12675,10 +12604,10 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D15" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -12690,10 +12619,10 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D16" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -12705,10 +12634,10 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D17" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -12720,10 +12649,10 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -12735,10 +12664,10 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D19" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -12750,10 +12679,10 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D20" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -12765,10 +12694,10 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D21" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -12780,10 +12709,10 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D22" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -12795,10 +12724,10 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D23" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -12810,10 +12739,10 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D24" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -12825,10 +12754,10 @@
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D25" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -12840,10 +12769,10 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D26" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -12855,10 +12784,10 @@
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D27" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -12870,10 +12799,10 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D28" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -12885,10 +12814,10 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -12900,10 +12829,10 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D30" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -12915,10 +12844,10 @@
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D31" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -12930,10 +12859,10 @@
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D32" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -12945,10 +12874,10 @@
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D33" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -12960,10 +12889,10 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D34" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -12975,10 +12904,10 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D35" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -12990,10 +12919,10 @@
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D36" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -13005,10 +12934,10 @@
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D37" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -13020,10 +12949,10 @@
         <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D38" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -13035,10 +12964,10 @@
         <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D39" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -13050,10 +12979,10 @@
         <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -13065,10 +12994,10 @@
         <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D41" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -13080,10 +13009,10 @@
         <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D42" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -13095,10 +13024,10 @@
         <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D43" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -13110,10 +13039,10 @@
         <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D44" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -13125,10 +13054,10 @@
         <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D45" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -13140,10 +13069,10 @@
         <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D46" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -13155,10 +13084,10 @@
         <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D47" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -13170,10 +13099,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -13185,10 +13114,10 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -13200,10 +13129,10 @@
         <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -13215,10 +13144,10 @@
         <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -13230,10 +13159,10 @@
         <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D52" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -13245,10 +13174,10 @@
         <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D53" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -13260,10 +13189,10 @@
         <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -13275,10 +13204,10 @@
         <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D55" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -13290,10 +13219,10 @@
         <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D56" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -13305,10 +13234,10 @@
         <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D57" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -13320,10 +13249,10 @@
         <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D58" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -13335,10 +13264,10 @@
         <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -13350,10 +13279,10 @@
         <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D60" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -13365,10 +13294,10 @@
         <v>57</v>
       </c>
       <c r="C61" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D61" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -13380,10 +13309,10 @@
         <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D62" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -13395,10 +13324,10 @@
         <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D63" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -13410,10 +13339,10 @@
         <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D64" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -13425,10 +13354,10 @@
         <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -13440,10 +13369,10 @@
         <v>62</v>
       </c>
       <c r="C66" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -13455,10 +13384,10 @@
         <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D67" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -13470,10 +13399,10 @@
         <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -13485,10 +13414,10 @@
         <v>65</v>
       </c>
       <c r="C69" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D69" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -13500,10 +13429,10 @@
         <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -13515,10 +13444,10 @@
         <v>67</v>
       </c>
       <c r="C71" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D71" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -13530,10 +13459,10 @@
         <v>68</v>
       </c>
       <c r="C72" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D72" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -13545,10 +13474,10 @@
         <v>69</v>
       </c>
       <c r="C73" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -13560,10 +13489,10 @@
         <v>70</v>
       </c>
       <c r="C74" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D74" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -13575,10 +13504,10 @@
         <v>71</v>
       </c>
       <c r="C75" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D75" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -13590,10 +13519,10 @@
         <v>72</v>
       </c>
       <c r="C76" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D76" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -13605,10 +13534,10 @@
         <v>73</v>
       </c>
       <c r="C77" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -13620,10 +13549,10 @@
         <v>74</v>
       </c>
       <c r="C78" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D78" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -13635,10 +13564,10 @@
         <v>75</v>
       </c>
       <c r="C79" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D79" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -13650,10 +13579,10 @@
         <v>76</v>
       </c>
       <c r="C80" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D80" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -13665,10 +13594,10 @@
         <v>77</v>
       </c>
       <c r="C81" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D81" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -13680,10 +13609,10 @@
         <v>78</v>
       </c>
       <c r="C82" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D82" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -13695,10 +13624,10 @@
         <v>79</v>
       </c>
       <c r="C83" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D83" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -13710,10 +13639,10 @@
         <v>80</v>
       </c>
       <c r="C84" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D84" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -13725,10 +13654,10 @@
         <v>81</v>
       </c>
       <c r="C85" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D85" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -13740,10 +13669,10 @@
         <v>82</v>
       </c>
       <c r="C86" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D86" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
   </sheetData>
@@ -13759,7 +13688,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13783,10 +13711,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C2" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -13794,13 +13722,13 @@
         <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -13809,13 +13737,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/MIT</v>
       </c>
       <c r="B5" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="C5" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D5" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -13824,13 +13752,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/APACHE_2_0</v>
       </c>
       <c r="B6" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C6" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D6" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -13839,13 +13767,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/BSD_2_CLAUSE</v>
       </c>
       <c r="B7" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="C7" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D7" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -13854,13 +13782,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/BSD_3_CLAUSE</v>
       </c>
       <c r="B8" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="C8" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D8" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -13869,13 +13797,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/CC_BYNC_3_0</v>
       </c>
       <c r="B9" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="C9" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D9" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -13884,13 +13812,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/CC_BYSA_4_0</v>
       </c>
       <c r="B10" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="C10" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D10" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -13899,13 +13827,13 @@
         <v>http://spdx.org/licenses/CECILL-2.0</v>
       </c>
       <c r="B11" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C11" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D11" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -13914,13 +13842,13 @@
         <v>http://spdx.org/licenses/CECILL-C</v>
       </c>
       <c r="B12" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C12" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D12" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -13929,13 +13857,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/EUPL_1_2</v>
       </c>
       <c r="B13" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="C13" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D13" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -13944,13 +13872,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/AGPL_3_0</v>
       </c>
       <c r="B14" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="C14" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D14" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -13959,13 +13887,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/LGPL_2_1</v>
       </c>
       <c r="B15" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="C15" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D15" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -13974,13 +13902,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/LGPL_3_0</v>
       </c>
       <c r="B16" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C16" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D16" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -13989,13 +13917,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/GPL_2_0</v>
       </c>
       <c r="B17" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C17" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D17" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -14004,13 +13932,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/GPL_3_0</v>
       </c>
       <c r="B18" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C18" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D18" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -14019,13 +13947,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/ISC</v>
       </c>
       <c r="B19" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C19" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D19" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -14034,13 +13962,13 @@
         <v>http://publications.europa.eu/resource/authority/licence/MPL_1_1</v>
       </c>
       <c r="B20" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="C20" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D20" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -14049,13 +13977,13 @@
         <v>http://spdx.org/licenses/Unlicense</v>
       </c>
       <c r="B21" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="C21" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D21" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
   </sheetData>
@@ -14071,7 +13999,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -14092,10 +14019,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C2" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -14103,13 +14030,13 @@
         <v>50</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -14121,10 +14048,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="D5" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -14136,10 +14063,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="D6" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -14151,10 +14078,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="D7" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -14166,10 +14093,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="D8" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -14181,10 +14108,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
+        <v>789</v>
+      </c>
+      <c r="D9" t="s">
         <v>793</v>
-      </c>
-      <c r="D9" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -14196,10 +14123,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="D10" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -14211,10 +14138,10 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="D11" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -14226,10 +14153,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="D12" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -14241,10 +14168,10 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="D13" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
     </row>
   </sheetData>
@@ -14256,6 +14183,22 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="21f64c02-1f20-443d-801b-ae17df5c4a0a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bf3f9575-65b8-4549-b389-33a18b8943d7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007AEFB2A585EFEB438A74F703037745A4" ma:contentTypeVersion="22" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="066928f5f756ae6a0953337b70a1faf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf3f9575-65b8-4549-b389-33a18b8943d7" xmlns:ns3="21f64c02-1f20-443d-801b-ae17df5c4a0a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a35f3283c960054123670de2c4a4632" ns2:_="" ns3:_="">
     <xsd:import namespace="bf3f9575-65b8-4549-b389-33a18b8943d7"/>
@@ -14510,37 +14453,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="21f64c02-1f20-443d-801b-ae17df5c4a0a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bf3f9575-65b8-4549-b389-33a18b8943d7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1435F584-9511-4912-AF17-F83A08F28CE8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{164C3F70-F822-4EF6-AEFF-DC1ABB56CF75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bf3f9575-65b8-4549-b389-33a18b8943d7"/>
-    <ds:schemaRef ds:uri="21f64c02-1f20-443d-801b-ae17df5c4a0a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14563,9 +14479,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{164C3F70-F822-4EF6-AEFF-DC1ABB56CF75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1435F584-9511-4912-AF17-F83A08F28CE8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bf3f9575-65b8-4549-b389-33a18b8943d7"/>
+    <ds:schemaRef ds:uri="21f64c02-1f20-443d-801b-ae17df5c4a0a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/tools.xlsx
+++ b/tools.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aschiltz003\Documents\GitHub\Semantic-Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FE81D1-94E1-4527-889A-676511DB15A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204B172B-D6CA-43F3-8853-ABB9C681EAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{AFCE36E2-F631-4322-AF27-256B8B7C0B04}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{AFCE36E2-F631-4322-AF27-256B8B7C0B04}"/>
   </bookViews>
   <sheets>
     <sheet name="Tool" sheetId="2" r:id="rId1"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="948">
   <si>
     <t>ConceptScheme URI</t>
   </si>
@@ -2927,6 +2927,27 @@
   </si>
   <si>
     <t>DataSpecification:73,DataSpecification:27,DataSpecification:38,DataSpecification:39,DataSpecification:56,DataSpecification:82</t>
+  </si>
+  <si>
+    <t>RDF Generator</t>
+  </si>
+  <si>
+    <t>A Python package that can be used to generate RDF graphs based on SHACL constraints.</t>
+  </si>
+  <si>
+    <t>https://github.com/mveco/RDF_generator</t>
+  </si>
+  <si>
+    <t>source:83</t>
+  </si>
+  <si>
+    <t>https://example.com/SoftCon/83</t>
+  </si>
+  <si>
+    <t>1.0.8</t>
+  </si>
+  <si>
+    <t>DataSpecification:53,DataSpecification:83</t>
   </si>
 </sst>
 </file>
@@ -3458,10 +3479,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E901194B-12F3-43EA-8282-C97AC613BB27}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O109"/>
+  <dimension ref="A1:O110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98:XFD98"/>
+    <sheetView tabSelected="1" topLeftCell="E102" workbookViewId="0">
+      <selection activeCell="N109" sqref="N109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7571,6 +7592,49 @@
       <c r="N109" s="24" t="str">
         <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B86)</f>
         <v>SoftVer:82</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A110" s="24" t="str">
+        <f t="shared" ref="A110" si="6">_xlfn.CONCAT("https://example.com/tool/",B110)</f>
+        <v>https://example.com/tool/83</v>
+      </c>
+      <c r="B110" s="24">
+        <v>83</v>
+      </c>
+      <c r="C110" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D110" s="24" t="s">
+        <v>941</v>
+      </c>
+      <c r="E110" s="24" t="s">
+        <v>942</v>
+      </c>
+      <c r="F110" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G110" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="I110" s="31" t="s">
+        <v>944</v>
+      </c>
+      <c r="J110" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="K110" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L110" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="M110" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="N110" s="24" t="str">
+        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B87)</f>
+        <v>SoftVer:83</v>
       </c>
     </row>
   </sheetData>
@@ -7706,10 +7770,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196F26FF-2DFA-4E7A-9BE4-6EAD0F66898D}">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9233,6 +9297,24 @@
         <v>929</v>
       </c>
     </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="str">
+        <f t="shared" ref="A87" si="5">_xlfn.CONCAT("https://example.com/SoftVer/",B87)</f>
+        <v>https://example.com/SoftVer/83</v>
+      </c>
+      <c r="B87">
+        <v>83</v>
+      </c>
+      <c r="C87" t="s">
+        <v>424</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>946</v>
+      </c>
+      <c r="E87" t="s">
+        <v>945</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -9245,10 +9327,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C00D37D-2BE6-4922-A4F7-4D4C5329FA01}">
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10599,6 +10681,24 @@
         <v>940</v>
       </c>
     </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="str">
+        <f t="shared" ref="A88" si="5">_xlfn.CONCAT("https://example.com/SoftCon/",B88)</f>
+        <v>https://example.com/SoftCon/83</v>
+      </c>
+      <c r="B88">
+        <v>83</v>
+      </c>
+      <c r="C88" t="s">
+        <v>574</v>
+      </c>
+      <c r="D88" s="23" t="s">
+        <v>947</v>
+      </c>
+      <c r="E88" s="23" t="s">
+        <v>834</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -10609,8 +10709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77F4F05-CC8F-47F5-BAFC-4EC2DFFDAC8A}">
   <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12397,10 +12497,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D390BFC-9D07-4275-B941-A9803FF5EDFC}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13673,6 +13773,21 @@
       </c>
       <c r="D86" t="s">
         <v>935</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="str">
+        <f t="shared" ref="A87" si="6">_xlfn.CONCAT("https://example.com/SourceCode/",B87)</f>
+        <v>https://example.com/SourceCode/83</v>
+      </c>
+      <c r="B87">
+        <v>83</v>
+      </c>
+      <c r="C87" t="s">
+        <v>680</v>
+      </c>
+      <c r="D87" t="s">
+        <v>943</v>
       </c>
     </row>
   </sheetData>
@@ -14183,22 +14298,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="21f64c02-1f20-443d-801b-ae17df5c4a0a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bf3f9575-65b8-4549-b389-33a18b8943d7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007AEFB2A585EFEB438A74F703037745A4" ma:contentTypeVersion="22" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="066928f5f756ae6a0953337b70a1faf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf3f9575-65b8-4549-b389-33a18b8943d7" xmlns:ns3="21f64c02-1f20-443d-801b-ae17df5c4a0a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a35f3283c960054123670de2c4a4632" ns2:_="" ns3:_="">
     <xsd:import namespace="bf3f9575-65b8-4549-b389-33a18b8943d7"/>
@@ -14453,10 +14552,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="21f64c02-1f20-443d-801b-ae17df5c4a0a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bf3f9575-65b8-4549-b389-33a18b8943d7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{164C3F70-F822-4EF6-AEFF-DC1ABB56CF75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1435F584-9511-4912-AF17-F83A08F28CE8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bf3f9575-65b8-4549-b389-33a18b8943d7"/>
+    <ds:schemaRef ds:uri="21f64c02-1f20-443d-801b-ae17df5c4a0a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14479,20 +14605,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1435F584-9511-4912-AF17-F83A08F28CE8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{164C3F70-F822-4EF6-AEFF-DC1ABB56CF75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bf3f9575-65b8-4549-b389-33a18b8943d7"/>
-    <ds:schemaRef ds:uri="21f64c02-1f20-443d-801b-ae17df5c4a0a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/tools.xlsx
+++ b/tools.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aschiltz003\Documents\GitHub\Semantic-Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204B172B-D6CA-43F3-8853-ABB9C681EAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C417DD6C-6849-45EE-90DB-7DEC2396820A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{AFCE36E2-F631-4322-AF27-256B8B7C0B04}"/>
+    <workbookView xWindow="-4044" yWindow="-17388" windowWidth="30936" windowHeight="16776" xr2:uid="{AFCE36E2-F631-4322-AF27-256B8B7C0B04}"/>
   </bookViews>
   <sheets>
     <sheet name="Tool" sheetId="2" r:id="rId1"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="955">
   <si>
     <t>ConceptScheme URI</t>
   </si>
@@ -2948,6 +2948,27 @@
   </si>
   <si>
     <t>DataSpecification:53,DataSpecification:83</t>
+  </si>
+  <si>
+    <t>ViziQuer</t>
+  </si>
+  <si>
+    <t>ViziQuer is a tool for visual exploration and queries over large RDF datasets. It allows users to visually construct and execute rich SPARQL queries.</t>
+  </si>
+  <si>
+    <t>http://viziquer.lumii.lv/</t>
+  </si>
+  <si>
+    <t>0.4.0</t>
+  </si>
+  <si>
+    <t>https://example.com/SoftCon/84</t>
+  </si>
+  <si>
+    <t>https://github.com/LUMII-Syslab/viziquer</t>
+  </si>
+  <si>
+    <t>source:84</t>
   </si>
 </sst>
 </file>
@@ -3479,10 +3500,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E901194B-12F3-43EA-8282-C97AC613BB27}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O110"/>
+  <dimension ref="A1:O111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E102" workbookViewId="0">
-      <selection activeCell="N109" sqref="N109"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="I110" sqref="I110:I111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7635,6 +7656,49 @@
       <c r="N110" s="24" t="str">
         <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B87)</f>
         <v>SoftVer:83</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A111" s="24" t="str">
+        <f t="shared" ref="A111" si="7">_xlfn.CONCAT("https://example.com/tool/",B111)</f>
+        <v>https://example.com/tool/84</v>
+      </c>
+      <c r="B111" s="24">
+        <v>84</v>
+      </c>
+      <c r="C111" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D111" s="24" t="s">
+        <v>948</v>
+      </c>
+      <c r="E111" s="24" t="s">
+        <v>949</v>
+      </c>
+      <c r="F111" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="G111" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="H111" s="24" t="s">
+        <v>950</v>
+      </c>
+      <c r="I111" s="31" t="s">
+        <v>954</v>
+      </c>
+      <c r="J111" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K111" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="M111" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="N111" s="24" t="str">
+        <f>_xlfn.CONCAT("SoftVer:",sdSoftwareVersion!B88)</f>
+        <v>SoftVer:84</v>
       </c>
     </row>
   </sheetData>
@@ -7770,10 +7834,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196F26FF-2DFA-4E7A-9BE4-6EAD0F66898D}">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+      <selection activeCell="E87" sqref="E87:E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9315,6 +9379,24 @@
         <v>945</v>
       </c>
     </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="str">
+        <f t="shared" ref="A88" si="6">_xlfn.CONCAT("https://example.com/SoftVer/",B88)</f>
+        <v>https://example.com/SoftVer/84</v>
+      </c>
+      <c r="B88">
+        <v>84</v>
+      </c>
+      <c r="C88" t="s">
+        <v>424</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>951</v>
+      </c>
+      <c r="E88" t="s">
+        <v>952</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -9327,10 +9409,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C00D37D-2BE6-4922-A4F7-4D4C5329FA01}">
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10699,6 +10781,21 @@
         <v>834</v>
       </c>
     </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="str">
+        <f t="shared" ref="A89" si="6">_xlfn.CONCAT("https://example.com/SoftCon/",B89)</f>
+        <v>https://example.com/SoftCon/84</v>
+      </c>
+      <c r="B89">
+        <v>84</v>
+      </c>
+      <c r="C89" t="s">
+        <v>574</v>
+      </c>
+      <c r="D89" s="23" t="s">
+        <v>817</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -10710,7 +10807,7 @@
   <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12497,10 +12594,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D390BFC-9D07-4275-B941-A9803FF5EDFC}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13788,6 +13885,21 @@
       </c>
       <c r="D87" t="s">
         <v>943</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="str">
+        <f t="shared" ref="A88" si="7">_xlfn.CONCAT("https://example.com/SourceCode/",B88)</f>
+        <v>https://example.com/SourceCode/84</v>
+      </c>
+      <c r="B88">
+        <v>84</v>
+      </c>
+      <c r="C88" t="s">
+        <v>680</v>
+      </c>
+      <c r="D88" t="s">
+        <v>953</v>
       </c>
     </row>
   </sheetData>
@@ -14298,6 +14410,22 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="21f64c02-1f20-443d-801b-ae17df5c4a0a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bf3f9575-65b8-4549-b389-33a18b8943d7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007AEFB2A585EFEB438A74F703037745A4" ma:contentTypeVersion="22" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="066928f5f756ae6a0953337b70a1faf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf3f9575-65b8-4549-b389-33a18b8943d7" xmlns:ns3="21f64c02-1f20-443d-801b-ae17df5c4a0a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a35f3283c960054123670de2c4a4632" ns2:_="" ns3:_="">
     <xsd:import namespace="bf3f9575-65b8-4549-b389-33a18b8943d7"/>
@@ -14552,37 +14680,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="21f64c02-1f20-443d-801b-ae17df5c4a0a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bf3f9575-65b8-4549-b389-33a18b8943d7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1435F584-9511-4912-AF17-F83A08F28CE8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{164C3F70-F822-4EF6-AEFF-DC1ABB56CF75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bf3f9575-65b8-4549-b389-33a18b8943d7"/>
-    <ds:schemaRef ds:uri="21f64c02-1f20-443d-801b-ae17df5c4a0a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14605,9 +14706,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{164C3F70-F822-4EF6-AEFF-DC1ABB56CF75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1435F584-9511-4912-AF17-F83A08F28CE8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bf3f9575-65b8-4549-b389-33a18b8943d7"/>
+    <ds:schemaRef ds:uri="21f64c02-1f20-443d-801b-ae17df5c4a0a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>